--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/pages/api/score/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9D2548-93B4-044C-9EEE-800413EA0CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060B407A-5066-1C42-9DE5-C773C96DAA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="760" windowWidth="27860" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5924,8 +5924,8 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F759" sqref="F759"/>
+      <pane ySplit="4" topLeftCell="A732" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E756" sqref="E756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -38644,32 +38644,18 @@
       </c>
       <c r="B706" s="1"/>
       <c r="C706" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D706" s="13">
-        <v>640</v>
-      </c>
-      <c r="E706" s="13">
-        <v>635</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="D706" s="13"/>
+      <c r="E706" s="13"/>
       <c r="F706" s="17"/>
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
       <c r="I706" s="1"/>
-      <c r="J706" s="1">
-        <v>640</v>
-      </c>
-      <c r="K706" s="1">
-        <v>635</v>
-      </c>
-      <c r="L706" s="14">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M706" s="14">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
+      <c r="J706" s="1"/>
+      <c r="K706" s="1"/>
+      <c r="L706" s="14"/>
+      <c r="M706" s="14"/>
       <c r="N706" s="1"/>
       <c r="O706" s="1"/>
       <c r="P706" s="1"/>
@@ -40847,7 +40833,7 @@
         <v>660</v>
       </c>
       <c r="E755" s="105">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="F755" s="17"/>
       <c r="G755" s="1"/>
@@ -40865,7 +40851,7 @@
       </c>
       <c r="M755" s="116">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="N755" s="1"/>
       <c r="O755" s="1"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060B407A-5066-1C42-9DE5-C773C96DAA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3B46DD-3EA8-604E-8B63-C112571363F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="760" windowWidth="27860" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5924,8 +5924,8 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A732" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E756" sqref="E756"/>
+      <pane ySplit="4" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D314" sqref="D314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20554,7 +20554,7 @@
         <v>437</v>
       </c>
       <c r="D313" s="13">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E313" s="13">
         <v>600</v>
@@ -20571,7 +20571,7 @@
       </c>
       <c r="L313" s="14">
         <f t="shared" si="8"/>
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="M313" s="14">
         <f t="shared" si="9"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3B46DD-3EA8-604E-8B63-C112571363F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D9FDAF-243A-0B46-BB14-337F72683590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="760" windowWidth="27860" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="1321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="1321">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5924,8 +5924,8 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D314" sqref="D314"/>
+      <pane ySplit="4" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16464,7 +16464,7 @@
         <v>650</v>
       </c>
       <c r="E226" s="13">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="F226" s="21" t="s">
         <v>287</v>
@@ -16486,7 +16486,7 @@
       </c>
       <c r="M226" s="14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
@@ -19061,34 +19061,18 @@
       </c>
       <c r="B281" s="14"/>
       <c r="C281" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D281" s="13">
-        <v>650</v>
-      </c>
-      <c r="E281" s="13">
-        <v>645</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="D281" s="13"/>
+      <c r="E281" s="13"/>
       <c r="F281" s="15"/>
-      <c r="G281" s="12" t="s">
-        <v>152</v>
-      </c>
+      <c r="G281" s="12"/>
       <c r="H281" s="14"/>
       <c r="I281" s="14"/>
-      <c r="J281" s="16">
-        <v>650</v>
-      </c>
-      <c r="K281" s="16">
-        <v>645</v>
-      </c>
-      <c r="L281" s="14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M281" s="14">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="J281" s="16"/>
+      <c r="K281" s="16"/>
+      <c r="L281" s="14"/>
+      <c r="M281" s="14"/>
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B122C7-1178-E44D-A436-133F40DFF193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC66EE70-64C6-644A-B9FB-7319416E8FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14680" yWindow="760" windowWidth="16480" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="1572">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -4443,9 +4443,6 @@
     <t>Tấn Elip</t>
   </si>
   <si>
-    <t>Ninh Lovear</t>
-  </si>
-  <si>
     <t>Phúc Bình Lợi</t>
   </si>
   <si>
@@ -4626,9 +4623,6 @@
     <t>Lâm E&amp;A</t>
   </si>
   <si>
-    <t>Hận 5Saomap</t>
-  </si>
-  <si>
     <t>Tuấn Bình Lợi</t>
   </si>
   <si>
@@ -4744,6 +4738,18 @@
   </si>
   <si>
     <t>Phúc Lộc</t>
+  </si>
+  <si>
+    <t>Ninh Lovera</t>
+  </si>
+  <si>
+    <t>Huy Q12</t>
+  </si>
+  <si>
+    <t>0902578811</t>
+  </si>
+  <si>
+    <t>Hận Map5sao</t>
   </si>
 </sst>
 </file>
@@ -5371,26 +5377,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5417,23 +5403,33 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bình thường 2" xfId="2" xr:uid="{2DBE829A-806A-A246-9A23-241A22DA22A4}"/>
     <cellStyle name="Bình thường 3" xfId="1" xr:uid="{ABA3F074-F600-1940-87D2-1B8571A799F2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6643,9 +6639,9 @@
   <dimension ref="A1:N998"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A881" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A919" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="D896" sqref="D896"/>
+      <selection pane="bottomLeft" activeCell="C966" sqref="C966:F966"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6662,15 +6658,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -6680,15 +6676,15 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -6723,10 +6719,10 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="123"/>
+      <c r="E4" s="137"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -6768,7 +6764,7 @@
       <c r="B6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="95">
@@ -6794,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="84"/>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="120" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="96">
@@ -6822,7 +6818,7 @@
       <c r="B8" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="128" t="s">
+      <c r="C8" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="95">
@@ -6850,7 +6846,7 @@
       <c r="B9" s="84" t="s">
         <v>1084</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="120" t="s">
         <v>1084</v>
       </c>
       <c r="D9" s="97">
@@ -6878,7 +6874,7 @@
       <c r="B10" s="84" t="s">
         <v>1085</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="120" t="s">
         <v>1085</v>
       </c>
       <c r="D10" s="95">
@@ -6904,7 +6900,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="84"/>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="120" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="97">
@@ -6928,7 +6924,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="84"/>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="120" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="97">
@@ -6952,7 +6948,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="84"/>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="120" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="95">
@@ -6978,7 +6974,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="84"/>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="120" t="s">
         <v>1086</v>
       </c>
       <c r="D14" s="97">
@@ -7004,7 +7000,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="84"/>
-      <c r="C15" s="128" t="s">
+      <c r="C15" s="120" t="s">
         <v>1087</v>
       </c>
       <c r="D15" s="95">
@@ -7028,7 +7024,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="84"/>
-      <c r="C16" s="128" t="s">
+      <c r="C16" s="120" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="98">
@@ -7052,7 +7048,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="84"/>
-      <c r="C17" s="128" t="s">
+      <c r="C17" s="120" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="97">
@@ -7076,7 +7072,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="84"/>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="120" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="97">
@@ -7100,7 +7096,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="84"/>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="120" t="s">
         <v>1088</v>
       </c>
       <c r="D19" s="97">
@@ -7126,7 +7122,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="84"/>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="120" t="s">
         <v>1089</v>
       </c>
       <c r="D20" s="97">
@@ -7152,7 +7148,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="84"/>
-      <c r="C21" s="128" t="s">
+      <c r="C21" s="120" t="s">
         <v>1090</v>
       </c>
       <c r="D21" s="97">
@@ -7178,7 +7174,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="84"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="120" t="s">
         <v>1091</v>
       </c>
       <c r="D22" s="97">
@@ -7206,7 +7202,7 @@
       <c r="B23" s="84" t="s">
         <v>1092</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="120" t="s">
         <v>1092</v>
       </c>
       <c r="D23" s="98">
@@ -7232,7 +7228,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="84"/>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="120" t="s">
         <v>1093</v>
       </c>
       <c r="D24" s="97">
@@ -7258,7 +7254,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="84"/>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="120" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="97">
@@ -7284,7 +7280,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="85"/>
-      <c r="C26" s="128" t="s">
+      <c r="C26" s="120" t="s">
         <v>1094</v>
       </c>
       <c r="D26" s="96">
@@ -7308,7 +7304,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="84"/>
-      <c r="C27" s="128" t="s">
+      <c r="C27" s="120" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="95">
@@ -7334,7 +7330,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="84"/>
-      <c r="C28" s="128" t="s">
+      <c r="C28" s="120" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="97">
@@ -7358,7 +7354,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="84"/>
-      <c r="C29" s="128" t="s">
+      <c r="C29" s="120" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="97">
@@ -7384,7 +7380,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="84"/>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="120" t="s">
         <v>1029</v>
       </c>
       <c r="D30" s="97">
@@ -7410,7 +7406,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="84"/>
-      <c r="C31" s="128" t="s">
+      <c r="C31" s="120" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="97">
@@ -7436,7 +7432,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="84"/>
-      <c r="C32" s="128" t="s">
+      <c r="C32" s="120" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="96">
@@ -7460,7 +7456,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="84"/>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="120" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="97">
@@ -7486,7 +7482,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="84"/>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="120" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="96">
@@ -7510,7 +7506,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="84"/>
-      <c r="C35" s="128" t="s">
+      <c r="C35" s="120" t="s">
         <v>1095</v>
       </c>
       <c r="D35" s="97">
@@ -7536,7 +7532,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="84"/>
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="120" t="s">
         <v>1096</v>
       </c>
       <c r="D36" s="96">
@@ -7562,7 +7558,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="84"/>
-      <c r="C37" s="128" t="s">
+      <c r="C37" s="120" t="s">
         <v>1097</v>
       </c>
       <c r="D37" s="97">
@@ -7586,7 +7582,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="84"/>
-      <c r="C38" s="128" t="s">
+      <c r="C38" s="120" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="97">
@@ -7612,7 +7608,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="84"/>
-      <c r="C39" s="128" t="s">
+      <c r="C39" s="120" t="s">
         <v>51</v>
       </c>
       <c r="D39" s="95">
@@ -7636,7 +7632,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="84"/>
-      <c r="C40" s="128" t="s">
+      <c r="C40" s="120" t="s">
         <v>52</v>
       </c>
       <c r="D40" s="95">
@@ -7660,7 +7656,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="84"/>
-      <c r="C41" s="128" t="s">
+      <c r="C41" s="120" t="s">
         <v>1098</v>
       </c>
       <c r="D41" s="97">
@@ -7686,7 +7682,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="84"/>
-      <c r="C42" s="128" t="s">
+      <c r="C42" s="120" t="s">
         <v>1099</v>
       </c>
       <c r="D42" s="97">
@@ -7712,7 +7708,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="84"/>
-      <c r="C43" s="128" t="s">
+      <c r="C43" s="120" t="s">
         <v>55</v>
       </c>
       <c r="D43" s="97">
@@ -7736,7 +7732,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="84"/>
-      <c r="C44" s="128" t="s">
+      <c r="C44" s="120" t="s">
         <v>1100</v>
       </c>
       <c r="D44" s="97">
@@ -7760,7 +7756,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="84"/>
-      <c r="C45" s="128" t="s">
+      <c r="C45" s="120" t="s">
         <v>56</v>
       </c>
       <c r="D45" s="97">
@@ -7784,7 +7780,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="84"/>
-      <c r="C46" s="128" t="s">
+      <c r="C46" s="120" t="s">
         <v>1432</v>
       </c>
       <c r="D46" s="97">
@@ -7808,7 +7804,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="84"/>
-      <c r="C47" s="128" t="s">
+      <c r="C47" s="120" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="97">
@@ -7834,7 +7830,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="84"/>
-      <c r="C48" s="128" t="s">
+      <c r="C48" s="120" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="97">
@@ -7860,7 +7856,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="84"/>
-      <c r="C49" s="128" t="s">
+      <c r="C49" s="120" t="s">
         <v>61</v>
       </c>
       <c r="D49" s="97">
@@ -7886,7 +7882,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="84"/>
-      <c r="C50" s="128" t="s">
+      <c r="C50" s="120" t="s">
         <v>63</v>
       </c>
       <c r="D50" s="97">
@@ -7910,7 +7906,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="84"/>
-      <c r="C51" s="128" t="s">
+      <c r="C51" s="120" t="s">
         <v>64</v>
       </c>
       <c r="D51" s="97">
@@ -7934,7 +7930,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="84"/>
-      <c r="C52" s="128" t="s">
+      <c r="C52" s="120" t="s">
         <v>65</v>
       </c>
       <c r="D52" s="97">
@@ -7958,7 +7954,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="84"/>
-      <c r="C53" s="128" t="s">
+      <c r="C53" s="120" t="s">
         <v>66</v>
       </c>
       <c r="D53" s="97">
@@ -7982,7 +7978,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="84"/>
-      <c r="C54" s="128" t="s">
+      <c r="C54" s="120" t="s">
         <v>67</v>
       </c>
       <c r="D54" s="97">
@@ -8008,7 +8004,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="84"/>
-      <c r="C55" s="128" t="s">
+      <c r="C55" s="120" t="s">
         <v>1101</v>
       </c>
       <c r="D55" s="97">
@@ -8032,7 +8028,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="84"/>
-      <c r="C56" s="128" t="s">
+      <c r="C56" s="120" t="s">
         <v>1433</v>
       </c>
       <c r="D56" s="95">
@@ -8056,7 +8052,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="84"/>
-      <c r="C57" s="128" t="s">
+      <c r="C57" s="120" t="s">
         <v>69</v>
       </c>
       <c r="D57" s="97">
@@ -8080,7 +8076,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="84"/>
-      <c r="C58" s="128" t="s">
+      <c r="C58" s="120" t="s">
         <v>1102</v>
       </c>
       <c r="D58" s="96">
@@ -8104,7 +8100,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="84"/>
-      <c r="C59" s="128" t="s">
+      <c r="C59" s="120" t="s">
         <v>1103</v>
       </c>
       <c r="D59" s="97">
@@ -8130,7 +8126,7 @@
       <c r="B60" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="128" t="s">
+      <c r="C60" s="120" t="s">
         <v>70</v>
       </c>
       <c r="D60" s="97">
@@ -8158,7 +8154,7 @@
       <c r="B61" s="84" t="s">
         <v>1104</v>
       </c>
-      <c r="C61" s="128" t="s">
+      <c r="C61" s="120" t="s">
         <v>1104</v>
       </c>
       <c r="D61" s="97">
@@ -8184,7 +8180,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="84"/>
-      <c r="C62" s="129" t="s">
+      <c r="C62" s="121" t="s">
         <v>283</v>
       </c>
       <c r="D62" s="97">
@@ -8210,7 +8206,7 @@
       <c r="B63" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="128" t="s">
+      <c r="C63" s="120" t="s">
         <v>73</v>
       </c>
       <c r="D63" s="97">
@@ -8236,7 +8232,7 @@
       <c r="B64" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="128" t="s">
+      <c r="C64" s="120" t="s">
         <v>74</v>
       </c>
       <c r="D64" s="95">
@@ -8262,7 +8258,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="84"/>
-      <c r="C65" s="128" t="s">
+      <c r="C65" s="120" t="s">
         <v>1362</v>
       </c>
       <c r="D65" s="95">
@@ -8286,7 +8282,7 @@
         <v>61</v>
       </c>
       <c r="B66" s="84"/>
-      <c r="C66" s="128" t="s">
+      <c r="C66" s="120" t="s">
         <v>76</v>
       </c>
       <c r="D66" s="97">
@@ -8312,7 +8308,7 @@
       <c r="B67" s="84" t="s">
         <v>1105</v>
       </c>
-      <c r="C67" s="128" t="s">
+      <c r="C67" s="120" t="s">
         <v>1105</v>
       </c>
       <c r="D67" s="95">
@@ -8336,7 +8332,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="84"/>
-      <c r="C68" s="128" t="s">
+      <c r="C68" s="120" t="s">
         <v>77</v>
       </c>
       <c r="D68" s="97">
@@ -8362,7 +8358,7 @@
       <c r="B69" s="84" t="s">
         <v>1106</v>
       </c>
-      <c r="C69" s="128" t="s">
+      <c r="C69" s="120" t="s">
         <v>1106</v>
       </c>
       <c r="D69" s="97">
@@ -8388,7 +8384,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="84"/>
-      <c r="C70" s="130" t="s">
+      <c r="C70" s="122" t="s">
         <v>79</v>
       </c>
       <c r="D70" s="95">
@@ -8414,7 +8410,7 @@
         <v>66</v>
       </c>
       <c r="B71" s="84"/>
-      <c r="C71" s="128" t="s">
+      <c r="C71" s="120" t="s">
         <v>81</v>
       </c>
       <c r="D71" s="97">
@@ -8438,7 +8434,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="84"/>
-      <c r="C72" s="128" t="s">
+      <c r="C72" s="120" t="s">
         <v>82</v>
       </c>
       <c r="D72" s="97">
@@ -8464,7 +8460,7 @@
         <v>68</v>
       </c>
       <c r="B73" s="84"/>
-      <c r="C73" s="128" t="s">
+      <c r="C73" s="120" t="s">
         <v>84</v>
       </c>
       <c r="D73" s="97">
@@ -8490,7 +8486,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="84"/>
-      <c r="C74" s="129" t="s">
+      <c r="C74" s="121" t="s">
         <v>86</v>
       </c>
       <c r="D74" s="97">
@@ -8516,7 +8512,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="84"/>
-      <c r="C75" s="128" t="s">
+      <c r="C75" s="120" t="s">
         <v>88</v>
       </c>
       <c r="D75" s="97">
@@ -8542,7 +8538,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="84"/>
-      <c r="C76" s="128" t="s">
+      <c r="C76" s="120" t="s">
         <v>1107</v>
       </c>
       <c r="D76" s="97">
@@ -8568,7 +8564,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="84"/>
-      <c r="C77" s="128" t="s">
+      <c r="C77" s="120" t="s">
         <v>91</v>
       </c>
       <c r="D77" s="97">
@@ -8592,7 +8588,7 @@
         <v>73</v>
       </c>
       <c r="B78" s="84"/>
-      <c r="C78" s="128" t="s">
+      <c r="C78" s="120" t="s">
         <v>92</v>
       </c>
       <c r="D78" s="95">
@@ -8618,7 +8614,7 @@
         <v>74</v>
       </c>
       <c r="B79" s="84"/>
-      <c r="C79" s="128" t="s">
+      <c r="C79" s="120" t="s">
         <v>94</v>
       </c>
       <c r="D79" s="97">
@@ -8642,7 +8638,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="84"/>
-      <c r="C80" s="128" t="s">
+      <c r="C80" s="120" t="s">
         <v>1108</v>
       </c>
       <c r="D80" s="95">
@@ -8668,7 +8664,7 @@
         <v>76</v>
       </c>
       <c r="B81" s="84"/>
-      <c r="C81" s="128" t="s">
+      <c r="C81" s="120" t="s">
         <v>96</v>
       </c>
       <c r="D81" s="97">
@@ -8694,7 +8690,7 @@
         <v>77</v>
       </c>
       <c r="B82" s="84"/>
-      <c r="C82" s="128" t="s">
+      <c r="C82" s="120" t="s">
         <v>1109</v>
       </c>
       <c r="D82" s="97">
@@ -8720,7 +8716,7 @@
         <v>78</v>
       </c>
       <c r="B83" s="84"/>
-      <c r="C83" s="128" t="s">
+      <c r="C83" s="120" t="s">
         <v>99</v>
       </c>
       <c r="D83" s="97">
@@ -8744,7 +8740,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="84"/>
-      <c r="C84" s="128" t="s">
+      <c r="C84" s="120" t="s">
         <v>1110</v>
       </c>
       <c r="D84" s="97">
@@ -8768,7 +8764,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="84"/>
-      <c r="C85" s="128" t="s">
+      <c r="C85" s="120" t="s">
         <v>1111</v>
       </c>
       <c r="D85" s="97">
@@ -8792,7 +8788,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="84"/>
-      <c r="C86" s="128" t="s">
+      <c r="C86" s="120" t="s">
         <v>1112</v>
       </c>
       <c r="D86" s="97">
@@ -8818,7 +8814,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="84"/>
-      <c r="C87" s="128" t="s">
+      <c r="C87" s="120" t="s">
         <v>101</v>
       </c>
       <c r="D87" s="96">
@@ -8844,7 +8840,7 @@
         <v>83</v>
       </c>
       <c r="B88" s="84"/>
-      <c r="C88" s="128" t="s">
+      <c r="C88" s="120" t="s">
         <v>103</v>
       </c>
       <c r="D88" s="97">
@@ -8870,7 +8866,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="84"/>
-      <c r="C89" s="128" t="s">
+      <c r="C89" s="120" t="s">
         <v>105</v>
       </c>
       <c r="D89" s="97">
@@ -8896,7 +8892,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="84"/>
-      <c r="C90" s="128" t="s">
+      <c r="C90" s="120" t="s">
         <v>107</v>
       </c>
       <c r="D90" s="97">
@@ -8920,7 +8916,7 @@
         <v>86</v>
       </c>
       <c r="B91" s="84"/>
-      <c r="C91" s="128" t="s">
+      <c r="C91" s="120" t="s">
         <v>108</v>
       </c>
       <c r="D91" s="97">
@@ -8944,8 +8940,8 @@
         <v>87</v>
       </c>
       <c r="B92" s="84"/>
-      <c r="C92" s="128" t="s">
-        <v>1561</v>
+      <c r="C92" s="120" t="s">
+        <v>1559</v>
       </c>
       <c r="D92" s="97">
         <v>655</v>
@@ -8972,7 +8968,7 @@
       <c r="B93" s="84" t="s">
         <v>1113</v>
       </c>
-      <c r="C93" s="128" t="s">
+      <c r="C93" s="120" t="s">
         <v>1114</v>
       </c>
       <c r="D93" s="97">
@@ -8998,7 +8994,7 @@
         <v>89</v>
       </c>
       <c r="B94" s="84"/>
-      <c r="C94" s="128" t="s">
+      <c r="C94" s="120" t="s">
         <v>111</v>
       </c>
       <c r="D94" s="95">
@@ -9022,7 +9018,7 @@
         <v>90</v>
       </c>
       <c r="B95" s="84"/>
-      <c r="C95" s="128" t="s">
+      <c r="C95" s="120" t="s">
         <v>112</v>
       </c>
       <c r="D95" s="97">
@@ -9046,7 +9042,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="84"/>
-      <c r="C96" s="129" t="s">
+      <c r="C96" s="121" t="s">
         <v>113</v>
       </c>
       <c r="D96" s="97">
@@ -9070,7 +9066,7 @@
         <v>92</v>
       </c>
       <c r="B97" s="84"/>
-      <c r="C97" s="128" t="s">
+      <c r="C97" s="120" t="s">
         <v>114</v>
       </c>
       <c r="D97" s="97">
@@ -9094,7 +9090,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="84"/>
-      <c r="C98" s="128" t="s">
+      <c r="C98" s="120" t="s">
         <v>1115</v>
       </c>
       <c r="D98" s="95">
@@ -9118,7 +9114,7 @@
         <v>94</v>
       </c>
       <c r="B99" s="84"/>
-      <c r="C99" s="128" t="s">
+      <c r="C99" s="120" t="s">
         <v>115</v>
       </c>
       <c r="D99" s="97">
@@ -9142,7 +9138,7 @@
         <v>95</v>
       </c>
       <c r="B100" s="84"/>
-      <c r="C100" s="128" t="s">
+      <c r="C100" s="120" t="s">
         <v>1242</v>
       </c>
       <c r="D100" s="97">
@@ -9166,7 +9162,7 @@
         <v>96</v>
       </c>
       <c r="B101" s="84"/>
-      <c r="C101" s="128" t="s">
+      <c r="C101" s="120" t="s">
         <v>116</v>
       </c>
       <c r="D101" s="97">
@@ -9192,7 +9188,7 @@
         <v>97</v>
       </c>
       <c r="B102" s="84"/>
-      <c r="C102" s="128" t="s">
+      <c r="C102" s="120" t="s">
         <v>118</v>
       </c>
       <c r="D102" s="97">
@@ -9216,7 +9212,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="84"/>
-      <c r="C103" s="128" t="s">
+      <c r="C103" s="120" t="s">
         <v>119</v>
       </c>
       <c r="D103" s="97">
@@ -9240,7 +9236,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="84"/>
-      <c r="C104" s="128" t="s">
+      <c r="C104" s="120" t="s">
         <v>1116</v>
       </c>
       <c r="D104" s="97">
@@ -9264,7 +9260,7 @@
         <v>100</v>
       </c>
       <c r="B105" s="84"/>
-      <c r="C105" s="128" t="s">
+      <c r="C105" s="120" t="s">
         <v>120</v>
       </c>
       <c r="D105" s="97">
@@ -9290,7 +9286,7 @@
         <v>101</v>
       </c>
       <c r="B106" s="84"/>
-      <c r="C106" s="128" t="s">
+      <c r="C106" s="120" t="s">
         <v>1117</v>
       </c>
       <c r="D106" s="97">
@@ -9314,7 +9310,7 @@
         <v>102</v>
       </c>
       <c r="B107" s="84"/>
-      <c r="C107" s="128" t="s">
+      <c r="C107" s="120" t="s">
         <v>1118</v>
       </c>
       <c r="D107" s="97">
@@ -9338,7 +9334,7 @@
         <v>103</v>
       </c>
       <c r="B108" s="84"/>
-      <c r="C108" s="128" t="s">
+      <c r="C108" s="120" t="s">
         <v>122</v>
       </c>
       <c r="D108" s="95">
@@ -9364,7 +9360,7 @@
         <v>104</v>
       </c>
       <c r="B109" s="84"/>
-      <c r="C109" s="128" t="s">
+      <c r="C109" s="120" t="s">
         <v>1027</v>
       </c>
       <c r="D109" s="95">
@@ -9390,7 +9386,7 @@
         <v>105</v>
       </c>
       <c r="B110" s="84"/>
-      <c r="C110" s="128" t="s">
+      <c r="C110" s="120" t="s">
         <v>1119</v>
       </c>
       <c r="D110" s="97">
@@ -9414,7 +9410,7 @@
         <v>106</v>
       </c>
       <c r="B111" s="84"/>
-      <c r="C111" s="128" t="s">
+      <c r="C111" s="120" t="s">
         <v>1120</v>
       </c>
       <c r="D111" s="95">
@@ -9438,7 +9434,7 @@
         <v>107</v>
       </c>
       <c r="B112" s="84"/>
-      <c r="C112" s="128" t="s">
+      <c r="C112" s="120" t="s">
         <v>1028</v>
       </c>
       <c r="D112" s="95">
@@ -9462,7 +9458,7 @@
         <v>108</v>
       </c>
       <c r="B113" s="84"/>
-      <c r="C113" s="128" t="s">
+      <c r="C113" s="120" t="s">
         <v>125</v>
       </c>
       <c r="D113" s="97">
@@ -9486,7 +9482,7 @@
         <v>109</v>
       </c>
       <c r="B114" s="84"/>
-      <c r="C114" s="128" t="s">
+      <c r="C114" s="120" t="s">
         <v>126</v>
       </c>
       <c r="D114" s="95">
@@ -9510,7 +9506,7 @@
         <v>110</v>
       </c>
       <c r="B115" s="84"/>
-      <c r="C115" s="128" t="s">
+      <c r="C115" s="120" t="s">
         <v>1238</v>
       </c>
       <c r="D115" s="97">
@@ -9534,7 +9530,7 @@
         <v>111</v>
       </c>
       <c r="B116" s="84"/>
-      <c r="C116" s="128" t="s">
+      <c r="C116" s="120" t="s">
         <v>1121</v>
       </c>
       <c r="D116" s="97">
@@ -9558,7 +9554,7 @@
         <v>112</v>
       </c>
       <c r="B117" s="84"/>
-      <c r="C117" s="128" t="s">
+      <c r="C117" s="120" t="s">
         <v>127</v>
       </c>
       <c r="D117" s="97">
@@ -9584,7 +9580,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="84"/>
-      <c r="C118" s="128" t="s">
+      <c r="C118" s="120" t="s">
         <v>1122</v>
       </c>
       <c r="D118" s="97">
@@ -9608,7 +9604,7 @@
         <v>114</v>
       </c>
       <c r="B119" s="84"/>
-      <c r="C119" s="128" t="s">
+      <c r="C119" s="120" t="s">
         <v>128</v>
       </c>
       <c r="D119" s="97">
@@ -9634,7 +9630,7 @@
         <v>115</v>
       </c>
       <c r="B120" s="84"/>
-      <c r="C120" s="128" t="s">
+      <c r="C120" s="120" t="s">
         <v>1123</v>
       </c>
       <c r="D120" s="97">
@@ -9658,7 +9654,7 @@
         <v>116</v>
       </c>
       <c r="B121" s="84"/>
-      <c r="C121" s="128" t="s">
+      <c r="C121" s="120" t="s">
         <v>130</v>
       </c>
       <c r="D121" s="97">
@@ -9684,7 +9680,7 @@
         <v>117</v>
       </c>
       <c r="B122" s="84"/>
-      <c r="C122" s="128" t="s">
+      <c r="C122" s="120" t="s">
         <v>1124</v>
       </c>
       <c r="D122" s="95">
@@ -9710,7 +9706,7 @@
         <v>118</v>
       </c>
       <c r="B123" s="84"/>
-      <c r="C123" s="128" t="s">
+      <c r="C123" s="120" t="s">
         <v>1125</v>
       </c>
       <c r="D123" s="97">
@@ -9734,7 +9730,7 @@
         <v>119</v>
       </c>
       <c r="B124" s="84"/>
-      <c r="C124" s="128" t="s">
+      <c r="C124" s="120" t="s">
         <v>1126</v>
       </c>
       <c r="D124" s="97">
@@ -9758,7 +9754,7 @@
         <v>120</v>
       </c>
       <c r="B125" s="84"/>
-      <c r="C125" s="128" t="s">
+      <c r="C125" s="120" t="s">
         <v>1127</v>
       </c>
       <c r="D125" s="97">
@@ -9786,7 +9782,7 @@
       <c r="B126" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="C126" s="128" t="s">
+      <c r="C126" s="120" t="s">
         <v>134</v>
       </c>
       <c r="D126" s="97">
@@ -9812,7 +9808,7 @@
         <v>122</v>
       </c>
       <c r="B127" s="84"/>
-      <c r="C127" s="128" t="s">
+      <c r="C127" s="120" t="s">
         <v>1434</v>
       </c>
       <c r="D127" s="97">
@@ -9836,7 +9832,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="84"/>
-      <c r="C128" s="128" t="s">
+      <c r="C128" s="120" t="s">
         <v>1128</v>
       </c>
       <c r="D128" s="97">
@@ -9862,7 +9858,7 @@
         <v>124</v>
       </c>
       <c r="B129" s="84"/>
-      <c r="C129" s="128" t="s">
+      <c r="C129" s="120" t="s">
         <v>1129</v>
       </c>
       <c r="D129" s="97">
@@ -9886,7 +9882,7 @@
         <v>125</v>
       </c>
       <c r="B130" s="84"/>
-      <c r="C130" s="128" t="s">
+      <c r="C130" s="120" t="s">
         <v>137</v>
       </c>
       <c r="D130" s="97">
@@ -9910,7 +9906,7 @@
         <v>126</v>
       </c>
       <c r="B131" s="84"/>
-      <c r="C131" s="128" t="s">
+      <c r="C131" s="120" t="s">
         <v>1130</v>
       </c>
       <c r="D131" s="97">
@@ -9934,7 +9930,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="84"/>
-      <c r="C132" s="128" t="s">
+      <c r="C132" s="120" t="s">
         <v>1131</v>
       </c>
       <c r="D132" s="97">
@@ -9960,7 +9956,7 @@
         <v>128</v>
       </c>
       <c r="B133" s="84"/>
-      <c r="C133" s="128" t="s">
+      <c r="C133" s="120" t="s">
         <v>139</v>
       </c>
       <c r="D133" s="97">
@@ -9986,7 +9982,7 @@
         <v>129</v>
       </c>
       <c r="B134" s="84"/>
-      <c r="C134" s="128" t="s">
+      <c r="C134" s="120" t="s">
         <v>1132</v>
       </c>
       <c r="D134" s="97">
@@ -10012,7 +10008,7 @@
         <v>130</v>
       </c>
       <c r="B135" s="84"/>
-      <c r="C135" s="128" t="s">
+      <c r="C135" s="120" t="s">
         <v>142</v>
       </c>
       <c r="D135" s="97">
@@ -10040,7 +10036,7 @@
       <c r="B136" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="C136" s="128" t="s">
+      <c r="C136" s="120" t="s">
         <v>144</v>
       </c>
       <c r="D136" s="97">
@@ -10066,7 +10062,7 @@
         <v>132</v>
       </c>
       <c r="B137" s="84"/>
-      <c r="C137" s="128" t="s">
+      <c r="C137" s="120" t="s">
         <v>146</v>
       </c>
       <c r="D137" s="97">
@@ -10092,7 +10088,7 @@
         <v>133</v>
       </c>
       <c r="B138" s="84"/>
-      <c r="C138" s="128" t="s">
+      <c r="C138" s="120" t="s">
         <v>148</v>
       </c>
       <c r="D138" s="97">
@@ -10116,7 +10112,7 @@
         <v>134</v>
       </c>
       <c r="B139" s="84"/>
-      <c r="C139" s="128" t="s">
+      <c r="C139" s="120" t="s">
         <v>149</v>
       </c>
       <c r="D139" s="97">
@@ -10142,7 +10138,7 @@
         <v>135</v>
       </c>
       <c r="B140" s="84"/>
-      <c r="C140" s="128" t="s">
+      <c r="C140" s="120" t="s">
         <v>151</v>
       </c>
       <c r="D140" s="97">
@@ -10168,7 +10164,7 @@
         <v>136</v>
       </c>
       <c r="B141" s="84"/>
-      <c r="C141" s="128" t="s">
+      <c r="C141" s="120" t="s">
         <v>1133</v>
       </c>
       <c r="D141" s="97">
@@ -10194,7 +10190,7 @@
         <v>137</v>
       </c>
       <c r="B142" s="84"/>
-      <c r="C142" s="128" t="s">
+      <c r="C142" s="120" t="s">
         <v>1134</v>
       </c>
       <c r="D142" s="97">
@@ -10220,7 +10216,7 @@
         <v>138</v>
       </c>
       <c r="B143" s="84"/>
-      <c r="C143" s="128" t="s">
+      <c r="C143" s="120" t="s">
         <v>155</v>
       </c>
       <c r="D143" s="97">
@@ -10246,7 +10242,7 @@
         <v>139</v>
       </c>
       <c r="B144" s="84"/>
-      <c r="C144" s="128" t="s">
+      <c r="C144" s="120" t="s">
         <v>1135</v>
       </c>
       <c r="D144" s="97">
@@ -10270,7 +10266,7 @@
         <v>140</v>
       </c>
       <c r="B145" s="84"/>
-      <c r="C145" s="128" t="s">
+      <c r="C145" s="120" t="s">
         <v>157</v>
       </c>
       <c r="D145" s="97">
@@ -10296,7 +10292,7 @@
         <v>141</v>
       </c>
       <c r="B146" s="84"/>
-      <c r="C146" s="128" t="s">
+      <c r="C146" s="120" t="s">
         <v>1136</v>
       </c>
       <c r="D146" s="97">
@@ -10320,7 +10316,7 @@
         <v>142</v>
       </c>
       <c r="B147" s="84"/>
-      <c r="C147" s="128" t="s">
+      <c r="C147" s="120" t="s">
         <v>159</v>
       </c>
       <c r="D147" s="97">
@@ -10344,7 +10340,7 @@
         <v>143</v>
       </c>
       <c r="B148" s="84"/>
-      <c r="C148" s="129" t="s">
+      <c r="C148" s="121" t="s">
         <v>1137</v>
       </c>
       <c r="D148" s="97">
@@ -10368,7 +10364,7 @@
         <v>144</v>
       </c>
       <c r="B149" s="84"/>
-      <c r="C149" s="128" t="s">
+      <c r="C149" s="120" t="s">
         <v>1138</v>
       </c>
       <c r="D149" s="97">
@@ -10392,7 +10388,7 @@
         <v>145</v>
       </c>
       <c r="B150" s="84"/>
-      <c r="C150" s="128" t="s">
+      <c r="C150" s="120" t="s">
         <v>160</v>
       </c>
       <c r="D150" s="97">
@@ -10418,7 +10414,7 @@
         <v>146</v>
       </c>
       <c r="B151" s="84"/>
-      <c r="C151" s="128" t="s">
+      <c r="C151" s="120" t="s">
         <v>162</v>
       </c>
       <c r="D151" s="97">
@@ -10442,7 +10438,7 @@
         <v>147</v>
       </c>
       <c r="B152" s="84"/>
-      <c r="C152" s="128" t="s">
+      <c r="C152" s="120" t="s">
         <v>1139</v>
       </c>
       <c r="D152" s="97">
@@ -10468,7 +10464,7 @@
         <v>148</v>
       </c>
       <c r="B153" s="84"/>
-      <c r="C153" s="128" t="s">
+      <c r="C153" s="120" t="s">
         <v>1140</v>
       </c>
       <c r="D153" s="97">
@@ -10492,7 +10488,7 @@
         <v>149</v>
       </c>
       <c r="B154" s="84"/>
-      <c r="C154" s="128" t="s">
+      <c r="C154" s="120" t="s">
         <v>1141</v>
       </c>
       <c r="D154" s="97">
@@ -10518,7 +10514,7 @@
         <v>150</v>
       </c>
       <c r="B155" s="84"/>
-      <c r="C155" s="128" t="s">
+      <c r="C155" s="120" t="s">
         <v>165</v>
       </c>
       <c r="D155" s="97">
@@ -10542,7 +10538,7 @@
         <v>151</v>
       </c>
       <c r="B156" s="84"/>
-      <c r="C156" s="128" t="s">
+      <c r="C156" s="120" t="s">
         <v>1142</v>
       </c>
       <c r="D156" s="97">
@@ -10568,7 +10564,7 @@
         <v>152</v>
       </c>
       <c r="B157" s="84"/>
-      <c r="C157" s="128" t="s">
+      <c r="C157" s="120" t="s">
         <v>1143</v>
       </c>
       <c r="D157" s="97">
@@ -10592,7 +10588,7 @@
         <v>153</v>
       </c>
       <c r="B158" s="84"/>
-      <c r="C158" s="128" t="s">
+      <c r="C158" s="120" t="s">
         <v>167</v>
       </c>
       <c r="D158" s="97">
@@ -10616,7 +10612,7 @@
         <v>154</v>
       </c>
       <c r="B159" s="84"/>
-      <c r="C159" s="128" t="s">
+      <c r="C159" s="120" t="s">
         <v>168</v>
       </c>
       <c r="D159" s="97">
@@ -10642,7 +10638,7 @@
         <v>155</v>
       </c>
       <c r="B160" s="84"/>
-      <c r="C160" s="128" t="s">
+      <c r="C160" s="120" t="s">
         <v>1144</v>
       </c>
       <c r="D160" s="97">
@@ -10668,7 +10664,7 @@
         <v>156</v>
       </c>
       <c r="B161" s="84"/>
-      <c r="C161" s="129" t="s">
+      <c r="C161" s="121" t="s">
         <v>113</v>
       </c>
       <c r="D161" s="97">
@@ -10692,7 +10688,7 @@
         <v>157</v>
       </c>
       <c r="B162" s="84"/>
-      <c r="C162" s="128" t="s">
+      <c r="C162" s="120" t="s">
         <v>171</v>
       </c>
       <c r="D162" s="97">
@@ -10716,7 +10712,7 @@
         <v>158</v>
       </c>
       <c r="B163" s="84"/>
-      <c r="C163" s="128" t="s">
+      <c r="C163" s="120" t="s">
         <v>1145</v>
       </c>
       <c r="D163" s="97">
@@ -10742,7 +10738,7 @@
         <v>159</v>
       </c>
       <c r="B164" s="84"/>
-      <c r="C164" s="128" t="s">
+      <c r="C164" s="120" t="s">
         <v>1146</v>
       </c>
       <c r="D164" s="97">
@@ -10768,7 +10764,7 @@
         <v>160</v>
       </c>
       <c r="B165" s="84"/>
-      <c r="C165" s="128" t="s">
+      <c r="C165" s="120" t="s">
         <v>1147</v>
       </c>
       <c r="D165" s="97">
@@ -10792,7 +10788,7 @@
         <v>161</v>
       </c>
       <c r="B166" s="84"/>
-      <c r="C166" s="128" t="s">
+      <c r="C166" s="120" t="s">
         <v>1148</v>
       </c>
       <c r="D166" s="97">
@@ -10816,7 +10812,7 @@
         <v>162</v>
       </c>
       <c r="B167" s="84"/>
-      <c r="C167" s="128" t="s">
+      <c r="C167" s="120" t="s">
         <v>174</v>
       </c>
       <c r="D167" s="97">
@@ -10842,7 +10838,7 @@
         <v>163</v>
       </c>
       <c r="B168" s="84"/>
-      <c r="C168" s="128" t="s">
+      <c r="C168" s="120" t="s">
         <v>1149</v>
       </c>
       <c r="D168" s="97">
@@ -10868,7 +10864,7 @@
         <v>164</v>
       </c>
       <c r="B169" s="84"/>
-      <c r="C169" s="128" t="s">
+      <c r="C169" s="120" t="s">
         <v>1150</v>
       </c>
       <c r="D169" s="97">
@@ -10894,7 +10890,7 @@
         <v>165</v>
       </c>
       <c r="B170" s="84"/>
-      <c r="C170" s="128" t="s">
+      <c r="C170" s="120" t="s">
         <v>178</v>
       </c>
       <c r="D170" s="97">
@@ -10920,7 +10916,7 @@
         <v>166</v>
       </c>
       <c r="B171" s="84"/>
-      <c r="C171" s="128" t="s">
+      <c r="C171" s="120" t="s">
         <v>1151</v>
       </c>
       <c r="D171" s="97">
@@ -10946,7 +10942,7 @@
         <v>167</v>
       </c>
       <c r="B172" s="84"/>
-      <c r="C172" s="128" t="s">
+      <c r="C172" s="120" t="s">
         <v>181</v>
       </c>
       <c r="D172" s="97">
@@ -10972,7 +10968,7 @@
         <v>168</v>
       </c>
       <c r="B173" s="84"/>
-      <c r="C173" s="128" t="s">
+      <c r="C173" s="120" t="s">
         <v>183</v>
       </c>
       <c r="D173" s="97">
@@ -10998,7 +10994,7 @@
         <v>169</v>
       </c>
       <c r="B174" s="84"/>
-      <c r="C174" s="128" t="s">
+      <c r="C174" s="120" t="s">
         <v>185</v>
       </c>
       <c r="D174" s="97">
@@ -11022,7 +11018,7 @@
         <v>170</v>
       </c>
       <c r="B175" s="84"/>
-      <c r="C175" s="128" t="s">
+      <c r="C175" s="120" t="s">
         <v>1152</v>
       </c>
       <c r="D175" s="97">
@@ -11048,7 +11044,7 @@
         <v>171</v>
       </c>
       <c r="B176" s="84"/>
-      <c r="C176" s="128" t="s">
+      <c r="C176" s="120" t="s">
         <v>187</v>
       </c>
       <c r="D176" s="97">
@@ -11072,7 +11068,7 @@
         <v>172</v>
       </c>
       <c r="B177" s="84"/>
-      <c r="C177" s="128" t="s">
+      <c r="C177" s="120" t="s">
         <v>1153</v>
       </c>
       <c r="D177" s="97">
@@ -11098,7 +11094,7 @@
         <v>173</v>
       </c>
       <c r="B178" s="84"/>
-      <c r="C178" s="128" t="s">
+      <c r="C178" s="120" t="s">
         <v>1154</v>
       </c>
       <c r="D178" s="97">
@@ -11124,7 +11120,7 @@
         <v>174</v>
       </c>
       <c r="B179" s="84"/>
-      <c r="C179" s="128" t="s">
+      <c r="C179" s="120" t="s">
         <v>1155</v>
       </c>
       <c r="D179" s="97">
@@ -11150,7 +11146,7 @@
         <v>175</v>
       </c>
       <c r="B180" s="84"/>
-      <c r="C180" s="128" t="s">
+      <c r="C180" s="120" t="s">
         <v>1156</v>
       </c>
       <c r="D180" s="97">
@@ -11176,7 +11172,7 @@
         <v>176</v>
       </c>
       <c r="B181" s="84"/>
-      <c r="C181" s="128" t="s">
+      <c r="C181" s="120" t="s">
         <v>192</v>
       </c>
       <c r="D181" s="97">
@@ -11200,7 +11196,7 @@
         <v>177</v>
       </c>
       <c r="B182" s="84"/>
-      <c r="C182" s="128" t="s">
+      <c r="C182" s="120" t="s">
         <v>1157</v>
       </c>
       <c r="D182" s="97">
@@ -11224,7 +11220,7 @@
         <v>178</v>
       </c>
       <c r="B183" s="84"/>
-      <c r="C183" s="128" t="s">
+      <c r="C183" s="120" t="s">
         <v>1158</v>
       </c>
       <c r="D183" s="97">
@@ -11248,7 +11244,7 @@
         <v>179</v>
       </c>
       <c r="B184" s="84"/>
-      <c r="C184" s="128" t="s">
+      <c r="C184" s="120" t="s">
         <v>1159</v>
       </c>
       <c r="D184" s="97">
@@ -11274,7 +11270,7 @@
         <v>180</v>
       </c>
       <c r="B185" s="84"/>
-      <c r="C185" s="128" t="s">
+      <c r="C185" s="120" t="s">
         <v>1160</v>
       </c>
       <c r="D185" s="97">
@@ -11300,7 +11296,7 @@
         <v>181</v>
       </c>
       <c r="B186" s="84"/>
-      <c r="C186" s="128" t="s">
+      <c r="C186" s="120" t="s">
         <v>1161</v>
       </c>
       <c r="D186" s="97">
@@ -11324,7 +11320,7 @@
         <v>182</v>
       </c>
       <c r="B187" s="84"/>
-      <c r="C187" s="128" t="s">
+      <c r="C187" s="120" t="s">
         <v>1162</v>
       </c>
       <c r="D187" s="97">
@@ -11348,7 +11344,7 @@
         <v>183</v>
       </c>
       <c r="B188" s="84"/>
-      <c r="C188" s="128" t="s">
+      <c r="C188" s="120" t="s">
         <v>1163</v>
       </c>
       <c r="D188" s="97">
@@ -11374,7 +11370,7 @@
         <v>184</v>
       </c>
       <c r="B189" s="84"/>
-      <c r="C189" s="128" t="s">
+      <c r="C189" s="120" t="s">
         <v>1164</v>
       </c>
       <c r="D189" s="97">
@@ -11400,7 +11396,7 @@
         <v>185</v>
       </c>
       <c r="B190" s="84"/>
-      <c r="C190" s="128" t="s">
+      <c r="C190" s="120" t="s">
         <v>1165</v>
       </c>
       <c r="D190" s="95">
@@ -11424,7 +11420,7 @@
         <v>186</v>
       </c>
       <c r="B191" s="84"/>
-      <c r="C191" s="128" t="s">
+      <c r="C191" s="120" t="s">
         <v>197</v>
       </c>
       <c r="D191" s="97">
@@ -11448,7 +11444,7 @@
         <v>187</v>
       </c>
       <c r="B192" s="84"/>
-      <c r="C192" s="128" t="s">
+      <c r="C192" s="120" t="s">
         <v>1166</v>
       </c>
       <c r="D192" s="97">
@@ -11474,7 +11470,7 @@
         <v>188</v>
       </c>
       <c r="B193" s="84"/>
-      <c r="C193" s="128" t="s">
+      <c r="C193" s="120" t="s">
         <v>1167</v>
       </c>
       <c r="D193" s="97">
@@ -11500,7 +11496,7 @@
         <v>189</v>
       </c>
       <c r="B194" s="84"/>
-      <c r="C194" s="128" t="s">
+      <c r="C194" s="120" t="s">
         <v>200</v>
       </c>
       <c r="D194" s="97">
@@ -11524,8 +11520,8 @@
         <v>190</v>
       </c>
       <c r="B195" s="84"/>
-      <c r="C195" s="128" t="s">
-        <v>1562</v>
+      <c r="C195" s="120" t="s">
+        <v>1560</v>
       </c>
       <c r="D195" s="95">
         <v>690</v>
@@ -11548,7 +11544,7 @@
         <v>191</v>
       </c>
       <c r="B196" s="84"/>
-      <c r="C196" s="129" t="s">
+      <c r="C196" s="121" t="s">
         <v>1137</v>
       </c>
       <c r="D196" s="97">
@@ -11572,7 +11568,7 @@
         <v>192</v>
       </c>
       <c r="B197" s="84"/>
-      <c r="C197" s="128" t="s">
+      <c r="C197" s="120" t="s">
         <v>201</v>
       </c>
       <c r="D197" s="97">
@@ -11598,7 +11594,7 @@
         <v>193</v>
       </c>
       <c r="B198" s="84"/>
-      <c r="C198" s="128" t="s">
+      <c r="C198" s="120" t="s">
         <v>203</v>
       </c>
       <c r="D198" s="97">
@@ -11622,7 +11618,7 @@
         <v>194</v>
       </c>
       <c r="B199" s="84"/>
-      <c r="C199" s="128" t="s">
+      <c r="C199" s="120" t="s">
         <v>1168</v>
       </c>
       <c r="D199" s="97">
@@ -11646,7 +11642,7 @@
         <v>195</v>
       </c>
       <c r="B200" s="84"/>
-      <c r="C200" s="128" t="s">
+      <c r="C200" s="120" t="s">
         <v>1169</v>
       </c>
       <c r="D200" s="97">
@@ -11670,7 +11666,7 @@
         <v>196</v>
       </c>
       <c r="B201" s="84"/>
-      <c r="C201" s="128" t="s">
+      <c r="C201" s="120" t="s">
         <v>204</v>
       </c>
       <c r="D201" s="97">
@@ -11694,7 +11690,7 @@
         <v>197</v>
       </c>
       <c r="B202" s="84"/>
-      <c r="C202" s="128" t="s">
+      <c r="C202" s="120" t="s">
         <v>1170</v>
       </c>
       <c r="D202" s="97">
@@ -11720,7 +11716,7 @@
         <v>198</v>
       </c>
       <c r="B203" s="84"/>
-      <c r="C203" s="128" t="s">
+      <c r="C203" s="120" t="s">
         <v>206</v>
       </c>
       <c r="D203" s="97">
@@ -11744,7 +11740,7 @@
         <v>199</v>
       </c>
       <c r="B204" s="84"/>
-      <c r="C204" s="128" t="s">
+      <c r="C204" s="120" t="s">
         <v>207</v>
       </c>
       <c r="D204" s="97">
@@ -11768,7 +11764,7 @@
         <v>200</v>
       </c>
       <c r="B205" s="84"/>
-      <c r="C205" s="128" t="s">
+      <c r="C205" s="120" t="s">
         <v>208</v>
       </c>
       <c r="D205" s="97">
@@ -11792,7 +11788,7 @@
         <v>201</v>
       </c>
       <c r="B206" s="84"/>
-      <c r="C206" s="128" t="s">
+      <c r="C206" s="120" t="s">
         <v>1171</v>
       </c>
       <c r="D206" s="97">
@@ -11816,7 +11812,7 @@
         <v>202</v>
       </c>
       <c r="B207" s="84"/>
-      <c r="C207" s="128" t="s">
+      <c r="C207" s="120" t="s">
         <v>1237</v>
       </c>
       <c r="D207" s="97">
@@ -11840,7 +11836,7 @@
         <v>203</v>
       </c>
       <c r="B208" s="84"/>
-      <c r="C208" s="128" t="s">
+      <c r="C208" s="120" t="s">
         <v>1172</v>
       </c>
       <c r="D208" s="97">
@@ -11864,7 +11860,7 @@
         <v>204</v>
       </c>
       <c r="B209" s="84"/>
-      <c r="C209" s="128" t="s">
+      <c r="C209" s="120" t="s">
         <v>1173</v>
       </c>
       <c r="D209" s="97">
@@ -11888,7 +11884,7 @@
         <v>205</v>
       </c>
       <c r="B210" s="84"/>
-      <c r="C210" s="128" t="s">
+      <c r="C210" s="120" t="s">
         <v>209</v>
       </c>
       <c r="D210" s="97">
@@ -11916,7 +11912,7 @@
       <c r="B211" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="C211" s="128" t="s">
+      <c r="C211" s="120" t="s">
         <v>211</v>
       </c>
       <c r="D211" s="97">
@@ -11944,7 +11940,7 @@
       <c r="B212" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="C212" s="128" t="s">
+      <c r="C212" s="120" t="s">
         <v>214</v>
       </c>
       <c r="D212" s="97">
@@ -11972,7 +11968,7 @@
       <c r="B213" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="C213" s="128" t="s">
+      <c r="C213" s="120" t="s">
         <v>217</v>
       </c>
       <c r="D213" s="97">
@@ -12000,7 +11996,7 @@
       <c r="B214" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="C214" s="128" t="s">
+      <c r="C214" s="120" t="s">
         <v>220</v>
       </c>
       <c r="D214" s="97">
@@ -12028,7 +12024,7 @@
       <c r="B215" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="C215" s="128" t="s">
+      <c r="C215" s="120" t="s">
         <v>1239</v>
       </c>
       <c r="D215" s="97">
@@ -12056,7 +12052,7 @@
       <c r="B216" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="C216" s="128" t="s">
+      <c r="C216" s="120" t="s">
         <v>225</v>
       </c>
       <c r="D216" s="97">
@@ -12084,7 +12080,7 @@
       <c r="B217" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="C217" s="128" t="s">
+      <c r="C217" s="120" t="s">
         <v>228</v>
       </c>
       <c r="D217" s="97">
@@ -12112,7 +12108,7 @@
       <c r="B218" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="C218" s="128" t="s">
+      <c r="C218" s="120" t="s">
         <v>231</v>
       </c>
       <c r="D218" s="97">
@@ -12140,7 +12136,7 @@
       <c r="B219" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="C219" s="128" t="s">
+      <c r="C219" s="120" t="s">
         <v>234</v>
       </c>
       <c r="D219" s="97">
@@ -12168,7 +12164,7 @@
       <c r="B220" s="84" t="s">
         <v>236</v>
       </c>
-      <c r="C220" s="128" t="s">
+      <c r="C220" s="120" t="s">
         <v>237</v>
       </c>
       <c r="D220" s="97">
@@ -12194,7 +12190,7 @@
         <v>216</v>
       </c>
       <c r="B221" s="84"/>
-      <c r="C221" s="128" t="s">
+      <c r="C221" s="120" t="s">
         <v>239</v>
       </c>
       <c r="D221" s="97">
@@ -12220,7 +12216,7 @@
         <v>217</v>
       </c>
       <c r="B222" s="84"/>
-      <c r="C222" s="128" t="s">
+      <c r="C222" s="120" t="s">
         <v>241</v>
       </c>
       <c r="D222" s="96">
@@ -12246,7 +12242,7 @@
         <v>218</v>
       </c>
       <c r="B223" s="84"/>
-      <c r="C223" s="129" t="s">
+      <c r="C223" s="121" t="s">
         <v>1175</v>
       </c>
       <c r="D223" s="97">
@@ -12270,7 +12266,7 @@
         <v>219</v>
       </c>
       <c r="B224" s="84"/>
-      <c r="C224" s="128" t="s">
+      <c r="C224" s="120" t="s">
         <v>243</v>
       </c>
       <c r="D224" s="97">
@@ -12294,7 +12290,7 @@
         <v>220</v>
       </c>
       <c r="B225" s="84"/>
-      <c r="C225" s="128" t="s">
+      <c r="C225" s="120" t="s">
         <v>244</v>
       </c>
       <c r="D225" s="95">
@@ -12320,7 +12316,7 @@
         <v>221</v>
       </c>
       <c r="B226" s="84"/>
-      <c r="C226" s="128" t="s">
+      <c r="C226" s="120" t="s">
         <v>246</v>
       </c>
       <c r="D226" s="95">
@@ -12348,7 +12344,7 @@
       <c r="B227" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="C227" s="129" t="s">
+      <c r="C227" s="121" t="s">
         <v>249</v>
       </c>
       <c r="D227" s="97">
@@ -12374,7 +12370,7 @@
         <v>223</v>
       </c>
       <c r="B228" s="84"/>
-      <c r="C228" s="128" t="s">
+      <c r="C228" s="120" t="s">
         <v>251</v>
       </c>
       <c r="D228" s="97">
@@ -12400,7 +12396,7 @@
         <v>224</v>
       </c>
       <c r="B229" s="84"/>
-      <c r="C229" s="128" t="s">
+      <c r="C229" s="120" t="s">
         <v>253</v>
       </c>
       <c r="D229" s="97">
@@ -12426,7 +12422,7 @@
         <v>225</v>
       </c>
       <c r="B230" s="84"/>
-      <c r="C230" s="128" t="s">
+      <c r="C230" s="120" t="s">
         <v>255</v>
       </c>
       <c r="D230" s="97">
@@ -12450,7 +12446,7 @@
         <v>226</v>
       </c>
       <c r="B231" s="84"/>
-      <c r="C231" s="128" t="s">
+      <c r="C231" s="120" t="s">
         <v>256</v>
       </c>
       <c r="D231" s="97">
@@ -12476,7 +12472,7 @@
         <v>227</v>
       </c>
       <c r="B232" s="84"/>
-      <c r="C232" s="128" t="s">
+      <c r="C232" s="120" t="s">
         <v>258</v>
       </c>
       <c r="D232" s="97">
@@ -12502,7 +12498,7 @@
         <v>228</v>
       </c>
       <c r="B233" s="84"/>
-      <c r="C233" s="129" t="s">
+      <c r="C233" s="121" t="s">
         <v>260</v>
       </c>
       <c r="D233" s="97">
@@ -12526,7 +12522,7 @@
         <v>229</v>
       </c>
       <c r="B234" s="84"/>
-      <c r="C234" s="128" t="s">
+      <c r="C234" s="120" t="s">
         <v>261</v>
       </c>
       <c r="D234" s="97">
@@ -12552,7 +12548,7 @@
         <v>230</v>
       </c>
       <c r="B235" s="84"/>
-      <c r="C235" s="128" t="s">
+      <c r="C235" s="120" t="s">
         <v>1076</v>
       </c>
       <c r="D235" s="97">
@@ -12578,7 +12574,7 @@
         <v>231</v>
       </c>
       <c r="B236" s="84"/>
-      <c r="C236" s="128" t="s">
+      <c r="C236" s="120" t="s">
         <v>264</v>
       </c>
       <c r="D236" s="97">
@@ -12604,7 +12600,7 @@
         <v>232</v>
       </c>
       <c r="B237" s="84"/>
-      <c r="C237" s="128" t="s">
+      <c r="C237" s="120" t="s">
         <v>266</v>
       </c>
       <c r="D237" s="97">
@@ -12630,7 +12626,7 @@
         <v>233</v>
       </c>
       <c r="B238" s="84"/>
-      <c r="C238" s="128" t="s">
+      <c r="C238" s="120" t="s">
         <v>268</v>
       </c>
       <c r="D238" s="97">
@@ -12656,7 +12652,7 @@
         <v>234</v>
       </c>
       <c r="B239" s="84"/>
-      <c r="C239" s="128" t="s">
+      <c r="C239" s="120" t="s">
         <v>270</v>
       </c>
       <c r="D239" s="97">
@@ -12682,7 +12678,7 @@
         <v>235</v>
       </c>
       <c r="B240" s="84"/>
-      <c r="C240" s="128" t="s">
+      <c r="C240" s="120" t="s">
         <v>272</v>
       </c>
       <c r="D240" s="97">
@@ -12708,7 +12704,7 @@
         <v>236</v>
       </c>
       <c r="B241" s="84"/>
-      <c r="C241" s="128" t="s">
+      <c r="C241" s="120" t="s">
         <v>274</v>
       </c>
       <c r="D241" s="97">
@@ -12734,7 +12730,7 @@
         <v>237</v>
       </c>
       <c r="B242" s="84"/>
-      <c r="C242" s="131" t="s">
+      <c r="C242" s="123" t="s">
         <v>276</v>
       </c>
       <c r="D242" s="97">
@@ -12760,7 +12756,7 @@
         <v>238</v>
       </c>
       <c r="B243" s="84"/>
-      <c r="C243" s="128" t="s">
+      <c r="C243" s="120" t="s">
         <v>278</v>
       </c>
       <c r="D243" s="97">
@@ -12786,7 +12782,7 @@
         <v>239</v>
       </c>
       <c r="B244" s="84"/>
-      <c r="C244" s="131" t="s">
+      <c r="C244" s="123" t="s">
         <v>280</v>
       </c>
       <c r="D244" s="97">
@@ -12812,7 +12808,7 @@
         <v>240</v>
       </c>
       <c r="B245" s="84"/>
-      <c r="C245" s="131" t="s">
+      <c r="C245" s="123" t="s">
         <v>281</v>
       </c>
       <c r="D245" s="97">
@@ -12838,7 +12834,7 @@
         <v>241</v>
       </c>
       <c r="B246" s="84"/>
-      <c r="C246" s="132" t="s">
+      <c r="C246" s="124" t="s">
         <v>283</v>
       </c>
       <c r="D246" s="97">
@@ -12862,7 +12858,7 @@
         <v>242</v>
       </c>
       <c r="B247" s="84"/>
-      <c r="C247" s="128" t="s">
+      <c r="C247" s="120" t="s">
         <v>284</v>
       </c>
       <c r="D247" s="97">
@@ -12888,7 +12884,7 @@
         <v>243</v>
       </c>
       <c r="B248" s="84"/>
-      <c r="C248" s="128" t="s">
+      <c r="C248" s="120" t="s">
         <v>286</v>
       </c>
       <c r="D248" s="97">
@@ -12914,7 +12910,7 @@
         <v>244</v>
       </c>
       <c r="B249" s="84"/>
-      <c r="C249" s="128" t="s">
+      <c r="C249" s="120" t="s">
         <v>288</v>
       </c>
       <c r="D249" s="97">
@@ -12940,7 +12936,7 @@
         <v>245</v>
       </c>
       <c r="B250" s="84"/>
-      <c r="C250" s="128" t="s">
+      <c r="C250" s="120" t="s">
         <v>290</v>
       </c>
       <c r="D250" s="97">
@@ -12966,7 +12962,7 @@
         <v>246</v>
       </c>
       <c r="B251" s="84"/>
-      <c r="C251" s="128" t="s">
+      <c r="C251" s="120" t="s">
         <v>1363</v>
       </c>
       <c r="D251" s="97">
@@ -12992,7 +12988,7 @@
         <v>247</v>
       </c>
       <c r="B252" s="84"/>
-      <c r="C252" s="128" t="s">
+      <c r="C252" s="120" t="s">
         <v>292</v>
       </c>
       <c r="D252" s="97">
@@ -13016,7 +13012,7 @@
         <v>248</v>
       </c>
       <c r="B253" s="84"/>
-      <c r="C253" s="128" t="s">
+      <c r="C253" s="120" t="s">
         <v>293</v>
       </c>
       <c r="D253" s="97">
@@ -13042,7 +13038,7 @@
         <v>249</v>
       </c>
       <c r="B254" s="84"/>
-      <c r="C254" s="128" t="s">
+      <c r="C254" s="120" t="s">
         <v>295</v>
       </c>
       <c r="D254" s="97">
@@ -13068,7 +13064,7 @@
         <v>250</v>
       </c>
       <c r="B255" s="84"/>
-      <c r="C255" s="128" t="s">
+      <c r="C255" s="120" t="s">
         <v>297</v>
       </c>
       <c r="D255" s="97">
@@ -13094,7 +13090,7 @@
         <v>251</v>
       </c>
       <c r="B256" s="84"/>
-      <c r="C256" s="128" t="s">
+      <c r="C256" s="120" t="s">
         <v>1081</v>
       </c>
       <c r="D256" s="97">
@@ -13120,7 +13116,7 @@
         <v>252</v>
       </c>
       <c r="B257" s="84"/>
-      <c r="C257" s="128" t="s">
+      <c r="C257" s="120" t="s">
         <v>300</v>
       </c>
       <c r="D257" s="97">
@@ -13146,7 +13142,7 @@
         <v>253</v>
       </c>
       <c r="B258" s="84"/>
-      <c r="C258" s="128" t="s">
+      <c r="C258" s="120" t="s">
         <v>302</v>
       </c>
       <c r="D258" s="97">
@@ -13172,7 +13168,7 @@
         <v>254</v>
       </c>
       <c r="B259" s="84"/>
-      <c r="C259" s="128" t="s">
+      <c r="C259" s="120" t="s">
         <v>304</v>
       </c>
       <c r="D259" s="97">
@@ -13198,7 +13194,7 @@
         <v>255</v>
       </c>
       <c r="B260" s="84"/>
-      <c r="C260" s="128" t="s">
+      <c r="C260" s="120" t="s">
         <v>306</v>
       </c>
       <c r="D260" s="97">
@@ -13222,7 +13218,7 @@
         <v>256</v>
       </c>
       <c r="B261" s="84"/>
-      <c r="C261" s="128" t="s">
+      <c r="C261" s="120" t="s">
         <v>307</v>
       </c>
       <c r="D261" s="97">
@@ -13248,7 +13244,7 @@
         <v>257</v>
       </c>
       <c r="B262" s="84"/>
-      <c r="C262" s="128" t="s">
+      <c r="C262" s="120" t="s">
         <v>309</v>
       </c>
       <c r="D262" s="97">
@@ -13274,7 +13270,7 @@
         <v>258</v>
       </c>
       <c r="B263" s="84"/>
-      <c r="C263" s="128" t="s">
+      <c r="C263" s="120" t="s">
         <v>311</v>
       </c>
       <c r="D263" s="95">
@@ -13298,7 +13294,7 @@
         <v>259</v>
       </c>
       <c r="B264" s="84"/>
-      <c r="C264" s="128" t="s">
+      <c r="C264" s="120" t="s">
         <v>312</v>
       </c>
       <c r="D264" s="97">
@@ -13322,7 +13318,7 @@
         <v>260</v>
       </c>
       <c r="B265" s="84"/>
-      <c r="C265" s="128" t="s">
+      <c r="C265" s="120" t="s">
         <v>313</v>
       </c>
       <c r="D265" s="97">
@@ -13346,7 +13342,7 @@
         <v>261</v>
       </c>
       <c r="B266" s="84"/>
-      <c r="C266" s="128" t="s">
+      <c r="C266" s="120" t="s">
         <v>314</v>
       </c>
       <c r="D266" s="97">
@@ -13372,7 +13368,7 @@
         <v>262</v>
       </c>
       <c r="B267" s="84"/>
-      <c r="C267" s="128" t="s">
+      <c r="C267" s="120" t="s">
         <v>315</v>
       </c>
       <c r="D267" s="97">
@@ -13398,7 +13394,7 @@
         <v>263</v>
       </c>
       <c r="B268" s="84"/>
-      <c r="C268" s="128" t="s">
+      <c r="C268" s="120" t="s">
         <v>317</v>
       </c>
       <c r="D268" s="97">
@@ -13424,7 +13420,7 @@
         <v>264</v>
       </c>
       <c r="B269" s="84"/>
-      <c r="C269" s="128" t="s">
+      <c r="C269" s="120" t="s">
         <v>319</v>
       </c>
       <c r="D269" s="97">
@@ -13448,7 +13444,7 @@
         <v>265</v>
       </c>
       <c r="B270" s="84"/>
-      <c r="C270" s="128" t="s">
+      <c r="C270" s="120" t="s">
         <v>320</v>
       </c>
       <c r="D270" s="97">
@@ -13472,7 +13468,7 @@
         <v>266</v>
       </c>
       <c r="B271" s="84"/>
-      <c r="C271" s="128" t="s">
+      <c r="C271" s="120" t="s">
         <v>321</v>
       </c>
       <c r="D271" s="97">
@@ -13498,7 +13494,7 @@
         <v>267</v>
       </c>
       <c r="B272" s="84"/>
-      <c r="C272" s="128" t="s">
+      <c r="C272" s="120" t="s">
         <v>323</v>
       </c>
       <c r="D272" s="97">
@@ -13522,7 +13518,7 @@
         <v>268</v>
       </c>
       <c r="B273" s="84"/>
-      <c r="C273" s="128" t="s">
+      <c r="C273" s="120" t="s">
         <v>324</v>
       </c>
       <c r="D273" s="97">
@@ -13548,7 +13544,7 @@
         <v>269</v>
       </c>
       <c r="B274" s="84"/>
-      <c r="C274" s="128" t="s">
+      <c r="C274" s="120" t="s">
         <v>326</v>
       </c>
       <c r="D274" s="97">
@@ -13574,7 +13570,7 @@
         <v>270</v>
       </c>
       <c r="B275" s="84"/>
-      <c r="C275" s="129" t="s">
+      <c r="C275" s="121" t="s">
         <v>1175</v>
       </c>
       <c r="D275" s="97">
@@ -13598,7 +13594,7 @@
         <v>271</v>
       </c>
       <c r="B276" s="84"/>
-      <c r="C276" s="128" t="s">
+      <c r="C276" s="120" t="s">
         <v>328</v>
       </c>
       <c r="D276" s="97">
@@ -13624,7 +13620,7 @@
         <v>272</v>
       </c>
       <c r="B277" s="84"/>
-      <c r="C277" s="128" t="s">
+      <c r="C277" s="120" t="s">
         <v>330</v>
       </c>
       <c r="D277" s="97">
@@ -13650,7 +13646,7 @@
         <v>273</v>
       </c>
       <c r="B278" s="84"/>
-      <c r="C278" s="128" t="s">
+      <c r="C278" s="120" t="s">
         <v>332</v>
       </c>
       <c r="D278" s="95">
@@ -13676,7 +13672,7 @@
         <v>274</v>
       </c>
       <c r="B279" s="84"/>
-      <c r="C279" s="128" t="s">
+      <c r="C279" s="120" t="s">
         <v>334</v>
       </c>
       <c r="D279" s="97">
@@ -13702,7 +13698,7 @@
         <v>275</v>
       </c>
       <c r="B280" s="84"/>
-      <c r="C280" s="128" t="s">
+      <c r="C280" s="120" t="s">
         <v>336</v>
       </c>
       <c r="D280" s="97">
@@ -13728,7 +13724,7 @@
         <v>276</v>
       </c>
       <c r="B281" s="84"/>
-      <c r="C281" s="129" t="s">
+      <c r="C281" s="121" t="s">
         <v>1175</v>
       </c>
       <c r="D281" s="97">
@@ -13752,7 +13748,7 @@
         <v>277</v>
       </c>
       <c r="B282" s="84"/>
-      <c r="C282" s="129" t="s">
+      <c r="C282" s="121" t="s">
         <v>338</v>
       </c>
       <c r="D282" s="97">
@@ -13778,7 +13774,7 @@
         <v>278</v>
       </c>
       <c r="B283" s="84"/>
-      <c r="C283" s="128" t="s">
+      <c r="C283" s="120" t="s">
         <v>340</v>
       </c>
       <c r="D283" s="97">
@@ -13802,7 +13798,7 @@
         <v>279</v>
       </c>
       <c r="B284" s="84"/>
-      <c r="C284" s="128" t="s">
+      <c r="C284" s="120" t="s">
         <v>341</v>
       </c>
       <c r="D284" s="97">
@@ -13826,7 +13822,7 @@
         <v>280</v>
       </c>
       <c r="B285" s="84"/>
-      <c r="C285" s="128" t="s">
+      <c r="C285" s="120" t="s">
         <v>342</v>
       </c>
       <c r="D285" s="97">
@@ -13850,7 +13846,7 @@
         <v>281</v>
       </c>
       <c r="B286" s="84"/>
-      <c r="C286" s="128" t="s">
+      <c r="C286" s="120" t="s">
         <v>343</v>
       </c>
       <c r="D286" s="97">
@@ -13876,7 +13872,7 @@
         <v>282</v>
       </c>
       <c r="B287" s="84"/>
-      <c r="C287" s="129" t="s">
+      <c r="C287" s="121" t="s">
         <v>249</v>
       </c>
       <c r="D287" s="97">
@@ -13902,7 +13898,7 @@
         <v>283</v>
       </c>
       <c r="B288" s="84"/>
-      <c r="C288" s="128" t="s">
+      <c r="C288" s="120" t="s">
         <v>345</v>
       </c>
       <c r="D288" s="97">
@@ -13928,7 +13924,7 @@
         <v>284</v>
       </c>
       <c r="B289" s="84"/>
-      <c r="C289" s="128" t="s">
+      <c r="C289" s="120" t="s">
         <v>347</v>
       </c>
       <c r="D289" s="97">
@@ -13954,7 +13950,7 @@
         <v>285</v>
       </c>
       <c r="B290" s="84"/>
-      <c r="C290" s="128" t="s">
+      <c r="C290" s="120" t="s">
         <v>349</v>
       </c>
       <c r="D290" s="97">
@@ -13980,7 +13976,7 @@
         <v>286</v>
       </c>
       <c r="B291" s="84"/>
-      <c r="C291" s="128" t="s">
+      <c r="C291" s="120" t="s">
         <v>351</v>
       </c>
       <c r="D291" s="97">
@@ -14006,7 +14002,7 @@
         <v>287</v>
       </c>
       <c r="B292" s="84"/>
-      <c r="C292" s="128" t="s">
+      <c r="C292" s="120" t="s">
         <v>353</v>
       </c>
       <c r="D292" s="97">
@@ -14032,7 +14028,7 @@
         <v>288</v>
       </c>
       <c r="B293" s="84"/>
-      <c r="C293" s="128" t="s">
+      <c r="C293" s="120" t="s">
         <v>355</v>
       </c>
       <c r="D293" s="97">
@@ -14058,7 +14054,7 @@
         <v>289</v>
       </c>
       <c r="B294" s="84"/>
-      <c r="C294" s="128" t="s">
+      <c r="C294" s="120" t="s">
         <v>357</v>
       </c>
       <c r="D294" s="97">
@@ -14084,7 +14080,7 @@
         <v>290</v>
       </c>
       <c r="B295" s="84"/>
-      <c r="C295" s="129" t="s">
+      <c r="C295" s="121" t="s">
         <v>260</v>
       </c>
       <c r="D295" s="97">
@@ -14110,7 +14106,7 @@
         <v>291</v>
       </c>
       <c r="B296" s="84"/>
-      <c r="C296" s="128" t="s">
+      <c r="C296" s="120" t="s">
         <v>360</v>
       </c>
       <c r="D296" s="97">
@@ -14136,7 +14132,7 @@
         <v>292</v>
       </c>
       <c r="B297" s="84"/>
-      <c r="C297" s="128" t="s">
+      <c r="C297" s="120" t="s">
         <v>361</v>
       </c>
       <c r="D297" s="97">
@@ -14162,7 +14158,7 @@
         <v>293</v>
       </c>
       <c r="B298" s="84"/>
-      <c r="C298" s="128" t="s">
+      <c r="C298" s="120" t="s">
         <v>1364</v>
       </c>
       <c r="D298" s="97">
@@ -14188,7 +14184,7 @@
         <v>294</v>
       </c>
       <c r="B299" s="84"/>
-      <c r="C299" s="128" t="s">
+      <c r="C299" s="120" t="s">
         <v>364</v>
       </c>
       <c r="D299" s="97">
@@ -14212,7 +14208,7 @@
         <v>295</v>
       </c>
       <c r="B300" s="84"/>
-      <c r="C300" s="128" t="s">
+      <c r="C300" s="120" t="s">
         <v>365</v>
       </c>
       <c r="D300" s="97">
@@ -14238,7 +14234,7 @@
         <v>296</v>
       </c>
       <c r="B301" s="84"/>
-      <c r="C301" s="128" t="s">
+      <c r="C301" s="120" t="s">
         <v>367</v>
       </c>
       <c r="D301" s="97">
@@ -14264,7 +14260,7 @@
         <v>297</v>
       </c>
       <c r="B302" s="84"/>
-      <c r="C302" s="128" t="s">
+      <c r="C302" s="120" t="s">
         <v>369</v>
       </c>
       <c r="D302" s="97">
@@ -14290,7 +14286,7 @@
         <v>298</v>
       </c>
       <c r="B303" s="84"/>
-      <c r="C303" s="128" t="s">
+      <c r="C303" s="120" t="s">
         <v>371</v>
       </c>
       <c r="D303" s="97">
@@ -14314,7 +14310,7 @@
         <v>299</v>
       </c>
       <c r="B304" s="84"/>
-      <c r="C304" s="128" t="s">
+      <c r="C304" s="120" t="s">
         <v>372</v>
       </c>
       <c r="D304" s="96">
@@ -14338,7 +14334,7 @@
         <v>300</v>
       </c>
       <c r="B305" s="84"/>
-      <c r="C305" s="128" t="s">
+      <c r="C305" s="120" t="s">
         <v>373</v>
       </c>
       <c r="D305" s="97">
@@ -14362,7 +14358,7 @@
         <v>301</v>
       </c>
       <c r="B306" s="84"/>
-      <c r="C306" s="128" t="s">
+      <c r="C306" s="120" t="s">
         <v>374</v>
       </c>
       <c r="D306" s="97">
@@ -14386,7 +14382,7 @@
         <v>302</v>
       </c>
       <c r="B307" s="84"/>
-      <c r="C307" s="128" t="s">
+      <c r="C307" s="120" t="s">
         <v>375</v>
       </c>
       <c r="D307" s="95">
@@ -14410,7 +14406,7 @@
         <v>303</v>
       </c>
       <c r="B308" s="84"/>
-      <c r="C308" s="128" t="s">
+      <c r="C308" s="120" t="s">
         <v>376</v>
       </c>
       <c r="D308" s="97">
@@ -14434,7 +14430,7 @@
         <v>304</v>
       </c>
       <c r="B309" s="84"/>
-      <c r="C309" s="128" t="s">
+      <c r="C309" s="120" t="s">
         <v>377</v>
       </c>
       <c r="D309" s="97">
@@ -14460,7 +14456,7 @@
         <v>305</v>
       </c>
       <c r="B310" s="84"/>
-      <c r="C310" s="128" t="s">
+      <c r="C310" s="120" t="s">
         <v>379</v>
       </c>
       <c r="D310" s="97">
@@ -14484,7 +14480,7 @@
         <v>306</v>
       </c>
       <c r="B311" s="84"/>
-      <c r="C311" s="128" t="s">
+      <c r="C311" s="120" t="s">
         <v>380</v>
       </c>
       <c r="D311" s="97">
@@ -14508,7 +14504,7 @@
         <v>307</v>
       </c>
       <c r="B312" s="84"/>
-      <c r="C312" s="128" t="s">
+      <c r="C312" s="120" t="s">
         <v>381</v>
       </c>
       <c r="D312" s="97">
@@ -14532,7 +14528,7 @@
         <v>308</v>
       </c>
       <c r="B313" s="84"/>
-      <c r="C313" s="128" t="s">
+      <c r="C313" s="120" t="s">
         <v>382</v>
       </c>
       <c r="D313" s="97">
@@ -14556,7 +14552,7 @@
         <v>309</v>
       </c>
       <c r="B314" s="84"/>
-      <c r="C314" s="128" t="s">
+      <c r="C314" s="120" t="s">
         <v>383</v>
       </c>
       <c r="D314" s="95">
@@ -14580,7 +14576,7 @@
         <v>310</v>
       </c>
       <c r="B315" s="84"/>
-      <c r="C315" s="128" t="s">
+      <c r="C315" s="120" t="s">
         <v>384</v>
       </c>
       <c r="D315" s="97">
@@ -14606,7 +14602,7 @@
         <v>311</v>
       </c>
       <c r="B316" s="84"/>
-      <c r="C316" s="128" t="s">
+      <c r="C316" s="120" t="s">
         <v>386</v>
       </c>
       <c r="D316" s="97">
@@ -14630,7 +14626,7 @@
         <v>312</v>
       </c>
       <c r="B317" s="84"/>
-      <c r="C317" s="128" t="s">
+      <c r="C317" s="120" t="s">
         <v>387</v>
       </c>
       <c r="D317" s="97">
@@ -14656,7 +14652,7 @@
         <v>313</v>
       </c>
       <c r="B318" s="84"/>
-      <c r="C318" s="128" t="s">
+      <c r="C318" s="120" t="s">
         <v>389</v>
       </c>
       <c r="D318" s="97">
@@ -14680,7 +14676,7 @@
         <v>314</v>
       </c>
       <c r="B319" s="84"/>
-      <c r="C319" s="128" t="s">
+      <c r="C319" s="120" t="s">
         <v>390</v>
       </c>
       <c r="D319" s="97">
@@ -14704,7 +14700,7 @@
         <v>315</v>
       </c>
       <c r="B320" s="84"/>
-      <c r="C320" s="128" t="s">
+      <c r="C320" s="120" t="s">
         <v>391</v>
       </c>
       <c r="D320" s="97">
@@ -14730,7 +14726,7 @@
         <v>316</v>
       </c>
       <c r="B321" s="84"/>
-      <c r="C321" s="128" t="s">
+      <c r="C321" s="120" t="s">
         <v>393</v>
       </c>
       <c r="D321" s="97">
@@ -14754,7 +14750,7 @@
         <v>317</v>
       </c>
       <c r="B322" s="84"/>
-      <c r="C322" s="128" t="s">
+      <c r="C322" s="120" t="s">
         <v>394</v>
       </c>
       <c r="D322" s="97">
@@ -14778,7 +14774,7 @@
         <v>318</v>
       </c>
       <c r="B323" s="84"/>
-      <c r="C323" s="129" t="s">
+      <c r="C323" s="121" t="s">
         <v>1175</v>
       </c>
       <c r="D323" s="97">
@@ -14802,7 +14798,7 @@
         <v>319</v>
       </c>
       <c r="B324" s="84"/>
-      <c r="C324" s="128" t="s">
+      <c r="C324" s="120" t="s">
         <v>395</v>
       </c>
       <c r="D324" s="97">
@@ -14826,7 +14822,7 @@
         <v>320</v>
       </c>
       <c r="B325" s="84"/>
-      <c r="C325" s="128" t="s">
+      <c r="C325" s="120" t="s">
         <v>396</v>
       </c>
       <c r="D325" s="95">
@@ -14850,7 +14846,7 @@
         <v>321</v>
       </c>
       <c r="B326" s="84"/>
-      <c r="C326" s="128" t="s">
+      <c r="C326" s="120" t="s">
         <v>397</v>
       </c>
       <c r="D326" s="97">
@@ -14874,7 +14870,7 @@
         <v>322</v>
       </c>
       <c r="B327" s="84"/>
-      <c r="C327" s="128" t="s">
+      <c r="C327" s="120" t="s">
         <v>398</v>
       </c>
       <c r="D327" s="97">
@@ -14898,7 +14894,7 @@
         <v>323</v>
       </c>
       <c r="B328" s="84"/>
-      <c r="C328" s="128" t="s">
+      <c r="C328" s="120" t="s">
         <v>399</v>
       </c>
       <c r="D328" s="97">
@@ -14922,7 +14918,7 @@
         <v>324</v>
       </c>
       <c r="B329" s="84"/>
-      <c r="C329" s="128" t="s">
+      <c r="C329" s="120" t="s">
         <v>400</v>
       </c>
       <c r="D329" s="97">
@@ -14948,7 +14944,7 @@
         <v>325</v>
       </c>
       <c r="B330" s="84"/>
-      <c r="C330" s="128" t="s">
+      <c r="C330" s="120" t="s">
         <v>402</v>
       </c>
       <c r="D330" s="97">
@@ -14974,7 +14970,7 @@
         <v>326</v>
       </c>
       <c r="B331" s="84"/>
-      <c r="C331" s="128" t="s">
+      <c r="C331" s="120" t="s">
         <v>404</v>
       </c>
       <c r="D331" s="97">
@@ -14998,7 +14994,7 @@
         <v>327</v>
       </c>
       <c r="B332" s="84"/>
-      <c r="C332" s="128" t="s">
+      <c r="C332" s="120" t="s">
         <v>405</v>
       </c>
       <c r="D332" s="97">
@@ -15022,7 +15018,7 @@
         <v>328</v>
       </c>
       <c r="B333" s="84"/>
-      <c r="C333" s="128" t="s">
+      <c r="C333" s="120" t="s">
         <v>406</v>
       </c>
       <c r="D333" s="97">
@@ -15048,7 +15044,7 @@
         <v>329</v>
       </c>
       <c r="B334" s="84"/>
-      <c r="C334" s="128" t="s">
+      <c r="C334" s="120" t="s">
         <v>408</v>
       </c>
       <c r="D334" s="97">
@@ -15072,7 +15068,7 @@
         <v>330</v>
       </c>
       <c r="B335" s="84"/>
-      <c r="C335" s="128" t="s">
+      <c r="C335" s="120" t="s">
         <v>409</v>
       </c>
       <c r="D335" s="97">
@@ -15098,7 +15094,7 @@
         <v>331</v>
       </c>
       <c r="B336" s="84"/>
-      <c r="C336" s="128" t="s">
+      <c r="C336" s="120" t="s">
         <v>411</v>
       </c>
       <c r="D336" s="97">
@@ -15122,7 +15118,7 @@
         <v>332</v>
       </c>
       <c r="B337" s="84"/>
-      <c r="C337" s="128" t="s">
+      <c r="C337" s="120" t="s">
         <v>412</v>
       </c>
       <c r="D337" s="97">
@@ -15148,7 +15144,7 @@
         <v>333</v>
       </c>
       <c r="B338" s="84"/>
-      <c r="C338" s="128" t="s">
+      <c r="C338" s="120" t="s">
         <v>414</v>
       </c>
       <c r="D338" s="97">
@@ -15172,7 +15168,7 @@
         <v>334</v>
       </c>
       <c r="B339" s="84"/>
-      <c r="C339" s="128" t="s">
+      <c r="C339" s="120" t="s">
         <v>415</v>
       </c>
       <c r="D339" s="97">
@@ -15196,7 +15192,7 @@
         <v>335</v>
       </c>
       <c r="B340" s="84"/>
-      <c r="C340" s="128" t="s">
+      <c r="C340" s="120" t="s">
         <v>416</v>
       </c>
       <c r="D340" s="97">
@@ -15220,7 +15216,7 @@
         <v>336</v>
       </c>
       <c r="B341" s="84"/>
-      <c r="C341" s="128" t="s">
+      <c r="C341" s="120" t="s">
         <v>417</v>
       </c>
       <c r="D341" s="97">
@@ -15244,7 +15240,7 @@
         <v>337</v>
       </c>
       <c r="B342" s="84"/>
-      <c r="C342" s="128" t="s">
+      <c r="C342" s="120" t="s">
         <v>418</v>
       </c>
       <c r="D342" s="97">
@@ -15270,7 +15266,7 @@
         <v>338</v>
       </c>
       <c r="B343" s="84"/>
-      <c r="C343" s="128" t="s">
+      <c r="C343" s="120" t="s">
         <v>420</v>
       </c>
       <c r="D343" s="97">
@@ -15296,7 +15292,7 @@
         <v>339</v>
       </c>
       <c r="B344" s="84"/>
-      <c r="C344" s="128" t="s">
+      <c r="C344" s="120" t="s">
         <v>422</v>
       </c>
       <c r="D344" s="97">
@@ -15322,7 +15318,7 @@
         <v>340</v>
       </c>
       <c r="B345" s="84"/>
-      <c r="C345" s="128" t="s">
+      <c r="C345" s="120" t="s">
         <v>424</v>
       </c>
       <c r="D345" s="97">
@@ -15348,7 +15344,7 @@
         <v>341</v>
       </c>
       <c r="B346" s="84"/>
-      <c r="C346" s="128" t="s">
+      <c r="C346" s="120" t="s">
         <v>426</v>
       </c>
       <c r="D346" s="97">
@@ -15374,7 +15370,7 @@
         <v>342</v>
       </c>
       <c r="B347" s="84"/>
-      <c r="C347" s="128" t="s">
+      <c r="C347" s="120" t="s">
         <v>1365</v>
       </c>
       <c r="D347" s="97">
@@ -15400,7 +15396,7 @@
         <v>343</v>
       </c>
       <c r="B348" s="84"/>
-      <c r="C348" s="131" t="s">
+      <c r="C348" s="123" t="s">
         <v>429</v>
       </c>
       <c r="D348" s="97">
@@ -15426,7 +15422,7 @@
         <v>344</v>
       </c>
       <c r="B349" s="84"/>
-      <c r="C349" s="131" t="s">
+      <c r="C349" s="123" t="s">
         <v>430</v>
       </c>
       <c r="D349" s="97">
@@ -15452,7 +15448,7 @@
         <v>345</v>
       </c>
       <c r="B350" s="84"/>
-      <c r="C350" s="131" t="s">
+      <c r="C350" s="123" t="s">
         <v>432</v>
       </c>
       <c r="D350" s="97">
@@ -15478,7 +15474,7 @@
         <v>346</v>
       </c>
       <c r="B351" s="84"/>
-      <c r="C351" s="131" t="s">
+      <c r="C351" s="123" t="s">
         <v>434</v>
       </c>
       <c r="D351" s="97">
@@ -15504,7 +15500,7 @@
         <v>347</v>
       </c>
       <c r="B352" s="84"/>
-      <c r="C352" s="131" t="s">
+      <c r="C352" s="123" t="s">
         <v>436</v>
       </c>
       <c r="D352" s="97">
@@ -15530,7 +15526,7 @@
         <v>348</v>
       </c>
       <c r="B353" s="84"/>
-      <c r="C353" s="131" t="s">
+      <c r="C353" s="123" t="s">
         <v>438</v>
       </c>
       <c r="D353" s="97">
@@ -15556,7 +15552,7 @@
         <v>349</v>
       </c>
       <c r="B354" s="84"/>
-      <c r="C354" s="131" t="s">
+      <c r="C354" s="123" t="s">
         <v>440</v>
       </c>
       <c r="D354" s="97">
@@ -15582,7 +15578,7 @@
         <v>350</v>
       </c>
       <c r="B355" s="84"/>
-      <c r="C355" s="131" t="s">
+      <c r="C355" s="123" t="s">
         <v>442</v>
       </c>
       <c r="D355" s="97">
@@ -15608,7 +15604,7 @@
         <v>351</v>
       </c>
       <c r="B356" s="84"/>
-      <c r="C356" s="131" t="s">
+      <c r="C356" s="123" t="s">
         <v>444</v>
       </c>
       <c r="D356" s="97">
@@ -15634,7 +15630,7 @@
         <v>352</v>
       </c>
       <c r="B357" s="84"/>
-      <c r="C357" s="131" t="s">
+      <c r="C357" s="123" t="s">
         <v>446</v>
       </c>
       <c r="D357" s="95">
@@ -15660,7 +15656,7 @@
         <v>353</v>
       </c>
       <c r="B358" s="84"/>
-      <c r="C358" s="132" t="s">
+      <c r="C358" s="124" t="s">
         <v>1175</v>
       </c>
       <c r="D358" s="97">
@@ -15684,7 +15680,7 @@
         <v>354</v>
       </c>
       <c r="B359" s="84"/>
-      <c r="C359" s="131" t="s">
+      <c r="C359" s="123" t="s">
         <v>448</v>
       </c>
       <c r="D359" s="95">
@@ -15710,7 +15706,7 @@
         <v>355</v>
       </c>
       <c r="B360" s="84"/>
-      <c r="C360" s="131" t="s">
+      <c r="C360" s="123" t="s">
         <v>450</v>
       </c>
       <c r="D360" s="95">
@@ -15736,7 +15732,7 @@
         <v>356</v>
       </c>
       <c r="B361" s="84"/>
-      <c r="C361" s="131" t="s">
+      <c r="C361" s="123" t="s">
         <v>452</v>
       </c>
       <c r="D361" s="97">
@@ -15760,7 +15756,7 @@
         <v>357</v>
       </c>
       <c r="B362" s="84"/>
-      <c r="C362" s="131" t="s">
+      <c r="C362" s="123" t="s">
         <v>453</v>
       </c>
       <c r="D362" s="97">
@@ -15786,7 +15782,7 @@
         <v>358</v>
       </c>
       <c r="B363" s="84"/>
-      <c r="C363" s="131" t="s">
+      <c r="C363" s="123" t="s">
         <v>455</v>
       </c>
       <c r="D363" s="97">
@@ -15812,7 +15808,7 @@
         <v>359</v>
       </c>
       <c r="B364" s="84"/>
-      <c r="C364" s="131" t="s">
+      <c r="C364" s="123" t="s">
         <v>457</v>
       </c>
       <c r="D364" s="97">
@@ -15838,7 +15834,7 @@
         <v>360</v>
       </c>
       <c r="B365" s="84"/>
-      <c r="C365" s="131" t="s">
+      <c r="C365" s="123" t="s">
         <v>459</v>
       </c>
       <c r="D365" s="97">
@@ -15864,7 +15860,7 @@
         <v>361</v>
       </c>
       <c r="B366" s="84"/>
-      <c r="C366" s="131" t="s">
+      <c r="C366" s="123" t="s">
         <v>461</v>
       </c>
       <c r="D366" s="97">
@@ -15890,7 +15886,7 @@
         <v>362</v>
       </c>
       <c r="B367" s="84"/>
-      <c r="C367" s="128" t="s">
+      <c r="C367" s="120" t="s">
         <v>463</v>
       </c>
       <c r="D367" s="97">
@@ -15916,7 +15912,7 @@
         <v>363</v>
       </c>
       <c r="B368" s="84"/>
-      <c r="C368" s="131" t="s">
+      <c r="C368" s="123" t="s">
         <v>465</v>
       </c>
       <c r="D368" s="97">
@@ -15940,7 +15936,7 @@
         <v>364</v>
       </c>
       <c r="B369" s="84"/>
-      <c r="C369" s="131" t="s">
+      <c r="C369" s="123" t="s">
         <v>466</v>
       </c>
       <c r="D369" s="97">
@@ -15964,7 +15960,7 @@
         <v>365</v>
       </c>
       <c r="B370" s="84"/>
-      <c r="C370" s="131" t="s">
+      <c r="C370" s="123" t="s">
         <v>467</v>
       </c>
       <c r="D370" s="97">
@@ -15988,7 +15984,7 @@
         <v>366</v>
       </c>
       <c r="B371" s="84"/>
-      <c r="C371" s="131" t="s">
+      <c r="C371" s="123" t="s">
         <v>468</v>
       </c>
       <c r="D371" s="97">
@@ -16012,7 +16008,7 @@
         <v>367</v>
       </c>
       <c r="B372" s="84"/>
-      <c r="C372" s="131" t="s">
+      <c r="C372" s="123" t="s">
         <v>469</v>
       </c>
       <c r="D372" s="97">
@@ -16036,7 +16032,7 @@
         <v>368</v>
       </c>
       <c r="B373" s="84"/>
-      <c r="C373" s="131" t="s">
+      <c r="C373" s="123" t="s">
         <v>470</v>
       </c>
       <c r="D373" s="97">
@@ -16062,7 +16058,7 @@
         <v>369</v>
       </c>
       <c r="B374" s="84"/>
-      <c r="C374" s="131" t="s">
+      <c r="C374" s="123" t="s">
         <v>472</v>
       </c>
       <c r="D374" s="97">
@@ -16088,7 +16084,7 @@
         <v>370</v>
       </c>
       <c r="B375" s="84"/>
-      <c r="C375" s="131" t="s">
+      <c r="C375" s="123" t="s">
         <v>474</v>
       </c>
       <c r="D375" s="97">
@@ -16114,7 +16110,7 @@
         <v>371</v>
       </c>
       <c r="B376" s="84"/>
-      <c r="C376" s="131" t="s">
+      <c r="C376" s="123" t="s">
         <v>476</v>
       </c>
       <c r="D376" s="97">
@@ -16140,7 +16136,7 @@
         <v>372</v>
       </c>
       <c r="B377" s="84"/>
-      <c r="C377" s="131" t="s">
+      <c r="C377" s="123" t="s">
         <v>478</v>
       </c>
       <c r="D377" s="96">
@@ -16166,7 +16162,7 @@
         <v>373</v>
       </c>
       <c r="B378" s="84"/>
-      <c r="C378" s="131" t="s">
+      <c r="C378" s="123" t="s">
         <v>480</v>
       </c>
       <c r="D378" s="97">
@@ -16192,7 +16188,7 @@
         <v>374</v>
       </c>
       <c r="B379" s="84"/>
-      <c r="C379" s="131" t="s">
+      <c r="C379" s="123" t="s">
         <v>481</v>
       </c>
       <c r="D379" s="97">
@@ -16218,13 +16214,13 @@
         <v>375</v>
       </c>
       <c r="B380" s="84"/>
-      <c r="C380" s="131" t="s">
+      <c r="C380" s="123" t="s">
         <v>483</v>
       </c>
       <c r="D380" s="97">
         <v>630</v>
       </c>
-      <c r="E380" s="133">
+      <c r="E380" s="125">
         <v>620</v>
       </c>
       <c r="F380" s="66" t="s">
@@ -16244,7 +16240,7 @@
         <v>376</v>
       </c>
       <c r="B381" s="84"/>
-      <c r="C381" s="131" t="s">
+      <c r="C381" s="123" t="s">
         <v>485</v>
       </c>
       <c r="D381" s="97">
@@ -16270,7 +16266,7 @@
         <v>377</v>
       </c>
       <c r="B382" s="84"/>
-      <c r="C382" s="131" t="s">
+      <c r="C382" s="123" t="s">
         <v>487</v>
       </c>
       <c r="D382" s="97">
@@ -16296,7 +16292,7 @@
         <v>378</v>
       </c>
       <c r="B383" s="84"/>
-      <c r="C383" s="131" t="s">
+      <c r="C383" s="123" t="s">
         <v>489</v>
       </c>
       <c r="D383" s="97">
@@ -16322,7 +16318,7 @@
         <v>379</v>
       </c>
       <c r="B384" s="84"/>
-      <c r="C384" s="131" t="s">
+      <c r="C384" s="123" t="s">
         <v>491</v>
       </c>
       <c r="D384" s="97">
@@ -16348,7 +16344,7 @@
         <v>380</v>
       </c>
       <c r="B385" s="84"/>
-      <c r="C385" s="131" t="s">
+      <c r="C385" s="123" t="s">
         <v>493</v>
       </c>
       <c r="D385" s="96">
@@ -16372,7 +16368,7 @@
         <v>381</v>
       </c>
       <c r="B386" s="84"/>
-      <c r="C386" s="131" t="s">
+      <c r="C386" s="123" t="s">
         <v>494</v>
       </c>
       <c r="D386" s="97">
@@ -16396,7 +16392,7 @@
         <v>382</v>
       </c>
       <c r="B387" s="84"/>
-      <c r="C387" s="132" t="s">
+      <c r="C387" s="124" t="s">
         <v>338</v>
       </c>
       <c r="D387" s="97">
@@ -16420,7 +16416,7 @@
         <v>383</v>
       </c>
       <c r="B388" s="84"/>
-      <c r="C388" s="131" t="s">
+      <c r="C388" s="123" t="s">
         <v>495</v>
       </c>
       <c r="D388" s="95">
@@ -16444,7 +16440,7 @@
         <v>384</v>
       </c>
       <c r="B389" s="84"/>
-      <c r="C389" s="131" t="s">
+      <c r="C389" s="123" t="s">
         <v>496</v>
       </c>
       <c r="D389" s="97">
@@ -16468,7 +16464,7 @@
         <v>385</v>
       </c>
       <c r="B390" s="84"/>
-      <c r="C390" s="131" t="s">
+      <c r="C390" s="123" t="s">
         <v>497</v>
       </c>
       <c r="D390" s="97">
@@ -16492,7 +16488,7 @@
         <v>386</v>
       </c>
       <c r="B391" s="84"/>
-      <c r="C391" s="131" t="s">
+      <c r="C391" s="123" t="s">
         <v>498</v>
       </c>
       <c r="D391" s="97">
@@ -16516,7 +16512,7 @@
         <v>387</v>
       </c>
       <c r="B392" s="84"/>
-      <c r="C392" s="128" t="s">
+      <c r="C392" s="120" t="s">
         <v>499</v>
       </c>
       <c r="D392" s="97">
@@ -16540,7 +16536,7 @@
         <v>388</v>
       </c>
       <c r="B393" s="84"/>
-      <c r="C393" s="128" t="s">
+      <c r="C393" s="120" t="s">
         <v>500</v>
       </c>
       <c r="D393" s="97">
@@ -16566,7 +16562,7 @@
         <v>389</v>
       </c>
       <c r="B394" s="84"/>
-      <c r="C394" s="128" t="s">
+      <c r="C394" s="120" t="s">
         <v>502</v>
       </c>
       <c r="D394" s="97">
@@ -16592,7 +16588,7 @@
         <v>390</v>
       </c>
       <c r="B395" s="84"/>
-      <c r="C395" s="128" t="s">
+      <c r="C395" s="120" t="s">
         <v>504</v>
       </c>
       <c r="D395" s="97">
@@ -16618,7 +16614,7 @@
         <v>391</v>
       </c>
       <c r="B396" s="84"/>
-      <c r="C396" s="128" t="s">
+      <c r="C396" s="120" t="s">
         <v>506</v>
       </c>
       <c r="D396" s="97">
@@ -16642,7 +16638,7 @@
         <v>392</v>
       </c>
       <c r="B397" s="84"/>
-      <c r="C397" s="128" t="s">
+      <c r="C397" s="120" t="s">
         <v>1082</v>
       </c>
       <c r="D397" s="97">
@@ -16666,7 +16662,7 @@
         <v>393</v>
       </c>
       <c r="B398" s="84"/>
-      <c r="C398" s="128" t="s">
+      <c r="C398" s="120" t="s">
         <v>507</v>
       </c>
       <c r="D398" s="97">
@@ -16690,7 +16686,7 @@
         <v>394</v>
       </c>
       <c r="B399" s="84"/>
-      <c r="C399" s="128" t="s">
+      <c r="C399" s="120" t="s">
         <v>508</v>
       </c>
       <c r="D399" s="97">
@@ -16716,7 +16712,7 @@
         <v>395</v>
       </c>
       <c r="B400" s="84"/>
-      <c r="C400" s="128" t="s">
+      <c r="C400" s="120" t="s">
         <v>510</v>
       </c>
       <c r="D400" s="97">
@@ -16742,7 +16738,7 @@
         <v>396</v>
       </c>
       <c r="B401" s="84"/>
-      <c r="C401" s="128" t="s">
+      <c r="C401" s="120" t="s">
         <v>512</v>
       </c>
       <c r="D401" s="97">
@@ -16768,7 +16764,7 @@
         <v>397</v>
       </c>
       <c r="B402" s="84"/>
-      <c r="C402" s="128" t="s">
+      <c r="C402" s="120" t="s">
         <v>514</v>
       </c>
       <c r="D402" s="97">
@@ -16794,7 +16790,7 @@
         <v>398</v>
       </c>
       <c r="B403" s="84"/>
-      <c r="C403" s="128" t="s">
+      <c r="C403" s="120" t="s">
         <v>516</v>
       </c>
       <c r="D403" s="97">
@@ -16820,7 +16816,7 @@
         <v>399</v>
       </c>
       <c r="B404" s="84"/>
-      <c r="C404" s="128" t="s">
+      <c r="C404" s="120" t="s">
         <v>518</v>
       </c>
       <c r="D404" s="97">
@@ -16846,7 +16842,7 @@
         <v>400</v>
       </c>
       <c r="B405" s="84"/>
-      <c r="C405" s="128" t="s">
+      <c r="C405" s="120" t="s">
         <v>520</v>
       </c>
       <c r="D405" s="97">
@@ -16872,7 +16868,7 @@
         <v>401</v>
       </c>
       <c r="B406" s="84"/>
-      <c r="C406" s="128" t="s">
+      <c r="C406" s="120" t="s">
         <v>522</v>
       </c>
       <c r="D406" s="97">
@@ -16898,7 +16894,7 @@
         <v>402</v>
       </c>
       <c r="B407" s="84"/>
-      <c r="C407" s="128" t="s">
+      <c r="C407" s="120" t="s">
         <v>524</v>
       </c>
       <c r="D407" s="97">
@@ -16922,7 +16918,7 @@
         <v>403</v>
       </c>
       <c r="B408" s="84"/>
-      <c r="C408" s="128" t="s">
+      <c r="C408" s="120" t="s">
         <v>525</v>
       </c>
       <c r="D408" s="97">
@@ -16946,7 +16942,7 @@
         <v>404</v>
       </c>
       <c r="B409" s="84"/>
-      <c r="C409" s="128" t="s">
+      <c r="C409" s="120" t="s">
         <v>526</v>
       </c>
       <c r="D409" s="97">
@@ -16972,7 +16968,7 @@
         <v>405</v>
       </c>
       <c r="B410" s="84"/>
-      <c r="C410" s="128" t="s">
+      <c r="C410" s="120" t="s">
         <v>528</v>
       </c>
       <c r="D410" s="97">
@@ -16996,7 +16992,7 @@
         <v>406</v>
       </c>
       <c r="B411" s="84"/>
-      <c r="C411" s="128" t="s">
+      <c r="C411" s="120" t="s">
         <v>529</v>
       </c>
       <c r="D411" s="97">
@@ -17022,7 +17018,7 @@
         <v>407</v>
       </c>
       <c r="B412" s="84"/>
-      <c r="C412" s="128" t="s">
+      <c r="C412" s="120" t="s">
         <v>1231</v>
       </c>
       <c r="D412" s="97">
@@ -17046,7 +17042,7 @@
         <v>408</v>
       </c>
       <c r="B413" s="84"/>
-      <c r="C413" s="128" t="s">
+      <c r="C413" s="120" t="s">
         <v>531</v>
       </c>
       <c r="D413" s="97">
@@ -17072,7 +17068,7 @@
         <v>409</v>
       </c>
       <c r="B414" s="84"/>
-      <c r="C414" s="128" t="s">
+      <c r="C414" s="120" t="s">
         <v>533</v>
       </c>
       <c r="D414" s="97">
@@ -17096,7 +17092,7 @@
         <v>410</v>
       </c>
       <c r="B415" s="84"/>
-      <c r="C415" s="128" t="s">
+      <c r="C415" s="120" t="s">
         <v>1245</v>
       </c>
       <c r="D415" s="95">
@@ -17120,7 +17116,7 @@
         <v>411</v>
       </c>
       <c r="B416" s="84"/>
-      <c r="C416" s="128" t="s">
+      <c r="C416" s="120" t="s">
         <v>534</v>
       </c>
       <c r="D416" s="97">
@@ -17146,7 +17142,7 @@
         <v>412</v>
       </c>
       <c r="B417" s="84"/>
-      <c r="C417" s="128" t="s">
+      <c r="C417" s="120" t="s">
         <v>536</v>
       </c>
       <c r="D417" s="97">
@@ -17170,7 +17166,7 @@
         <v>413</v>
       </c>
       <c r="B418" s="84"/>
-      <c r="C418" s="128" t="s">
+      <c r="C418" s="120" t="s">
         <v>537</v>
       </c>
       <c r="D418" s="97">
@@ -17196,7 +17192,7 @@
         <v>414</v>
       </c>
       <c r="B419" s="84"/>
-      <c r="C419" s="128" t="s">
+      <c r="C419" s="120" t="s">
         <v>539</v>
       </c>
       <c r="D419" s="97">
@@ -17222,7 +17218,7 @@
         <v>415</v>
       </c>
       <c r="B420" s="84"/>
-      <c r="C420" s="128" t="s">
+      <c r="C420" s="120" t="s">
         <v>541</v>
       </c>
       <c r="D420" s="97">
@@ -17248,7 +17244,7 @@
         <v>416</v>
       </c>
       <c r="B421" s="84"/>
-      <c r="C421" s="128" t="s">
+      <c r="C421" s="120" t="s">
         <v>543</v>
       </c>
       <c r="D421" s="97">
@@ -17274,7 +17270,7 @@
         <v>417</v>
       </c>
       <c r="B422" s="84"/>
-      <c r="C422" s="128" t="s">
+      <c r="C422" s="120" t="s">
         <v>545</v>
       </c>
       <c r="D422" s="97">
@@ -17298,7 +17294,7 @@
         <v>418</v>
       </c>
       <c r="B423" s="84"/>
-      <c r="C423" s="128" t="s">
+      <c r="C423" s="120" t="s">
         <v>546</v>
       </c>
       <c r="D423" s="97">
@@ -17322,7 +17318,7 @@
         <v>419</v>
       </c>
       <c r="B424" s="84"/>
-      <c r="C424" s="128" t="s">
+      <c r="C424" s="120" t="s">
         <v>547</v>
       </c>
       <c r="D424" s="97">
@@ -17346,7 +17342,7 @@
         <v>420</v>
       </c>
       <c r="B425" s="84"/>
-      <c r="C425" s="128" t="s">
+      <c r="C425" s="120" t="s">
         <v>548</v>
       </c>
       <c r="D425" s="97">
@@ -17370,7 +17366,7 @@
         <v>421</v>
       </c>
       <c r="B426" s="84"/>
-      <c r="C426" s="128" t="s">
+      <c r="C426" s="120" t="s">
         <v>549</v>
       </c>
       <c r="D426" s="97">
@@ -17396,7 +17392,7 @@
         <v>422</v>
       </c>
       <c r="B427" s="84"/>
-      <c r="C427" s="128" t="s">
+      <c r="C427" s="120" t="s">
         <v>551</v>
       </c>
       <c r="D427" s="97">
@@ -17420,7 +17416,7 @@
         <v>423</v>
       </c>
       <c r="B428" s="84"/>
-      <c r="C428" s="128" t="s">
+      <c r="C428" s="120" t="s">
         <v>552</v>
       </c>
       <c r="D428" s="97">
@@ -17444,7 +17440,7 @@
         <v>424</v>
       </c>
       <c r="B429" s="84"/>
-      <c r="C429" s="128" t="s">
+      <c r="C429" s="120" t="s">
         <v>553</v>
       </c>
       <c r="D429" s="97">
@@ -17470,7 +17466,7 @@
         <v>425</v>
       </c>
       <c r="B430" s="84"/>
-      <c r="C430" s="128" t="s">
+      <c r="C430" s="120" t="s">
         <v>555</v>
       </c>
       <c r="D430" s="97">
@@ -17496,7 +17492,7 @@
         <v>426</v>
       </c>
       <c r="B431" s="84"/>
-      <c r="C431" s="128" t="s">
+      <c r="C431" s="120" t="s">
         <v>557</v>
       </c>
       <c r="D431" s="97">
@@ -17520,7 +17516,7 @@
         <v>427</v>
       </c>
       <c r="B432" s="84"/>
-      <c r="C432" s="128" t="s">
+      <c r="C432" s="120" t="s">
         <v>558</v>
       </c>
       <c r="D432" s="97">
@@ -17544,7 +17540,7 @@
         <v>428</v>
       </c>
       <c r="B433" s="84"/>
-      <c r="C433" s="128" t="s">
+      <c r="C433" s="120" t="s">
         <v>559</v>
       </c>
       <c r="D433" s="97">
@@ -17568,7 +17564,7 @@
         <v>429</v>
       </c>
       <c r="B434" s="84"/>
-      <c r="C434" s="128" t="s">
+      <c r="C434" s="120" t="s">
         <v>560</v>
       </c>
       <c r="D434" s="97">
@@ -17592,7 +17588,7 @@
         <v>430</v>
       </c>
       <c r="B435" s="84"/>
-      <c r="C435" s="128" t="s">
+      <c r="C435" s="120" t="s">
         <v>561</v>
       </c>
       <c r="D435" s="97">
@@ -17618,7 +17614,7 @@
         <v>431</v>
       </c>
       <c r="B436" s="84"/>
-      <c r="C436" s="128" t="s">
+      <c r="C436" s="120" t="s">
         <v>563</v>
       </c>
       <c r="D436" s="95">
@@ -17642,7 +17638,7 @@
         <v>432</v>
       </c>
       <c r="B437" s="84"/>
-      <c r="C437" s="128" t="s">
+      <c r="C437" s="120" t="s">
         <v>564</v>
       </c>
       <c r="D437" s="97">
@@ -17666,7 +17662,7 @@
         <v>433</v>
       </c>
       <c r="B438" s="84"/>
-      <c r="C438" s="128" t="s">
+      <c r="C438" s="120" t="s">
         <v>565</v>
       </c>
       <c r="D438" s="97">
@@ -17690,7 +17686,7 @@
         <v>434</v>
       </c>
       <c r="B439" s="84"/>
-      <c r="C439" s="128" t="s">
+      <c r="C439" s="120" t="s">
         <v>566</v>
       </c>
       <c r="D439" s="97">
@@ -17714,7 +17710,7 @@
         <v>435</v>
       </c>
       <c r="B440" s="84"/>
-      <c r="C440" s="128" t="s">
+      <c r="C440" s="120" t="s">
         <v>567</v>
       </c>
       <c r="D440" s="97">
@@ -17738,7 +17734,7 @@
         <v>436</v>
       </c>
       <c r="B441" s="84"/>
-      <c r="C441" s="128" t="s">
+      <c r="C441" s="120" t="s">
         <v>568</v>
       </c>
       <c r="D441" s="97">
@@ -17762,7 +17758,7 @@
         <v>437</v>
       </c>
       <c r="B442" s="84"/>
-      <c r="C442" s="128" t="s">
+      <c r="C442" s="120" t="s">
         <v>569</v>
       </c>
       <c r="D442" s="97">
@@ -17788,7 +17784,7 @@
         <v>438</v>
       </c>
       <c r="B443" s="84"/>
-      <c r="C443" s="129" t="s">
+      <c r="C443" s="121" t="s">
         <v>1175</v>
       </c>
       <c r="D443" s="97">
@@ -17812,7 +17808,7 @@
         <v>439</v>
       </c>
       <c r="B444" s="84"/>
-      <c r="C444" s="128" t="s">
+      <c r="C444" s="120" t="s">
         <v>571</v>
       </c>
       <c r="D444" s="97">
@@ -17836,7 +17832,7 @@
         <v>440</v>
       </c>
       <c r="B445" s="84"/>
-      <c r="C445" s="128" t="s">
+      <c r="C445" s="120" t="s">
         <v>572</v>
       </c>
       <c r="D445" s="97">
@@ -17860,7 +17856,7 @@
         <v>441</v>
       </c>
       <c r="B446" s="84"/>
-      <c r="C446" s="128" t="s">
+      <c r="C446" s="120" t="s">
         <v>573</v>
       </c>
       <c r="D446" s="97">
@@ -17886,7 +17882,7 @@
         <v>442</v>
       </c>
       <c r="B447" s="84"/>
-      <c r="C447" s="128" t="s">
+      <c r="C447" s="120" t="s">
         <v>575</v>
       </c>
       <c r="D447" s="97">
@@ -17910,7 +17906,7 @@
         <v>443</v>
       </c>
       <c r="B448" s="84"/>
-      <c r="C448" s="128" t="s">
+      <c r="C448" s="120" t="s">
         <v>576</v>
       </c>
       <c r="D448" s="97">
@@ -17934,7 +17930,7 @@
         <v>444</v>
       </c>
       <c r="B449" s="84"/>
-      <c r="C449" s="128" t="s">
+      <c r="C449" s="120" t="s">
         <v>577</v>
       </c>
       <c r="D449" s="97">
@@ -17958,7 +17954,7 @@
         <v>445</v>
       </c>
       <c r="B450" s="84"/>
-      <c r="C450" s="128" t="s">
+      <c r="C450" s="120" t="s">
         <v>578</v>
       </c>
       <c r="D450" s="97">
@@ -17982,7 +17978,7 @@
         <v>446</v>
       </c>
       <c r="B451" s="84"/>
-      <c r="C451" s="128" t="s">
+      <c r="C451" s="120" t="s">
         <v>579</v>
       </c>
       <c r="D451" s="97">
@@ -18006,7 +18002,7 @@
         <v>447</v>
       </c>
       <c r="B452" s="84"/>
-      <c r="C452" s="128" t="s">
+      <c r="C452" s="120" t="s">
         <v>580</v>
       </c>
       <c r="D452" s="97">
@@ -18030,7 +18026,7 @@
         <v>448</v>
       </c>
       <c r="B453" s="84"/>
-      <c r="C453" s="128" t="s">
+      <c r="C453" s="120" t="s">
         <v>581</v>
       </c>
       <c r="D453" s="97">
@@ -18056,7 +18052,7 @@
         <v>449</v>
       </c>
       <c r="B454" s="84"/>
-      <c r="C454" s="128" t="s">
+      <c r="C454" s="120" t="s">
         <v>583</v>
       </c>
       <c r="D454" s="97">
@@ -18080,7 +18076,7 @@
         <v>450</v>
       </c>
       <c r="B455" s="84"/>
-      <c r="C455" s="128" t="s">
+      <c r="C455" s="120" t="s">
         <v>584</v>
       </c>
       <c r="D455" s="97">
@@ -18104,7 +18100,7 @@
         <v>451</v>
       </c>
       <c r="B456" s="84"/>
-      <c r="C456" s="128" t="s">
+      <c r="C456" s="120" t="s">
         <v>585</v>
       </c>
       <c r="D456" s="97">
@@ -18130,7 +18126,7 @@
       <c r="B457" s="84" t="s">
         <v>586</v>
       </c>
-      <c r="C457" s="128" t="s">
+      <c r="C457" s="120" t="s">
         <v>587</v>
       </c>
       <c r="D457" s="95">
@@ -18154,7 +18150,7 @@
         <v>453</v>
       </c>
       <c r="B458" s="84"/>
-      <c r="C458" s="130" t="s">
+      <c r="C458" s="122" t="s">
         <v>588</v>
       </c>
       <c r="D458" s="96">
@@ -18178,7 +18174,7 @@
         <v>454</v>
       </c>
       <c r="B459" s="84"/>
-      <c r="C459" s="128" t="s">
+      <c r="C459" s="120" t="s">
         <v>589</v>
       </c>
       <c r="D459" s="97">
@@ -18202,7 +18198,7 @@
         <v>455</v>
       </c>
       <c r="B460" s="84"/>
-      <c r="C460" s="128" t="s">
+      <c r="C460" s="120" t="s">
         <v>590</v>
       </c>
       <c r="D460" s="97">
@@ -18226,7 +18222,7 @@
         <v>456</v>
       </c>
       <c r="B461" s="84"/>
-      <c r="C461" s="128" t="s">
+      <c r="C461" s="120" t="s">
         <v>591</v>
       </c>
       <c r="D461" s="97">
@@ -18252,7 +18248,7 @@
         <v>457</v>
       </c>
       <c r="B462" s="84"/>
-      <c r="C462" s="128" t="s">
+      <c r="C462" s="120" t="s">
         <v>593</v>
       </c>
       <c r="D462" s="97">
@@ -18276,7 +18272,7 @@
         <v>458</v>
       </c>
       <c r="B463" s="84"/>
-      <c r="C463" s="128" t="s">
+      <c r="C463" s="120" t="s">
         <v>594</v>
       </c>
       <c r="D463" s="97">
@@ -18302,7 +18298,7 @@
         <v>459</v>
       </c>
       <c r="B464" s="84"/>
-      <c r="C464" s="128" t="s">
+      <c r="C464" s="120" t="s">
         <v>596</v>
       </c>
       <c r="D464" s="97">
@@ -18328,7 +18324,7 @@
         <v>460</v>
       </c>
       <c r="B465" s="84"/>
-      <c r="C465" s="128" t="s">
+      <c r="C465" s="120" t="s">
         <v>598</v>
       </c>
       <c r="D465" s="97">
@@ -18352,7 +18348,7 @@
         <v>461</v>
       </c>
       <c r="B466" s="84"/>
-      <c r="C466" s="128" t="s">
+      <c r="C466" s="120" t="s">
         <v>599</v>
       </c>
       <c r="D466" s="97">
@@ -18378,7 +18374,7 @@
         <v>462</v>
       </c>
       <c r="B467" s="84"/>
-      <c r="C467" s="128" t="s">
+      <c r="C467" s="120" t="s">
         <v>601</v>
       </c>
       <c r="D467" s="97">
@@ -18402,7 +18398,7 @@
         <v>463</v>
       </c>
       <c r="B468" s="84"/>
-      <c r="C468" s="128" t="s">
+      <c r="C468" s="120" t="s">
         <v>602</v>
       </c>
       <c r="D468" s="97">
@@ -18426,7 +18422,7 @@
         <v>464</v>
       </c>
       <c r="B469" s="84"/>
-      <c r="C469" s="128" t="s">
+      <c r="C469" s="120" t="s">
         <v>603</v>
       </c>
       <c r="D469" s="97">
@@ -18450,7 +18446,7 @@
         <v>465</v>
       </c>
       <c r="B470" s="84"/>
-      <c r="C470" s="128" t="s">
+      <c r="C470" s="120" t="s">
         <v>604</v>
       </c>
       <c r="D470" s="97">
@@ -18474,7 +18470,7 @@
         <v>466</v>
       </c>
       <c r="B471" s="84"/>
-      <c r="C471" s="128" t="s">
+      <c r="C471" s="120" t="s">
         <v>605</v>
       </c>
       <c r="D471" s="97">
@@ -18498,7 +18494,7 @@
         <v>467</v>
       </c>
       <c r="B472" s="84"/>
-      <c r="C472" s="128" t="s">
+      <c r="C472" s="120" t="s">
         <v>606</v>
       </c>
       <c r="D472" s="97">
@@ -18522,7 +18518,7 @@
         <v>468</v>
       </c>
       <c r="B473" s="84"/>
-      <c r="C473" s="128" t="s">
+      <c r="C473" s="120" t="s">
         <v>607</v>
       </c>
       <c r="D473" s="97">
@@ -18546,7 +18542,7 @@
         <v>469</v>
       </c>
       <c r="B474" s="84"/>
-      <c r="C474" s="128" t="s">
+      <c r="C474" s="120" t="s">
         <v>608</v>
       </c>
       <c r="D474" s="97">
@@ -18570,7 +18566,7 @@
         <v>470</v>
       </c>
       <c r="B475" s="84"/>
-      <c r="C475" s="128" t="s">
+      <c r="C475" s="120" t="s">
         <v>609</v>
       </c>
       <c r="D475" s="97">
@@ -18596,7 +18592,7 @@
         <v>471</v>
       </c>
       <c r="B476" s="84"/>
-      <c r="C476" s="128" t="s">
+      <c r="C476" s="120" t="s">
         <v>611</v>
       </c>
       <c r="D476" s="97">
@@ -18620,7 +18616,7 @@
         <v>472</v>
       </c>
       <c r="B477" s="84"/>
-      <c r="C477" s="128" t="s">
+      <c r="C477" s="120" t="s">
         <v>612</v>
       </c>
       <c r="D477" s="97">
@@ -18644,7 +18640,7 @@
         <v>473</v>
       </c>
       <c r="B478" s="84"/>
-      <c r="C478" s="128" t="s">
+      <c r="C478" s="120" t="s">
         <v>1435</v>
       </c>
       <c r="D478" s="95">
@@ -18670,7 +18666,7 @@
         <v>474</v>
       </c>
       <c r="B479" s="84"/>
-      <c r="C479" s="128" t="s">
+      <c r="C479" s="120" t="s">
         <v>614</v>
       </c>
       <c r="D479" s="97">
@@ -18694,7 +18690,7 @@
         <v>475</v>
       </c>
       <c r="B480" s="84"/>
-      <c r="C480" s="128" t="s">
+      <c r="C480" s="120" t="s">
         <v>615</v>
       </c>
       <c r="D480" s="97">
@@ -18718,7 +18714,7 @@
         <v>476</v>
       </c>
       <c r="B481" s="84"/>
-      <c r="C481" s="128" t="s">
+      <c r="C481" s="120" t="s">
         <v>616</v>
       </c>
       <c r="D481" s="97">
@@ -18742,7 +18738,7 @@
         <v>477</v>
       </c>
       <c r="B482" s="84"/>
-      <c r="C482" s="128" t="s">
+      <c r="C482" s="120" t="s">
         <v>617</v>
       </c>
       <c r="D482" s="97">
@@ -18766,7 +18762,7 @@
         <v>478</v>
       </c>
       <c r="B483" s="84"/>
-      <c r="C483" s="128" t="s">
+      <c r="C483" s="120" t="s">
         <v>618</v>
       </c>
       <c r="D483" s="97">
@@ -18790,7 +18786,7 @@
         <v>479</v>
       </c>
       <c r="B484" s="84"/>
-      <c r="C484" s="128" t="s">
+      <c r="C484" s="120" t="s">
         <v>619</v>
       </c>
       <c r="D484" s="97">
@@ -18816,7 +18812,7 @@
         <v>480</v>
       </c>
       <c r="B485" s="84"/>
-      <c r="C485" s="128" t="s">
+      <c r="C485" s="120" t="s">
         <v>621</v>
       </c>
       <c r="D485" s="97">
@@ -18842,7 +18838,7 @@
         <v>481</v>
       </c>
       <c r="B486" s="84"/>
-      <c r="C486" s="128" t="s">
+      <c r="C486" s="120" t="s">
         <v>623</v>
       </c>
       <c r="D486" s="97">
@@ -18868,7 +18864,7 @@
         <v>482</v>
       </c>
       <c r="B487" s="84"/>
-      <c r="C487" s="128" t="s">
+      <c r="C487" s="120" t="s">
         <v>625</v>
       </c>
       <c r="D487" s="97">
@@ -18892,7 +18888,7 @@
         <v>483</v>
       </c>
       <c r="B488" s="84"/>
-      <c r="C488" s="128" t="s">
+      <c r="C488" s="120" t="s">
         <v>626</v>
       </c>
       <c r="D488" s="97">
@@ -18918,7 +18914,7 @@
         <v>484</v>
       </c>
       <c r="B489" s="84"/>
-      <c r="C489" s="128" t="s">
+      <c r="C489" s="120" t="s">
         <v>628</v>
       </c>
       <c r="D489" s="97">
@@ -18942,7 +18938,7 @@
         <v>485</v>
       </c>
       <c r="B490" s="84"/>
-      <c r="C490" s="128" t="s">
+      <c r="C490" s="120" t="s">
         <v>629</v>
       </c>
       <c r="D490" s="97">
@@ -18966,7 +18962,7 @@
         <v>486</v>
       </c>
       <c r="B491" s="84"/>
-      <c r="C491" s="128" t="s">
+      <c r="C491" s="120" t="s">
         <v>630</v>
       </c>
       <c r="D491" s="97">
@@ -18990,7 +18986,7 @@
         <v>487</v>
       </c>
       <c r="B492" s="84"/>
-      <c r="C492" s="128" t="s">
+      <c r="C492" s="120" t="s">
         <v>631</v>
       </c>
       <c r="D492" s="97">
@@ -19014,7 +19010,7 @@
         <v>488</v>
       </c>
       <c r="B493" s="84"/>
-      <c r="C493" s="128" t="s">
+      <c r="C493" s="120" t="s">
         <v>632</v>
       </c>
       <c r="D493" s="97">
@@ -19038,7 +19034,7 @@
         <v>489</v>
       </c>
       <c r="B494" s="84"/>
-      <c r="C494" s="128" t="s">
+      <c r="C494" s="120" t="s">
         <v>633</v>
       </c>
       <c r="D494" s="97">
@@ -19062,7 +19058,7 @@
         <v>490</v>
       </c>
       <c r="B495" s="84"/>
-      <c r="C495" s="128" t="s">
+      <c r="C495" s="120" t="s">
         <v>634</v>
       </c>
       <c r="D495" s="97">
@@ -19088,7 +19084,7 @@
         <v>491</v>
       </c>
       <c r="B496" s="84"/>
-      <c r="C496" s="128" t="s">
+      <c r="C496" s="120" t="s">
         <v>636</v>
       </c>
       <c r="D496" s="97">
@@ -19112,7 +19108,7 @@
         <v>492</v>
       </c>
       <c r="B497" s="84"/>
-      <c r="C497" s="128" t="s">
+      <c r="C497" s="120" t="s">
         <v>637</v>
       </c>
       <c r="D497" s="97">
@@ -19136,7 +19132,7 @@
         <v>493</v>
       </c>
       <c r="B498" s="84"/>
-      <c r="C498" s="128" t="s">
+      <c r="C498" s="120" t="s">
         <v>638</v>
       </c>
       <c r="D498" s="97">
@@ -19160,7 +19156,7 @@
         <v>494</v>
       </c>
       <c r="B499" s="84"/>
-      <c r="C499" s="128" t="s">
+      <c r="C499" s="120" t="s">
         <v>639</v>
       </c>
       <c r="D499" s="97">
@@ -19184,7 +19180,7 @@
         <v>495</v>
       </c>
       <c r="B500" s="84"/>
-      <c r="C500" s="128" t="s">
+      <c r="C500" s="120" t="s">
         <v>640</v>
       </c>
       <c r="D500" s="97">
@@ -19208,7 +19204,7 @@
         <v>496</v>
       </c>
       <c r="B501" s="84"/>
-      <c r="C501" s="128" t="s">
+      <c r="C501" s="120" t="s">
         <v>641</v>
       </c>
       <c r="D501" s="97">
@@ -19234,7 +19230,7 @@
         <v>497</v>
       </c>
       <c r="B502" s="84"/>
-      <c r="C502" s="128" t="s">
+      <c r="C502" s="120" t="s">
         <v>643</v>
       </c>
       <c r="D502" s="97">
@@ -19258,7 +19254,7 @@
         <v>498</v>
       </c>
       <c r="B503" s="84"/>
-      <c r="C503" s="128" t="s">
+      <c r="C503" s="120" t="s">
         <v>644</v>
       </c>
       <c r="D503" s="97">
@@ -19282,7 +19278,7 @@
         <v>499</v>
       </c>
       <c r="B504" s="84"/>
-      <c r="C504" s="128" t="s">
+      <c r="C504" s="120" t="s">
         <v>645</v>
       </c>
       <c r="D504" s="97">
@@ -19306,7 +19302,7 @@
         <v>500</v>
       </c>
       <c r="B505" s="84"/>
-      <c r="C505" s="128" t="s">
+      <c r="C505" s="120" t="s">
         <v>646</v>
       </c>
       <c r="D505" s="97">
@@ -19332,7 +19328,7 @@
         <v>501</v>
       </c>
       <c r="B506" s="84"/>
-      <c r="C506" s="128" t="s">
+      <c r="C506" s="120" t="s">
         <v>648</v>
       </c>
       <c r="D506" s="97">
@@ -19358,7 +19354,7 @@
         <v>502</v>
       </c>
       <c r="B507" s="84"/>
-      <c r="C507" s="128" t="s">
+      <c r="C507" s="120" t="s">
         <v>650</v>
       </c>
       <c r="D507" s="97">
@@ -19384,7 +19380,7 @@
         <v>503</v>
       </c>
       <c r="B508" s="84"/>
-      <c r="C508" s="128" t="s">
+      <c r="C508" s="120" t="s">
         <v>652</v>
       </c>
       <c r="D508" s="97">
@@ -19408,7 +19404,7 @@
         <v>504</v>
       </c>
       <c r="B509" s="84"/>
-      <c r="C509" s="128" t="s">
+      <c r="C509" s="120" t="s">
         <v>653</v>
       </c>
       <c r="D509" s="97">
@@ -19434,7 +19430,7 @@
         <v>505</v>
       </c>
       <c r="B510" s="84"/>
-      <c r="C510" s="128" t="s">
+      <c r="C510" s="120" t="s">
         <v>655</v>
       </c>
       <c r="D510" s="97">
@@ -19460,7 +19456,7 @@
         <v>506</v>
       </c>
       <c r="B511" s="84"/>
-      <c r="C511" s="128" t="s">
+      <c r="C511" s="120" t="s">
         <v>657</v>
       </c>
       <c r="D511" s="97">
@@ -19486,7 +19482,7 @@
         <v>507</v>
       </c>
       <c r="B512" s="84"/>
-      <c r="C512" s="128" t="s">
+      <c r="C512" s="120" t="s">
         <v>659</v>
       </c>
       <c r="D512" s="97">
@@ -19512,7 +19508,7 @@
         <v>508</v>
       </c>
       <c r="B513" s="84"/>
-      <c r="C513" s="128" t="s">
+      <c r="C513" s="120" t="s">
         <v>661</v>
       </c>
       <c r="D513" s="97">
@@ -19536,7 +19532,7 @@
         <v>509</v>
       </c>
       <c r="B514" s="84"/>
-      <c r="C514" s="128" t="s">
+      <c r="C514" s="120" t="s">
         <v>662</v>
       </c>
       <c r="D514" s="97">
@@ -19562,7 +19558,7 @@
         <v>510</v>
       </c>
       <c r="B515" s="84"/>
-      <c r="C515" s="128" t="s">
+      <c r="C515" s="120" t="s">
         <v>664</v>
       </c>
       <c r="D515" s="95">
@@ -19588,7 +19584,7 @@
         <v>511</v>
       </c>
       <c r="B516" s="84"/>
-      <c r="C516" s="128" t="s">
+      <c r="C516" s="120" t="s">
         <v>666</v>
       </c>
       <c r="D516" s="97">
@@ -19614,7 +19610,7 @@
         <v>512</v>
       </c>
       <c r="B517" s="84"/>
-      <c r="C517" s="128" t="s">
+      <c r="C517" s="120" t="s">
         <v>668</v>
       </c>
       <c r="D517" s="97">
@@ -19640,7 +19636,7 @@
         <v>513</v>
       </c>
       <c r="B518" s="84"/>
-      <c r="C518" s="128" t="s">
+      <c r="C518" s="120" t="s">
         <v>670</v>
       </c>
       <c r="D518" s="97">
@@ -19664,7 +19660,7 @@
         <v>514</v>
       </c>
       <c r="B519" s="84"/>
-      <c r="C519" s="128" t="s">
+      <c r="C519" s="120" t="s">
         <v>671</v>
       </c>
       <c r="D519" s="97">
@@ -19690,7 +19686,7 @@
         <v>515</v>
       </c>
       <c r="B520" s="84"/>
-      <c r="C520" s="128" t="s">
+      <c r="C520" s="120" t="s">
         <v>673</v>
       </c>
       <c r="D520" s="95">
@@ -19716,7 +19712,7 @@
         <v>516</v>
       </c>
       <c r="B521" s="84"/>
-      <c r="C521" s="128" t="s">
+      <c r="C521" s="120" t="s">
         <v>675</v>
       </c>
       <c r="D521" s="97">
@@ -19742,7 +19738,7 @@
         <v>517</v>
       </c>
       <c r="B522" s="84"/>
-      <c r="C522" s="128" t="s">
+      <c r="C522" s="120" t="s">
         <v>677</v>
       </c>
       <c r="D522" s="97">
@@ -19768,7 +19764,7 @@
         <v>518</v>
       </c>
       <c r="B523" s="84"/>
-      <c r="C523" s="128" t="s">
+      <c r="C523" s="120" t="s">
         <v>679</v>
       </c>
       <c r="D523" s="97">
@@ -19794,7 +19790,7 @@
         <v>519</v>
       </c>
       <c r="B524" s="84"/>
-      <c r="C524" s="128" t="s">
+      <c r="C524" s="120" t="s">
         <v>681</v>
       </c>
       <c r="D524" s="97">
@@ -19820,7 +19816,7 @@
         <v>520</v>
       </c>
       <c r="B525" s="84"/>
-      <c r="C525" s="128" t="s">
+      <c r="C525" s="120" t="s">
         <v>683</v>
       </c>
       <c r="D525" s="97">
@@ -19846,7 +19842,7 @@
         <v>521</v>
       </c>
       <c r="B526" s="84"/>
-      <c r="C526" s="128" t="s">
+      <c r="C526" s="120" t="s">
         <v>685</v>
       </c>
       <c r="D526" s="97">
@@ -19872,7 +19868,7 @@
         <v>522</v>
       </c>
       <c r="B527" s="84"/>
-      <c r="C527" s="128" t="s">
+      <c r="C527" s="120" t="s">
         <v>687</v>
       </c>
       <c r="D527" s="95">
@@ -19896,7 +19892,7 @@
         <v>523</v>
       </c>
       <c r="B528" s="84"/>
-      <c r="C528" s="128" t="s">
+      <c r="C528" s="120" t="s">
         <v>688</v>
       </c>
       <c r="D528" s="97">
@@ -19922,7 +19918,7 @@
         <v>524</v>
       </c>
       <c r="B529" s="84"/>
-      <c r="C529" s="128" t="s">
+      <c r="C529" s="120" t="s">
         <v>690</v>
       </c>
       <c r="D529" s="95">
@@ -19948,7 +19944,7 @@
         <v>525</v>
       </c>
       <c r="B530" s="84"/>
-      <c r="C530" s="128" t="s">
+      <c r="C530" s="120" t="s">
         <v>692</v>
       </c>
       <c r="D530" s="97">
@@ -19972,7 +19968,7 @@
         <v>526</v>
       </c>
       <c r="B531" s="84"/>
-      <c r="C531" s="128" t="s">
+      <c r="C531" s="120" t="s">
         <v>693</v>
       </c>
       <c r="D531" s="97">
@@ -19996,7 +19992,7 @@
         <v>527</v>
       </c>
       <c r="B532" s="84"/>
-      <c r="C532" s="128" t="s">
+      <c r="C532" s="120" t="s">
         <v>694</v>
       </c>
       <c r="D532" s="97">
@@ -20020,7 +20016,7 @@
         <v>528</v>
       </c>
       <c r="B533" s="84"/>
-      <c r="C533" s="128" t="s">
+      <c r="C533" s="120" t="s">
         <v>695</v>
       </c>
       <c r="D533" s="97">
@@ -20044,7 +20040,7 @@
         <v>529</v>
       </c>
       <c r="B534" s="84"/>
-      <c r="C534" s="128" t="s">
+      <c r="C534" s="120" t="s">
         <v>696</v>
       </c>
       <c r="D534" s="97">
@@ -20070,7 +20066,7 @@
         <v>530</v>
       </c>
       <c r="B535" s="84"/>
-      <c r="C535" s="128" t="s">
+      <c r="C535" s="120" t="s">
         <v>698</v>
       </c>
       <c r="D535" s="97">
@@ -20094,7 +20090,7 @@
         <v>531</v>
       </c>
       <c r="B536" s="84"/>
-      <c r="C536" s="128" t="s">
+      <c r="C536" s="120" t="s">
         <v>699</v>
       </c>
       <c r="D536" s="97">
@@ -20118,7 +20114,7 @@
         <v>532</v>
       </c>
       <c r="B537" s="84"/>
-      <c r="C537" s="128" t="s">
+      <c r="C537" s="120" t="s">
         <v>700</v>
       </c>
       <c r="D537" s="97">
@@ -20144,7 +20140,7 @@
         <v>533</v>
       </c>
       <c r="B538" s="84"/>
-      <c r="C538" s="128" t="s">
+      <c r="C538" s="120" t="s">
         <v>702</v>
       </c>
       <c r="D538" s="97">
@@ -20170,7 +20166,7 @@
         <v>534</v>
       </c>
       <c r="B539" s="84"/>
-      <c r="C539" s="128" t="s">
+      <c r="C539" s="120" t="s">
         <v>704</v>
       </c>
       <c r="D539" s="97">
@@ -20196,7 +20192,7 @@
         <v>535</v>
       </c>
       <c r="B540" s="84"/>
-      <c r="C540" s="128" t="s">
+      <c r="C540" s="120" t="s">
         <v>706</v>
       </c>
       <c r="D540" s="97">
@@ -20220,7 +20216,7 @@
         <v>536</v>
       </c>
       <c r="B541" s="84"/>
-      <c r="C541" s="128" t="s">
+      <c r="C541" s="120" t="s">
         <v>707</v>
       </c>
       <c r="D541" s="97">
@@ -20244,7 +20240,7 @@
         <v>537</v>
       </c>
       <c r="B542" s="84"/>
-      <c r="C542" s="128" t="s">
+      <c r="C542" s="120" t="s">
         <v>708</v>
       </c>
       <c r="D542" s="97">
@@ -20270,7 +20266,7 @@
         <v>538</v>
       </c>
       <c r="B543" s="84"/>
-      <c r="C543" s="128" t="s">
+      <c r="C543" s="120" t="s">
         <v>710</v>
       </c>
       <c r="D543" s="97">
@@ -20294,7 +20290,7 @@
         <v>539</v>
       </c>
       <c r="B544" s="84"/>
-      <c r="C544" s="128" t="s">
+      <c r="C544" s="120" t="s">
         <v>711</v>
       </c>
       <c r="D544" s="97">
@@ -20318,7 +20314,7 @@
         <v>540</v>
       </c>
       <c r="B545" s="84"/>
-      <c r="C545" s="128" t="s">
+      <c r="C545" s="120" t="s">
         <v>712</v>
       </c>
       <c r="D545" s="95">
@@ -20342,7 +20338,7 @@
         <v>541</v>
       </c>
       <c r="B546" s="84"/>
-      <c r="C546" s="128" t="s">
+      <c r="C546" s="120" t="s">
         <v>713</v>
       </c>
       <c r="D546" s="97">
@@ -20366,7 +20362,7 @@
         <v>542</v>
       </c>
       <c r="B547" s="84"/>
-      <c r="C547" s="128" t="s">
+      <c r="C547" s="120" t="s">
         <v>714</v>
       </c>
       <c r="D547" s="97">
@@ -20390,7 +20386,7 @@
         <v>543</v>
       </c>
       <c r="B548" s="84"/>
-      <c r="C548" s="128" t="s">
+      <c r="C548" s="120" t="s">
         <v>715</v>
       </c>
       <c r="D548" s="97">
@@ -20416,7 +20412,7 @@
         <v>544</v>
       </c>
       <c r="B549" s="84"/>
-      <c r="C549" s="128" t="s">
+      <c r="C549" s="120" t="s">
         <v>717</v>
       </c>
       <c r="D549" s="97">
@@ -20440,7 +20436,7 @@
         <v>545</v>
       </c>
       <c r="B550" s="84"/>
-      <c r="C550" s="128" t="s">
+      <c r="C550" s="120" t="s">
         <v>718</v>
       </c>
       <c r="D550" s="97">
@@ -20466,7 +20462,7 @@
         <v>546</v>
       </c>
       <c r="B551" s="84"/>
-      <c r="C551" s="128" t="s">
+      <c r="C551" s="120" t="s">
         <v>720</v>
       </c>
       <c r="D551" s="97">
@@ -20492,7 +20488,7 @@
         <v>547</v>
       </c>
       <c r="B552" s="84"/>
-      <c r="C552" s="128" t="s">
+      <c r="C552" s="120" t="s">
         <v>722</v>
       </c>
       <c r="D552" s="97">
@@ -20516,7 +20512,7 @@
         <v>548</v>
       </c>
       <c r="B553" s="84"/>
-      <c r="C553" s="128" t="s">
+      <c r="C553" s="120" t="s">
         <v>723</v>
       </c>
       <c r="D553" s="97">
@@ -20542,7 +20538,7 @@
         <v>549</v>
       </c>
       <c r="B554" s="84"/>
-      <c r="C554" s="128" t="s">
+      <c r="C554" s="120" t="s">
         <v>725</v>
       </c>
       <c r="D554" s="97">
@@ -20566,7 +20562,7 @@
         <v>550</v>
       </c>
       <c r="B555" s="84"/>
-      <c r="C555" s="128" t="s">
+      <c r="C555" s="120" t="s">
         <v>726</v>
       </c>
       <c r="D555" s="97">
@@ -20592,7 +20588,7 @@
         <v>551</v>
       </c>
       <c r="B556" s="84"/>
-      <c r="C556" s="128" t="s">
+      <c r="C556" s="120" t="s">
         <v>728</v>
       </c>
       <c r="D556" s="97">
@@ -20618,7 +20614,7 @@
         <v>552</v>
       </c>
       <c r="B557" s="84"/>
-      <c r="C557" s="128" t="s">
+      <c r="C557" s="120" t="s">
         <v>730</v>
       </c>
       <c r="D557" s="97">
@@ -20642,7 +20638,7 @@
         <v>553</v>
       </c>
       <c r="B558" s="84"/>
-      <c r="C558" s="128" t="s">
+      <c r="C558" s="120" t="s">
         <v>731</v>
       </c>
       <c r="D558" s="97">
@@ -20668,7 +20664,7 @@
         <v>554</v>
       </c>
       <c r="B559" s="84"/>
-      <c r="C559" s="128" t="s">
+      <c r="C559" s="120" t="s">
         <v>733</v>
       </c>
       <c r="D559" s="97">
@@ -20692,7 +20688,7 @@
         <v>555</v>
       </c>
       <c r="B560" s="84"/>
-      <c r="C560" s="128" t="s">
+      <c r="C560" s="120" t="s">
         <v>734</v>
       </c>
       <c r="D560" s="97">
@@ -20718,7 +20714,7 @@
         <v>556</v>
       </c>
       <c r="B561" s="84"/>
-      <c r="C561" s="128" t="s">
+      <c r="C561" s="120" t="s">
         <v>736</v>
       </c>
       <c r="D561" s="97">
@@ -20742,7 +20738,7 @@
         <v>557</v>
       </c>
       <c r="B562" s="84"/>
-      <c r="C562" s="128" t="s">
+      <c r="C562" s="120" t="s">
         <v>737</v>
       </c>
       <c r="D562" s="97">
@@ -20766,7 +20762,7 @@
         <v>558</v>
       </c>
       <c r="B563" s="84"/>
-      <c r="C563" s="128" t="s">
+      <c r="C563" s="120" t="s">
         <v>738</v>
       </c>
       <c r="D563" s="97">
@@ -20790,7 +20786,7 @@
         <v>559</v>
       </c>
       <c r="B564" s="84"/>
-      <c r="C564" s="128" t="s">
+      <c r="C564" s="120" t="s">
         <v>739</v>
       </c>
       <c r="D564" s="97">
@@ -20814,7 +20810,7 @@
         <v>560</v>
       </c>
       <c r="B565" s="84"/>
-      <c r="C565" s="128" t="s">
+      <c r="C565" s="120" t="s">
         <v>740</v>
       </c>
       <c r="D565" s="97">
@@ -20840,7 +20836,7 @@
         <v>561</v>
       </c>
       <c r="B566" s="84"/>
-      <c r="C566" s="128" t="s">
+      <c r="C566" s="120" t="s">
         <v>742</v>
       </c>
       <c r="D566" s="97">
@@ -20864,7 +20860,7 @@
         <v>562</v>
       </c>
       <c r="B567" s="84"/>
-      <c r="C567" s="128" t="s">
+      <c r="C567" s="120" t="s">
         <v>743</v>
       </c>
       <c r="D567" s="95">
@@ -20890,7 +20886,7 @@
         <v>563</v>
       </c>
       <c r="B568" s="84"/>
-      <c r="C568" s="128" t="s">
+      <c r="C568" s="120" t="s">
         <v>745</v>
       </c>
       <c r="D568" s="97">
@@ -20916,7 +20912,7 @@
         <v>564</v>
       </c>
       <c r="B569" s="84"/>
-      <c r="C569" s="128" t="s">
+      <c r="C569" s="120" t="s">
         <v>747</v>
       </c>
       <c r="D569" s="97">
@@ -20942,7 +20938,7 @@
         <v>565</v>
       </c>
       <c r="B570" s="84"/>
-      <c r="C570" s="128" t="s">
+      <c r="C570" s="120" t="s">
         <v>749</v>
       </c>
       <c r="D570" s="97">
@@ -20968,7 +20964,7 @@
         <v>566</v>
       </c>
       <c r="B571" s="84"/>
-      <c r="C571" s="128" t="s">
+      <c r="C571" s="120" t="s">
         <v>751</v>
       </c>
       <c r="D571" s="97">
@@ -20994,7 +20990,7 @@
         <v>567</v>
       </c>
       <c r="B572" s="84"/>
-      <c r="C572" s="128" t="s">
+      <c r="C572" s="120" t="s">
         <v>753</v>
       </c>
       <c r="D572" s="97">
@@ -21018,7 +21014,7 @@
         <v>568</v>
       </c>
       <c r="B573" s="84"/>
-      <c r="C573" s="128" t="s">
+      <c r="C573" s="120" t="s">
         <v>754</v>
       </c>
       <c r="D573" s="97">
@@ -21044,7 +21040,7 @@
         <v>569</v>
       </c>
       <c r="B574" s="84"/>
-      <c r="C574" s="128" t="s">
+      <c r="C574" s="120" t="s">
         <v>756</v>
       </c>
       <c r="D574" s="97">
@@ -21070,7 +21066,7 @@
         <v>570</v>
       </c>
       <c r="B575" s="84"/>
-      <c r="C575" s="128" t="s">
+      <c r="C575" s="120" t="s">
         <v>758</v>
       </c>
       <c r="D575" s="97">
@@ -21094,7 +21090,7 @@
         <v>571</v>
       </c>
       <c r="B576" s="84"/>
-      <c r="C576" s="128" t="s">
+      <c r="C576" s="120" t="s">
         <v>759</v>
       </c>
       <c r="D576" s="97">
@@ -21120,7 +21116,7 @@
         <v>572</v>
       </c>
       <c r="B577" s="84"/>
-      <c r="C577" s="128" t="s">
+      <c r="C577" s="120" t="s">
         <v>761</v>
       </c>
       <c r="D577" s="97">
@@ -21144,7 +21140,7 @@
         <v>573</v>
       </c>
       <c r="B578" s="84"/>
-      <c r="C578" s="128" t="s">
+      <c r="C578" s="120" t="s">
         <v>762</v>
       </c>
       <c r="D578" s="97">
@@ -21168,7 +21164,7 @@
         <v>574</v>
       </c>
       <c r="B579" s="84"/>
-      <c r="C579" s="128" t="s">
+      <c r="C579" s="120" t="s">
         <v>763</v>
       </c>
       <c r="D579" s="97">
@@ -21192,7 +21188,7 @@
         <v>575</v>
       </c>
       <c r="B580" s="84"/>
-      <c r="C580" s="128" t="s">
+      <c r="C580" s="120" t="s">
         <v>764</v>
       </c>
       <c r="D580" s="97">
@@ -21218,7 +21214,7 @@
         <v>576</v>
       </c>
       <c r="B581" s="84"/>
-      <c r="C581" s="128" t="s">
+      <c r="C581" s="120" t="s">
         <v>766</v>
       </c>
       <c r="D581" s="97">
@@ -21242,7 +21238,7 @@
         <v>577</v>
       </c>
       <c r="B582" s="84"/>
-      <c r="C582" s="128" t="s">
+      <c r="C582" s="120" t="s">
         <v>767</v>
       </c>
       <c r="D582" s="97">
@@ -21268,7 +21264,7 @@
         <v>578</v>
       </c>
       <c r="B583" s="84"/>
-      <c r="C583" s="128" t="s">
+      <c r="C583" s="120" t="s">
         <v>769</v>
       </c>
       <c r="D583" s="97">
@@ -21294,7 +21290,7 @@
         <v>579</v>
       </c>
       <c r="B584" s="84"/>
-      <c r="C584" s="128" t="s">
+      <c r="C584" s="120" t="s">
         <v>771</v>
       </c>
       <c r="D584" s="95">
@@ -21318,7 +21314,7 @@
         <v>580</v>
       </c>
       <c r="B585" s="84"/>
-      <c r="C585" s="128" t="s">
+      <c r="C585" s="120" t="s">
         <v>772</v>
       </c>
       <c r="D585" s="97">
@@ -21342,7 +21338,7 @@
         <v>581</v>
       </c>
       <c r="B586" s="85"/>
-      <c r="C586" s="128" t="s">
+      <c r="C586" s="120" t="s">
         <v>773</v>
       </c>
       <c r="D586" s="97">
@@ -21366,7 +21362,7 @@
         <v>582</v>
       </c>
       <c r="B587" s="85"/>
-      <c r="C587" s="128" t="s">
+      <c r="C587" s="120" t="s">
         <v>774</v>
       </c>
       <c r="D587" s="97">
@@ -21390,7 +21386,7 @@
         <v>583</v>
       </c>
       <c r="B588" s="85"/>
-      <c r="C588" s="128" t="s">
+      <c r="C588" s="120" t="s">
         <v>775</v>
       </c>
       <c r="D588" s="97">
@@ -21414,7 +21410,7 @@
         <v>584</v>
       </c>
       <c r="B589" s="84"/>
-      <c r="C589" s="128" t="s">
+      <c r="C589" s="120" t="s">
         <v>776</v>
       </c>
       <c r="D589" s="97">
@@ -21440,7 +21436,7 @@
         <v>585</v>
       </c>
       <c r="B590" s="85"/>
-      <c r="C590" s="128" t="s">
+      <c r="C590" s="120" t="s">
         <v>778</v>
       </c>
       <c r="D590" s="97">
@@ -21464,7 +21460,7 @@
         <v>586</v>
       </c>
       <c r="B591" s="85"/>
-      <c r="C591" s="128" t="s">
+      <c r="C591" s="120" t="s">
         <v>779</v>
       </c>
       <c r="D591" s="97">
@@ -21490,7 +21486,7 @@
         <v>587</v>
       </c>
       <c r="B592" s="85"/>
-      <c r="C592" s="128" t="s">
+      <c r="C592" s="120" t="s">
         <v>781</v>
       </c>
       <c r="D592" s="97">
@@ -21516,7 +21512,7 @@
         <v>588</v>
       </c>
       <c r="B593" s="85"/>
-      <c r="C593" s="128" t="s">
+      <c r="C593" s="120" t="s">
         <v>783</v>
       </c>
       <c r="D593" s="97">
@@ -21542,7 +21538,7 @@
         <v>589</v>
       </c>
       <c r="B594" s="85"/>
-      <c r="C594" s="128" t="s">
+      <c r="C594" s="120" t="s">
         <v>785</v>
       </c>
       <c r="D594" s="97">
@@ -21568,7 +21564,7 @@
         <v>590</v>
       </c>
       <c r="B595" s="85"/>
-      <c r="C595" s="128" t="s">
+      <c r="C595" s="120" t="s">
         <v>787</v>
       </c>
       <c r="D595" s="97">
@@ -21594,7 +21590,7 @@
         <v>591</v>
       </c>
       <c r="B596" s="85"/>
-      <c r="C596" s="128" t="s">
+      <c r="C596" s="120" t="s">
         <v>789</v>
       </c>
       <c r="D596" s="97">
@@ -21620,7 +21616,7 @@
         <v>592</v>
       </c>
       <c r="B597" s="85"/>
-      <c r="C597" s="128" t="s">
+      <c r="C597" s="120" t="s">
         <v>791</v>
       </c>
       <c r="D597" s="97">
@@ -21646,7 +21642,7 @@
         <v>593</v>
       </c>
       <c r="B598" s="85"/>
-      <c r="C598" s="128" t="s">
+      <c r="C598" s="120" t="s">
         <v>793</v>
       </c>
       <c r="D598" s="97">
@@ -21672,7 +21668,7 @@
         <v>594</v>
       </c>
       <c r="B599" s="84"/>
-      <c r="C599" s="128" t="s">
+      <c r="C599" s="120" t="s">
         <v>795</v>
       </c>
       <c r="D599" s="97">
@@ -21698,7 +21694,7 @@
         <v>595</v>
       </c>
       <c r="B600" s="84"/>
-      <c r="C600" s="128" t="s">
+      <c r="C600" s="120" t="s">
         <v>796</v>
       </c>
       <c r="D600" s="97">
@@ -21722,7 +21718,7 @@
         <v>596</v>
       </c>
       <c r="B601" s="85"/>
-      <c r="C601" s="128" t="s">
+      <c r="C601" s="120" t="s">
         <v>797</v>
       </c>
       <c r="D601" s="97">
@@ -21748,7 +21744,7 @@
         <v>597</v>
       </c>
       <c r="B602" s="85"/>
-      <c r="C602" s="128" t="s">
+      <c r="C602" s="120" t="s">
         <v>799</v>
       </c>
       <c r="D602" s="97">
@@ -21772,7 +21768,7 @@
         <v>598</v>
       </c>
       <c r="B603" s="85"/>
-      <c r="C603" s="128" t="s">
+      <c r="C603" s="120" t="s">
         <v>800</v>
       </c>
       <c r="D603" s="97">
@@ -21798,7 +21794,7 @@
         <v>599</v>
       </c>
       <c r="B604" s="85"/>
-      <c r="C604" s="128" t="s">
+      <c r="C604" s="120" t="s">
         <v>802</v>
       </c>
       <c r="D604" s="97">
@@ -21824,7 +21820,7 @@
         <v>600</v>
       </c>
       <c r="B605" s="85"/>
-      <c r="C605" s="128" t="s">
+      <c r="C605" s="120" t="s">
         <v>804</v>
       </c>
       <c r="D605" s="97">
@@ -21848,7 +21844,7 @@
         <v>601</v>
       </c>
       <c r="B606" s="84"/>
-      <c r="C606" s="128" t="s">
+      <c r="C606" s="120" t="s">
         <v>805</v>
       </c>
       <c r="D606" s="97">
@@ -21872,7 +21868,7 @@
         <v>602</v>
       </c>
       <c r="B607" s="85"/>
-      <c r="C607" s="128" t="s">
+      <c r="C607" s="120" t="s">
         <v>806</v>
       </c>
       <c r="D607" s="97">
@@ -21898,7 +21894,7 @@
         <v>603</v>
       </c>
       <c r="B608" s="85"/>
-      <c r="C608" s="128" t="s">
+      <c r="C608" s="120" t="s">
         <v>808</v>
       </c>
       <c r="D608" s="97">
@@ -21924,7 +21920,7 @@
         <v>604</v>
       </c>
       <c r="B609" s="85"/>
-      <c r="C609" s="128" t="s">
+      <c r="C609" s="120" t="s">
         <v>810</v>
       </c>
       <c r="D609" s="97">
@@ -21948,7 +21944,7 @@
         <v>605</v>
       </c>
       <c r="B610" s="85"/>
-      <c r="C610" s="128" t="s">
+      <c r="C610" s="120" t="s">
         <v>811</v>
       </c>
       <c r="D610" s="96">
@@ -21974,7 +21970,7 @@
         <v>606</v>
       </c>
       <c r="B611" s="85"/>
-      <c r="C611" s="128" t="s">
+      <c r="C611" s="120" t="s">
         <v>813</v>
       </c>
       <c r="D611" s="96">
@@ -22000,7 +21996,7 @@
         <v>607</v>
       </c>
       <c r="B612" s="85"/>
-      <c r="C612" s="128" t="s">
+      <c r="C612" s="120" t="s">
         <v>815</v>
       </c>
       <c r="D612" s="97">
@@ -22026,7 +22022,7 @@
         <v>608</v>
       </c>
       <c r="B613" s="85"/>
-      <c r="C613" s="128" t="s">
+      <c r="C613" s="120" t="s">
         <v>817</v>
       </c>
       <c r="D613" s="97">
@@ -22052,7 +22048,7 @@
         <v>609</v>
       </c>
       <c r="B614" s="85"/>
-      <c r="C614" s="128" t="s">
+      <c r="C614" s="120" t="s">
         <v>819</v>
       </c>
       <c r="D614" s="97">
@@ -22078,7 +22074,7 @@
         <v>610</v>
       </c>
       <c r="B615" s="85"/>
-      <c r="C615" s="128" t="s">
+      <c r="C615" s="120" t="s">
         <v>821</v>
       </c>
       <c r="D615" s="97">
@@ -22102,7 +22098,7 @@
         <v>611</v>
       </c>
       <c r="B616" s="85"/>
-      <c r="C616" s="128" t="s">
+      <c r="C616" s="120" t="s">
         <v>822</v>
       </c>
       <c r="D616" s="97">
@@ -22128,7 +22124,7 @@
         <v>612</v>
       </c>
       <c r="B617" s="85"/>
-      <c r="C617" s="128" t="s">
+      <c r="C617" s="120" t="s">
         <v>824</v>
       </c>
       <c r="D617" s="97">
@@ -22152,7 +22148,7 @@
         <v>613</v>
       </c>
       <c r="B618" s="85"/>
-      <c r="C618" s="128" t="s">
+      <c r="C618" s="120" t="s">
         <v>825</v>
       </c>
       <c r="D618" s="97">
@@ -22176,7 +22172,7 @@
         <v>614</v>
       </c>
       <c r="B619" s="85"/>
-      <c r="C619" s="128" t="s">
+      <c r="C619" s="120" t="s">
         <v>826</v>
       </c>
       <c r="D619" s="97">
@@ -22202,7 +22198,7 @@
         <v>615</v>
       </c>
       <c r="B620" s="85"/>
-      <c r="C620" s="128" t="s">
+      <c r="C620" s="120" t="s">
         <v>828</v>
       </c>
       <c r="D620" s="97">
@@ -22226,7 +22222,7 @@
         <v>616</v>
       </c>
       <c r="B621" s="85"/>
-      <c r="C621" s="128" t="s">
+      <c r="C621" s="120" t="s">
         <v>829</v>
       </c>
       <c r="D621" s="97">
@@ -22250,7 +22246,7 @@
         <v>617</v>
       </c>
       <c r="B622" s="85"/>
-      <c r="C622" s="128" t="s">
+      <c r="C622" s="120" t="s">
         <v>830</v>
       </c>
       <c r="D622" s="97">
@@ -22276,7 +22272,7 @@
         <v>618</v>
       </c>
       <c r="B623" s="85"/>
-      <c r="C623" s="128" t="s">
+      <c r="C623" s="120" t="s">
         <v>832</v>
       </c>
       <c r="D623" s="97">
@@ -22302,7 +22298,7 @@
         <v>619</v>
       </c>
       <c r="B624" s="85"/>
-      <c r="C624" s="128" t="s">
+      <c r="C624" s="120" t="s">
         <v>834</v>
       </c>
       <c r="D624" s="97">
@@ -22326,7 +22322,7 @@
         <v>620</v>
       </c>
       <c r="B625" s="85"/>
-      <c r="C625" s="128" t="s">
+      <c r="C625" s="120" t="s">
         <v>835</v>
       </c>
       <c r="D625" s="97">
@@ -22350,7 +22346,7 @@
         <v>621</v>
       </c>
       <c r="B626" s="85"/>
-      <c r="C626" s="128" t="s">
+      <c r="C626" s="120" t="s">
         <v>836</v>
       </c>
       <c r="D626" s="97">
@@ -22374,7 +22370,7 @@
         <v>622</v>
       </c>
       <c r="B627" s="85"/>
-      <c r="C627" s="128" t="s">
+      <c r="C627" s="120" t="s">
         <v>837</v>
       </c>
       <c r="D627" s="97">
@@ -22400,7 +22396,7 @@
         <v>623</v>
       </c>
       <c r="B628" s="85"/>
-      <c r="C628" s="128" t="s">
+      <c r="C628" s="120" t="s">
         <v>839</v>
       </c>
       <c r="D628" s="97">
@@ -22426,7 +22422,7 @@
         <v>624</v>
       </c>
       <c r="B629" s="85"/>
-      <c r="C629" s="128" t="s">
+      <c r="C629" s="120" t="s">
         <v>841</v>
       </c>
       <c r="D629" s="97">
@@ -22450,7 +22446,7 @@
         <v>625</v>
       </c>
       <c r="B630" s="85"/>
-      <c r="C630" s="128" t="s">
+      <c r="C630" s="120" t="s">
         <v>842</v>
       </c>
       <c r="D630" s="97">
@@ -22474,7 +22470,7 @@
         <v>626</v>
       </c>
       <c r="B631" s="85"/>
-      <c r="C631" s="130" t="s">
+      <c r="C631" s="122" t="s">
         <v>1436</v>
       </c>
       <c r="D631" s="97">
@@ -22498,7 +22494,7 @@
         <v>627</v>
       </c>
       <c r="B632" s="85"/>
-      <c r="C632" s="128" t="s">
+      <c r="C632" s="120" t="s">
         <v>843</v>
       </c>
       <c r="D632" s="97">
@@ -22524,7 +22520,7 @@
         <v>628</v>
       </c>
       <c r="B633" s="85"/>
-      <c r="C633" s="128" t="s">
+      <c r="C633" s="120" t="s">
         <v>845</v>
       </c>
       <c r="D633" s="97">
@@ -22548,7 +22544,7 @@
         <v>629</v>
       </c>
       <c r="B634" s="85"/>
-      <c r="C634" s="128" t="s">
+      <c r="C634" s="120" t="s">
         <v>846</v>
       </c>
       <c r="D634" s="97">
@@ -22572,7 +22568,7 @@
         <v>630</v>
       </c>
       <c r="B635" s="85"/>
-      <c r="C635" s="128" t="s">
+      <c r="C635" s="120" t="s">
         <v>847</v>
       </c>
       <c r="D635" s="97">
@@ -22598,7 +22594,7 @@
         <v>631</v>
       </c>
       <c r="B636" s="85"/>
-      <c r="C636" s="128" t="s">
+      <c r="C636" s="120" t="s">
         <v>849</v>
       </c>
       <c r="D636" s="97">
@@ -22624,7 +22620,7 @@
         <v>632</v>
       </c>
       <c r="B637" s="85"/>
-      <c r="C637" s="128" t="s">
+      <c r="C637" s="120" t="s">
         <v>851</v>
       </c>
       <c r="D637" s="97">
@@ -22650,7 +22646,7 @@
         <v>633</v>
       </c>
       <c r="B638" s="85"/>
-      <c r="C638" s="128" t="s">
+      <c r="C638" s="120" t="s">
         <v>853</v>
       </c>
       <c r="D638" s="97">
@@ -22674,7 +22670,7 @@
         <v>634</v>
       </c>
       <c r="B639" s="85"/>
-      <c r="C639" s="128" t="s">
+      <c r="C639" s="120" t="s">
         <v>854</v>
       </c>
       <c r="D639" s="97">
@@ -22698,7 +22694,7 @@
         <v>635</v>
       </c>
       <c r="B640" s="85"/>
-      <c r="C640" s="128" t="s">
+      <c r="C640" s="120" t="s">
         <v>855</v>
       </c>
       <c r="D640" s="97">
@@ -22722,7 +22718,7 @@
         <v>636</v>
       </c>
       <c r="B641" s="85"/>
-      <c r="C641" s="130" t="s">
+      <c r="C641" s="122" t="s">
         <v>856</v>
       </c>
       <c r="D641" s="97">
@@ -22746,7 +22742,7 @@
         <v>637</v>
       </c>
       <c r="B642" s="85"/>
-      <c r="C642" s="130" t="s">
+      <c r="C642" s="122" t="s">
         <v>857</v>
       </c>
       <c r="D642" s="97">
@@ -22770,7 +22766,7 @@
         <v>638</v>
       </c>
       <c r="B643" s="85"/>
-      <c r="C643" s="130" t="s">
+      <c r="C643" s="122" t="s">
         <v>858</v>
       </c>
       <c r="D643" s="97">
@@ -22794,7 +22790,7 @@
         <v>639</v>
       </c>
       <c r="B644" s="85"/>
-      <c r="C644" s="130" t="s">
+      <c r="C644" s="122" t="s">
         <v>859</v>
       </c>
       <c r="D644" s="97">
@@ -22820,7 +22816,7 @@
         <v>640</v>
       </c>
       <c r="B645" s="85"/>
-      <c r="C645" s="130" t="s">
+      <c r="C645" s="122" t="s">
         <v>861</v>
       </c>
       <c r="D645" s="97">
@@ -22846,7 +22842,7 @@
         <v>641</v>
       </c>
       <c r="B646" s="85"/>
-      <c r="C646" s="130" t="s">
+      <c r="C646" s="122" t="s">
         <v>863</v>
       </c>
       <c r="D646" s="97">
@@ -22872,7 +22868,7 @@
         <v>642</v>
       </c>
       <c r="B647" s="85"/>
-      <c r="C647" s="130" t="s">
+      <c r="C647" s="122" t="s">
         <v>865</v>
       </c>
       <c r="D647" s="97">
@@ -22896,7 +22892,7 @@
         <v>643</v>
       </c>
       <c r="B648" s="85"/>
-      <c r="C648" s="130" t="s">
+      <c r="C648" s="122" t="s">
         <v>866</v>
       </c>
       <c r="D648" s="97">
@@ -22920,7 +22916,7 @@
         <v>644</v>
       </c>
       <c r="B649" s="85"/>
-      <c r="C649" s="130" t="s">
+      <c r="C649" s="122" t="s">
         <v>867</v>
       </c>
       <c r="D649" s="97">
@@ -22946,7 +22942,7 @@
         <v>645</v>
       </c>
       <c r="B650" s="85"/>
-      <c r="C650" s="130" t="s">
+      <c r="C650" s="122" t="s">
         <v>1460</v>
       </c>
       <c r="D650" s="97">
@@ -22972,7 +22968,7 @@
         <v>646</v>
       </c>
       <c r="B651" s="85"/>
-      <c r="C651" s="130" t="s">
+      <c r="C651" s="122" t="s">
         <v>870</v>
       </c>
       <c r="D651" s="97">
@@ -22998,7 +22994,7 @@
         <v>647</v>
       </c>
       <c r="B652" s="85"/>
-      <c r="C652" s="130" t="s">
+      <c r="C652" s="122" t="s">
         <v>872</v>
       </c>
       <c r="D652" s="97">
@@ -23024,7 +23020,7 @@
         <v>648</v>
       </c>
       <c r="B653" s="85"/>
-      <c r="C653" s="130" t="s">
+      <c r="C653" s="122" t="s">
         <v>874</v>
       </c>
       <c r="D653" s="97">
@@ -23050,7 +23046,7 @@
         <v>649</v>
       </c>
       <c r="B654" s="85"/>
-      <c r="C654" s="130" t="s">
+      <c r="C654" s="122" t="s">
         <v>876</v>
       </c>
       <c r="D654" s="97">
@@ -23076,7 +23072,7 @@
         <v>650</v>
       </c>
       <c r="B655" s="85"/>
-      <c r="C655" s="130" t="s">
+      <c r="C655" s="122" t="s">
         <v>878</v>
       </c>
       <c r="D655" s="96">
@@ -23102,7 +23098,7 @@
         <v>651</v>
       </c>
       <c r="B656" s="85"/>
-      <c r="C656" s="130" t="s">
+      <c r="C656" s="122" t="s">
         <v>880</v>
       </c>
       <c r="D656" s="97">
@@ -23126,7 +23122,7 @@
         <v>652</v>
       </c>
       <c r="B657" s="85"/>
-      <c r="C657" s="130" t="s">
+      <c r="C657" s="122" t="s">
         <v>881</v>
       </c>
       <c r="D657" s="95">
@@ -23152,7 +23148,7 @@
         <v>653</v>
       </c>
       <c r="B658" s="85"/>
-      <c r="C658" s="130" t="s">
+      <c r="C658" s="122" t="s">
         <v>883</v>
       </c>
       <c r="D658" s="97">
@@ -23176,7 +23172,7 @@
         <v>654</v>
       </c>
       <c r="B659" s="85"/>
-      <c r="C659" s="130" t="s">
+      <c r="C659" s="122" t="s">
         <v>884</v>
       </c>
       <c r="D659" s="97">
@@ -23202,7 +23198,7 @@
         <v>655</v>
       </c>
       <c r="B660" s="85"/>
-      <c r="C660" s="130" t="s">
+      <c r="C660" s="122" t="s">
         <v>886</v>
       </c>
       <c r="D660" s="97">
@@ -23228,7 +23224,7 @@
         <v>656</v>
       </c>
       <c r="B661" s="85"/>
-      <c r="C661" s="130" t="s">
+      <c r="C661" s="122" t="s">
         <v>888</v>
       </c>
       <c r="D661" s="97">
@@ -23254,7 +23250,7 @@
         <v>657</v>
       </c>
       <c r="B662" s="85"/>
-      <c r="C662" s="130" t="s">
+      <c r="C662" s="122" t="s">
         <v>890</v>
       </c>
       <c r="D662" s="97">
@@ -23278,7 +23274,7 @@
         <v>658</v>
       </c>
       <c r="B663" s="85"/>
-      <c r="C663" s="130" t="s">
+      <c r="C663" s="122" t="s">
         <v>891</v>
       </c>
       <c r="D663" s="97">
@@ -23304,7 +23300,7 @@
         <v>659</v>
       </c>
       <c r="B664" s="85"/>
-      <c r="C664" s="130" t="s">
+      <c r="C664" s="122" t="s">
         <v>893</v>
       </c>
       <c r="D664" s="97">
@@ -23330,7 +23326,7 @@
         <v>660</v>
       </c>
       <c r="B665" s="85"/>
-      <c r="C665" s="130" t="s">
+      <c r="C665" s="122" t="s">
         <v>895</v>
       </c>
       <c r="D665" s="97">
@@ -23354,7 +23350,7 @@
         <v>661</v>
       </c>
       <c r="B666" s="85"/>
-      <c r="C666" s="130" t="s">
+      <c r="C666" s="122" t="s">
         <v>896</v>
       </c>
       <c r="D666" s="97">
@@ -23380,7 +23376,7 @@
         <v>662</v>
       </c>
       <c r="B667" s="85"/>
-      <c r="C667" s="130" t="s">
+      <c r="C667" s="122" t="s">
         <v>898</v>
       </c>
       <c r="D667" s="97">
@@ -23406,7 +23402,7 @@
         <v>663</v>
       </c>
       <c r="B668" s="85"/>
-      <c r="C668" s="130" t="s">
+      <c r="C668" s="122" t="s">
         <v>1012</v>
       </c>
       <c r="D668" s="97">
@@ -23430,7 +23426,7 @@
         <v>664</v>
       </c>
       <c r="B669" s="85"/>
-      <c r="C669" s="130" t="s">
+      <c r="C669" s="122" t="s">
         <v>1013</v>
       </c>
       <c r="D669" s="97">
@@ -23454,7 +23450,7 @@
         <v>665</v>
       </c>
       <c r="B670" s="85"/>
-      <c r="C670" s="130" t="s">
+      <c r="C670" s="122" t="s">
         <v>1014</v>
       </c>
       <c r="D670" s="97">
@@ -23478,7 +23474,7 @@
         <v>666</v>
       </c>
       <c r="B671" s="85"/>
-      <c r="C671" s="130" t="s">
+      <c r="C671" s="122" t="s">
         <v>1015</v>
       </c>
       <c r="D671" s="95">
@@ -23502,7 +23498,7 @@
         <v>667</v>
       </c>
       <c r="B672" s="85"/>
-      <c r="C672" s="130" t="s">
+      <c r="C672" s="122" t="s">
         <v>1016</v>
       </c>
       <c r="D672" s="97">
@@ -23526,7 +23522,7 @@
         <v>668</v>
       </c>
       <c r="B673" s="85"/>
-      <c r="C673" s="130" t="s">
+      <c r="C673" s="122" t="s">
         <v>1017</v>
       </c>
       <c r="D673" s="97">
@@ -23550,7 +23546,7 @@
         <v>669</v>
       </c>
       <c r="B674" s="85"/>
-      <c r="C674" s="134" t="s">
+      <c r="C674" s="126" t="s">
         <v>1018</v>
       </c>
       <c r="D674" s="97">
@@ -23574,7 +23570,7 @@
         <v>670</v>
       </c>
       <c r="B675" s="86"/>
-      <c r="C675" s="135" t="s">
+      <c r="C675" s="127" t="s">
         <v>1246</v>
       </c>
       <c r="D675" s="102">
@@ -23598,7 +23594,7 @@
         <v>671</v>
       </c>
       <c r="B676" s="85"/>
-      <c r="C676" s="130" t="s">
+      <c r="C676" s="122" t="s">
         <v>1019</v>
       </c>
       <c r="D676" s="97">
@@ -23622,7 +23618,7 @@
         <v>672</v>
       </c>
       <c r="B677" s="85"/>
-      <c r="C677" s="130" t="s">
+      <c r="C677" s="122" t="s">
         <v>1020</v>
       </c>
       <c r="D677" s="97">
@@ -23648,7 +23644,7 @@
         <v>673</v>
       </c>
       <c r="B678" s="85"/>
-      <c r="C678" s="130" t="s">
+      <c r="C678" s="122" t="s">
         <v>1021</v>
       </c>
       <c r="D678" s="97">
@@ -23674,7 +23670,7 @@
         <v>674</v>
       </c>
       <c r="B679" s="85"/>
-      <c r="C679" s="130" t="s">
+      <c r="C679" s="122" t="s">
         <v>1022</v>
       </c>
       <c r="D679" s="97">
@@ -23700,7 +23696,7 @@
         <v>675</v>
       </c>
       <c r="B680" s="85"/>
-      <c r="C680" s="130" t="s">
+      <c r="C680" s="122" t="s">
         <v>1024</v>
       </c>
       <c r="D680" s="97">
@@ -23724,7 +23720,7 @@
         <v>676</v>
       </c>
       <c r="B681" s="85"/>
-      <c r="C681" s="130" t="s">
+      <c r="C681" s="122" t="s">
         <v>1025</v>
       </c>
       <c r="D681" s="97">
@@ -23748,7 +23744,7 @@
         <v>677</v>
       </c>
       <c r="B682" s="85"/>
-      <c r="C682" s="130" t="s">
+      <c r="C682" s="122" t="s">
         <v>1031</v>
       </c>
       <c r="D682" s="97">
@@ -23774,7 +23770,7 @@
         <v>678</v>
       </c>
       <c r="B683" s="85"/>
-      <c r="C683" s="130" t="s">
+      <c r="C683" s="122" t="s">
         <v>1033</v>
       </c>
       <c r="D683" s="97">
@@ -23800,7 +23796,7 @@
         <v>679</v>
       </c>
       <c r="B684" s="85"/>
-      <c r="C684" s="130" t="s">
+      <c r="C684" s="122" t="s">
         <v>1034</v>
       </c>
       <c r="D684" s="97">
@@ -23824,7 +23820,7 @@
         <v>680</v>
       </c>
       <c r="B685" s="85"/>
-      <c r="C685" s="130" t="s">
+      <c r="C685" s="122" t="s">
         <v>1083</v>
       </c>
       <c r="D685" s="103">
@@ -23848,7 +23844,7 @@
         <v>681</v>
       </c>
       <c r="B686" s="85"/>
-      <c r="C686" s="130" t="s">
+      <c r="C686" s="122" t="s">
         <v>1035</v>
       </c>
       <c r="D686" s="97">
@@ -23874,7 +23870,7 @@
         <v>682</v>
       </c>
       <c r="B687" s="85"/>
-      <c r="C687" s="130" t="s">
+      <c r="C687" s="122" t="s">
         <v>1037</v>
       </c>
       <c r="D687" s="97">
@@ -23900,7 +23896,7 @@
         <v>683</v>
       </c>
       <c r="B688" s="85"/>
-      <c r="C688" s="130" t="s">
+      <c r="C688" s="122" t="s">
         <v>1039</v>
       </c>
       <c r="D688" s="97">
@@ -23926,7 +23922,7 @@
         <v>684</v>
       </c>
       <c r="B689" s="85"/>
-      <c r="C689" s="130" t="s">
+      <c r="C689" s="122" t="s">
         <v>1041</v>
       </c>
       <c r="D689" s="97">
@@ -23950,7 +23946,7 @@
         <v>685</v>
       </c>
       <c r="B690" s="85"/>
-      <c r="C690" s="130" t="s">
+      <c r="C690" s="122" t="s">
         <v>1042</v>
       </c>
       <c r="D690" s="97">
@@ -23976,7 +23972,7 @@
         <v>686</v>
       </c>
       <c r="B691" s="85"/>
-      <c r="C691" s="130" t="s">
+      <c r="C691" s="122" t="s">
         <v>1044</v>
       </c>
       <c r="D691" s="97">
@@ -24002,7 +23998,7 @@
         <v>687</v>
       </c>
       <c r="B692" s="85"/>
-      <c r="C692" s="130" t="s">
+      <c r="C692" s="122" t="s">
         <v>1046</v>
       </c>
       <c r="D692" s="97">
@@ -24028,7 +24024,7 @@
         <v>688</v>
       </c>
       <c r="B693" s="85"/>
-      <c r="C693" s="130" t="s">
+      <c r="C693" s="122" t="s">
         <v>1048</v>
       </c>
       <c r="D693" s="97">
@@ -24052,7 +24048,7 @@
         <v>689</v>
       </c>
       <c r="B694" s="85"/>
-      <c r="C694" s="130" t="s">
+      <c r="C694" s="122" t="s">
         <v>1050</v>
       </c>
       <c r="D694" s="97">
@@ -24078,7 +24074,7 @@
         <v>690</v>
       </c>
       <c r="B695" s="85"/>
-      <c r="C695" s="130" t="s">
+      <c r="C695" s="122" t="s">
         <v>1052</v>
       </c>
       <c r="D695" s="97">
@@ -24104,7 +24100,7 @@
         <v>691</v>
       </c>
       <c r="B696" s="85"/>
-      <c r="C696" s="130" t="s">
+      <c r="C696" s="122" t="s">
         <v>1056</v>
       </c>
       <c r="D696" s="95">
@@ -24130,7 +24126,7 @@
         <v>692</v>
       </c>
       <c r="B697" s="85"/>
-      <c r="C697" s="130" t="s">
+      <c r="C697" s="122" t="s">
         <v>1058</v>
       </c>
       <c r="D697" s="97">
@@ -24156,7 +24152,7 @@
         <v>693</v>
       </c>
       <c r="B698" s="85"/>
-      <c r="C698" s="130" t="s">
+      <c r="C698" s="122" t="s">
         <v>1060</v>
       </c>
       <c r="D698" s="97">
@@ -24182,7 +24178,7 @@
         <v>694</v>
       </c>
       <c r="B699" s="85"/>
-      <c r="C699" s="130" t="s">
+      <c r="C699" s="122" t="s">
         <v>1062</v>
       </c>
       <c r="D699" s="97">
@@ -24208,7 +24204,7 @@
         <v>695</v>
       </c>
       <c r="B700" s="85"/>
-      <c r="C700" s="130" t="s">
+      <c r="C700" s="122" t="s">
         <v>1064</v>
       </c>
       <c r="D700" s="97">
@@ -24232,7 +24228,7 @@
         <v>696</v>
       </c>
       <c r="B701" s="85"/>
-      <c r="C701" s="130" t="s">
+      <c r="C701" s="122" t="s">
         <v>1065</v>
       </c>
       <c r="D701" s="97">
@@ -24256,7 +24252,7 @@
         <v>697</v>
       </c>
       <c r="B702" s="85"/>
-      <c r="C702" s="130" t="s">
+      <c r="C702" s="122" t="s">
         <v>1066</v>
       </c>
       <c r="D702" s="97">
@@ -24280,7 +24276,7 @@
         <v>698</v>
       </c>
       <c r="B703" s="85"/>
-      <c r="C703" s="130" t="s">
+      <c r="C703" s="122" t="s">
         <v>1067</v>
       </c>
       <c r="D703" s="97">
@@ -24304,7 +24300,7 @@
         <v>699</v>
       </c>
       <c r="B704" s="85"/>
-      <c r="C704" s="130" t="s">
+      <c r="C704" s="122" t="s">
         <v>1068</v>
       </c>
       <c r="D704" s="97">
@@ -24328,7 +24324,7 @@
         <v>700</v>
       </c>
       <c r="B705" s="85"/>
-      <c r="C705" s="130" t="s">
+      <c r="C705" s="122" t="s">
         <v>1069</v>
       </c>
       <c r="D705" s="97">
@@ -24352,7 +24348,7 @@
         <v>701</v>
       </c>
       <c r="B706" s="85"/>
-      <c r="C706" s="136" t="s">
+      <c r="C706" s="128" t="s">
         <v>1175</v>
       </c>
       <c r="D706" s="97">
@@ -24376,7 +24372,7 @@
         <v>702</v>
       </c>
       <c r="B707" s="85"/>
-      <c r="C707" s="130" t="s">
+      <c r="C707" s="122" t="s">
         <v>1070</v>
       </c>
       <c r="D707" s="97">
@@ -24400,7 +24396,7 @@
         <v>703</v>
       </c>
       <c r="B708" s="85"/>
-      <c r="C708" s="130" t="s">
+      <c r="C708" s="122" t="s">
         <v>1071</v>
       </c>
       <c r="D708" s="97">
@@ -24424,7 +24420,7 @@
         <v>704</v>
       </c>
       <c r="B709" s="85"/>
-      <c r="C709" s="130" t="s">
+      <c r="C709" s="122" t="s">
         <v>1072</v>
       </c>
       <c r="D709" s="97">
@@ -24448,7 +24444,7 @@
         <v>705</v>
       </c>
       <c r="B710" s="85"/>
-      <c r="C710" s="130" t="s">
+      <c r="C710" s="122" t="s">
         <v>1073</v>
       </c>
       <c r="D710" s="97">
@@ -24472,7 +24468,7 @@
         <v>706</v>
       </c>
       <c r="B711" s="85"/>
-      <c r="C711" s="130" t="s">
+      <c r="C711" s="122" t="s">
         <v>1074</v>
       </c>
       <c r="D711" s="95">
@@ -24496,7 +24492,7 @@
         <v>707</v>
       </c>
       <c r="B712" s="85"/>
-      <c r="C712" s="130" t="s">
+      <c r="C712" s="122" t="s">
         <v>1075</v>
       </c>
       <c r="D712" s="97">
@@ -24520,7 +24516,7 @@
         <v>708</v>
       </c>
       <c r="B713" s="85"/>
-      <c r="C713" s="130" t="s">
+      <c r="C713" s="122" t="s">
         <v>1077</v>
       </c>
       <c r="D713" s="97">
@@ -24544,7 +24540,7 @@
         <v>709</v>
       </c>
       <c r="B714" s="85"/>
-      <c r="C714" s="130" t="s">
+      <c r="C714" s="122" t="s">
         <v>1079</v>
       </c>
       <c r="D714" s="97">
@@ -24568,7 +24564,7 @@
         <v>710</v>
       </c>
       <c r="B715" s="85"/>
-      <c r="C715" s="130" t="s">
+      <c r="C715" s="122" t="s">
         <v>1080</v>
       </c>
       <c r="D715" s="97">
@@ -24592,7 +24588,7 @@
         <v>711</v>
       </c>
       <c r="B716" s="85"/>
-      <c r="C716" s="130" t="s">
+      <c r="C716" s="122" t="s">
         <v>1194</v>
       </c>
       <c r="D716" s="97">
@@ -24616,7 +24612,7 @@
         <v>712</v>
       </c>
       <c r="B717" s="85"/>
-      <c r="C717" s="130" t="s">
+      <c r="C717" s="122" t="s">
         <v>1195</v>
       </c>
       <c r="D717" s="97">
@@ -24640,7 +24636,7 @@
         <v>713</v>
       </c>
       <c r="B718" s="85"/>
-      <c r="C718" s="130" t="s">
+      <c r="C718" s="122" t="s">
         <v>1196</v>
       </c>
       <c r="D718" s="97">
@@ -24664,7 +24660,7 @@
         <v>714</v>
       </c>
       <c r="B719" s="85"/>
-      <c r="C719" s="130" t="s">
+      <c r="C719" s="122" t="s">
         <v>1197</v>
       </c>
       <c r="D719" s="97">
@@ -24688,7 +24684,7 @@
         <v>715</v>
       </c>
       <c r="B720" s="85"/>
-      <c r="C720" s="130" t="s">
+      <c r="C720" s="122" t="s">
         <v>1198</v>
       </c>
       <c r="D720" s="95">
@@ -24712,7 +24708,7 @@
         <v>716</v>
       </c>
       <c r="B721" s="85"/>
-      <c r="C721" s="130" t="s">
+      <c r="C721" s="122" t="s">
         <v>1199</v>
       </c>
       <c r="D721" s="97">
@@ -24736,7 +24732,7 @@
         <v>717</v>
       </c>
       <c r="B722" s="85"/>
-      <c r="C722" s="130" t="s">
+      <c r="C722" s="122" t="s">
         <v>1200</v>
       </c>
       <c r="D722" s="97">
@@ -24760,7 +24756,7 @@
         <v>718</v>
       </c>
       <c r="B723" s="85"/>
-      <c r="C723" s="130" t="s">
+      <c r="C723" s="122" t="s">
         <v>1201</v>
       </c>
       <c r="D723" s="95">
@@ -24784,7 +24780,7 @@
         <v>719</v>
       </c>
       <c r="B724" s="85"/>
-      <c r="C724" s="130" t="s">
+      <c r="C724" s="122" t="s">
         <v>1202</v>
       </c>
       <c r="D724" s="95">
@@ -24808,7 +24804,7 @@
         <v>720</v>
       </c>
       <c r="B725" s="85"/>
-      <c r="C725" s="130" t="s">
+      <c r="C725" s="122" t="s">
         <v>1203</v>
       </c>
       <c r="D725" s="97">
@@ -24832,8 +24828,8 @@
         <v>721</v>
       </c>
       <c r="B726" s="85"/>
-      <c r="C726" s="130" t="s">
-        <v>1563</v>
+      <c r="C726" s="122" t="s">
+        <v>1561</v>
       </c>
       <c r="D726" s="95">
         <v>590</v>
@@ -24856,7 +24852,7 @@
         <v>722</v>
       </c>
       <c r="B727" s="85"/>
-      <c r="C727" s="130" t="s">
+      <c r="C727" s="122" t="s">
         <v>1204</v>
       </c>
       <c r="D727" s="97">
@@ -24880,7 +24876,7 @@
         <v>723</v>
       </c>
       <c r="B728" s="85"/>
-      <c r="C728" s="130" t="s">
+      <c r="C728" s="122" t="s">
         <v>1205</v>
       </c>
       <c r="D728" s="97">
@@ -24904,7 +24900,7 @@
         <v>724</v>
       </c>
       <c r="B729" s="85"/>
-      <c r="C729" s="130" t="s">
+      <c r="C729" s="122" t="s">
         <v>1206</v>
       </c>
       <c r="D729" s="97">
@@ -24928,7 +24924,7 @@
         <v>725</v>
       </c>
       <c r="B730" s="85"/>
-      <c r="C730" s="130" t="s">
+      <c r="C730" s="122" t="s">
         <v>1207</v>
       </c>
       <c r="D730" s="97">
@@ -24952,7 +24948,7 @@
         <v>726</v>
       </c>
       <c r="B731" s="85"/>
-      <c r="C731" s="130" t="s">
+      <c r="C731" s="122" t="s">
         <v>1208</v>
       </c>
       <c r="D731" s="97">
@@ -24976,7 +24972,7 @@
         <v>727</v>
       </c>
       <c r="B732" s="85"/>
-      <c r="C732" s="130" t="s">
+      <c r="C732" s="122" t="s">
         <v>1209</v>
       </c>
       <c r="D732" s="97">
@@ -25000,7 +24996,7 @@
         <v>728</v>
       </c>
       <c r="B733" s="85"/>
-      <c r="C733" s="130" t="s">
+      <c r="C733" s="122" t="s">
         <v>1210</v>
       </c>
       <c r="D733" s="97">
@@ -25024,7 +25020,7 @@
         <v>729</v>
       </c>
       <c r="B734" s="85"/>
-      <c r="C734" s="130" t="s">
+      <c r="C734" s="122" t="s">
         <v>1211</v>
       </c>
       <c r="D734" s="97">
@@ -25048,7 +25044,7 @@
         <v>730</v>
       </c>
       <c r="B735" s="85"/>
-      <c r="C735" s="130" t="s">
+      <c r="C735" s="122" t="s">
         <v>1212</v>
       </c>
       <c r="D735" s="97">
@@ -25072,7 +25068,7 @@
         <v>731</v>
       </c>
       <c r="B736" s="85"/>
-      <c r="C736" s="130" t="s">
+      <c r="C736" s="122" t="s">
         <v>1213</v>
       </c>
       <c r="D736" s="95">
@@ -25096,7 +25092,7 @@
         <v>732</v>
       </c>
       <c r="B737" s="85"/>
-      <c r="C737" s="130" t="s">
+      <c r="C737" s="122" t="s">
         <v>1214</v>
       </c>
       <c r="D737" s="95">
@@ -25120,7 +25116,7 @@
         <v>733</v>
       </c>
       <c r="B738" s="85"/>
-      <c r="C738" s="130" t="s">
+      <c r="C738" s="122" t="s">
         <v>1215</v>
       </c>
       <c r="D738" s="97">
@@ -25144,7 +25140,7 @@
         <v>734</v>
       </c>
       <c r="B739" s="85"/>
-      <c r="C739" s="130" t="s">
+      <c r="C739" s="122" t="s">
         <v>1216</v>
       </c>
       <c r="D739" s="97">
@@ -25168,7 +25164,7 @@
         <v>735</v>
       </c>
       <c r="B740" s="85"/>
-      <c r="C740" s="136" t="s">
+      <c r="C740" s="128" t="s">
         <v>1175</v>
       </c>
       <c r="D740" s="97">
@@ -25192,7 +25188,7 @@
         <v>736</v>
       </c>
       <c r="B741" s="85"/>
-      <c r="C741" s="130" t="s">
+      <c r="C741" s="122" t="s">
         <v>1217</v>
       </c>
       <c r="D741" s="97">
@@ -25216,7 +25212,7 @@
         <v>737</v>
       </c>
       <c r="B742" s="85"/>
-      <c r="C742" s="130" t="s">
+      <c r="C742" s="122" t="s">
         <v>1218</v>
       </c>
       <c r="D742" s="97">
@@ -25240,7 +25236,7 @@
         <v>738</v>
       </c>
       <c r="B743" s="85"/>
-      <c r="C743" s="130" t="s">
+      <c r="C743" s="122" t="s">
         <v>1236</v>
       </c>
       <c r="D743" s="97">
@@ -25264,7 +25260,7 @@
         <v>739</v>
       </c>
       <c r="B744" s="85"/>
-      <c r="C744" s="136" t="s">
+      <c r="C744" s="128" t="s">
         <v>86</v>
       </c>
       <c r="D744" s="97">
@@ -25288,7 +25284,7 @@
         <v>740</v>
       </c>
       <c r="B745" s="85"/>
-      <c r="C745" s="130" t="s">
+      <c r="C745" s="122" t="s">
         <v>1219</v>
       </c>
       <c r="D745" s="97">
@@ -25312,7 +25308,7 @@
         <v>741</v>
       </c>
       <c r="B746" s="85"/>
-      <c r="C746" s="130" t="s">
+      <c r="C746" s="122" t="s">
         <v>1220</v>
       </c>
       <c r="D746" s="95">
@@ -25336,7 +25332,7 @@
         <v>742</v>
       </c>
       <c r="B747" s="85"/>
-      <c r="C747" s="130" t="s">
+      <c r="C747" s="122" t="s">
         <v>1222</v>
       </c>
       <c r="D747" s="97">
@@ -25360,7 +25356,7 @@
         <v>743</v>
       </c>
       <c r="B748" s="85"/>
-      <c r="C748" s="130" t="s">
+      <c r="C748" s="122" t="s">
         <v>1223</v>
       </c>
       <c r="D748" s="97">
@@ -25384,7 +25380,7 @@
         <v>744</v>
       </c>
       <c r="B749" s="85"/>
-      <c r="C749" s="130" t="s">
+      <c r="C749" s="122" t="s">
         <v>1224</v>
       </c>
       <c r="D749" s="97">
@@ -25408,7 +25404,7 @@
         <v>745</v>
       </c>
       <c r="B750" s="85"/>
-      <c r="C750" s="130" t="s">
+      <c r="C750" s="122" t="s">
         <v>1225</v>
       </c>
       <c r="D750" s="97">
@@ -25432,7 +25428,7 @@
         <v>746</v>
       </c>
       <c r="B751" s="85"/>
-      <c r="C751" s="130" t="s">
+      <c r="C751" s="122" t="s">
         <v>1232</v>
       </c>
       <c r="D751" s="97">
@@ -25456,7 +25452,7 @@
         <v>747</v>
       </c>
       <c r="B752" s="85"/>
-      <c r="C752" s="130" t="s">
+      <c r="C752" s="122" t="s">
         <v>1233</v>
       </c>
       <c r="D752" s="97">
@@ -25480,7 +25476,7 @@
         <v>748</v>
       </c>
       <c r="B753" s="85"/>
-      <c r="C753" s="130" t="s">
+      <c r="C753" s="122" t="s">
         <v>1235</v>
       </c>
       <c r="D753" s="95">
@@ -25504,7 +25500,7 @@
         <v>749</v>
       </c>
       <c r="B754" s="85"/>
-      <c r="C754" s="130" t="s">
+      <c r="C754" s="122" t="s">
         <v>1240</v>
       </c>
       <c r="D754" s="97">
@@ -25528,7 +25524,7 @@
         <v>750</v>
       </c>
       <c r="B755" s="85"/>
-      <c r="C755" s="130" t="s">
+      <c r="C755" s="122" t="s">
         <v>1241</v>
       </c>
       <c r="D755" s="97">
@@ -25552,7 +25548,7 @@
         <v>751</v>
       </c>
       <c r="B756" s="85"/>
-      <c r="C756" s="130" t="s">
+      <c r="C756" s="122" t="s">
         <v>1243</v>
       </c>
       <c r="D756" s="97">
@@ -25576,7 +25572,7 @@
         <v>752</v>
       </c>
       <c r="B757" s="85"/>
-      <c r="C757" s="130" t="s">
+      <c r="C757" s="122" t="s">
         <v>1244</v>
       </c>
       <c r="D757" s="97">
@@ -25600,7 +25596,7 @@
         <v>753</v>
       </c>
       <c r="B758" s="85"/>
-      <c r="C758" s="130" t="s">
+      <c r="C758" s="122" t="s">
         <v>1437</v>
       </c>
       <c r="D758" s="97">
@@ -25626,7 +25622,7 @@
         <v>754</v>
       </c>
       <c r="B759" s="85"/>
-      <c r="C759" s="130" t="s">
+      <c r="C759" s="122" t="s">
         <v>1247</v>
       </c>
       <c r="D759" s="96">
@@ -25650,7 +25646,7 @@
         <v>755</v>
       </c>
       <c r="B760" s="85"/>
-      <c r="C760" s="130" t="s">
+      <c r="C760" s="122" t="s">
         <v>1248</v>
       </c>
       <c r="D760" s="95">
@@ -25674,7 +25670,7 @@
         <v>756</v>
       </c>
       <c r="B761" s="85"/>
-      <c r="C761" s="130" t="s">
+      <c r="C761" s="122" t="s">
         <v>1249</v>
       </c>
       <c r="D761" s="97">
@@ -25700,7 +25696,7 @@
         <v>757</v>
       </c>
       <c r="B762" s="85"/>
-      <c r="C762" s="130" t="s">
+      <c r="C762" s="122" t="s">
         <v>1251</v>
       </c>
       <c r="D762" s="97">
@@ -25726,7 +25722,7 @@
         <v>758</v>
       </c>
       <c r="B763" s="85"/>
-      <c r="C763" s="130" t="s">
+      <c r="C763" s="122" t="s">
         <v>1253</v>
       </c>
       <c r="D763" s="97">
@@ -25752,7 +25748,7 @@
         <v>759</v>
       </c>
       <c r="B764" s="85"/>
-      <c r="C764" s="130" t="s">
+      <c r="C764" s="122" t="s">
         <v>1255</v>
       </c>
       <c r="D764" s="97">
@@ -25778,7 +25774,7 @@
         <v>760</v>
       </c>
       <c r="B765" s="85"/>
-      <c r="C765" s="130" t="s">
+      <c r="C765" s="122" t="s">
         <v>1257</v>
       </c>
       <c r="D765" s="97">
@@ -25804,7 +25800,7 @@
         <v>761</v>
       </c>
       <c r="B766" s="85"/>
-      <c r="C766" s="130" t="s">
+      <c r="C766" s="122" t="s">
         <v>1259</v>
       </c>
       <c r="D766" s="97">
@@ -25830,7 +25826,7 @@
         <v>762</v>
       </c>
       <c r="B767" s="85"/>
-      <c r="C767" s="130" t="s">
+      <c r="C767" s="122" t="s">
         <v>1261</v>
       </c>
       <c r="D767" s="97">
@@ -25854,7 +25850,7 @@
         <v>763</v>
       </c>
       <c r="B768" s="85"/>
-      <c r="C768" s="130" t="s">
+      <c r="C768" s="122" t="s">
         <v>1262</v>
       </c>
       <c r="D768" s="97">
@@ -25878,7 +25874,7 @@
         <v>764</v>
       </c>
       <c r="B769" s="85"/>
-      <c r="C769" s="130" t="s">
+      <c r="C769" s="122" t="s">
         <v>1263</v>
       </c>
       <c r="D769" s="95">
@@ -25902,7 +25898,7 @@
         <v>765</v>
       </c>
       <c r="B770" s="85"/>
-      <c r="C770" s="130" t="s">
+      <c r="C770" s="122" t="s">
         <v>1264</v>
       </c>
       <c r="D770" s="97">
@@ -25926,7 +25922,7 @@
         <v>766</v>
       </c>
       <c r="B771" s="85"/>
-      <c r="C771" s="130" t="s">
+      <c r="C771" s="122" t="s">
         <v>1265</v>
       </c>
       <c r="D771" s="97">
@@ -25950,7 +25946,7 @@
         <v>767</v>
       </c>
       <c r="B772" s="85"/>
-      <c r="C772" s="130" t="s">
+      <c r="C772" s="122" t="s">
         <v>1266</v>
       </c>
       <c r="D772" s="97">
@@ -25976,7 +25972,7 @@
         <v>768</v>
       </c>
       <c r="B773" s="85"/>
-      <c r="C773" s="130" t="s">
+      <c r="C773" s="122" t="s">
         <v>1268</v>
       </c>
       <c r="D773" s="97">
@@ -26002,7 +25998,7 @@
         <v>769</v>
       </c>
       <c r="B774" s="85"/>
-      <c r="C774" s="130" t="s">
+      <c r="C774" s="122" t="s">
         <v>1281</v>
       </c>
       <c r="D774" s="95">
@@ -26028,7 +26024,7 @@
         <v>770</v>
       </c>
       <c r="B775" s="85"/>
-      <c r="C775" s="130" t="s">
+      <c r="C775" s="122" t="s">
         <v>1269</v>
       </c>
       <c r="D775" s="97">
@@ -26054,7 +26050,7 @@
         <v>771</v>
       </c>
       <c r="B776" s="85"/>
-      <c r="C776" s="130" t="s">
+      <c r="C776" s="122" t="s">
         <v>1270</v>
       </c>
       <c r="D776" s="97">
@@ -26080,7 +26076,7 @@
         <v>772</v>
       </c>
       <c r="B777" s="85"/>
-      <c r="C777" s="130" t="s">
+      <c r="C777" s="122" t="s">
         <v>1272</v>
       </c>
       <c r="D777" s="97">
@@ -26106,7 +26102,7 @@
         <v>773</v>
       </c>
       <c r="B778" s="85"/>
-      <c r="C778" s="130" t="s">
+      <c r="C778" s="122" t="s">
         <v>1274</v>
       </c>
       <c r="D778" s="97">
@@ -26132,7 +26128,7 @@
         <v>774</v>
       </c>
       <c r="B779" s="85"/>
-      <c r="C779" s="130" t="s">
+      <c r="C779" s="122" t="s">
         <v>1276</v>
       </c>
       <c r="D779" s="97">
@@ -26158,7 +26154,7 @@
         <v>775</v>
       </c>
       <c r="B780" s="85"/>
-      <c r="C780" s="130" t="s">
+      <c r="C780" s="122" t="s">
         <v>1277</v>
       </c>
       <c r="D780" s="97">
@@ -26184,7 +26180,7 @@
         <v>776</v>
       </c>
       <c r="B781" s="85"/>
-      <c r="C781" s="130" t="s">
+      <c r="C781" s="122" t="s">
         <v>1279</v>
       </c>
       <c r="D781" s="97">
@@ -26210,7 +26206,7 @@
         <v>777</v>
       </c>
       <c r="B782" s="85"/>
-      <c r="C782" s="130" t="s">
+      <c r="C782" s="122" t="s">
         <v>1282</v>
       </c>
       <c r="D782" s="97">
@@ -26236,7 +26232,7 @@
         <v>778</v>
       </c>
       <c r="B783" s="85"/>
-      <c r="C783" s="130" t="s">
+      <c r="C783" s="122" t="s">
         <v>1283</v>
       </c>
       <c r="D783" s="97">
@@ -26260,7 +26256,7 @@
         <v>779</v>
       </c>
       <c r="B784" s="85"/>
-      <c r="C784" s="130" t="s">
+      <c r="C784" s="122" t="s">
         <v>1284</v>
       </c>
       <c r="D784" s="97">
@@ -26286,7 +26282,7 @@
         <v>780</v>
       </c>
       <c r="B785" s="85"/>
-      <c r="C785" s="130" t="s">
+      <c r="C785" s="122" t="s">
         <v>1285</v>
       </c>
       <c r="D785" s="105">
@@ -26312,7 +26308,7 @@
         <v>781</v>
       </c>
       <c r="B786" s="85"/>
-      <c r="C786" s="130" t="s">
+      <c r="C786" s="122" t="s">
         <v>1286</v>
       </c>
       <c r="D786" s="106">
@@ -26338,7 +26334,7 @@
         <v>782</v>
       </c>
       <c r="B787" s="85"/>
-      <c r="C787" s="130" t="s">
+      <c r="C787" s="122" t="s">
         <v>1287</v>
       </c>
       <c r="D787" s="105">
@@ -26362,7 +26358,7 @@
         <v>783</v>
       </c>
       <c r="B788" s="87"/>
-      <c r="C788" s="137" t="s">
+      <c r="C788" s="129" t="s">
         <v>1288</v>
       </c>
       <c r="D788" s="97">
@@ -26388,7 +26384,7 @@
         <v>784</v>
       </c>
       <c r="B789" s="90"/>
-      <c r="C789" s="130" t="s">
+      <c r="C789" s="122" t="s">
         <v>1289</v>
       </c>
       <c r="D789" s="105">
@@ -26414,7 +26410,7 @@
         <v>785</v>
       </c>
       <c r="B790" s="85"/>
-      <c r="C790" s="130" t="s">
+      <c r="C790" s="122" t="s">
         <v>1290</v>
       </c>
       <c r="D790" s="97">
@@ -26440,7 +26436,7 @@
         <v>786</v>
       </c>
       <c r="B791" s="85"/>
-      <c r="C791" s="130" t="s">
+      <c r="C791" s="122" t="s">
         <v>1291</v>
       </c>
       <c r="D791" s="97">
@@ -26466,7 +26462,7 @@
         <v>787</v>
       </c>
       <c r="B792" s="85"/>
-      <c r="C792" s="130" t="s">
+      <c r="C792" s="122" t="s">
         <v>1292</v>
       </c>
       <c r="D792" s="95">
@@ -26490,7 +26486,7 @@
         <v>788</v>
       </c>
       <c r="B793" s="85"/>
-      <c r="C793" s="130" t="s">
+      <c r="C793" s="122" t="s">
         <v>1293</v>
       </c>
       <c r="D793" s="97">
@@ -26514,7 +26510,7 @@
         <v>789</v>
       </c>
       <c r="B794" s="85"/>
-      <c r="C794" s="130" t="s">
+      <c r="C794" s="122" t="s">
         <v>1294</v>
       </c>
       <c r="D794" s="97">
@@ -26538,7 +26534,7 @@
         <v>790</v>
       </c>
       <c r="B795" s="85"/>
-      <c r="C795" s="130" t="s">
+      <c r="C795" s="122" t="s">
         <v>1295</v>
       </c>
       <c r="D795" s="97">
@@ -26562,7 +26558,7 @@
         <v>791</v>
       </c>
       <c r="B796" s="85"/>
-      <c r="C796" s="130" t="s">
+      <c r="C796" s="122" t="s">
         <v>1296</v>
       </c>
       <c r="D796" s="97">
@@ -26586,7 +26582,7 @@
         <v>792</v>
       </c>
       <c r="B797" s="85"/>
-      <c r="C797" s="130" t="s">
+      <c r="C797" s="122" t="s">
         <v>1297</v>
       </c>
       <c r="D797" s="97">
@@ -26610,7 +26606,7 @@
         <v>793</v>
       </c>
       <c r="B798" s="85"/>
-      <c r="C798" s="130" t="s">
+      <c r="C798" s="122" t="s">
         <v>1298</v>
       </c>
       <c r="D798" s="103">
@@ -26634,7 +26630,7 @@
         <v>794</v>
       </c>
       <c r="B799" s="85"/>
-      <c r="C799" s="130" t="s">
+      <c r="C799" s="122" t="s">
         <v>1299</v>
       </c>
       <c r="D799" s="97">
@@ -26658,7 +26654,7 @@
         <v>795</v>
       </c>
       <c r="B800" s="85"/>
-      <c r="C800" s="130" t="s">
+      <c r="C800" s="122" t="s">
         <v>1300</v>
       </c>
       <c r="D800" s="95">
@@ -26682,7 +26678,7 @@
         <v>796</v>
       </c>
       <c r="B801" s="85"/>
-      <c r="C801" s="130" t="s">
+      <c r="C801" s="122" t="s">
         <v>1301</v>
       </c>
       <c r="D801" s="97">
@@ -26706,7 +26702,7 @@
         <v>797</v>
       </c>
       <c r="B802" s="85"/>
-      <c r="C802" s="130" t="s">
+      <c r="C802" s="122" t="s">
         <v>1280</v>
       </c>
       <c r="D802" s="97">
@@ -26732,7 +26728,7 @@
         <v>798</v>
       </c>
       <c r="B803" s="87"/>
-      <c r="C803" s="137" t="s">
+      <c r="C803" s="129" t="s">
         <v>1302</v>
       </c>
       <c r="D803" s="97">
@@ -26758,7 +26754,7 @@
         <v>799</v>
       </c>
       <c r="B804" s="87"/>
-      <c r="C804" s="137" t="s">
+      <c r="C804" s="129" t="s">
         <v>1303</v>
       </c>
       <c r="D804" s="97">
@@ -26782,7 +26778,7 @@
         <v>800</v>
       </c>
       <c r="B805" s="87"/>
-      <c r="C805" s="137" t="s">
+      <c r="C805" s="129" t="s">
         <v>1304</v>
       </c>
       <c r="D805" s="97">
@@ -26806,7 +26802,7 @@
         <v>801</v>
       </c>
       <c r="B806" s="87"/>
-      <c r="C806" s="137" t="s">
+      <c r="C806" s="129" t="s">
         <v>1305</v>
       </c>
       <c r="D806" s="97">
@@ -26830,7 +26826,7 @@
         <v>802</v>
       </c>
       <c r="B807" s="87"/>
-      <c r="C807" s="137" t="s">
+      <c r="C807" s="129" t="s">
         <v>1306</v>
       </c>
       <c r="D807" s="97">
@@ -26854,7 +26850,7 @@
         <v>803</v>
       </c>
       <c r="B808" s="87"/>
-      <c r="C808" s="137" t="s">
+      <c r="C808" s="129" t="s">
         <v>1307</v>
       </c>
       <c r="D808" s="97">
@@ -26878,7 +26874,7 @@
         <v>804</v>
       </c>
       <c r="B809" s="87"/>
-      <c r="C809" s="137" t="s">
+      <c r="C809" s="129" t="s">
         <v>1308</v>
       </c>
       <c r="D809" s="97">
@@ -26902,7 +26898,7 @@
         <v>805</v>
       </c>
       <c r="B810" s="87"/>
-      <c r="C810" s="137" t="s">
+      <c r="C810" s="129" t="s">
         <v>1309</v>
       </c>
       <c r="D810" s="97">
@@ -26928,7 +26924,7 @@
         <v>806</v>
       </c>
       <c r="B811" s="87"/>
-      <c r="C811" s="137" t="s">
+      <c r="C811" s="129" t="s">
         <v>1310</v>
       </c>
       <c r="D811" s="97">
@@ -26954,7 +26950,7 @@
         <v>807</v>
       </c>
       <c r="B812" s="87"/>
-      <c r="C812" s="137" t="s">
+      <c r="C812" s="129" t="s">
         <v>1311</v>
       </c>
       <c r="D812" s="95">
@@ -26980,7 +26976,7 @@
         <v>808</v>
       </c>
       <c r="B813" s="87"/>
-      <c r="C813" s="137" t="s">
+      <c r="C813" s="129" t="s">
         <v>1312</v>
       </c>
       <c r="D813" s="97">
@@ -27006,7 +27002,7 @@
         <v>809</v>
       </c>
       <c r="B814" s="87"/>
-      <c r="C814" s="137" t="s">
+      <c r="C814" s="129" t="s">
         <v>1313</v>
       </c>
       <c r="D814" s="97">
@@ -27030,7 +27026,7 @@
         <v>810</v>
       </c>
       <c r="B815" s="87"/>
-      <c r="C815" s="137" t="s">
+      <c r="C815" s="129" t="s">
         <v>1314</v>
       </c>
       <c r="D815" s="97">
@@ -27054,7 +27050,7 @@
         <v>811</v>
       </c>
       <c r="B816" s="87"/>
-      <c r="C816" s="137" t="s">
+      <c r="C816" s="129" t="s">
         <v>1315</v>
       </c>
       <c r="D816" s="97">
@@ -27080,7 +27076,7 @@
         <v>812</v>
       </c>
       <c r="B817" s="87"/>
-      <c r="C817" s="137" t="s">
+      <c r="C817" s="129" t="s">
         <v>1316</v>
       </c>
       <c r="D817" s="97">
@@ -27104,7 +27100,7 @@
         <v>813</v>
       </c>
       <c r="B818" s="87"/>
-      <c r="C818" s="137" t="s">
+      <c r="C818" s="129" t="s">
         <v>1317</v>
       </c>
       <c r="D818" s="97">
@@ -27130,7 +27126,7 @@
         <v>814</v>
       </c>
       <c r="B819" s="87"/>
-      <c r="C819" s="137" t="s">
+      <c r="C819" s="129" t="s">
         <v>1318</v>
       </c>
       <c r="D819" s="97">
@@ -27156,7 +27152,7 @@
         <v>815</v>
       </c>
       <c r="B820" s="87"/>
-      <c r="C820" s="137" t="s">
+      <c r="C820" s="129" t="s">
         <v>1319</v>
       </c>
       <c r="D820" s="97">
@@ -27180,7 +27176,7 @@
         <v>816</v>
       </c>
       <c r="B821" s="87"/>
-      <c r="C821" s="137" t="s">
+      <c r="C821" s="129" t="s">
         <v>1320</v>
       </c>
       <c r="D821" s="97">
@@ -27204,7 +27200,7 @@
         <v>817</v>
       </c>
       <c r="B822" s="87"/>
-      <c r="C822" s="137" t="s">
+      <c r="C822" s="129" t="s">
         <v>1321</v>
       </c>
       <c r="D822" s="97">
@@ -27230,7 +27226,7 @@
         <v>818</v>
       </c>
       <c r="B823" s="87"/>
-      <c r="C823" s="137" t="s">
+      <c r="C823" s="129" t="s">
         <v>1322</v>
       </c>
       <c r="D823" s="97">
@@ -27256,7 +27252,7 @@
         <v>819</v>
       </c>
       <c r="B824" s="87"/>
-      <c r="C824" s="137" t="s">
+      <c r="C824" s="129" t="s">
         <v>1323</v>
       </c>
       <c r="D824" s="97">
@@ -27282,7 +27278,7 @@
         <v>820</v>
       </c>
       <c r="B825" s="87"/>
-      <c r="C825" s="137" t="s">
+      <c r="C825" s="129" t="s">
         <v>1324</v>
       </c>
       <c r="D825" s="97">
@@ -27308,7 +27304,7 @@
         <v>821</v>
       </c>
       <c r="B826" s="87"/>
-      <c r="C826" s="137" t="s">
+      <c r="C826" s="129" t="s">
         <v>1325</v>
       </c>
       <c r="D826" s="97">
@@ -27334,7 +27330,7 @@
         <v>822</v>
       </c>
       <c r="B827" s="87"/>
-      <c r="C827" s="137" t="s">
+      <c r="C827" s="129" t="s">
         <v>1326</v>
       </c>
       <c r="D827" s="97">
@@ -27360,7 +27356,7 @@
         <v>823</v>
       </c>
       <c r="B828" s="87"/>
-      <c r="C828" s="137" t="s">
+      <c r="C828" s="129" t="s">
         <v>1327</v>
       </c>
       <c r="D828" s="97">
@@ -27384,7 +27380,7 @@
         <v>824</v>
       </c>
       <c r="B829" s="87"/>
-      <c r="C829" s="137" t="s">
+      <c r="C829" s="129" t="s">
         <v>1328</v>
       </c>
       <c r="D829" s="97">
@@ -27410,7 +27406,7 @@
         <v>825</v>
       </c>
       <c r="B830" s="87"/>
-      <c r="C830" s="137" t="s">
+      <c r="C830" s="129" t="s">
         <v>1329</v>
       </c>
       <c r="D830" s="96">
@@ -27434,7 +27430,7 @@
         <v>826</v>
       </c>
       <c r="B831" s="87"/>
-      <c r="C831" s="137" t="s">
+      <c r="C831" s="129" t="s">
         <v>1330</v>
       </c>
       <c r="D831" s="97">
@@ -27460,7 +27456,7 @@
         <v>827</v>
       </c>
       <c r="B832" s="87"/>
-      <c r="C832" s="137" t="s">
+      <c r="C832" s="129" t="s">
         <v>1461</v>
       </c>
       <c r="D832" s="97">
@@ -27486,7 +27482,7 @@
         <v>828</v>
       </c>
       <c r="B833" s="87"/>
-      <c r="C833" s="137" t="s">
+      <c r="C833" s="129" t="s">
         <v>1331</v>
       </c>
       <c r="D833" s="97">
@@ -27512,7 +27508,7 @@
         <v>829</v>
       </c>
       <c r="B834" s="87"/>
-      <c r="C834" s="137" t="s">
+      <c r="C834" s="129" t="s">
         <v>1332</v>
       </c>
       <c r="D834" s="97">
@@ -27536,7 +27532,7 @@
         <v>830</v>
       </c>
       <c r="B835" s="87"/>
-      <c r="C835" s="137" t="s">
+      <c r="C835" s="129" t="s">
         <v>1333</v>
       </c>
       <c r="D835" s="97">
@@ -27562,7 +27558,7 @@
         <v>831</v>
       </c>
       <c r="B836" s="87"/>
-      <c r="C836" s="137" t="s">
+      <c r="C836" s="129" t="s">
         <v>1334</v>
       </c>
       <c r="D836" s="97">
@@ -27588,7 +27584,7 @@
         <v>832</v>
       </c>
       <c r="B837" s="87"/>
-      <c r="C837" s="137" t="s">
+      <c r="C837" s="129" t="s">
         <v>1335</v>
       </c>
       <c r="D837" s="97">
@@ -27614,7 +27610,7 @@
         <v>833</v>
       </c>
       <c r="B838" s="87"/>
-      <c r="C838" s="137" t="s">
+      <c r="C838" s="129" t="s">
         <v>1336</v>
       </c>
       <c r="D838" s="97">
@@ -27640,7 +27636,7 @@
         <v>834</v>
       </c>
       <c r="B839" s="87"/>
-      <c r="C839" s="137" t="s">
+      <c r="C839" s="129" t="s">
         <v>1337</v>
       </c>
       <c r="D839" s="97">
@@ -27664,7 +27660,7 @@
         <v>835</v>
       </c>
       <c r="B840" s="87"/>
-      <c r="C840" s="137" t="s">
+      <c r="C840" s="129" t="s">
         <v>1338</v>
       </c>
       <c r="D840" s="97">
@@ -27690,7 +27686,7 @@
         <v>836</v>
       </c>
       <c r="B841" s="87"/>
-      <c r="C841" s="137" t="s">
+      <c r="C841" s="129" t="s">
         <v>1339</v>
       </c>
       <c r="D841" s="97">
@@ -27716,7 +27712,7 @@
         <v>837</v>
       </c>
       <c r="B842" s="87"/>
-      <c r="C842" s="137" t="s">
+      <c r="C842" s="129" t="s">
         <v>1340</v>
       </c>
       <c r="D842" s="97">
@@ -27740,7 +27736,7 @@
         <v>838</v>
       </c>
       <c r="B843" s="87"/>
-      <c r="C843" s="137" t="s">
+      <c r="C843" s="129" t="s">
         <v>1341</v>
       </c>
       <c r="D843" s="97">
@@ -27766,7 +27762,7 @@
         <v>839</v>
       </c>
       <c r="B844" s="87"/>
-      <c r="C844" s="137" t="s">
+      <c r="C844" s="129" t="s">
         <v>1342</v>
       </c>
       <c r="D844" s="97">
@@ -27792,7 +27788,7 @@
         <v>840</v>
       </c>
       <c r="B845" s="87"/>
-      <c r="C845" s="137" t="s">
+      <c r="C845" s="129" t="s">
         <v>1343</v>
       </c>
       <c r="D845" s="97">
@@ -27816,7 +27812,7 @@
         <v>841</v>
       </c>
       <c r="B846" s="87"/>
-      <c r="C846" s="137" t="s">
+      <c r="C846" s="129" t="s">
         <v>1344</v>
       </c>
       <c r="D846" s="97">
@@ -27840,7 +27836,7 @@
         <v>842</v>
       </c>
       <c r="B847" s="87"/>
-      <c r="C847" s="137" t="s">
+      <c r="C847" s="129" t="s">
         <v>1345</v>
       </c>
       <c r="D847" s="97">
@@ -27866,7 +27862,7 @@
         <v>843</v>
       </c>
       <c r="B848" s="87"/>
-      <c r="C848" s="137" t="s">
+      <c r="C848" s="129" t="s">
         <v>1346</v>
       </c>
       <c r="D848" s="95">
@@ -27890,7 +27886,7 @@
         <v>844</v>
       </c>
       <c r="B849" s="87"/>
-      <c r="C849" s="137" t="s">
+      <c r="C849" s="129" t="s">
         <v>1347</v>
       </c>
       <c r="D849" s="97">
@@ -27914,7 +27910,7 @@
         <v>845</v>
       </c>
       <c r="B850" s="87"/>
-      <c r="C850" s="137" t="s">
+      <c r="C850" s="129" t="s">
         <v>1348</v>
       </c>
       <c r="D850" s="97">
@@ -27940,7 +27936,7 @@
         <v>846</v>
       </c>
       <c r="B851" s="87"/>
-      <c r="C851" s="137" t="s">
+      <c r="C851" s="129" t="s">
         <v>1349</v>
       </c>
       <c r="D851" s="97">
@@ -27966,7 +27962,7 @@
         <v>847</v>
       </c>
       <c r="B852" s="87"/>
-      <c r="C852" s="137" t="s">
+      <c r="C852" s="129" t="s">
         <v>1350</v>
       </c>
       <c r="D852" s="97">
@@ -27992,7 +27988,7 @@
         <v>848</v>
       </c>
       <c r="B853" s="87"/>
-      <c r="C853" s="137" t="s">
+      <c r="C853" s="129" t="s">
         <v>1351</v>
       </c>
       <c r="D853" s="97">
@@ -28016,7 +28012,7 @@
         <v>849</v>
       </c>
       <c r="B854" s="87"/>
-      <c r="C854" s="137" t="s">
+      <c r="C854" s="129" t="s">
         <v>1352</v>
       </c>
       <c r="D854" s="97">
@@ -28040,7 +28036,7 @@
         <v>850</v>
       </c>
       <c r="B855" s="87"/>
-      <c r="C855" s="137" t="s">
+      <c r="C855" s="129" t="s">
         <v>1353</v>
       </c>
       <c r="D855" s="95">
@@ -28066,7 +28062,7 @@
         <v>851</v>
       </c>
       <c r="B856" s="87"/>
-      <c r="C856" s="137" t="s">
+      <c r="C856" s="129" t="s">
         <v>1354</v>
       </c>
       <c r="D856" s="97">
@@ -28090,7 +28086,7 @@
         <v>852</v>
       </c>
       <c r="B857" s="87"/>
-      <c r="C857" s="137" t="s">
+      <c r="C857" s="129" t="s">
         <v>1355</v>
       </c>
       <c r="D857" s="97">
@@ -28114,7 +28110,7 @@
         <v>853</v>
       </c>
       <c r="B858" s="87"/>
-      <c r="C858" s="137" t="s">
+      <c r="C858" s="129" t="s">
         <v>1356</v>
       </c>
       <c r="D858" s="97">
@@ -28138,7 +28134,7 @@
         <v>854</v>
       </c>
       <c r="B859" s="87"/>
-      <c r="C859" s="137" t="s">
+      <c r="C859" s="129" t="s">
         <v>1357</v>
       </c>
       <c r="D859" s="97">
@@ -28164,7 +28160,7 @@
         <v>855</v>
       </c>
       <c r="B860" s="87"/>
-      <c r="C860" s="137" t="s">
+      <c r="C860" s="129" t="s">
         <v>1358</v>
       </c>
       <c r="D860" s="108">
@@ -28190,7 +28186,7 @@
         <v>856</v>
       </c>
       <c r="B861" s="87"/>
-      <c r="C861" s="137" t="s">
+      <c r="C861" s="129" t="s">
         <v>1359</v>
       </c>
       <c r="D861" s="108">
@@ -28216,11 +28212,11 @@
         <v>857</v>
       </c>
       <c r="B862" s="87"/>
-      <c r="C862" s="137" t="s">
+      <c r="C862" s="129" t="s">
         <v>1360</v>
       </c>
       <c r="D862" s="108">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E862" s="108">
         <v>690</v>
@@ -28242,7 +28238,7 @@
         <v>858</v>
       </c>
       <c r="B863" s="90"/>
-      <c r="C863" s="130" t="s">
+      <c r="C863" s="122" t="s">
         <v>1366</v>
       </c>
       <c r="D863" s="96">
@@ -28266,7 +28262,7 @@
         <v>859</v>
       </c>
       <c r="B864" s="85"/>
-      <c r="C864" s="130" t="s">
+      <c r="C864" s="122" t="s">
         <v>1367</v>
       </c>
       <c r="D864" s="96">
@@ -28290,7 +28286,7 @@
         <v>860</v>
       </c>
       <c r="B865" s="85"/>
-      <c r="C865" s="130" t="s">
+      <c r="C865" s="122" t="s">
         <v>1368</v>
       </c>
       <c r="D865" s="97">
@@ -28314,7 +28310,7 @@
         <v>861</v>
       </c>
       <c r="B866" s="85"/>
-      <c r="C866" s="130" t="s">
+      <c r="C866" s="122" t="s">
         <v>1369</v>
       </c>
       <c r="D866" s="97">
@@ -28338,7 +28334,7 @@
         <v>862</v>
       </c>
       <c r="B867" s="85"/>
-      <c r="C867" s="130" t="s">
+      <c r="C867" s="122" t="s">
         <v>1370</v>
       </c>
       <c r="D867" s="97">
@@ -28362,7 +28358,7 @@
         <v>863</v>
       </c>
       <c r="B868" s="85"/>
-      <c r="C868" s="130" t="s">
+      <c r="C868" s="122" t="s">
         <v>1371</v>
       </c>
       <c r="D868" s="97">
@@ -28386,7 +28382,7 @@
         <v>864</v>
       </c>
       <c r="B869" s="85"/>
-      <c r="C869" s="130" t="s">
+      <c r="C869" s="122" t="s">
         <v>1372</v>
       </c>
       <c r="D869" s="97">
@@ -28410,7 +28406,7 @@
         <v>865</v>
       </c>
       <c r="B870" s="85"/>
-      <c r="C870" s="130" t="s">
+      <c r="C870" s="122" t="s">
         <v>1376</v>
       </c>
       <c r="D870" s="97">
@@ -28434,7 +28430,7 @@
         <v>866</v>
       </c>
       <c r="B871" s="85"/>
-      <c r="C871" s="130" t="s">
+      <c r="C871" s="122" t="s">
         <v>1377</v>
       </c>
       <c r="D871" s="97">
@@ -28458,7 +28454,7 @@
         <v>867</v>
       </c>
       <c r="B872" s="85"/>
-      <c r="C872" s="130" t="s">
+      <c r="C872" s="122" t="s">
         <v>1378</v>
       </c>
       <c r="D872" s="97">
@@ -28482,7 +28478,7 @@
         <v>868</v>
       </c>
       <c r="B873" s="85"/>
-      <c r="C873" s="130" t="s">
+      <c r="C873" s="122" t="s">
         <v>1379</v>
       </c>
       <c r="D873" s="97">
@@ -28506,7 +28502,7 @@
         <v>869</v>
       </c>
       <c r="B874" s="85"/>
-      <c r="C874" s="130" t="s">
+      <c r="C874" s="122" t="s">
         <v>1380</v>
       </c>
       <c r="D874" s="97">
@@ -28530,7 +28526,7 @@
         <v>870</v>
       </c>
       <c r="B875" s="92"/>
-      <c r="C875" s="130" t="s">
+      <c r="C875" s="122" t="s">
         <v>1381</v>
       </c>
       <c r="D875" s="97">
@@ -28554,7 +28550,7 @@
         <v>871</v>
       </c>
       <c r="B876" s="92"/>
-      <c r="C876" s="130" t="s">
+      <c r="C876" s="122" t="s">
         <v>1382</v>
       </c>
       <c r="D876" s="97">
@@ -28578,7 +28574,7 @@
         <v>872</v>
       </c>
       <c r="B877" s="92"/>
-      <c r="C877" s="130" t="s">
+      <c r="C877" s="122" t="s">
         <v>1438</v>
       </c>
       <c r="D877" s="95">
@@ -28602,7 +28598,7 @@
         <v>873</v>
       </c>
       <c r="B878" s="92"/>
-      <c r="C878" s="130" t="s">
+      <c r="C878" s="122" t="s">
         <v>1439</v>
       </c>
       <c r="D878" s="97">
@@ -28626,7 +28622,7 @@
         <v>874</v>
       </c>
       <c r="B879" s="92"/>
-      <c r="C879" s="130" t="s">
+      <c r="C879" s="122" t="s">
         <v>1440</v>
       </c>
       <c r="D879" s="97">
@@ -28652,7 +28648,7 @@
         <v>875</v>
       </c>
       <c r="B880" s="92"/>
-      <c r="C880" s="130" t="s">
+      <c r="C880" s="122" t="s">
         <v>1442</v>
       </c>
       <c r="D880" s="95">
@@ -28676,7 +28672,7 @@
         <v>876</v>
       </c>
       <c r="B881" s="92"/>
-      <c r="C881" s="130" t="s">
+      <c r="C881" s="122" t="s">
         <v>1443</v>
       </c>
       <c r="D881" s="97">
@@ -28700,7 +28696,7 @@
         <v>877</v>
       </c>
       <c r="B882" s="92"/>
-      <c r="C882" s="130" t="s">
+      <c r="C882" s="122" t="s">
         <v>1444</v>
       </c>
       <c r="D882" s="97">
@@ -28724,7 +28720,7 @@
         <v>878</v>
       </c>
       <c r="B883" s="92"/>
-      <c r="C883" s="130" t="s">
+      <c r="C883" s="122" t="s">
         <v>1445</v>
       </c>
       <c r="D883" s="97">
@@ -28748,7 +28744,7 @@
         <v>879</v>
       </c>
       <c r="B884" s="92"/>
-      <c r="C884" s="130" t="s">
+      <c r="C884" s="122" t="s">
         <v>1446</v>
       </c>
       <c r="D884" s="97">
@@ -28772,7 +28768,7 @@
         <v>880</v>
       </c>
       <c r="B885" s="92"/>
-      <c r="C885" s="130" t="s">
+      <c r="C885" s="122" t="s">
         <v>1447</v>
       </c>
       <c r="D885" s="97">
@@ -28796,7 +28792,7 @@
         <v>881</v>
       </c>
       <c r="B886" s="92"/>
-      <c r="C886" s="130" t="s">
+      <c r="C886" s="122" t="s">
         <v>1448</v>
       </c>
       <c r="D886" s="97">
@@ -28820,7 +28816,7 @@
         <v>882</v>
       </c>
       <c r="B887" s="92"/>
-      <c r="C887" s="130" t="s">
+      <c r="C887" s="122" t="s">
         <v>1449</v>
       </c>
       <c r="D887" s="97">
@@ -28844,7 +28840,7 @@
         <v>883</v>
       </c>
       <c r="B888" s="92"/>
-      <c r="C888" s="130" t="s">
+      <c r="C888" s="122" t="s">
         <v>1450</v>
       </c>
       <c r="D888" s="97">
@@ -28868,7 +28864,7 @@
         <v>884</v>
       </c>
       <c r="B889" s="92"/>
-      <c r="C889" s="130" t="s">
+      <c r="C889" s="122" t="s">
         <v>1451</v>
       </c>
       <c r="D889" s="97">
@@ -28894,7 +28890,7 @@
       <c r="B890" s="92" t="s">
         <v>1452</v>
       </c>
-      <c r="C890" s="130" t="s">
+      <c r="C890" s="122" t="s">
         <v>1453</v>
       </c>
       <c r="D890" s="97">
@@ -28920,7 +28916,7 @@
         <v>886</v>
       </c>
       <c r="B891" s="92"/>
-      <c r="C891" s="130" t="s">
+      <c r="C891" s="122" t="s">
         <v>1454</v>
       </c>
       <c r="D891" s="97">
@@ -28944,7 +28940,7 @@
         <v>887</v>
       </c>
       <c r="B892" s="92"/>
-      <c r="C892" s="130" t="s">
+      <c r="C892" s="122" t="s">
         <v>1455</v>
       </c>
       <c r="D892" s="97">
@@ -28970,7 +28966,7 @@
         <v>888</v>
       </c>
       <c r="B893" s="92"/>
-      <c r="C893" s="130" t="s">
+      <c r="C893" s="122" t="s">
         <v>1456</v>
       </c>
       <c r="D893" s="95">
@@ -28994,7 +28990,7 @@
         <v>889</v>
       </c>
       <c r="B894" s="92"/>
-      <c r="C894" s="130" t="s">
+      <c r="C894" s="122" t="s">
         <v>1457</v>
       </c>
       <c r="D894" s="97">
@@ -29022,7 +29018,7 @@
       <c r="B895" s="92" t="s">
         <v>1452</v>
       </c>
-      <c r="C895" s="130" t="s">
+      <c r="C895" s="122" t="s">
         <v>1459</v>
       </c>
       <c r="D895" s="95">
@@ -29046,7 +29042,7 @@
         <v>891</v>
       </c>
       <c r="B896" s="85"/>
-      <c r="C896" s="130" t="s">
+      <c r="C896" s="122" t="s">
         <v>1462</v>
       </c>
       <c r="D896" s="97">
@@ -29070,7 +29066,7 @@
         <v>892</v>
       </c>
       <c r="B897" s="85"/>
-      <c r="C897" s="130" t="s">
+      <c r="C897" s="122" t="s">
         <v>1463</v>
       </c>
       <c r="D897" s="97">
@@ -29193,7 +29189,7 @@
       </c>
       <c r="B902" s="43"/>
       <c r="C902" s="43" t="s">
-        <v>1469</v>
+        <v>1568</v>
       </c>
       <c r="D902" s="94">
         <v>660</v>
@@ -29217,7 +29213,7 @@
       </c>
       <c r="B903" s="43"/>
       <c r="C903" s="43" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D903" s="94">
         <v>615</v>
@@ -29241,7 +29237,7 @@
       </c>
       <c r="B904" s="43"/>
       <c r="C904" s="43" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D904" s="94">
         <v>690</v>
@@ -29265,7 +29261,7 @@
       </c>
       <c r="B905" s="43"/>
       <c r="C905" s="43" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="D905" s="94">
         <v>610</v>
@@ -29289,7 +29285,7 @@
       </c>
       <c r="B906" s="43"/>
       <c r="C906" s="43" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D906" s="94">
         <v>630</v>
@@ -29313,7 +29309,7 @@
       </c>
       <c r="B907" s="43"/>
       <c r="C907" s="43" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D907" s="94">
         <v>635</v>
@@ -29337,7 +29333,7 @@
       </c>
       <c r="B908" s="43"/>
       <c r="C908" s="43" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D908" s="94">
         <v>635</v>
@@ -29361,7 +29357,7 @@
       </c>
       <c r="B909" s="43"/>
       <c r="C909" s="43" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D909" s="94">
         <v>690</v>
@@ -29385,7 +29381,7 @@
       </c>
       <c r="B910" s="43"/>
       <c r="C910" s="43" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D910" s="94">
         <v>620</v>
@@ -29409,7 +29405,7 @@
       </c>
       <c r="B911" s="43"/>
       <c r="C911" s="43" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D911" s="94">
         <v>740</v>
@@ -29457,7 +29453,7 @@
       </c>
       <c r="B913" s="43"/>
       <c r="C913" s="43" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D913" s="94">
         <v>615</v>
@@ -29481,7 +29477,7 @@
       </c>
       <c r="B914" s="43"/>
       <c r="C914" s="43" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D914" s="94">
         <v>610</v>
@@ -29505,7 +29501,7 @@
       </c>
       <c r="B915" s="43"/>
       <c r="C915" s="43" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D915" s="94">
         <v>610</v>
@@ -29514,7 +29510,7 @@
         <v>600</v>
       </c>
       <c r="F915" s="81" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G915" s="1"/>
       <c r="H915" s="1"/>
@@ -29531,7 +29527,7 @@
       </c>
       <c r="B916" s="43"/>
       <c r="C916" s="43" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D916" s="94">
         <v>620</v>
@@ -29555,7 +29551,7 @@
       </c>
       <c r="B917" s="43"/>
       <c r="C917" s="43" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D917" s="94">
         <v>620</v>
@@ -29579,7 +29575,7 @@
       </c>
       <c r="B918" s="43"/>
       <c r="C918" s="43" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D918" s="94">
         <v>620</v>
@@ -29588,7 +29584,7 @@
         <v>610</v>
       </c>
       <c r="F918" s="81" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="G918" s="1"/>
       <c r="H918" s="1"/>
@@ -29605,7 +29601,7 @@
       </c>
       <c r="B919" s="43"/>
       <c r="C919" s="43" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D919" s="94">
         <v>650</v>
@@ -29614,7 +29610,7 @@
         <v>630</v>
       </c>
       <c r="F919" s="81" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G919" s="1"/>
       <c r="H919" s="1"/>
@@ -29631,7 +29627,7 @@
       </c>
       <c r="B920" s="43"/>
       <c r="C920" s="43" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D920" s="94">
         <v>600</v>
@@ -29640,7 +29636,7 @@
         <v>590</v>
       </c>
       <c r="F920" s="81" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="G920" s="1"/>
       <c r="H920" s="1"/>
@@ -29657,7 +29653,7 @@
       </c>
       <c r="B921" s="43"/>
       <c r="C921" s="43" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D921" s="94">
         <v>600</v>
@@ -29681,7 +29677,7 @@
       </c>
       <c r="B922" s="43"/>
       <c r="C922" s="43" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D922" s="94">
         <v>650</v>
@@ -29690,7 +29686,7 @@
         <v>630</v>
       </c>
       <c r="F922" s="43" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="G922" s="1"/>
       <c r="H922" s="1"/>
@@ -29707,7 +29703,7 @@
       </c>
       <c r="B923" s="43"/>
       <c r="C923" s="43" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D923" s="94">
         <v>635</v>
@@ -29716,7 +29712,7 @@
         <v>615</v>
       </c>
       <c r="F923" s="81" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G923" s="1"/>
       <c r="H923" s="1"/>
@@ -29733,7 +29729,7 @@
       </c>
       <c r="B924" s="43"/>
       <c r="C924" s="43" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D924" s="94">
         <v>625</v>
@@ -29742,7 +29738,7 @@
         <v>615</v>
       </c>
       <c r="F924" s="81" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G924" s="1"/>
       <c r="H924" s="1"/>
@@ -29759,7 +29755,7 @@
       </c>
       <c r="B925" s="43"/>
       <c r="C925" s="43" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D925" s="94">
         <v>605</v>
@@ -29768,7 +29764,7 @@
         <v>600</v>
       </c>
       <c r="F925" s="81" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G925" s="1"/>
       <c r="H925" s="1"/>
@@ -29785,7 +29781,7 @@
       </c>
       <c r="B926" s="43"/>
       <c r="C926" s="43" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D926" s="94">
         <v>610</v>
@@ -29809,7 +29805,7 @@
       </c>
       <c r="B927" s="43"/>
       <c r="C927" s="43" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D927" s="94">
         <v>605</v>
@@ -29833,7 +29829,7 @@
       </c>
       <c r="B928" s="43"/>
       <c r="C928" s="43" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D928" s="94">
         <v>640</v>
@@ -29842,7 +29838,7 @@
         <v>625</v>
       </c>
       <c r="F928" s="81" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="G928" s="1"/>
       <c r="H928" s="1"/>
@@ -29859,7 +29855,7 @@
       </c>
       <c r="B929" s="43"/>
       <c r="C929" s="43" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D929" s="94">
         <v>630</v>
@@ -29868,7 +29864,7 @@
         <v>615</v>
       </c>
       <c r="F929" s="81" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G929" s="1"/>
       <c r="H929" s="1"/>
@@ -29885,7 +29881,7 @@
       </c>
       <c r="B930" s="43"/>
       <c r="C930" s="43" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D930" s="94">
         <v>640</v>
@@ -29894,7 +29890,7 @@
         <v>620</v>
       </c>
       <c r="F930" s="81" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G930" s="1"/>
       <c r="H930" s="1"/>
@@ -29911,7 +29907,7 @@
       </c>
       <c r="B931" s="43"/>
       <c r="C931" s="43" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D931" s="94">
         <v>635</v>
@@ -29935,7 +29931,7 @@
       </c>
       <c r="B932" s="43"/>
       <c r="C932" s="43" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D932" s="94">
         <v>630</v>
@@ -29944,7 +29940,7 @@
         <v>620</v>
       </c>
       <c r="F932" s="81" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="G932" s="1"/>
       <c r="H932" s="1"/>
@@ -29961,7 +29957,7 @@
       </c>
       <c r="B933" s="43"/>
       <c r="C933" s="43" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D933" s="94">
         <v>615</v>
@@ -29970,7 +29966,7 @@
         <v>605</v>
       </c>
       <c r="F933" s="81" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G933" s="1"/>
       <c r="H933" s="1"/>
@@ -29987,7 +29983,7 @@
       </c>
       <c r="B934" s="43"/>
       <c r="C934" s="43" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D934" s="94">
         <v>635</v>
@@ -29996,7 +29992,7 @@
         <v>620</v>
       </c>
       <c r="F934" s="81" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="G934" s="1"/>
       <c r="H934" s="1"/>
@@ -30013,7 +30009,7 @@
       </c>
       <c r="B935" s="43"/>
       <c r="C935" s="43" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D935" s="94">
         <v>590</v>
@@ -30037,7 +30033,7 @@
       </c>
       <c r="B936" s="43"/>
       <c r="C936" s="43" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D936" s="94">
         <v>620</v>
@@ -30046,7 +30042,7 @@
         <v>615</v>
       </c>
       <c r="F936" s="81" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G936" s="1"/>
       <c r="H936" s="1"/>
@@ -30063,7 +30059,7 @@
       </c>
       <c r="B937" s="43"/>
       <c r="C937" s="43" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D937" s="94">
         <v>595</v>
@@ -30087,7 +30083,7 @@
       </c>
       <c r="B938" s="43"/>
       <c r="C938" s="43" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D938" s="94">
         <v>645</v>
@@ -30096,7 +30092,7 @@
         <v>630</v>
       </c>
       <c r="F938" s="81" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G938" s="1"/>
       <c r="H938" s="1"/>
@@ -30113,7 +30109,7 @@
       </c>
       <c r="B939" s="43"/>
       <c r="C939" s="43" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D939" s="94">
         <v>620</v>
@@ -30122,7 +30118,7 @@
         <v>610</v>
       </c>
       <c r="F939" s="81" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="G939" s="1"/>
       <c r="H939" s="1"/>
@@ -30139,7 +30135,7 @@
       </c>
       <c r="B940" s="43"/>
       <c r="C940" s="43" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D940" s="94">
         <v>600</v>
@@ -30148,7 +30144,7 @@
         <v>600</v>
       </c>
       <c r="F940" s="81" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G940" s="1"/>
       <c r="H940" s="1"/>
@@ -30165,7 +30161,7 @@
       </c>
       <c r="B941" s="43"/>
       <c r="C941" s="43" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D941" s="94">
         <v>650</v>
@@ -30174,7 +30170,7 @@
         <v>640</v>
       </c>
       <c r="F941" s="81" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="G941" s="1"/>
       <c r="H941" s="1"/>
@@ -30191,7 +30187,7 @@
       </c>
       <c r="B942" s="43"/>
       <c r="C942" s="43" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D942" s="94">
         <v>710</v>
@@ -30200,7 +30196,7 @@
         <v>690</v>
       </c>
       <c r="F942" s="81" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="G942" s="1"/>
       <c r="H942" s="1"/>
@@ -30217,7 +30213,7 @@
       </c>
       <c r="B943" s="43"/>
       <c r="C943" s="43" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D943" s="94">
         <v>660</v>
@@ -30226,7 +30222,7 @@
         <v>645</v>
       </c>
       <c r="F943" s="81" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="G943" s="1"/>
       <c r="H943" s="1"/>
@@ -30243,7 +30239,7 @@
       </c>
       <c r="B944" s="43"/>
       <c r="C944" s="43" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D944" s="94">
         <v>625</v>
@@ -30267,7 +30263,7 @@
       </c>
       <c r="B945" s="43"/>
       <c r="C945" s="43" t="s">
-        <v>1530</v>
+        <v>1571</v>
       </c>
       <c r="D945" s="94">
         <v>625</v>
@@ -30291,7 +30287,7 @@
       </c>
       <c r="B946" s="43"/>
       <c r="C946" s="43" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D946" s="94">
         <v>625</v>
@@ -30315,7 +30311,7 @@
       </c>
       <c r="B947" s="43"/>
       <c r="C947" s="43" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D947" s="94">
         <v>615</v>
@@ -30339,7 +30335,7 @@
       </c>
       <c r="B948" s="43"/>
       <c r="C948" s="43" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="D948" s="94">
         <v>610</v>
@@ -30348,7 +30344,7 @@
         <v>600</v>
       </c>
       <c r="F948" s="81" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="G948" s="1"/>
       <c r="H948" s="1"/>
@@ -30365,7 +30361,7 @@
       </c>
       <c r="B949" s="43"/>
       <c r="C949" s="43" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D949" s="94">
         <v>720</v>
@@ -30389,7 +30385,7 @@
       </c>
       <c r="B950" s="43"/>
       <c r="C950" s="43" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="D950" s="94">
         <v>600</v>
@@ -30413,7 +30409,7 @@
       </c>
       <c r="B951" s="43"/>
       <c r="C951" s="43" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D951" s="94">
         <v>620</v>
@@ -30422,7 +30418,7 @@
         <v>605</v>
       </c>
       <c r="F951" s="81" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="G951" s="1"/>
       <c r="H951" s="1"/>
@@ -30439,7 +30435,7 @@
       </c>
       <c r="B952" s="43"/>
       <c r="C952" s="43" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="D952" s="94">
         <v>630</v>
@@ -30448,7 +30444,7 @@
         <v>620</v>
       </c>
       <c r="F952" s="81" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="G952" s="1"/>
       <c r="H952" s="1"/>
@@ -30465,7 +30461,7 @@
       </c>
       <c r="B953" s="43"/>
       <c r="C953" s="43" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="D953" s="94">
         <v>760</v>
@@ -30489,7 +30485,7 @@
       </c>
       <c r="B954" s="43"/>
       <c r="C954" s="43" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D954" s="94">
         <v>670</v>
@@ -30513,7 +30509,7 @@
       </c>
       <c r="B955" s="43"/>
       <c r="C955" s="43" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="D955" s="94">
         <v>670</v>
@@ -30537,7 +30533,7 @@
       </c>
       <c r="B956" s="43"/>
       <c r="C956" s="43" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D956" s="94">
         <v>635</v>
@@ -30561,7 +30557,7 @@
       </c>
       <c r="B957" s="43"/>
       <c r="C957" s="43" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D957" s="94">
         <v>615</v>
@@ -30585,7 +30581,7 @@
       </c>
       <c r="B958" s="43"/>
       <c r="C958" s="43" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D958" s="94">
         <v>600</v>
@@ -30609,7 +30605,7 @@
       </c>
       <c r="B959" s="43"/>
       <c r="C959" s="43" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D959" s="94">
         <v>590</v>
@@ -30633,7 +30629,7 @@
       </c>
       <c r="B960" s="43"/>
       <c r="C960" s="43" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D960" s="94">
         <v>600</v>
@@ -30656,13 +30652,13 @@
         <v>956</v>
       </c>
       <c r="B961" s="1"/>
-      <c r="C961" s="138" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D961" s="139">
+      <c r="C961" s="130" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D961" s="131">
         <v>615</v>
       </c>
-      <c r="E961" s="139">
+      <c r="E961" s="131">
         <v>605</v>
       </c>
       <c r="F961" s="43"/>
@@ -30680,16 +30676,16 @@
         <v>957</v>
       </c>
       <c r="B962" s="1"/>
-      <c r="C962" s="140" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D962" s="141">
+      <c r="C962" s="132" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D962" s="133">
         <v>670</v>
       </c>
-      <c r="E962" s="141">
+      <c r="E962" s="133">
         <v>650</v>
       </c>
-      <c r="F962" s="140"/>
+      <c r="F962" s="132"/>
       <c r="G962" s="1"/>
       <c r="H962" s="1"/>
       <c r="I962" s="1"/>
@@ -30704,16 +30700,16 @@
         <v>958</v>
       </c>
       <c r="B963" s="1"/>
-      <c r="C963" s="140" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D963" s="141">
+      <c r="C963" s="132" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D963" s="133">
         <v>675</v>
       </c>
-      <c r="E963" s="141">
+      <c r="E963" s="133">
         <v>650</v>
       </c>
-      <c r="F963" s="140"/>
+      <c r="F963" s="132"/>
       <c r="G963" s="1"/>
       <c r="H963" s="1"/>
       <c r="I963" s="1"/>
@@ -30728,16 +30724,16 @@
         <v>959</v>
       </c>
       <c r="B964" s="1"/>
-      <c r="C964" s="140" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D964" s="141">
+      <c r="C964" s="132" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D964" s="133">
         <v>650</v>
       </c>
-      <c r="E964" s="141">
+      <c r="E964" s="133">
         <v>630</v>
       </c>
-      <c r="F964" s="140"/>
+      <c r="F964" s="132"/>
       <c r="G964" s="1"/>
       <c r="H964" s="1"/>
       <c r="I964" s="1"/>
@@ -30752,16 +30748,16 @@
         <v>960</v>
       </c>
       <c r="B965" s="1"/>
-      <c r="C965" s="140" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D965" s="141">
+      <c r="C965" s="132" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D965" s="133">
         <v>640</v>
       </c>
-      <c r="E965" s="141">
+      <c r="E965" s="133">
         <v>630</v>
       </c>
-      <c r="F965" s="140"/>
+      <c r="F965" s="132"/>
       <c r="G965" s="1"/>
       <c r="H965" s="1"/>
       <c r="I965" s="1"/>
@@ -30772,12 +30768,22 @@
       <c r="N965" s="1"/>
     </row>
     <row r="966" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A966" s="1"/>
+      <c r="A966" s="1">
+        <v>961</v>
+      </c>
       <c r="B966" s="1"/>
-      <c r="C966" s="1"/>
-      <c r="D966" s="3"/>
-      <c r="E966" s="3"/>
-      <c r="F966" s="1"/>
+      <c r="C966" s="132" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D966" s="133">
+        <v>610</v>
+      </c>
+      <c r="E966" s="133">
+        <v>600</v>
+      </c>
+      <c r="F966" s="132" t="s">
+        <v>1570</v>
+      </c>
       <c r="G966" s="1"/>
       <c r="H966" s="1"/>
       <c r="I966" s="1"/>
@@ -31306,13 +31312,13 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C3 C966:C1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+  <conditionalFormatting sqref="C1:C3 C967:C1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C898 C962:C965">
+  <conditionalFormatting sqref="C898 C962:C966">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C899:C960">
@@ -31351,14 +31357,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -31371,14 +31377,14 @@
       <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -31418,10 +31424,10 @@
       <c r="C4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="127"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="45" t="s">
         <v>6</v>
       </c>
@@ -34278,7 +34284,7 @@
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="D111" s="9">
         <v>625</v>
@@ -34304,7 +34310,7 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D112" s="9">
         <v>560</v>
@@ -34330,7 +34336,7 @@
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="D113" s="9">
         <v>570</v>
@@ -34339,7 +34345,7 @@
         <v>560</v>
       </c>
       <c r="F113" s="78" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
@@ -34358,7 +34364,7 @@
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D114" s="9">
         <v>635</v>
@@ -34384,7 +34390,7 @@
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D115" s="9">
         <v>650</v>
@@ -34410,7 +34416,7 @@
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D116" s="9">
         <v>615</v>
@@ -34436,7 +34442,7 @@
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D117" s="9">
         <v>560</v>
@@ -34445,7 +34451,7 @@
         <v>560</v>
       </c>
       <c r="F117" s="78" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
@@ -34464,7 +34470,7 @@
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D118" s="9">
         <v>580</v>
@@ -34473,7 +34479,7 @@
         <v>565</v>
       </c>
       <c r="F118" s="78" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
@@ -34492,7 +34498,7 @@
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D119" s="9">
         <v>630</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163CB9B6-902D-1E4C-AC81-8F38AFED2F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8447C1D1-6A84-4E43-B389-CC66EF59D384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13960" yWindow="760" windowWidth="16480" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10520" yWindow="780" windowWidth="16480" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -5402,6 +5402,13 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5421,13 +5428,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6645,9 +6645,9 @@
   <dimension ref="A1:N998"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A409" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="C222" sqref="C222"/>
+      <selection pane="bottomLeft" activeCell="E435" sqref="E435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6664,15 +6664,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -6682,15 +6682,15 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -6725,10 +6725,10 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="136"/>
+      <c r="E4" s="138"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -12231,7 +12231,7 @@
       <c r="E222" s="96">
         <v>610</v>
       </c>
-      <c r="F222" s="142" t="s">
+      <c r="F222" s="134" t="s">
         <v>1572</v>
       </c>
       <c r="G222" s="67"/>
@@ -12331,7 +12331,7 @@
       <c r="E226" s="95">
         <v>640</v>
       </c>
-      <c r="F226" s="141" t="s">
+      <c r="F226" s="133" t="s">
         <v>1571</v>
       </c>
       <c r="G226" s="67"/>
@@ -17598,7 +17598,7 @@
         <v>560</v>
       </c>
       <c r="D435" s="97">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E435" s="97">
         <v>610</v>
@@ -31363,14 +31363,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -31383,14 +31383,14 @@
       <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -31430,10 +31430,10 @@
       <c r="C4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="140"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="45" t="s">
         <v>6</v>
       </c>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daiduong.nguyen/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB19540-3B78-034C-8116-B6F285E178AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F143131-4FDB-404B-ADBD-D02926C6A5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21840" yWindow="29560" windowWidth="30440" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19560" yWindow="29560" windowWidth="30440" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -4911,13 +4911,13 @@
     <t xml:space="preserve">Kha Kỳ Hòa </t>
   </si>
   <si>
-    <t>Tạ Vạn Kim</t>
-  </si>
-  <si>
     <t>Quân PTSC</t>
   </si>
   <si>
     <t>Vị Titaha</t>
+  </si>
+  <si>
+    <t>Ta Vạn Kim</t>
   </si>
 </sst>
 </file>
@@ -6808,9 +6808,9 @@
   <dimension ref="A1:G1021"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A700" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A827" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="G717" sqref="G717"/>
+      <selection pane="bottomLeft" activeCell="G841" sqref="G841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19922,7 +19922,7 @@
       </c>
       <c r="B726" s="110"/>
       <c r="C726" s="112" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D726" s="79">
         <v>590</v>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="B853" s="119"/>
       <c r="C853" s="120" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="D853" s="81">
         <v>605</v>
@@ -23893,7 +23893,7 @@
       </c>
       <c r="B949" s="123"/>
       <c r="C949" s="123" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D949" s="78">
         <v>720</v>
@@ -25155,8 +25155,8 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6:F119"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26125,7 +26125,7 @@
         <v>600</v>
       </c>
       <c r="E37" s="43">
-        <v>730</v>
+        <v>590</v>
       </c>
       <c r="F37" s="44" t="s">
         <v>246</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A8BC7B-5087-C446-A7FD-3AA1CF44B4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1439433-01E5-314D-AA43-B8B52C466DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="24800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18360" yWindow="5840" windowWidth="24800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -6811,9 +6811,9 @@
   <dimension ref="A1:H1021"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A995" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="G1021" sqref="G1021"/>
+      <selection pane="bottomLeft" activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11715,7 +11715,7 @@
         <v>257</v>
       </c>
       <c r="D232" s="81">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E232" s="81">
         <v>740</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA0A16A-9C01-8B40-93B1-FF4DF95EA0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9486D-9998-714C-9C0B-23B67C6551BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="24800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5574,6 +5574,9 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5593,9 +5596,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6832,10 +6832,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1025"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A549" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="D274" sqref="D274"/>
+      <selection pane="bottomLeft" activeCell="F566" sqref="F566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6851,28 +6851,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="A2" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -6894,10 +6894,10 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="130"/>
+      <c r="E4" s="131"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -18763,10 +18763,10 @@
         <v>739</v>
       </c>
       <c r="D566" s="79">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="E566" s="79">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="F566" s="57"/>
       <c r="G566" s="15">
@@ -20650,7 +20650,7 @@
       <c r="E655" s="77">
         <v>610</v>
       </c>
-      <c r="F655" s="135" t="s">
+      <c r="F655" s="127" t="s">
         <v>1631</v>
       </c>
       <c r="G655" s="15">
@@ -28325,14 +28325,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -28346,14 +28346,14 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
+      <c r="A2" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -28395,10 +28395,10 @@
       <c r="C4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="134"/>
+      <c r="E4" s="135"/>
       <c r="F4" s="35" t="s">
         <v>6</v>
       </c>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA9486D-9998-714C-9C0B-23B67C6551BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D54E9D-6715-4E46-B841-4DC2AA60B454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="24800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6832,16 +6832,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1025"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A549" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A928" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="F566" sqref="F566"/>
+      <selection pane="bottomLeft" activeCell="D945" sqref="D945"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
     <col min="4" max="5" width="16.5" style="32" customWidth="1"/>
     <col min="6" max="7" width="16.33203125" style="2" customWidth="1"/>
@@ -8361,10 +8361,10 @@
         <v>84</v>
       </c>
       <c r="D73" s="79">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E73" s="79">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F73" s="56" t="s">
         <v>85</v>
@@ -23547,10 +23547,10 @@
         <v>1291</v>
       </c>
       <c r="D795" s="79">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E795" s="79">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="F795" s="4"/>
       <c r="G795" s="15">
@@ -25456,13 +25456,13 @@
       </c>
       <c r="B887" s="111"/>
       <c r="C887" s="101" t="s">
-        <v>1443</v>
+        <v>1171</v>
       </c>
       <c r="D887" s="78">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="E887" s="78">
-        <v>635</v>
+        <v>0</v>
       </c>
       <c r="F887" s="17"/>
       <c r="G887" s="15">
@@ -25871,7 +25871,7 @@
         <v>1467</v>
       </c>
       <c r="D907" s="85">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E907" s="85">
         <v>620</v>
@@ -26653,7 +26653,7 @@
         <v>1522</v>
       </c>
       <c r="D944" s="85">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="E944" s="85">
         <v>615</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D54E9D-6715-4E46-B841-4DC2AA60B454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A23CD17-F60D-E847-823B-986F3372851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="24800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12660" yWindow="680" windowWidth="34320" windowHeight="25280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -6833,9 +6833,9 @@
   <dimension ref="A1:H1025"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A928" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="D945" sqref="D945"/>
+      <selection pane="bottomLeft" activeCell="E277" sqref="E277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7133,7 +7133,7 @@
         <v>1083</v>
       </c>
       <c r="D15" s="77">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E15" s="77">
         <v>635</v>
@@ -12703,7 +12703,7 @@
         <v>327</v>
       </c>
       <c r="D277" s="77">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E277" s="77">
         <v>610</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02463BC-CFC6-DA4E-A210-204C29F5CDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E1D0F6-4BB6-944B-96E8-447C33BA0980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="30940" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="30940" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -5657,6 +5657,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5676,10 +5680,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6916,10 +6916,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1083"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A1030" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A1026" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="F1053" sqref="F1053"/>
+      <selection pane="bottomLeft" activeCell="G1025" sqref="G1025:G1050"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6935,28 +6935,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
+      <c r="A2" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -6978,10 +6978,10 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="145"/>
+      <c r="E4" s="146"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -28355,7 +28355,7 @@
         <v>1021</v>
       </c>
       <c r="B1026" s="102"/>
-      <c r="C1026" s="150" t="s">
+      <c r="C1026" s="142" t="s">
         <v>1631</v>
       </c>
       <c r="D1026" s="78">
@@ -28365,7 +28365,9 @@
         <v>600</v>
       </c>
       <c r="F1026" s="78"/>
-      <c r="G1026" s="14"/>
+      <c r="G1026" s="14">
+        <v>1</v>
+      </c>
       <c r="H1026" s="102"/>
     </row>
     <row r="1027" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28373,7 +28375,7 @@
         <v>1022</v>
       </c>
       <c r="B1027" s="102"/>
-      <c r="C1027" s="150" t="s">
+      <c r="C1027" s="142" t="s">
         <v>1632</v>
       </c>
       <c r="D1027" s="78">
@@ -28385,7 +28387,9 @@
       <c r="F1027" s="78" t="s">
         <v>1659</v>
       </c>
-      <c r="G1027" s="14"/>
+      <c r="G1027" s="14">
+        <v>1</v>
+      </c>
       <c r="H1027" s="102"/>
     </row>
     <row r="1028" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28393,7 +28397,7 @@
         <v>1023</v>
       </c>
       <c r="B1028" s="102"/>
-      <c r="C1028" s="150" t="s">
+      <c r="C1028" s="142" t="s">
         <v>1633</v>
       </c>
       <c r="D1028" s="78">
@@ -28403,7 +28407,9 @@
         <v>610</v>
       </c>
       <c r="F1028" s="78"/>
-      <c r="G1028" s="14"/>
+      <c r="G1028" s="14">
+        <v>1</v>
+      </c>
       <c r="H1028" s="102"/>
     </row>
     <row r="1029" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28411,7 +28417,7 @@
         <v>1024</v>
       </c>
       <c r="B1029" s="102"/>
-      <c r="C1029" s="150" t="s">
+      <c r="C1029" s="142" t="s">
         <v>1634</v>
       </c>
       <c r="D1029" s="78">
@@ -28421,7 +28427,9 @@
         <v>620</v>
       </c>
       <c r="F1029" s="78"/>
-      <c r="G1029" s="14"/>
+      <c r="G1029" s="14">
+        <v>1</v>
+      </c>
       <c r="H1029" s="102"/>
     </row>
     <row r="1030" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28429,7 +28437,7 @@
         <v>1025</v>
       </c>
       <c r="B1030" s="102"/>
-      <c r="C1030" s="150" t="s">
+      <c r="C1030" s="142" t="s">
         <v>1635</v>
       </c>
       <c r="D1030" s="78">
@@ -28439,7 +28447,9 @@
         <v>625</v>
       </c>
       <c r="F1030" s="78"/>
-      <c r="G1030" s="14"/>
+      <c r="G1030" s="14">
+        <v>1</v>
+      </c>
       <c r="H1030" s="102"/>
     </row>
     <row r="1031" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28447,7 +28457,7 @@
         <v>1026</v>
       </c>
       <c r="B1031" s="102"/>
-      <c r="C1031" s="150" t="s">
+      <c r="C1031" s="142" t="s">
         <v>1636</v>
       </c>
       <c r="D1031" s="78">
@@ -28457,7 +28467,9 @@
         <v>595</v>
       </c>
       <c r="F1031" s="78"/>
-      <c r="G1031" s="14"/>
+      <c r="G1031" s="14">
+        <v>1</v>
+      </c>
       <c r="H1031" s="102"/>
     </row>
     <row r="1032" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28465,7 +28477,7 @@
         <v>1027</v>
       </c>
       <c r="B1032" s="102"/>
-      <c r="C1032" s="150" t="s">
+      <c r="C1032" s="142" t="s">
         <v>1637</v>
       </c>
       <c r="D1032" s="78">
@@ -28477,7 +28489,9 @@
       <c r="F1032" s="78" t="s">
         <v>1660</v>
       </c>
-      <c r="G1032" s="14"/>
+      <c r="G1032" s="14">
+        <v>1</v>
+      </c>
       <c r="H1032" s="102"/>
     </row>
     <row r="1033" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28485,7 +28499,7 @@
         <v>1028</v>
       </c>
       <c r="B1033" s="102"/>
-      <c r="C1033" s="150" t="s">
+      <c r="C1033" s="142" t="s">
         <v>1638</v>
       </c>
       <c r="D1033" s="78">
@@ -28495,7 +28509,9 @@
         <v>590</v>
       </c>
       <c r="F1033" s="78"/>
-      <c r="G1033" s="14"/>
+      <c r="G1033" s="14">
+        <v>1</v>
+      </c>
       <c r="H1033" s="102"/>
     </row>
     <row r="1034" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28503,7 +28519,7 @@
         <v>1029</v>
       </c>
       <c r="B1034" s="102"/>
-      <c r="C1034" s="150" t="s">
+      <c r="C1034" s="142" t="s">
         <v>1639</v>
       </c>
       <c r="D1034" s="78">
@@ -28513,7 +28529,9 @@
         <v>600</v>
       </c>
       <c r="F1034" s="78"/>
-      <c r="G1034" s="14"/>
+      <c r="G1034" s="14">
+        <v>1</v>
+      </c>
       <c r="H1034" s="102"/>
     </row>
     <row r="1035" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28521,7 +28539,7 @@
         <v>1030</v>
       </c>
       <c r="B1035" s="102"/>
-      <c r="C1035" s="150" t="s">
+      <c r="C1035" s="142" t="s">
         <v>1640</v>
       </c>
       <c r="D1035" s="78">
@@ -28531,7 +28549,9 @@
         <v>600</v>
       </c>
       <c r="F1035" s="78"/>
-      <c r="G1035" s="14"/>
+      <c r="G1035" s="14">
+        <v>1</v>
+      </c>
       <c r="H1035" s="102"/>
     </row>
     <row r="1036" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28539,7 +28559,7 @@
         <v>1031</v>
       </c>
       <c r="B1036" s="102"/>
-      <c r="C1036" s="150" t="s">
+      <c r="C1036" s="142" t="s">
         <v>1641</v>
       </c>
       <c r="D1036" s="78">
@@ -28549,7 +28569,9 @@
         <v>600</v>
       </c>
       <c r="F1036" s="78"/>
-      <c r="G1036" s="14"/>
+      <c r="G1036" s="14">
+        <v>1</v>
+      </c>
       <c r="H1036" s="102"/>
     </row>
     <row r="1037" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28557,7 +28579,7 @@
         <v>1032</v>
       </c>
       <c r="B1037" s="102"/>
-      <c r="C1037" s="150" t="s">
+      <c r="C1037" s="142" t="s">
         <v>1642</v>
       </c>
       <c r="D1037" s="78">
@@ -28567,7 +28589,9 @@
         <v>610</v>
       </c>
       <c r="F1037" s="78"/>
-      <c r="G1037" s="14"/>
+      <c r="G1037" s="14">
+        <v>1</v>
+      </c>
       <c r="H1037" s="102"/>
     </row>
     <row r="1038" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28575,7 +28599,7 @@
         <v>1033</v>
       </c>
       <c r="B1038" s="102"/>
-      <c r="C1038" s="150" t="s">
+      <c r="C1038" s="142" t="s">
         <v>1643</v>
       </c>
       <c r="D1038" s="78">
@@ -28585,7 +28609,9 @@
         <v>610</v>
       </c>
       <c r="F1038" s="78"/>
-      <c r="G1038" s="14"/>
+      <c r="G1038" s="14">
+        <v>1</v>
+      </c>
       <c r="H1038" s="102"/>
     </row>
     <row r="1039" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28593,7 +28619,7 @@
         <v>1034</v>
       </c>
       <c r="B1039" s="102"/>
-      <c r="C1039" s="150" t="s">
+      <c r="C1039" s="142" t="s">
         <v>1644</v>
       </c>
       <c r="D1039" s="78">
@@ -28605,7 +28631,9 @@
       <c r="F1039" s="78" t="s">
         <v>1661</v>
       </c>
-      <c r="G1039" s="14"/>
+      <c r="G1039" s="14">
+        <v>1</v>
+      </c>
       <c r="H1039" s="102"/>
     </row>
     <row r="1040" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28613,7 +28641,7 @@
         <v>1035</v>
       </c>
       <c r="B1040" s="102"/>
-      <c r="C1040" s="150" t="s">
+      <c r="C1040" s="142" t="s">
         <v>1645</v>
       </c>
       <c r="D1040" s="78">
@@ -28625,7 +28653,9 @@
       <c r="F1040" s="78" t="s">
         <v>1662</v>
       </c>
-      <c r="G1040" s="14"/>
+      <c r="G1040" s="14">
+        <v>1</v>
+      </c>
       <c r="H1040" s="102"/>
     </row>
     <row r="1041" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28633,7 +28663,7 @@
         <v>1036</v>
       </c>
       <c r="B1041" s="102"/>
-      <c r="C1041" s="150" t="s">
+      <c r="C1041" s="142" t="s">
         <v>1646</v>
       </c>
       <c r="D1041" s="78">
@@ -28645,7 +28675,9 @@
       <c r="F1041" s="78" t="s">
         <v>1663</v>
       </c>
-      <c r="G1041" s="14"/>
+      <c r="G1041" s="14">
+        <v>1</v>
+      </c>
       <c r="H1041" s="102"/>
     </row>
     <row r="1042" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28653,7 +28685,7 @@
         <v>1037</v>
       </c>
       <c r="B1042" s="102"/>
-      <c r="C1042" s="150" t="s">
+      <c r="C1042" s="142" t="s">
         <v>1647</v>
       </c>
       <c r="D1042" s="78">
@@ -28663,7 +28695,9 @@
         <v>615</v>
       </c>
       <c r="F1042" s="78"/>
-      <c r="G1042" s="14"/>
+      <c r="G1042" s="14">
+        <v>1</v>
+      </c>
       <c r="H1042" s="102"/>
     </row>
     <row r="1043" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28671,7 +28705,7 @@
         <v>1038</v>
       </c>
       <c r="B1043" s="102"/>
-      <c r="C1043" s="150" t="s">
+      <c r="C1043" s="142" t="s">
         <v>1648</v>
       </c>
       <c r="D1043" s="78">
@@ -28681,7 +28715,9 @@
         <v>670</v>
       </c>
       <c r="F1043" s="78"/>
-      <c r="G1043" s="14"/>
+      <c r="G1043" s="14">
+        <v>1</v>
+      </c>
       <c r="H1043" s="102"/>
     </row>
     <row r="1044" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28689,7 +28725,7 @@
         <v>1039</v>
       </c>
       <c r="B1044" s="102"/>
-      <c r="C1044" s="150" t="s">
+      <c r="C1044" s="142" t="s">
         <v>1649</v>
       </c>
       <c r="D1044" s="78">
@@ -28699,7 +28735,9 @@
         <v>640</v>
       </c>
       <c r="F1044" s="78"/>
-      <c r="G1044" s="14"/>
+      <c r="G1044" s="14">
+        <v>1</v>
+      </c>
       <c r="H1044" s="102"/>
     </row>
     <row r="1045" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28707,7 +28745,7 @@
         <v>1040</v>
       </c>
       <c r="B1045" s="102"/>
-      <c r="C1045" s="150" t="s">
+      <c r="C1045" s="142" t="s">
         <v>1650</v>
       </c>
       <c r="D1045" s="78">
@@ -28717,7 +28755,9 @@
         <v>605</v>
       </c>
       <c r="F1045" s="78"/>
-      <c r="G1045" s="14"/>
+      <c r="G1045" s="14">
+        <v>1</v>
+      </c>
       <c r="H1045" s="102"/>
     </row>
     <row r="1046" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28725,7 +28765,7 @@
         <v>1041</v>
       </c>
       <c r="B1046" s="102"/>
-      <c r="C1046" s="150" t="s">
+      <c r="C1046" s="142" t="s">
         <v>1651</v>
       </c>
       <c r="D1046" s="78">
@@ -28735,7 +28775,9 @@
         <v>605</v>
       </c>
       <c r="F1046" s="78"/>
-      <c r="G1046" s="14"/>
+      <c r="G1046" s="14">
+        <v>1</v>
+      </c>
       <c r="H1046" s="102"/>
     </row>
     <row r="1047" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28743,7 +28785,7 @@
         <v>1042</v>
       </c>
       <c r="B1047" s="102"/>
-      <c r="C1047" s="150" t="s">
+      <c r="C1047" s="142" t="s">
         <v>1652</v>
       </c>
       <c r="D1047" s="78">
@@ -28755,7 +28797,9 @@
       <c r="F1047" s="78" t="s">
         <v>1664</v>
       </c>
-      <c r="G1047" s="14"/>
+      <c r="G1047" s="14">
+        <v>1</v>
+      </c>
       <c r="H1047" s="102"/>
     </row>
     <row r="1048" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28763,7 +28807,7 @@
         <v>1043</v>
       </c>
       <c r="B1048" s="102"/>
-      <c r="C1048" s="150" t="s">
+      <c r="C1048" s="142" t="s">
         <v>1653</v>
       </c>
       <c r="D1048" s="78">
@@ -28773,7 +28817,9 @@
         <v>600</v>
       </c>
       <c r="F1048" s="78"/>
-      <c r="G1048" s="14"/>
+      <c r="G1048" s="14">
+        <v>1</v>
+      </c>
       <c r="H1048" s="102"/>
     </row>
     <row r="1049" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28781,7 +28827,7 @@
         <v>1044</v>
       </c>
       <c r="B1049" s="102"/>
-      <c r="C1049" s="150" t="s">
+      <c r="C1049" s="142" t="s">
         <v>1654</v>
       </c>
       <c r="D1049" s="78">
@@ -28793,7 +28839,9 @@
       <c r="F1049" s="78" t="s">
         <v>1665</v>
       </c>
-      <c r="G1049" s="14"/>
+      <c r="G1049" s="14">
+        <v>1</v>
+      </c>
       <c r="H1049" s="102"/>
     </row>
     <row r="1050" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28801,7 +28849,7 @@
         <v>1045</v>
       </c>
       <c r="B1050" s="102"/>
-      <c r="C1050" s="150" t="s">
+      <c r="C1050" s="142" t="s">
         <v>1655</v>
       </c>
       <c r="D1050" s="78">
@@ -28811,13 +28859,15 @@
         <v>735</v>
       </c>
       <c r="F1050" s="78"/>
-      <c r="G1050" s="14"/>
+      <c r="G1050" s="14">
+        <v>1</v>
+      </c>
       <c r="H1050" s="102"/>
     </row>
     <row r="1051" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1051" s="4"/>
       <c r="B1051" s="102"/>
-      <c r="C1051" s="150"/>
+      <c r="C1051" s="142"/>
       <c r="D1051" s="78"/>
       <c r="E1051" s="78"/>
       <c r="F1051" s="78"/>
@@ -29145,7 +29195,7 @@
       <c r="H1083" s="102"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z+3Pe/WHvv9Eziq5osNQbLbawSpUidG7OXMDhtYjjffRL7d0Ic0M7of3ioPzQ8OHd4Hcu/XYoka91uMjGXxGoA==" saltValue="3Aji+WhIqeRMRJgwZMgJVw==" spinCount="100000" sheet="1" formatCells="0"/>
+  <sheetProtection formatCells="0"/>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
@@ -29184,7 +29234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
@@ -29202,14 +29252,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -29223,14 +29273,14 @@
       <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
+      <c r="A2" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -29272,10 +29322,10 @@
       <c r="C4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="149"/>
+      <c r="E4" s="150"/>
       <c r="F4" s="33" t="s">
         <v>6</v>
       </c>
@@ -49452,7 +49502,7 @@
       <c r="Q1000" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eY6tBBLVZgp4UmPtbwFXqhlAMnWuNHn0STExwMRfDyEJAOhi3csCKczLwBb8Uj5HInMKYPd8OWnknwo+MBxICQ==" saltValue="yhrWgkGgsXueaqX1536IbQ==" spinCount="100000" sheet="1" formatCells="0"/>
+  <sheetProtection formatCells="0"/>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E1D0F6-4BB6-944B-96E8-447C33BA0980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8EFFC3-5C8B-604B-934C-FE6848D45FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="30940" windowHeight="26720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="1380" windowWidth="30940" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="1666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1668">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5019,6 +5019,12 @@
   </si>
   <si>
     <t>0907569589</t>
+  </si>
+  <si>
+    <t>Luân Đồ Câu</t>
+  </si>
+  <si>
+    <t>0948985050</t>
   </si>
 </sst>
 </file>
@@ -5338,7 +5344,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -5680,6 +5686,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6916,10 +6926,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1083"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A1026" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A1009" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="G1025" sqref="G1025:G1050"/>
+      <selection pane="bottomLeft" activeCell="H1051" sqref="H1051"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19800,7 +19810,7 @@
         <v>810</v>
       </c>
       <c r="D611" s="71">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E611" s="71">
         <v>620</v>
@@ -24890,7 +24900,7 @@
         <v>1348</v>
       </c>
       <c r="D855" s="71">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E855" s="71">
         <v>605</v>
@@ -27082,7 +27092,7 @@
         <v>1556</v>
       </c>
       <c r="D961" s="110">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E961" s="110">
         <v>605</v>
@@ -28865,13 +28875,25 @@
       <c r="H1050" s="102"/>
     </row>
     <row r="1051" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1051" s="4"/>
+      <c r="A1051" s="4">
+        <v>1045</v>
+      </c>
       <c r="B1051" s="102"/>
-      <c r="C1051" s="142"/>
-      <c r="D1051" s="78"/>
-      <c r="E1051" s="78"/>
-      <c r="F1051" s="78"/>
-      <c r="G1051" s="14"/>
+      <c r="C1051" s="142" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D1051" s="78">
+        <v>625</v>
+      </c>
+      <c r="E1051" s="78">
+        <v>615</v>
+      </c>
+      <c r="F1051" s="151" t="s">
+        <v>1667</v>
+      </c>
+      <c r="G1051" s="14">
+        <v>1</v>
+      </c>
       <c r="H1051" s="102"/>
     </row>
     <row r="1052" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29234,7 +29256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8EFFC3-5C8B-604B-934C-FE6848D45FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4005445-EA14-5D42-9B90-85BC6975ACAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="1380" windowWidth="30940" windowHeight="26720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="24800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="1679">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5025,6 +5025,39 @@
   </si>
   <si>
     <t>0948985050</t>
+  </si>
+  <si>
+    <t>Tân Menulife</t>
+  </si>
+  <si>
+    <t>Việt Tôn</t>
+  </si>
+  <si>
+    <t>Tiên Phạm VT</t>
+  </si>
+  <si>
+    <t>Phương Vy VT</t>
+  </si>
+  <si>
+    <t>Lê Na</t>
+  </si>
+  <si>
+    <t>BS Khánh</t>
+  </si>
+  <si>
+    <t>0903678216</t>
+  </si>
+  <si>
+    <t>BS Phong</t>
+  </si>
+  <si>
+    <t>Minh Lotus</t>
+  </si>
+  <si>
+    <t>Dũng Viettel</t>
+  </si>
+  <si>
+    <t>Can ĐL</t>
   </si>
 </sst>
 </file>
@@ -5667,6 +5700,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5686,10 +5723,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6927,9 +6960,9 @@
   <dimension ref="A1:H1083"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A1009" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A1032" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="H1051" sqref="H1051"/>
+      <selection pane="bottomLeft" activeCell="C1062" sqref="C1062"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6945,28 +6978,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="A2" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -6988,10 +7021,10 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="146"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
@@ -7441,7 +7474,7 @@
         <v>33</v>
       </c>
       <c r="D25" s="71">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="E25" s="71">
         <v>615</v>
@@ -8819,7 +8852,7 @@
         <v>107</v>
       </c>
       <c r="D90" s="72">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E90" s="72">
         <v>600</v>
@@ -23924,7 +23957,7 @@
         <v>1304</v>
       </c>
       <c r="D809" s="73">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E809" s="73">
         <v>615</v>
@@ -24606,7 +24639,7 @@
         <v>1335</v>
       </c>
       <c r="D841" s="73">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E841" s="73">
         <v>615</v>
@@ -25290,7 +25323,7 @@
         <v>1374</v>
       </c>
       <c r="D874" s="71">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E874" s="71">
         <v>625</v>
@@ -25452,7 +25485,7 @@
         <v>1438</v>
       </c>
       <c r="D882" s="71">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="E882" s="71">
         <v>645</v>
@@ -25924,7 +25957,7 @@
         <v>1465</v>
       </c>
       <c r="D905" s="107">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E905" s="107">
         <v>600</v>
@@ -26552,7 +26585,7 @@
         <v>1506</v>
       </c>
       <c r="D935" s="107">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="E935" s="107">
         <v>585</v>
@@ -27760,10 +27793,10 @@
         <v>1593</v>
       </c>
       <c r="D994" s="78">
+        <v>635</v>
+      </c>
+      <c r="E994" s="78">
         <v>620</v>
-      </c>
-      <c r="E994" s="78">
-        <v>610</v>
       </c>
       <c r="F994" s="4"/>
       <c r="G994" s="14">
@@ -27974,10 +28007,10 @@
         <v>1604</v>
       </c>
       <c r="D1005" s="78">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="E1005" s="78">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="F1005" s="4"/>
       <c r="G1005" s="14">
@@ -28888,7 +28921,7 @@
       <c r="E1051" s="78">
         <v>615</v>
       </c>
-      <c r="F1051" s="151" t="s">
+      <c r="F1051" s="143" t="s">
         <v>1667</v>
       </c>
       <c r="G1051" s="14">
@@ -28897,73 +28930,145 @@
       <c r="H1051" s="102"/>
     </row>
     <row r="1052" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1052" s="102"/>
+      <c r="A1052" s="4">
+        <v>1046</v>
+      </c>
       <c r="B1052" s="102"/>
-      <c r="C1052" s="102"/>
-      <c r="D1052" s="117"/>
-      <c r="E1052" s="117"/>
-      <c r="F1052" s="102"/>
-      <c r="G1052" s="102"/>
+      <c r="C1052" s="142" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1052" s="78">
+        <v>625</v>
+      </c>
+      <c r="E1052" s="78">
+        <v>620</v>
+      </c>
+      <c r="F1052" s="143"/>
+      <c r="G1052" s="14">
+        <v>1</v>
+      </c>
       <c r="H1052" s="102"/>
     </row>
     <row r="1053" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1053" s="102"/>
+      <c r="A1053" s="4">
+        <v>1047</v>
+      </c>
       <c r="B1053" s="102"/>
-      <c r="C1053" s="102"/>
-      <c r="D1053" s="117"/>
-      <c r="E1053" s="117"/>
-      <c r="F1053" s="102"/>
-      <c r="G1053" s="102"/>
+      <c r="C1053" s="142" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D1053" s="78">
+        <v>595</v>
+      </c>
+      <c r="E1053" s="78">
+        <v>595</v>
+      </c>
+      <c r="F1053" s="143"/>
+      <c r="G1053" s="14">
+        <v>1</v>
+      </c>
       <c r="H1053" s="102"/>
     </row>
     <row r="1054" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1054" s="102"/>
+      <c r="A1054" s="4">
+        <v>1048</v>
+      </c>
       <c r="B1054" s="102"/>
-      <c r="C1054" s="102"/>
-      <c r="D1054" s="117"/>
-      <c r="E1054" s="117"/>
-      <c r="F1054" s="102"/>
-      <c r="G1054" s="102"/>
+      <c r="C1054" s="142" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D1054" s="78">
+        <v>635</v>
+      </c>
+      <c r="E1054" s="78">
+        <v>635</v>
+      </c>
+      <c r="F1054" s="143" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G1054" s="14">
+        <v>1</v>
+      </c>
       <c r="H1054" s="102"/>
     </row>
     <row r="1055" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1055" s="102"/>
+      <c r="A1055" s="4">
+        <v>1049</v>
+      </c>
       <c r="B1055" s="102"/>
-      <c r="C1055" s="102"/>
-      <c r="D1055" s="117"/>
-      <c r="E1055" s="117"/>
-      <c r="F1055" s="102"/>
-      <c r="G1055" s="102"/>
+      <c r="C1055" s="142" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D1055" s="78">
+        <v>645</v>
+      </c>
+      <c r="E1055" s="78">
+        <v>645</v>
+      </c>
+      <c r="F1055" s="143"/>
+      <c r="G1055" s="14">
+        <v>1</v>
+      </c>
       <c r="H1055" s="102"/>
     </row>
     <row r="1056" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1056" s="102"/>
+      <c r="A1056" s="4">
+        <v>1050</v>
+      </c>
       <c r="B1056" s="102"/>
-      <c r="C1056" s="102"/>
-      <c r="D1056" s="117"/>
-      <c r="E1056" s="117"/>
-      <c r="F1056" s="102"/>
-      <c r="G1056" s="102"/>
+      <c r="C1056" s="142" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D1056" s="78">
+        <v>635</v>
+      </c>
+      <c r="E1056" s="78">
+        <v>635</v>
+      </c>
+      <c r="F1056" s="143"/>
+      <c r="G1056" s="14">
+        <v>1</v>
+      </c>
       <c r="H1056" s="102"/>
     </row>
     <row r="1057" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1057" s="102"/>
+      <c r="A1057" s="4">
+        <v>1051</v>
+      </c>
       <c r="B1057" s="102"/>
-      <c r="C1057" s="102"/>
-      <c r="D1057" s="117"/>
-      <c r="E1057" s="117"/>
-      <c r="F1057" s="102"/>
-      <c r="G1057" s="102"/>
+      <c r="C1057" s="142" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D1057" s="78">
+        <v>625</v>
+      </c>
+      <c r="E1057" s="78">
+        <v>625</v>
+      </c>
+      <c r="F1057" s="143"/>
+      <c r="G1057" s="14">
+        <v>1</v>
+      </c>
       <c r="H1057" s="102"/>
     </row>
     <row r="1058" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1058" s="102"/>
+      <c r="A1058" s="4">
+        <v>1052</v>
+      </c>
       <c r="B1058" s="102"/>
-      <c r="C1058" s="102"/>
-      <c r="D1058" s="117"/>
-      <c r="E1058" s="117"/>
-      <c r="F1058" s="102"/>
-      <c r="G1058" s="102"/>
+      <c r="C1058" s="142" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D1058" s="78">
+        <v>595</v>
+      </c>
+      <c r="E1058" s="78">
+        <v>595</v>
+      </c>
+      <c r="F1058" s="143"/>
+      <c r="G1058" s="14">
+        <v>1</v>
+      </c>
       <c r="H1058" s="102"/>
     </row>
     <row r="1059" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29223,7 +29328,7 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C3 C1052:C1048576">
+  <conditionalFormatting sqref="C1:C3 C1059:C1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
@@ -29241,7 +29346,7 @@
   <conditionalFormatting sqref="C967:C1021">
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1022:C1051">
+  <conditionalFormatting sqref="C1022:C1058">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29256,15 +29361,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="9" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="9" customWidth="1"/>
     <col min="4" max="5" width="16.5" style="9" customWidth="1"/>
     <col min="6" max="7" width="16.33203125" style="9" customWidth="1"/>
@@ -29274,14 +29379,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
@@ -29295,14 +29400,14 @@
       <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
+      <c r="A2" s="148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -29344,10 +29449,10 @@
       <c r="C4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="150"/>
+      <c r="E4" s="151"/>
       <c r="F4" s="33" t="s">
         <v>6</v>
       </c>
@@ -32785,13 +32890,23 @@
       <c r="Q119" s="8"/>
     </row>
     <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
+      <c r="A120" s="37">
+        <v>115</v>
+      </c>
       <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
+      <c r="C120" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D120" s="7">
+        <v>580</v>
+      </c>
+      <c r="E120" s="7">
+        <v>580</v>
+      </c>
+      <c r="F120" s="14"/>
+      <c r="G120" s="34">
+        <v>1</v>
+      </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
@@ -32804,13 +32919,23 @@
       <c r="Q120" s="8"/>
     </row>
     <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
+      <c r="A121" s="37">
+        <v>116</v>
+      </c>
       <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
+      <c r="C121" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D121" s="7">
+        <v>590</v>
+      </c>
+      <c r="E121" s="7">
+        <v>590</v>
+      </c>
       <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
+      <c r="G121" s="34">
+        <v>1</v>
+      </c>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
@@ -32823,13 +32948,23 @@
       <c r="Q121" s="8"/>
     </row>
     <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="4"/>
+      <c r="A122" s="37">
+        <v>117</v>
+      </c>
       <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
+      <c r="C122" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D122" s="7">
+        <v>575</v>
+      </c>
+      <c r="E122" s="7">
+        <v>575</v>
+      </c>
       <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
+      <c r="G122" s="34">
+        <v>1</v>
+      </c>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
@@ -32842,13 +32977,13 @@
       <c r="Q122" s="8"/>
     </row>
     <row r="123" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
+      <c r="A123" s="37"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="C123" s="1"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="34"/>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
@@ -32861,13 +32996,13 @@
       <c r="Q123" s="8"/>
     </row>
     <row r="124" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
+      <c r="A124" s="37"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+      <c r="C124" s="1"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="34"/>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
@@ -32880,13 +33015,13 @@
       <c r="Q124" s="8"/>
     </row>
     <row r="125" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="4"/>
+      <c r="A125" s="37"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="C125" s="1"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
+      <c r="G125" s="34"/>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
@@ -32899,13 +33034,13 @@
       <c r="Q125" s="8"/>
     </row>
     <row r="126" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="4"/>
+      <c r="A126" s="37"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="C126" s="1"/>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
+      <c r="G126" s="34"/>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4005445-EA14-5D42-9B90-85BC6975ACAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF1F113-C512-A04D-B40B-98DBA3E0778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="24800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6962,7 +6962,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A1032" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="C1062" sqref="C1062"/>
+      <selection pane="bottomLeft" activeCell="E1054" sqref="E1054"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28978,7 +28978,7 @@
         <v>1673</v>
       </c>
       <c r="D1054" s="78">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="E1054" s="78">
         <v>635</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF1F113-C512-A04D-B40B-98DBA3E0778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0274213F-1D92-324A-839D-2C43BD6CCCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="24800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28620" yWindow="8480" windowWidth="24800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -6960,9 +6960,9 @@
   <dimension ref="A1:H1083"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A1032" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="E1054" sqref="E1054"/>
+      <selection pane="bottomLeft" activeCell="D726" sqref="D726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22223,7 +22223,7 @@
         <v>1199</v>
       </c>
       <c r="D725" s="73">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E725" s="73">
         <v>600</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD4243-ED93-9F4A-935D-B12E0289565E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067E0875-484C-4D4F-BDD7-94F2EFE932A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28620" yWindow="8480" windowWidth="33000" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30082,10 +30082,10 @@
         <v>1352</v>
       </c>
       <c r="D859" s="51">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E859" s="51">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F859" s="4" t="s">
         <v>1421</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90AA3B8-F33F-8443-B8A1-11CF8D1159BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C045F0-3B35-5A41-BD79-EAF29C62A2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28620" yWindow="8480" windowWidth="33000" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31580" yWindow="7780" windowWidth="33000" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1701">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5133,6 +5133,9 @@
   </si>
   <si>
     <t>Nguyễn Nhật Tuấn</t>
+  </si>
+  <si>
+    <t>Tú CLB Windows</t>
   </si>
 </sst>
 </file>
@@ -7064,12 +7067,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K1080"/>
+  <dimension ref="A1:K1081"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A1056" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A1061" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G36" sqref="G36"/>
-      <selection pane="bottomLeft" activeCell="G1078" sqref="G1078:G1080"/>
+      <selection pane="bottomLeft" activeCell="F1081" sqref="F1081"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34588,6 +34591,23 @@
         <v>640</v>
       </c>
       <c r="G1080" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1081" s="105">
+        <v>1075</v>
+      </c>
+      <c r="C1081" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D1081" s="31">
+        <v>630</v>
+      </c>
+      <c r="E1081" s="31">
+        <v>625</v>
+      </c>
+      <c r="G1081" s="2">
         <v>1</v>
       </c>
     </row>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1330D46B-6EC6-AA49-86D7-2B8CF4A88255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47B7049-CDBD-F348-898C-D0BECE353B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40940" yWindow="3840" windowWidth="19580" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -7011,7 +7011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1074" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A1074" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C1102" sqref="C1102"/>
     </sheetView>
   </sheetViews>
@@ -36687,9 +36687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37743,10 +37743,10 @@
         <v>913</v>
       </c>
       <c r="D33" s="112">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E33" s="112">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="113">

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E613174-A81E-A644-B738-86337FAC775D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60223602-2487-1146-80AB-F1C26CFD17B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7008,8 +7008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1080" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D1096" sqref="D1096"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -36548,7 +36548,7 @@
         <v>1713</v>
       </c>
       <c r="D1096" s="98">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="E1096" s="98">
         <v>670</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F316768-91D4-2349-AAE4-265AAD283CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10161A1-C3CC-FC41-8EDB-F42CBBB81D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1773">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5259,9 +5259,6 @@
     <t>Hoài Cảng LX</t>
   </si>
   <si>
-    <t>Vũ Jimmu</t>
-  </si>
-  <si>
     <t>Nguyễn Dũng</t>
   </si>
   <si>
@@ -5383,6 +5380,12 @@
   </si>
   <si>
     <t>0334113399</t>
+  </si>
+  <si>
+    <t>Nhàn Cấp Nước</t>
+  </si>
+  <si>
+    <t>Vũ Jimmy</t>
   </si>
 </sst>
 </file>
@@ -5998,32 +6001,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -6056,13 +6033,49 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bình thường 2" xfId="2" xr:uid="{2DBE829A-806A-A246-9A23-241A22DA22A4}"/>
     <cellStyle name="Bình thường 3" xfId="1" xr:uid="{ABA3F074-F600-1940-87D2-1B8571A799F2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7299,10 +7312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L1133"/>
+  <dimension ref="A1:L1134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1115" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K1128" sqref="K1128:L1133"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1107" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1119" sqref="C1119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7322,30 +7335,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
+      <c r="A2" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
     </row>
@@ -7371,10 +7384,10 @@
       <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="118"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="49" t="s">
         <v>6</v>
       </c>
@@ -7384,10 +7397,10 @@
       <c r="H4" s="31" t="s">
         <v>1415</v>
       </c>
-      <c r="K4" s="119" t="s">
+      <c r="K4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="120"/>
+      <c r="L4" s="132"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
@@ -10946,7 +10959,7 @@
         <v>585</v>
       </c>
       <c r="F117" s="81" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="G117" s="15">
         <v>1</v>
@@ -16875,7 +16888,7 @@
       </c>
       <c r="B305" s="51"/>
       <c r="C305" s="52" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D305" s="75">
         <f t="shared" si="8"/>
@@ -17762,8 +17775,8 @@
         <v>329</v>
       </c>
       <c r="B334" s="51"/>
-      <c r="C334" s="128" t="s">
-        <v>1761</v>
+      <c r="C334" s="118" t="s">
+        <v>1760</v>
       </c>
       <c r="D334" s="75">
         <f t="shared" si="10"/>
@@ -34132,8 +34145,8 @@
         <v>856</v>
       </c>
       <c r="B861" s="53"/>
-      <c r="C861" s="135" t="s">
-        <v>1764</v>
+      <c r="C861" s="125" t="s">
+        <v>1763</v>
       </c>
       <c r="D861" s="75">
         <v>615</v>
@@ -37720,14 +37733,14 @@
         <v>972</v>
       </c>
       <c r="B977" s="1"/>
-      <c r="C977" s="126" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D977" s="127">
+      <c r="C977" s="116" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D977" s="117">
         <f t="shared" si="30"/>
         <v>610</v>
       </c>
-      <c r="E977" s="127">
+      <c r="E977" s="117">
         <f t="shared" si="31"/>
         <v>610</v>
       </c>
@@ -41848,7 +41861,7 @@
       </c>
       <c r="B1115" s="59"/>
       <c r="C1115" s="69" t="s">
-        <v>1730</v>
+        <v>1772</v>
       </c>
       <c r="D1115" s="75">
         <v>660</v>
@@ -41876,7 +41889,7 @@
       </c>
       <c r="B1116" s="59"/>
       <c r="C1116" s="69" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D1116" s="75">
         <v>650</v>
@@ -41904,7 +41917,7 @@
       </c>
       <c r="B1117" s="59"/>
       <c r="C1117" s="69" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D1117" s="75">
         <v>605</v>
@@ -41932,7 +41945,7 @@
       </c>
       <c r="B1118" s="59"/>
       <c r="C1118" s="69" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D1118" s="75">
         <v>625</v>
@@ -41960,7 +41973,7 @@
       </c>
       <c r="B1119" s="59"/>
       <c r="C1119" s="69" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D1119" s="75">
         <v>590</v>
@@ -41988,7 +42001,7 @@
       </c>
       <c r="B1120" s="59"/>
       <c r="C1120" s="69" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D1120" s="75">
         <v>610</v>
@@ -42016,7 +42029,7 @@
       </c>
       <c r="B1121" s="59"/>
       <c r="C1121" s="69" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D1121" s="75">
         <v>610</v>
@@ -42044,7 +42057,7 @@
       </c>
       <c r="B1122" s="59"/>
       <c r="C1122" s="69" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D1122" s="75">
         <v>605</v>
@@ -42072,7 +42085,7 @@
       </c>
       <c r="B1123" s="59"/>
       <c r="C1123" s="69" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D1123" s="75">
         <v>585</v>
@@ -42100,7 +42113,7 @@
       </c>
       <c r="B1124" s="59"/>
       <c r="C1124" s="69" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D1124" s="75">
         <v>600</v>
@@ -42128,7 +42141,7 @@
       </c>
       <c r="B1125" s="59"/>
       <c r="C1125" s="69" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D1125" s="75">
         <v>700</v>
@@ -42156,7 +42169,7 @@
       </c>
       <c r="B1126" s="59"/>
       <c r="C1126" s="69" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D1126" s="75">
         <v>660</v>
@@ -42184,7 +42197,7 @@
       </c>
       <c r="B1127" s="59"/>
       <c r="C1127" s="69" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D1127" s="75">
         <v>710</v>
@@ -42212,7 +42225,7 @@
       </c>
       <c r="B1128" s="59"/>
       <c r="C1128" s="69" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D1128" s="75">
         <v>690</v>
@@ -42238,27 +42251,27 @@
       <c r="A1129" s="2">
         <v>1123</v>
       </c>
-      <c r="B1129" s="129"/>
-      <c r="C1129" s="130" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D1129" s="131">
+      <c r="B1129" s="119"/>
+      <c r="C1129" s="120" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D1129" s="121">
         <v>595</v>
       </c>
-      <c r="E1129" s="131">
+      <c r="E1129" s="121">
         <v>590</v>
       </c>
-      <c r="F1129" s="129"/>
+      <c r="F1129" s="119"/>
       <c r="G1129" s="15">
         <v>1</v>
       </c>
-      <c r="H1129" s="132"/>
-      <c r="I1129" s="133"/>
-      <c r="J1129" s="133"/>
-      <c r="K1129" s="134">
+      <c r="H1129" s="122"/>
+      <c r="I1129" s="123"/>
+      <c r="J1129" s="123"/>
+      <c r="K1129" s="124">
         <v>595</v>
       </c>
-      <c r="L1129" s="134">
+      <c r="L1129" s="124">
         <v>590</v>
       </c>
     </row>
@@ -42266,27 +42279,27 @@
       <c r="A1130" s="2">
         <v>1124</v>
       </c>
-      <c r="B1130" s="129"/>
-      <c r="C1130" s="130" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D1130" s="131">
+      <c r="B1130" s="119"/>
+      <c r="C1130" s="120" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1130" s="121">
         <v>645</v>
       </c>
-      <c r="E1130" s="131">
+      <c r="E1130" s="121">
         <v>640</v>
       </c>
-      <c r="F1130" s="129"/>
+      <c r="F1130" s="119"/>
       <c r="G1130" s="15">
         <v>1</v>
       </c>
-      <c r="H1130" s="132"/>
-      <c r="I1130" s="133"/>
-      <c r="J1130" s="133"/>
-      <c r="K1130" s="134">
+      <c r="H1130" s="122"/>
+      <c r="I1130" s="123"/>
+      <c r="J1130" s="123"/>
+      <c r="K1130" s="124">
         <v>645</v>
       </c>
-      <c r="L1130" s="134">
+      <c r="L1130" s="124">
         <v>640</v>
       </c>
     </row>
@@ -42294,27 +42307,27 @@
       <c r="A1131" s="2">
         <v>1125</v>
       </c>
-      <c r="B1131" s="129"/>
-      <c r="C1131" s="130" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D1131" s="131">
+      <c r="B1131" s="119"/>
+      <c r="C1131" s="120" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D1131" s="121">
         <v>620</v>
       </c>
-      <c r="E1131" s="131">
+      <c r="E1131" s="121">
         <v>610</v>
       </c>
-      <c r="F1131" s="129"/>
+      <c r="F1131" s="119"/>
       <c r="G1131" s="15">
         <v>1</v>
       </c>
-      <c r="H1131" s="132"/>
-      <c r="I1131" s="133"/>
-      <c r="J1131" s="133"/>
-      <c r="K1131" s="134">
+      <c r="H1131" s="122"/>
+      <c r="I1131" s="123"/>
+      <c r="J1131" s="123"/>
+      <c r="K1131" s="124">
         <v>620</v>
       </c>
-      <c r="L1131" s="134">
+      <c r="L1131" s="124">
         <v>610</v>
       </c>
     </row>
@@ -42322,55 +42335,81 @@
       <c r="A1132" s="2">
         <v>1126</v>
       </c>
-      <c r="B1132" s="129"/>
-      <c r="C1132" s="130" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D1132" s="131">
+      <c r="B1132" s="119"/>
+      <c r="C1132" s="120" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1132" s="121">
         <v>600</v>
       </c>
-      <c r="E1132" s="131">
+      <c r="E1132" s="121">
         <v>595</v>
       </c>
-      <c r="F1132" s="129"/>
+      <c r="F1132" s="119"/>
       <c r="G1132" s="15">
         <v>1</v>
       </c>
-      <c r="H1132" s="132"/>
-      <c r="I1132" s="133"/>
-      <c r="J1132" s="133"/>
-      <c r="K1132" s="134">
+      <c r="H1132" s="122"/>
+      <c r="I1132" s="123"/>
+      <c r="J1132" s="123"/>
+      <c r="K1132" s="124">
         <v>600</v>
       </c>
-      <c r="L1132" s="134">
+      <c r="L1132" s="124">
         <v>595</v>
       </c>
     </row>
     <row r="1133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1133" s="114">
+      <c r="A1133" s="2">
+        <v>1267</v>
+      </c>
+      <c r="B1133" s="119"/>
+      <c r="C1133" s="120" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D1133" s="121">
+        <v>645</v>
+      </c>
+      <c r="E1133" s="121"/>
+      <c r="F1133" s="119"/>
+      <c r="G1133" s="15">
+        <v>1</v>
+      </c>
+      <c r="H1133" s="122"/>
+      <c r="I1133" s="123"/>
+      <c r="J1133" s="123"/>
+      <c r="K1133" s="124">
+        <v>600</v>
+      </c>
+      <c r="L1133" s="124">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1134" s="114">
         <v>1136</v>
       </c>
-      <c r="B1133" s="59"/>
-      <c r="C1133" s="125" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D1133" s="104">
+      <c r="B1134" s="59"/>
+      <c r="C1134" s="115" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D1134" s="104">
         <v>605</v>
       </c>
-      <c r="E1133" s="104">
+      <c r="E1134" s="104">
         <v>600</v>
       </c>
-      <c r="F1133" s="59"/>
-      <c r="G1133" s="15">
-        <v>1</v>
-      </c>
-      <c r="H1133" s="26"/>
-      <c r="I1133" s="107"/>
-      <c r="J1133" s="107"/>
-      <c r="K1133" s="27">
+      <c r="F1134" s="59"/>
+      <c r="G1134" s="15">
+        <v>1</v>
+      </c>
+      <c r="H1134" s="26"/>
+      <c r="I1134" s="107"/>
+      <c r="J1134" s="107"/>
+      <c r="K1134" s="27">
         <v>605</v>
       </c>
-      <c r="L1133" s="27">
+      <c r="L1134" s="27">
         <v>600</v>
       </c>
     </row>
@@ -42382,29 +42421,32 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="K4:L4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1134:C1048576 C1:C3">
-    <cfRule type="duplicateValues" dxfId="7" priority="24"/>
+  <conditionalFormatting sqref="C1135:C1048576 C1:C3">
+    <cfRule type="duplicateValues" dxfId="8" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C898 C962:C966">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C899:C960">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C899:C960">
+  <conditionalFormatting sqref="C961">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C961">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C967:C1021">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1022:C1058">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1059:C1133">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  <conditionalFormatting sqref="C1059:C1134">
+    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -42437,14 +42479,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -42458,14 +42500,14 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
+      <c r="A2" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -42507,10 +42549,10 @@
       <c r="C4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="124"/>
+      <c r="E4" s="136"/>
       <c r="F4" s="36" t="s">
         <v>6</v>
       </c>
@@ -44548,10 +44590,10 @@
       <c r="C65" s="19" t="s">
         <v>948</v>
       </c>
-      <c r="D65" s="136">
+      <c r="D65" s="126">
         <v>690</v>
       </c>
-      <c r="E65" s="136">
+      <c r="E65" s="126">
         <v>680</v>
       </c>
       <c r="F65" s="15"/>
@@ -46537,7 +46579,7 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="1" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D124" s="46">
         <v>640</v>
@@ -46566,7 +46608,7 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="1" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D125" s="46">
         <v>615</v>
@@ -46595,7 +46637,7 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D126" s="46">
         <v>560</v>
@@ -46624,7 +46666,7 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D127" s="46">
         <v>560</v>
@@ -46653,7 +46695,7 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D128" s="46">
         <v>560</v>
@@ -46682,7 +46724,7 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D129" s="46">
         <v>710</v>
@@ -46711,7 +46753,7 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D130" s="46">
         <v>560</v>
@@ -46740,7 +46782,7 @@
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D131" s="46">
         <v>620</v>
@@ -46769,7 +46811,7 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D132" s="46">
         <v>565</v>
@@ -46798,7 +46840,7 @@
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D133" s="46">
         <v>620</v>
@@ -46827,7 +46869,7 @@
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D134" s="46">
         <v>640</v>
@@ -46856,7 +46898,7 @@
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D135" s="46">
         <v>575</v>
@@ -46885,7 +46927,7 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D136" s="46">
         <v>590</v>
@@ -46914,7 +46956,7 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D137" s="46">
         <v>635</v>
@@ -46943,7 +46985,7 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D138" s="46">
         <v>610</v>
@@ -46972,7 +47014,7 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D139" s="46">
         <v>635</v>
@@ -46999,7 +47041,7 @@
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D140" s="46">
         <v>565</v>
@@ -47026,7 +47068,7 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D141" s="46">
         <v>675</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10161A1-C3CC-FC41-8EDB-F42CBBB81D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F316768-91D4-2349-AAE4-265AAD283CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="1773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1772">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5259,6 +5259,9 @@
     <t>Hoài Cảng LX</t>
   </si>
   <si>
+    <t>Vũ Jimmu</t>
+  </si>
+  <si>
     <t>Nguyễn Dũng</t>
   </si>
   <si>
@@ -5380,12 +5383,6 @@
   </si>
   <si>
     <t>0334113399</t>
-  </si>
-  <si>
-    <t>Nhàn Cấp Nước</t>
-  </si>
-  <si>
-    <t>Vũ Jimmy</t>
   </si>
 </sst>
 </file>
@@ -6001,6 +5998,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -6033,49 +6056,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bình thường 2" xfId="2" xr:uid="{2DBE829A-806A-A246-9A23-241A22DA22A4}"/>
     <cellStyle name="Bình thường 3" xfId="1" xr:uid="{ABA3F074-F600-1940-87D2-1B8571A799F2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7312,10 +7299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L1134"/>
+  <dimension ref="A1:L1133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1107" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C1119" sqref="C1119"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1115" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K1128" sqref="K1128:L1133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7335,30 +7322,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="A2" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
     </row>
@@ -7384,10 +7371,10 @@
       <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="130"/>
+      <c r="E4" s="118"/>
       <c r="F4" s="49" t="s">
         <v>6</v>
       </c>
@@ -7397,10 +7384,10 @@
       <c r="H4" s="31" t="s">
         <v>1415</v>
       </c>
-      <c r="K4" s="131" t="s">
+      <c r="K4" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="132"/>
+      <c r="L4" s="120"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
@@ -10959,7 +10946,7 @@
         <v>585</v>
       </c>
       <c r="F117" s="81" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="G117" s="15">
         <v>1</v>
@@ -16888,7 +16875,7 @@
       </c>
       <c r="B305" s="51"/>
       <c r="C305" s="52" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="D305" s="75">
         <f t="shared" si="8"/>
@@ -17775,8 +17762,8 @@
         <v>329</v>
       </c>
       <c r="B334" s="51"/>
-      <c r="C334" s="118" t="s">
-        <v>1760</v>
+      <c r="C334" s="128" t="s">
+        <v>1761</v>
       </c>
       <c r="D334" s="75">
         <f t="shared" si="10"/>
@@ -34145,8 +34132,8 @@
         <v>856</v>
       </c>
       <c r="B861" s="53"/>
-      <c r="C861" s="125" t="s">
-        <v>1763</v>
+      <c r="C861" s="135" t="s">
+        <v>1764</v>
       </c>
       <c r="D861" s="75">
         <v>615</v>
@@ -37733,14 +37720,14 @@
         <v>972</v>
       </c>
       <c r="B977" s="1"/>
-      <c r="C977" s="116" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D977" s="117">
+      <c r="C977" s="126" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D977" s="127">
         <f t="shared" si="30"/>
         <v>610</v>
       </c>
-      <c r="E977" s="117">
+      <c r="E977" s="127">
         <f t="shared" si="31"/>
         <v>610</v>
       </c>
@@ -41861,7 +41848,7 @@
       </c>
       <c r="B1115" s="59"/>
       <c r="C1115" s="69" t="s">
-        <v>1772</v>
+        <v>1730</v>
       </c>
       <c r="D1115" s="75">
         <v>660</v>
@@ -41889,7 +41876,7 @@
       </c>
       <c r="B1116" s="59"/>
       <c r="C1116" s="69" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="D1116" s="75">
         <v>650</v>
@@ -41917,7 +41904,7 @@
       </c>
       <c r="B1117" s="59"/>
       <c r="C1117" s="69" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="D1117" s="75">
         <v>605</v>
@@ -41945,7 +41932,7 @@
       </c>
       <c r="B1118" s="59"/>
       <c r="C1118" s="69" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D1118" s="75">
         <v>625</v>
@@ -41973,7 +41960,7 @@
       </c>
       <c r="B1119" s="59"/>
       <c r="C1119" s="69" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="D1119" s="75">
         <v>590</v>
@@ -42001,7 +41988,7 @@
       </c>
       <c r="B1120" s="59"/>
       <c r="C1120" s="69" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="D1120" s="75">
         <v>610</v>
@@ -42029,7 +42016,7 @@
       </c>
       <c r="B1121" s="59"/>
       <c r="C1121" s="69" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="D1121" s="75">
         <v>610</v>
@@ -42057,7 +42044,7 @@
       </c>
       <c r="B1122" s="59"/>
       <c r="C1122" s="69" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="D1122" s="75">
         <v>605</v>
@@ -42085,7 +42072,7 @@
       </c>
       <c r="B1123" s="59"/>
       <c r="C1123" s="69" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="D1123" s="75">
         <v>585</v>
@@ -42113,7 +42100,7 @@
       </c>
       <c r="B1124" s="59"/>
       <c r="C1124" s="69" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="D1124" s="75">
         <v>600</v>
@@ -42141,7 +42128,7 @@
       </c>
       <c r="B1125" s="59"/>
       <c r="C1125" s="69" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="D1125" s="75">
         <v>700</v>
@@ -42169,7 +42156,7 @@
       </c>
       <c r="B1126" s="59"/>
       <c r="C1126" s="69" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="D1126" s="75">
         <v>660</v>
@@ -42197,7 +42184,7 @@
       </c>
       <c r="B1127" s="59"/>
       <c r="C1127" s="69" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="D1127" s="75">
         <v>710</v>
@@ -42225,7 +42212,7 @@
       </c>
       <c r="B1128" s="59"/>
       <c r="C1128" s="69" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="D1128" s="75">
         <v>690</v>
@@ -42251,27 +42238,27 @@
       <c r="A1129" s="2">
         <v>1123</v>
       </c>
-      <c r="B1129" s="119"/>
-      <c r="C1129" s="120" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D1129" s="121">
+      <c r="B1129" s="129"/>
+      <c r="C1129" s="130" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1129" s="131">
         <v>595</v>
       </c>
-      <c r="E1129" s="121">
+      <c r="E1129" s="131">
         <v>590</v>
       </c>
-      <c r="F1129" s="119"/>
+      <c r="F1129" s="129"/>
       <c r="G1129" s="15">
         <v>1</v>
       </c>
-      <c r="H1129" s="122"/>
-      <c r="I1129" s="123"/>
-      <c r="J1129" s="123"/>
-      <c r="K1129" s="124">
+      <c r="H1129" s="132"/>
+      <c r="I1129" s="133"/>
+      <c r="J1129" s="133"/>
+      <c r="K1129" s="134">
         <v>595</v>
       </c>
-      <c r="L1129" s="124">
+      <c r="L1129" s="134">
         <v>590</v>
       </c>
     </row>
@@ -42279,27 +42266,27 @@
       <c r="A1130" s="2">
         <v>1124</v>
       </c>
-      <c r="B1130" s="119"/>
-      <c r="C1130" s="120" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D1130" s="121">
+      <c r="B1130" s="129"/>
+      <c r="C1130" s="130" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1130" s="131">
         <v>645</v>
       </c>
-      <c r="E1130" s="121">
+      <c r="E1130" s="131">
         <v>640</v>
       </c>
-      <c r="F1130" s="119"/>
+      <c r="F1130" s="129"/>
       <c r="G1130" s="15">
         <v>1</v>
       </c>
-      <c r="H1130" s="122"/>
-      <c r="I1130" s="123"/>
-      <c r="J1130" s="123"/>
-      <c r="K1130" s="124">
+      <c r="H1130" s="132"/>
+      <c r="I1130" s="133"/>
+      <c r="J1130" s="133"/>
+      <c r="K1130" s="134">
         <v>645</v>
       </c>
-      <c r="L1130" s="124">
+      <c r="L1130" s="134">
         <v>640</v>
       </c>
     </row>
@@ -42307,27 +42294,27 @@
       <c r="A1131" s="2">
         <v>1125</v>
       </c>
-      <c r="B1131" s="119"/>
-      <c r="C1131" s="120" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D1131" s="121">
+      <c r="B1131" s="129"/>
+      <c r="C1131" s="130" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1131" s="131">
         <v>620</v>
       </c>
-      <c r="E1131" s="121">
+      <c r="E1131" s="131">
         <v>610</v>
       </c>
-      <c r="F1131" s="119"/>
+      <c r="F1131" s="129"/>
       <c r="G1131" s="15">
         <v>1</v>
       </c>
-      <c r="H1131" s="122"/>
-      <c r="I1131" s="123"/>
-      <c r="J1131" s="123"/>
-      <c r="K1131" s="124">
+      <c r="H1131" s="132"/>
+      <c r="I1131" s="133"/>
+      <c r="J1131" s="133"/>
+      <c r="K1131" s="134">
         <v>620</v>
       </c>
-      <c r="L1131" s="124">
+      <c r="L1131" s="134">
         <v>610</v>
       </c>
     </row>
@@ -42335,81 +42322,55 @@
       <c r="A1132" s="2">
         <v>1126</v>
       </c>
-      <c r="B1132" s="119"/>
-      <c r="C1132" s="120" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D1132" s="121">
+      <c r="B1132" s="129"/>
+      <c r="C1132" s="130" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D1132" s="131">
         <v>600</v>
       </c>
-      <c r="E1132" s="121">
+      <c r="E1132" s="131">
         <v>595</v>
       </c>
-      <c r="F1132" s="119"/>
+      <c r="F1132" s="129"/>
       <c r="G1132" s="15">
         <v>1</v>
       </c>
-      <c r="H1132" s="122"/>
-      <c r="I1132" s="123"/>
-      <c r="J1132" s="123"/>
-      <c r="K1132" s="124">
+      <c r="H1132" s="132"/>
+      <c r="I1132" s="133"/>
+      <c r="J1132" s="133"/>
+      <c r="K1132" s="134">
         <v>600</v>
       </c>
-      <c r="L1132" s="124">
+      <c r="L1132" s="134">
         <v>595</v>
       </c>
     </row>
     <row r="1133" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1133" s="2">
-        <v>1267</v>
-      </c>
-      <c r="B1133" s="119"/>
-      <c r="C1133" s="120" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D1133" s="121">
-        <v>645</v>
-      </c>
-      <c r="E1133" s="121"/>
-      <c r="F1133" s="119"/>
+      <c r="A1133" s="114">
+        <v>1136</v>
+      </c>
+      <c r="B1133" s="59"/>
+      <c r="C1133" s="125" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D1133" s="104">
+        <v>605</v>
+      </c>
+      <c r="E1133" s="104">
+        <v>600</v>
+      </c>
+      <c r="F1133" s="59"/>
       <c r="G1133" s="15">
         <v>1</v>
       </c>
-      <c r="H1133" s="122"/>
-      <c r="I1133" s="123"/>
-      <c r="J1133" s="123"/>
-      <c r="K1133" s="124">
-        <v>600</v>
-      </c>
-      <c r="L1133" s="124">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1134" s="114">
-        <v>1136</v>
-      </c>
-      <c r="B1134" s="59"/>
-      <c r="C1134" s="115" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D1134" s="104">
+      <c r="H1133" s="26"/>
+      <c r="I1133" s="107"/>
+      <c r="J1133" s="107"/>
+      <c r="K1133" s="27">
         <v>605</v>
       </c>
-      <c r="E1134" s="104">
-        <v>600</v>
-      </c>
-      <c r="F1134" s="59"/>
-      <c r="G1134" s="15">
-        <v>1</v>
-      </c>
-      <c r="H1134" s="26"/>
-      <c r="I1134" s="107"/>
-      <c r="J1134" s="107"/>
-      <c r="K1134" s="27">
-        <v>605</v>
-      </c>
-      <c r="L1134" s="27">
+      <c r="L1133" s="27">
         <v>600</v>
       </c>
     </row>
@@ -42421,32 +42382,29 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="K4:L4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1135:C1048576 C1:C3">
-    <cfRule type="duplicateValues" dxfId="8" priority="25"/>
+  <conditionalFormatting sqref="C1134:C1048576 C1:C3">
+    <cfRule type="duplicateValues" dxfId="7" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C898 C962:C966">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C899:C960">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C961">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C967:C1021">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1022:C1058">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1059:C1134">
-    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C1059:C1133">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -42479,14 +42437,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -42500,14 +42458,14 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
+      <c r="A2" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -42549,10 +42507,10 @@
       <c r="C4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="136"/>
+      <c r="E4" s="124"/>
       <c r="F4" s="36" t="s">
         <v>6</v>
       </c>
@@ -44590,10 +44548,10 @@
       <c r="C65" s="19" t="s">
         <v>948</v>
       </c>
-      <c r="D65" s="126">
+      <c r="D65" s="136">
         <v>690</v>
       </c>
-      <c r="E65" s="126">
+      <c r="E65" s="136">
         <v>680</v>
       </c>
       <c r="F65" s="15"/>
@@ -46579,7 +46537,7 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="D124" s="46">
         <v>640</v>
@@ -46608,7 +46566,7 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="1" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="D125" s="46">
         <v>615</v>
@@ -46637,7 +46595,7 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="1" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="D126" s="46">
         <v>560</v>
@@ -46666,7 +46624,7 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="D127" s="46">
         <v>560</v>
@@ -46695,7 +46653,7 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="D128" s="46">
         <v>560</v>
@@ -46724,7 +46682,7 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D129" s="46">
         <v>710</v>
@@ -46753,7 +46711,7 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="D130" s="46">
         <v>560</v>
@@ -46782,7 +46740,7 @@
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="D131" s="46">
         <v>620</v>
@@ -46811,7 +46769,7 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="D132" s="46">
         <v>565</v>
@@ -46840,7 +46798,7 @@
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="D133" s="46">
         <v>620</v>
@@ -46869,7 +46827,7 @@
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="D134" s="46">
         <v>640</v>
@@ -46898,7 +46856,7 @@
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D135" s="46">
         <v>575</v>
@@ -46927,7 +46885,7 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="2" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="D136" s="46">
         <v>590</v>
@@ -46956,7 +46914,7 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="D137" s="46">
         <v>635</v>
@@ -46985,7 +46943,7 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D138" s="46">
         <v>610</v>
@@ -47014,7 +46972,7 @@
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="D139" s="46">
         <v>635</v>
@@ -47041,7 +46999,7 @@
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="D140" s="46">
         <v>565</v>
@@ -47068,7 +47026,7 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="D141" s="46">
         <v>675</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6651086-0D74-114E-A745-05FE44B5B2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0118AC1E-7354-C54E-AC32-5F658CE8AB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23800" yWindow="1580" windowWidth="33080" windowHeight="26880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -7339,8 +7339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N1161"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A348" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1140" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1159" sqref="E1159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -45511,10 +45511,10 @@
         <v>1796</v>
       </c>
       <c r="D1157" s="56">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="E1157" s="56">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="F1157" s="79"/>
       <c r="G1157" s="59">
@@ -45537,10 +45537,10 @@
         <v>1797</v>
       </c>
       <c r="D1158" s="56">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="E1158" s="56">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="F1158" s="79"/>
       <c r="G1158" s="59">
@@ -45680,7 +45680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A144" sqref="A144:XFD144"/>
     </sheetView>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DDF594-EEF1-354E-8E46-BA39EE1848F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1477A9B0-6552-3544-B17C-F26CB4019061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27260" yWindow="500" windowWidth="29080" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -6121,24 +6121,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6167,12 +6149,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -6181,6 +6157,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bình thường 2" xfId="2" xr:uid="{2DBE829A-806A-A246-9A23-241A22DA22A4}"/>
@@ -7447,8 +7447,8 @@
   <dimension ref="A1:P1161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7471,118 +7471,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:16" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
+      <c r="A2" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
     </row>
-    <row r="3" spans="1:16" s="128" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="126"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-    </row>
-    <row r="4" spans="1:16" s="129" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="122" t="s">
+    <row r="3" spans="1:16" s="118" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+    </row>
+    <row r="4" spans="1:16" s="119" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="122" t="s">
+      <c r="E4" s="125"/>
+      <c r="F4" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="114" t="s">
         <v>1803</v>
       </c>
-      <c r="H4" s="125" t="s">
+      <c r="H4" s="115" t="s">
         <v>1415</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="129" t="s">
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="119" t="s">
         <v>1772</v>
       </c>
-      <c r="M4" s="129" t="s">
+      <c r="M4" s="119" t="s">
         <v>1805</v>
       </c>
-      <c r="O4" s="123" t="s">
+      <c r="O4" s="124" t="s">
         <v>1804</v>
       </c>
-      <c r="P4" s="124"/>
-    </row>
-    <row r="5" spans="1:16" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116" t="s">
+      <c r="P4" s="125"/>
+    </row>
+    <row r="5" spans="1:16" s="113" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="116" t="s">
+      <c r="E5" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119" t="s">
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="120" t="s">
+      <c r="K5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="120" t="s">
+      <c r="L5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="120" t="s">
+      <c r="M5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="120" t="s">
+      <c r="N5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="120" t="s">
+      <c r="O5" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="120" t="s">
+      <c r="P5" s="112" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8146,11 +8146,11 @@
       </c>
       <c r="D21" s="47">
         <f t="shared" si="0"/>
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="E21" s="47">
         <f t="shared" si="1"/>
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F21" s="48" t="s">
         <v>29</v>
@@ -8161,8 +8161,12 @@
       <c r="H21" s="14"/>
       <c r="I21" s="99"/>
       <c r="J21" s="99"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="K21" s="79">
+        <v>-15</v>
+      </c>
+      <c r="L21" s="79">
+        <v>-10</v>
+      </c>
       <c r="M21" s="63"/>
       <c r="N21" s="63"/>
       <c r="O21" s="49">
@@ -8408,11 +8412,11 @@
       </c>
       <c r="D28" s="47">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E28" s="47">
         <f t="shared" si="1"/>
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F28" s="50"/>
       <c r="G28" s="50">
@@ -8422,10 +8426,10 @@
       <c r="I28" s="99"/>
       <c r="J28" s="99"/>
       <c r="K28" s="79">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="L28" s="79">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="M28" s="63"/>
       <c r="N28" s="63"/>
@@ -30054,7 +30058,7 @@
       </c>
       <c r="D639" s="47">
         <f t="shared" si="18"/>
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E639" s="47">
         <f t="shared" si="19"/>
@@ -30067,7 +30071,9 @@
       <c r="H639" s="14"/>
       <c r="I639" s="99"/>
       <c r="J639" s="99"/>
-      <c r="K639" s="79"/>
+      <c r="K639" s="79">
+        <v>-10</v>
+      </c>
       <c r="L639" s="79"/>
       <c r="M639" s="63"/>
       <c r="N639" s="63"/>
@@ -40823,11 +40829,11 @@
       </c>
       <c r="D946" s="47">
         <f t="shared" si="28"/>
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E946" s="47">
         <f t="shared" si="29"/>
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="F946" s="50"/>
       <c r="G946" s="50">
@@ -40836,8 +40842,12 @@
       <c r="H946" s="13"/>
       <c r="I946" s="102"/>
       <c r="J946" s="102"/>
-      <c r="K946" s="79"/>
-      <c r="L946" s="79"/>
+      <c r="K946" s="79">
+        <v>-10</v>
+      </c>
+      <c r="L946" s="79">
+        <v>-15</v>
+      </c>
       <c r="M946" s="63"/>
       <c r="N946" s="63"/>
       <c r="O946" s="49">
@@ -46193,11 +46203,11 @@
       </c>
       <c r="D1102" s="47">
         <f t="shared" si="34"/>
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="E1102" s="47">
         <f t="shared" si="35"/>
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="F1102" s="36"/>
       <c r="G1102" s="50">
@@ -46207,9 +46217,11 @@
       <c r="I1102" s="104"/>
       <c r="J1102" s="104"/>
       <c r="K1102" s="79">
-        <v>-10</v>
-      </c>
-      <c r="L1102" s="79"/>
+        <v>40</v>
+      </c>
+      <c r="L1102" s="79">
+        <v>20</v>
+      </c>
       <c r="M1102" s="63"/>
       <c r="N1102" s="63"/>
       <c r="O1102" s="18">
@@ -48146,14 +48158,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
       <c r="G1" s="75"/>
       <c r="H1" s="75"/>
       <c r="I1" s="75"/>
@@ -48167,14 +48179,14 @@
       <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="A2" s="126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="75"/>
       <c r="H2" s="75"/>
       <c r="I2" s="75"/>
@@ -48216,10 +48228,10 @@
       <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="110"/>
+      <c r="E4" s="129"/>
       <c r="F4" s="76" t="s">
         <v>6</v>
       </c>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1477A9B0-6552-3544-B17C-F26CB4019061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAA5553-DBFC-BB4B-AED4-A136B6E50F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27260" yWindow="500" windowWidth="29080" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7447,8 +7447,8 @@
   <dimension ref="A1:P1161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="5" topLeftCell="A1081" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1102" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30062,7 +30062,7 @@
       </c>
       <c r="E639" s="47">
         <f t="shared" si="19"/>
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="F639" s="50"/>
       <c r="G639" s="50">
@@ -30074,7 +30074,9 @@
       <c r="K639" s="79">
         <v>-10</v>
       </c>
-      <c r="L639" s="79"/>
+      <c r="L639" s="79">
+        <v>-10</v>
+      </c>
       <c r="M639" s="63"/>
       <c r="N639" s="63"/>
       <c r="O639" s="49">

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAA5553-DBFC-BB4B-AED4-A136B6E50F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583BB906-ED54-6249-993A-2EA10BFC504B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27260" yWindow="500" windowWidth="29080" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="1806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="1807">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5485,6 +5485,9 @@
   </si>
   <si>
     <t>Giải kỷ niệm btn</t>
+  </si>
+  <si>
+    <t>Anh Quốc</t>
   </si>
 </sst>
 </file>
@@ -7444,11 +7447,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P1161"/>
+  <dimension ref="A1:P1162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A1081" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1102" sqref="C1:C1048576"/>
+      <pane ySplit="5" topLeftCell="A1151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1159" sqref="C1159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18398,11 +18401,11 @@
       </c>
       <c r="D308" s="47">
         <f t="shared" si="8"/>
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="E308" s="47">
         <f t="shared" si="9"/>
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="F308" s="50"/>
       <c r="G308" s="50">
@@ -18411,8 +18414,12 @@
       <c r="H308" s="14"/>
       <c r="I308" s="99"/>
       <c r="J308" s="99"/>
-      <c r="K308" s="79"/>
-      <c r="L308" s="79"/>
+      <c r="K308" s="79">
+        <v>-20</v>
+      </c>
+      <c r="L308" s="79">
+        <v>-20</v>
+      </c>
       <c r="M308" s="63"/>
       <c r="N308" s="63"/>
       <c r="O308" s="49">
@@ -48091,6 +48098,34 @@
       <c r="O1161" s="73"/>
       <c r="P1161" s="73"/>
     </row>
+    <row r="1162" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1162" s="2">
+        <v>1156</v>
+      </c>
+      <c r="B1162" s="69"/>
+      <c r="C1162" s="70" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D1162" s="47">
+        <v>580</v>
+      </c>
+      <c r="E1162" s="47">
+        <v>580</v>
+      </c>
+      <c r="F1162" s="69"/>
+      <c r="G1162" s="50">
+        <v>1</v>
+      </c>
+      <c r="H1162" s="71"/>
+      <c r="I1162" s="104"/>
+      <c r="J1162" s="104"/>
+      <c r="K1162" s="83"/>
+      <c r="L1162" s="83"/>
+      <c r="M1162" s="72"/>
+      <c r="N1162" s="72"/>
+      <c r="O1162" s="73"/>
+      <c r="P1162" s="73"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="4">
@@ -48099,7 +48134,7 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="O4:P4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1162:C1048576 C1:C3">
+  <conditionalFormatting sqref="C1163:C1048576 C1:C3">
     <cfRule type="duplicateValues" dxfId="9" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
@@ -48123,7 +48158,7 @@
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1059:C1161">
+  <conditionalFormatting sqref="C1059:C1162">
     <cfRule type="duplicateValues" dxfId="1" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583BB906-ED54-6249-993A-2EA10BFC504B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7054569-5033-EB48-ACB0-F014DEE116DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7450,8 +7450,8 @@
   <dimension ref="A1:P1162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A1151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1159" sqref="C1159"/>
+      <pane ySplit="5" topLeftCell="A921" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K932" sqref="A932:XFD932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -40324,7 +40324,7 @@
       </c>
       <c r="D932" s="47">
         <f t="shared" si="28"/>
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E932" s="47">
         <f t="shared" si="29"/>
@@ -40339,7 +40339,9 @@
       <c r="H932" s="13"/>
       <c r="I932" s="102"/>
       <c r="J932" s="102"/>
-      <c r="K932" s="79"/>
+      <c r="K932" s="79">
+        <v>-5</v>
+      </c>
       <c r="L932" s="79"/>
       <c r="M932" s="63">
         <v>5</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812819FE-923E-1B49-83C0-21F7919892ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE943016-182C-AB40-BA11-5C1B9E9585F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6040,7 +6040,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -6298,6 +6298,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7565,8 +7568,8 @@
   <dimension ref="A1:P1208"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A1044" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1060" sqref="J1060"/>
+      <pane ySplit="5" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I574" sqref="I574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27980,7 +27983,7 @@
       </c>
       <c r="D574" s="45">
         <f t="shared" si="16"/>
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="E574" s="45">
         <f t="shared" si="17"/>
@@ -27993,7 +27996,9 @@
         <v>1</v>
       </c>
       <c r="H574" s="14"/>
-      <c r="I574" s="97"/>
+      <c r="I574" s="122">
+        <v>-10</v>
+      </c>
       <c r="J574" s="97"/>
       <c r="K574" s="77"/>
       <c r="L574" s="77"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE943016-182C-AB40-BA11-5C1B9E9585F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF734B-BD75-114E-8C38-ED79CBD7F710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="1851">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5620,6 +5620,9 @@
   </si>
   <si>
     <t>win79</t>
+  </si>
+  <si>
+    <t>Viết Hòa</t>
   </si>
 </sst>
 </file>
@@ -6275,6 +6278,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6298,9 +6304,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7565,11 +7568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P1208"/>
+  <dimension ref="A1:P1209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A563" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I574" sqref="I574"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A1177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7592,30 +7595,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:16" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
+      <c r="A2" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
     </row>
@@ -7643,10 +7646,10 @@
       <c r="C4" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="117"/>
+      <c r="E4" s="118"/>
       <c r="F4" s="106" t="s">
         <v>6</v>
       </c>
@@ -7666,10 +7669,10 @@
       <c r="M4" s="111" t="s">
         <v>1805</v>
       </c>
-      <c r="O4" s="116" t="s">
+      <c r="O4" s="117" t="s">
         <v>1804</v>
       </c>
-      <c r="P4" s="117"/>
+      <c r="P4" s="118"/>
     </row>
     <row r="5" spans="1:16" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="99"/>
@@ -11439,7 +11442,7 @@
       </c>
       <c r="E108" s="45">
         <f t="shared" si="3"/>
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F108" s="46" t="s">
         <v>122</v>
@@ -11449,7 +11452,9 @@
       </c>
       <c r="H108" s="14"/>
       <c r="I108" s="97"/>
-      <c r="J108" s="97"/>
+      <c r="J108" s="97">
+        <v>-5</v>
+      </c>
       <c r="K108" s="77"/>
       <c r="L108" s="77"/>
       <c r="M108" s="61">
@@ -27983,7 +27988,7 @@
       </c>
       <c r="D574" s="45">
         <f t="shared" si="16"/>
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E574" s="45">
         <f t="shared" si="17"/>
@@ -27996,8 +28001,8 @@
         <v>1</v>
       </c>
       <c r="H574" s="14"/>
-      <c r="I574" s="122">
-        <v>-10</v>
+      <c r="I574" s="112">
+        <v>-15</v>
       </c>
       <c r="J574" s="97"/>
       <c r="K574" s="77"/>
@@ -49505,7 +49510,7 @@
       </c>
       <c r="E1188" s="45">
         <f t="shared" si="37"/>
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="F1188" s="67"/>
       <c r="G1188" s="48">
@@ -49516,7 +49521,7 @@
         <v>-5</v>
       </c>
       <c r="J1188" s="97">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="K1188" s="81"/>
       <c r="L1188" s="81"/>
@@ -50223,6 +50228,40 @@
       </c>
       <c r="P1208" s="71">
         <v>600</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1209" s="1">
+        <v>1204</v>
+      </c>
+      <c r="B1209" s="67"/>
+      <c r="C1209" s="68" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D1209" s="45">
+        <f t="shared" ref="D1209" si="40">O1209+M1209+K1209+I1209</f>
+        <v>590</v>
+      </c>
+      <c r="E1209" s="45">
+        <f t="shared" ref="E1209" si="41">N1209+P1209+L1209+J1209</f>
+        <v>585</v>
+      </c>
+      <c r="F1209" s="67"/>
+      <c r="G1209" s="48">
+        <v>1</v>
+      </c>
+      <c r="H1209" s="69"/>
+      <c r="I1209" s="97"/>
+      <c r="J1209" s="97"/>
+      <c r="K1209" s="81"/>
+      <c r="L1209" s="81"/>
+      <c r="M1209" s="70"/>
+      <c r="N1209" s="70"/>
+      <c r="O1209" s="71">
+        <v>590</v>
+      </c>
+      <c r="P1209" s="71">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -50236,7 +50275,7 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="O4:P4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1209:C1048576 C1:C3">
+  <conditionalFormatting sqref="C1210:C1048576 C1:C3">
     <cfRule type="duplicateValues" dxfId="9" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
@@ -50260,7 +50299,7 @@
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1059:C1208">
+  <conditionalFormatting sqref="C1059:C1209">
     <cfRule type="duplicateValues" dxfId="1" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
@@ -50273,7 +50312,7 @@
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="E6:E1207 D6:D1207" unlockedFormula="1"/>
-    <ignoredError sqref="F6:F1304" numberStoredAsText="1"/>
+    <ignoredError sqref="F6:F1208 F1210:F1304" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -50283,9 +50322,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A144" sqref="A144:XFD144"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -50301,14 +50340,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
       <c r="I1" s="73"/>
@@ -50322,14 +50361,14 @@
       <c r="Q1" s="73"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="A2" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
       <c r="G2" s="73"/>
       <c r="H2" s="73"/>
       <c r="I2" s="73"/>
@@ -50371,10 +50410,10 @@
       <c r="C4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="121"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="74" t="s">
         <v>6</v>
       </c>
@@ -52586,10 +52625,10 @@
         <v>957</v>
       </c>
       <c r="D70" s="85">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E70" s="85">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F70" s="46" t="s">
         <v>958</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF734B-BD75-114E-8C38-ED79CBD7F710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59320884-7B84-2946-A577-4120863E7BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -7570,9 +7570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1209"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A1177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C1:C1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A1122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1134" sqref="J1134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14354,11 +14354,11 @@
       </c>
       <c r="D190" s="45">
         <f t="shared" si="4"/>
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E190" s="45">
         <f t="shared" si="5"/>
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="F190" s="48"/>
       <c r="G190" s="48">
@@ -14366,10 +14366,10 @@
       </c>
       <c r="H190" s="14"/>
       <c r="I190" s="97">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="J190" s="97">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="K190" s="77">
         <v>-5</v>
@@ -47600,11 +47600,11 @@
       </c>
       <c r="D1133" s="45">
         <f t="shared" si="34"/>
-        <v>595</v>
+        <v>640</v>
       </c>
       <c r="E1133" s="45">
         <f t="shared" si="35"/>
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="F1133" s="67"/>
       <c r="G1133" s="48">
@@ -47612,10 +47612,10 @@
       </c>
       <c r="H1133" s="69"/>
       <c r="I1133" s="97">
-        <v>-5</v>
+        <v>40</v>
       </c>
       <c r="J1133" s="97">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="K1133" s="81"/>
       <c r="L1133" s="81"/>
@@ -47816,7 +47816,7 @@
       </c>
       <c r="D1139" s="45">
         <f t="shared" si="34"/>
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="E1139" s="45">
         <f t="shared" si="35"/>
@@ -47827,7 +47827,9 @@
         <v>1</v>
       </c>
       <c r="H1139" s="69"/>
-      <c r="I1139" s="97"/>
+      <c r="I1139" s="97">
+        <v>-30</v>
+      </c>
       <c r="J1139" s="97"/>
       <c r="K1139" s="81">
         <v>30</v>
@@ -50322,9 +50324,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59320884-7B84-2946-A577-4120863E7BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C0941E-4388-1C4B-BC0E-17C5BE9B6D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7571,8 +7571,8 @@
   <dimension ref="A1:P1209"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A1122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1134" sqref="J1134"/>
+      <pane ySplit="5" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11762,11 +11762,11 @@
       </c>
       <c r="D117" s="45">
         <f t="shared" si="2"/>
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E117" s="45">
         <f t="shared" si="3"/>
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F117" s="50" t="s">
         <v>1769</v>
@@ -11775,8 +11775,12 @@
         <v>1</v>
       </c>
       <c r="H117" s="14"/>
-      <c r="I117" s="97"/>
-      <c r="J117" s="97"/>
+      <c r="I117" s="97">
+        <v>-5</v>
+      </c>
+      <c r="J117" s="97">
+        <v>-5</v>
+      </c>
       <c r="K117" s="77"/>
       <c r="L117" s="77"/>
       <c r="M117" s="61"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C0941E-4388-1C4B-BC0E-17C5BE9B6D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A205DAC-EA67-EF45-9CCA-674E667A19F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7571,8 +7571,8 @@
   <dimension ref="A1:P1209"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
+      <pane ySplit="5" topLeftCell="A1042" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1053" sqref="K1053"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -44814,19 +44814,23 @@
       </c>
       <c r="D1053" s="45">
         <f t="shared" si="32"/>
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E1053" s="45">
         <f t="shared" si="33"/>
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F1053" s="59"/>
       <c r="G1053" s="48">
         <v>1</v>
       </c>
       <c r="H1053" s="17"/>
-      <c r="I1053" s="97"/>
-      <c r="J1053" s="97"/>
+      <c r="I1053" s="97">
+        <v>-5</v>
+      </c>
+      <c r="J1053" s="97">
+        <v>-5</v>
+      </c>
       <c r="K1053" s="77"/>
       <c r="L1053" s="77"/>
       <c r="M1053" s="61"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A205DAC-EA67-EF45-9CCA-674E667A19F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237B96AE-DAF7-B44B-9487-93016C41DCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7571,8 +7571,8 @@
   <dimension ref="A1:P1209"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A1042" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1053" sqref="K1053"/>
+      <pane ySplit="5" topLeftCell="A975" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J987" sqref="J987"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26088,7 +26088,7 @@
       </c>
       <c r="E520" s="45">
         <f t="shared" si="17"/>
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="F520" s="46" t="s">
         <v>665</v>
@@ -26101,7 +26101,7 @@
         <v>-5</v>
       </c>
       <c r="J520" s="97">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="K520" s="77"/>
       <c r="L520" s="77"/>
@@ -42512,7 +42512,7 @@
       </c>
       <c r="E986" s="45">
         <f t="shared" si="31"/>
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="F986" s="48"/>
       <c r="G986" s="48">
@@ -42523,7 +42523,7 @@
         <v>-5</v>
       </c>
       <c r="J986" s="97">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="K986" s="77"/>
       <c r="L986" s="77"/>
@@ -48780,11 +48780,11 @@
       </c>
       <c r="D1167" s="45">
         <f t="shared" si="36"/>
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="E1167" s="45">
         <f t="shared" si="37"/>
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="F1167" s="67"/>
       <c r="G1167" s="48">
@@ -48792,10 +48792,10 @@
       </c>
       <c r="H1167" s="69"/>
       <c r="I1167" s="97">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J1167" s="97">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="K1167" s="81"/>
       <c r="L1167" s="81"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB73B34B-13FA-EA49-8942-C927A63126CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B38D91A-ED96-B744-851E-8765BC922127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29040" yWindow="500" windowWidth="19740" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1897">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5522,9 +5522,6 @@
   </si>
   <si>
     <t>Phin QN</t>
-  </si>
-  <si>
-    <t>Su Su</t>
   </si>
   <si>
     <t>Hiếu Sóc Trăng</t>
@@ -7892,8 +7889,8 @@
   <dimension ref="A1:R1237"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A712" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J725" sqref="J725"/>
+      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7988,11 +7985,11 @@
         <v>1412</v>
       </c>
       <c r="I4" s="120" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="J4" s="106"/>
       <c r="K4" s="106" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="L4" s="106"/>
       <c r="M4" s="110" t="s">
@@ -10372,19 +10369,23 @@
       </c>
       <c r="D65" s="44">
         <f t="shared" si="0"/>
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="E65" s="44">
         <f t="shared" si="1"/>
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="F65" s="47"/>
       <c r="G65" s="47">
         <v>1</v>
       </c>
       <c r="H65" s="14"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="112"/>
+      <c r="I65" s="112">
+        <v>-20</v>
+      </c>
+      <c r="J65" s="112">
+        <v>-15</v>
+      </c>
       <c r="K65" s="96">
         <v>-5</v>
       </c>
@@ -11218,7 +11219,7 @@
       </c>
       <c r="H87" s="15"/>
       <c r="I87" s="114" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="J87" s="114"/>
       <c r="K87" s="96"/>
@@ -13345,7 +13346,7 @@
       </c>
       <c r="B143" s="27"/>
       <c r="C143" s="28" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D143" s="44">
         <f t="shared" si="8"/>
@@ -19263,7 +19264,7 @@
       </c>
       <c r="B300" s="27"/>
       <c r="C300" s="28" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D300" s="44">
         <f t="shared" si="22"/>
@@ -39497,7 +39498,7 @@
       </c>
       <c r="B842" s="29"/>
       <c r="C842" s="37" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D842" s="44">
         <f t="shared" si="46"/>
@@ -49781,7 +49782,7 @@
       </c>
       <c r="B1119" s="34"/>
       <c r="C1119" s="43" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D1119" s="44">
         <f t="shared" si="54"/>
@@ -50640,7 +50641,7 @@
       </c>
       <c r="B1142" s="66"/>
       <c r="C1142" s="67" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D1142" s="44">
         <f t="shared" si="56"/>
@@ -51396,7 +51397,7 @@
       </c>
       <c r="B1163" s="66"/>
       <c r="C1163" s="67" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D1163" s="44">
         <f t="shared" si="60"/>
@@ -51432,7 +51433,7 @@
       </c>
       <c r="B1164" s="66"/>
       <c r="C1164" s="67" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D1164" s="44">
         <f t="shared" si="60"/>
@@ -51506,7 +51507,7 @@
       </c>
       <c r="B1166" s="66"/>
       <c r="C1166" s="67" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D1166" s="44">
         <f t="shared" ref="D1166:D1190" si="62">Q1166+O1166+M1166+K1166+I1166</f>
@@ -51652,7 +51653,7 @@
       </c>
       <c r="B1170" s="66"/>
       <c r="C1170" s="67" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D1170" s="44">
         <f t="shared" si="62"/>
@@ -51692,7 +51693,7 @@
       </c>
       <c r="B1171" s="66"/>
       <c r="C1171" s="67" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D1171" s="44">
         <f t="shared" si="62"/>
@@ -51804,7 +51805,7 @@
       </c>
       <c r="B1174" s="66"/>
       <c r="C1174" s="67" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D1174" s="44">
         <f t="shared" si="62"/>
@@ -51912,7 +51913,7 @@
       </c>
       <c r="B1177" s="66"/>
       <c r="C1177" s="67" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D1177" s="44">
         <f t="shared" si="62"/>
@@ -51950,7 +51951,7 @@
       </c>
       <c r="B1178" s="66"/>
       <c r="C1178" s="67" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D1178" s="44">
         <f t="shared" si="62"/>
@@ -51986,7 +51987,7 @@
       </c>
       <c r="B1179" s="66"/>
       <c r="C1179" s="67" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D1179" s="44">
         <f t="shared" si="62"/>
@@ -52022,7 +52023,7 @@
       </c>
       <c r="B1180" s="66"/>
       <c r="C1180" s="67" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D1180" s="44">
         <f t="shared" si="62"/>
@@ -52098,7 +52099,7 @@
       </c>
       <c r="B1182" s="66"/>
       <c r="C1182" s="67" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D1182" s="44">
         <f t="shared" si="62"/>
@@ -52138,7 +52139,7 @@
       </c>
       <c r="B1183" s="66"/>
       <c r="C1183" s="67" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D1183" s="44">
         <f t="shared" si="62"/>
@@ -52178,7 +52179,7 @@
       </c>
       <c r="B1184" s="66"/>
       <c r="C1184" s="67" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D1184" s="44">
         <f t="shared" si="62"/>
@@ -52250,7 +52251,7 @@
       </c>
       <c r="B1186" s="66"/>
       <c r="C1186" s="67" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D1186" s="44">
         <f t="shared" si="62"/>
@@ -52288,7 +52289,7 @@
       </c>
       <c r="B1187" s="66"/>
       <c r="C1187" s="67" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D1187" s="44">
         <f t="shared" si="62"/>
@@ -52404,7 +52405,7 @@
       </c>
       <c r="B1190" s="66"/>
       <c r="C1190" s="67" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D1190" s="44">
         <f t="shared" si="62"/>
@@ -52622,7 +52623,7 @@
       </c>
       <c r="B1196" s="66"/>
       <c r="C1196" s="67" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D1196" s="44">
         <f t="shared" si="64"/>
@@ -52698,7 +52699,7 @@
       </c>
       <c r="B1198" s="66"/>
       <c r="C1198" s="67" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D1198" s="44">
         <f t="shared" si="64"/>
@@ -52770,7 +52771,7 @@
       </c>
       <c r="B1200" s="66"/>
       <c r="C1200" s="67" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D1200" s="44">
         <f t="shared" si="64"/>
@@ -52808,7 +52809,7 @@
       </c>
       <c r="B1201" s="66"/>
       <c r="C1201" s="67" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D1201" s="44">
         <f t="shared" si="64"/>
@@ -52956,19 +52957,17 @@
       </c>
       <c r="B1205" s="66"/>
       <c r="C1205" s="67" t="s">
-        <v>1817</v>
+        <v>1162</v>
       </c>
       <c r="D1205" s="44">
-        <f t="shared" si="64"/>
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="E1205" s="44">
-        <f t="shared" si="65"/>
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="F1205" s="66"/>
       <c r="G1205" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1205" s="68"/>
       <c r="I1205" s="119"/>
@@ -52992,7 +52991,7 @@
       </c>
       <c r="B1206" s="66"/>
       <c r="C1206" s="67" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D1206" s="44">
         <f t="shared" si="64"/>
@@ -53028,7 +53027,7 @@
       </c>
       <c r="B1207" s="66"/>
       <c r="C1207" s="67" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D1207" s="44">
         <f t="shared" si="64"/>
@@ -53064,7 +53063,7 @@
       </c>
       <c r="B1208" s="66"/>
       <c r="C1208" s="67" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D1208" s="44">
         <f t="shared" si="64"/>
@@ -53100,7 +53099,7 @@
       </c>
       <c r="B1209" s="66"/>
       <c r="C1209" s="67" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D1209" s="44">
         <f t="shared" ref="D1209:D1221" si="66">Q1209+O1209+M1209+K1209+I1209</f>
@@ -53136,7 +53135,7 @@
       </c>
       <c r="B1210" s="66"/>
       <c r="C1210" s="67" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D1210" s="44">
         <f t="shared" si="66"/>
@@ -53172,7 +53171,7 @@
       </c>
       <c r="B1211" s="66"/>
       <c r="C1211" s="67" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D1211" s="44">
         <f t="shared" si="66"/>
@@ -53210,7 +53209,7 @@
       </c>
       <c r="B1212" s="66"/>
       <c r="C1212" s="67" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D1212" s="44">
         <f t="shared" si="66"/>
@@ -53246,7 +53245,7 @@
       </c>
       <c r="B1213" s="66"/>
       <c r="C1213" s="67" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D1213" s="44">
         <f t="shared" si="66"/>
@@ -53282,7 +53281,7 @@
       </c>
       <c r="B1214" s="66"/>
       <c r="C1214" s="67" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D1214" s="44">
         <f t="shared" si="66"/>
@@ -53318,7 +53317,7 @@
       </c>
       <c r="B1215" s="66"/>
       <c r="C1215" s="67" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D1215" s="44">
         <f t="shared" si="66"/>
@@ -53354,7 +53353,7 @@
       </c>
       <c r="B1216" s="66"/>
       <c r="C1216" s="67" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D1216" s="44">
         <f t="shared" si="66"/>
@@ -53392,7 +53391,7 @@
       </c>
       <c r="B1217" s="66"/>
       <c r="C1217" s="67" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D1217" s="44">
         <f t="shared" si="66"/>
@@ -53430,7 +53429,7 @@
       </c>
       <c r="B1218" s="66"/>
       <c r="C1218" s="67" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D1218" s="44">
         <f t="shared" si="66"/>
@@ -53466,7 +53465,7 @@
       </c>
       <c r="B1219" s="66"/>
       <c r="C1219" s="67" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D1219" s="44">
         <f t="shared" si="66"/>
@@ -53502,7 +53501,7 @@
       </c>
       <c r="B1220" s="66"/>
       <c r="C1220" s="67" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D1220" s="44">
         <f t="shared" si="66"/>
@@ -53538,7 +53537,7 @@
       </c>
       <c r="B1221" s="66"/>
       <c r="C1221" s="67" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D1221" s="44">
         <f t="shared" si="66"/>
@@ -53574,7 +53573,7 @@
       </c>
       <c r="B1222" s="66"/>
       <c r="C1222" s="67" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D1222" s="44">
         <f t="shared" ref="D1222:D1229" si="68">Q1222+O1222+M1222+K1222+I1222</f>
@@ -53612,7 +53611,7 @@
       </c>
       <c r="B1223" s="66"/>
       <c r="C1223" s="67" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D1223" s="44">
         <f t="shared" si="68"/>
@@ -53650,7 +53649,7 @@
       </c>
       <c r="B1224" s="66"/>
       <c r="C1224" s="67" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D1224" s="44">
         <f t="shared" si="68"/>
@@ -53686,7 +53685,7 @@
       </c>
       <c r="B1225" s="66"/>
       <c r="C1225" s="67" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D1225" s="44">
         <f t="shared" si="68"/>
@@ -53722,7 +53721,7 @@
       </c>
       <c r="B1226" s="66"/>
       <c r="C1226" s="67" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D1226" s="44">
         <f t="shared" si="68"/>
@@ -53758,7 +53757,7 @@
       </c>
       <c r="B1227" s="66"/>
       <c r="C1227" s="67" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D1227" s="44">
         <f t="shared" si="68"/>
@@ -53796,7 +53795,7 @@
       </c>
       <c r="B1228" s="66"/>
       <c r="C1228" s="67" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D1228" s="44">
         <f t="shared" si="68"/>
@@ -53832,7 +53831,7 @@
       </c>
       <c r="B1229" s="66"/>
       <c r="C1229" s="67" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D1229" s="44">
         <f t="shared" si="68"/>
@@ -53868,7 +53867,7 @@
       </c>
       <c r="B1230" s="66"/>
       <c r="C1230" s="67" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D1230" s="44">
         <f t="shared" ref="D1230:D1237" si="70">Q1230+O1230+M1230+K1230+I1230</f>
@@ -53906,7 +53905,7 @@
       </c>
       <c r="B1231" s="66"/>
       <c r="C1231" s="67" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D1231" s="44">
         <f t="shared" si="70"/>
@@ -53942,7 +53941,7 @@
       </c>
       <c r="B1232" s="66"/>
       <c r="C1232" s="67" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D1232" s="44">
         <f t="shared" si="70"/>
@@ -53978,7 +53977,7 @@
       </c>
       <c r="B1233" s="66"/>
       <c r="C1233" s="67" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D1233" s="44">
         <f t="shared" si="70"/>
@@ -54014,7 +54013,7 @@
       </c>
       <c r="B1234" s="66"/>
       <c r="C1234" s="67" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D1234" s="44">
         <f t="shared" si="70"/>
@@ -54050,7 +54049,7 @@
       </c>
       <c r="B1235" s="66"/>
       <c r="C1235" s="67" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D1235" s="44">
         <f t="shared" si="70"/>
@@ -54086,7 +54085,7 @@
       </c>
       <c r="B1236" s="66"/>
       <c r="C1236" s="67" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D1236" s="44">
         <f t="shared" si="70"/>
@@ -54122,7 +54121,7 @@
       </c>
       <c r="B1237" s="66"/>
       <c r="C1237" s="67" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D1237" s="44">
         <f t="shared" si="70"/>
@@ -54199,7 +54198,7 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="D6:E743 D1208:E1221 D1222:E1229 D1230:E1230 D745:E1161 D1166:E1191 E1165 D1193:E1207 D1163:E1164" unlockedFormula="1"/>
+    <ignoredError sqref="D6:E743 D1208:E1221 D1222:E1229 D1230:E1230 D745:E1161 D1166:E1191 E1165 D1193:E1204 D1163:E1164 D1206:E1207" unlockedFormula="1"/>
     <ignoredError sqref="F6:F1208 F1210:F1229 F1231:F1304" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
@@ -54316,10 +54315,10 @@
         <v>6</v>
       </c>
       <c r="G4" s="73" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H4" s="127" t="s">
         <v>1830</v>
-      </c>
-      <c r="H4" s="127" t="s">
-        <v>1831</v>
       </c>
       <c r="I4" s="74"/>
       <c r="J4" s="11" t="s">
@@ -59675,7 +59674,7 @@
       </c>
       <c r="B145" s="47"/>
       <c r="C145" s="82" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D145" s="84">
         <f t="shared" si="8"/>
@@ -59714,7 +59713,7 @@
       </c>
       <c r="B146" s="47"/>
       <c r="C146" s="82" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D146" s="84">
         <f t="shared" si="8"/>
@@ -59751,7 +59750,7 @@
       </c>
       <c r="B147" s="47"/>
       <c r="C147" s="82" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D147" s="84">
         <f t="shared" si="8"/>
@@ -59788,7 +59787,7 @@
       </c>
       <c r="B148" s="47"/>
       <c r="C148" s="82" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D148" s="84">
         <f t="shared" si="8"/>
@@ -59827,7 +59826,7 @@
       </c>
       <c r="B149" s="47"/>
       <c r="C149" s="82" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D149" s="84">
         <f t="shared" si="8"/>
@@ -59864,7 +59863,7 @@
       </c>
       <c r="B150" s="47"/>
       <c r="C150" s="82" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D150" s="84">
         <f t="shared" si="8"/>
@@ -59901,7 +59900,7 @@
       </c>
       <c r="B151" s="47"/>
       <c r="C151" s="82" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D151" s="84">
         <f t="shared" si="8"/>
@@ -59942,7 +59941,7 @@
       </c>
       <c r="B152" s="47"/>
       <c r="C152" s="82" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D152" s="84">
         <f t="shared" si="8"/>
@@ -59979,7 +59978,7 @@
       </c>
       <c r="B153" s="47"/>
       <c r="C153" s="82" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D153" s="84">
         <f t="shared" si="8"/>
@@ -60016,7 +60015,7 @@
       </c>
       <c r="B154" s="47"/>
       <c r="C154" s="82" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D154" s="84">
         <f t="shared" si="8"/>
@@ -60053,7 +60052,7 @@
       </c>
       <c r="B155" s="47"/>
       <c r="C155" s="82" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D155" s="84">
         <f t="shared" si="8"/>
@@ -60090,7 +60089,7 @@
       </c>
       <c r="B156" s="47"/>
       <c r="C156" s="82" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D156" s="84">
         <f t="shared" si="8"/>
@@ -60127,7 +60126,7 @@
       </c>
       <c r="B157" s="47"/>
       <c r="C157" s="82" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D157" s="84">
         <f t="shared" si="8"/>
@@ -60164,7 +60163,7 @@
       </c>
       <c r="B158" s="47"/>
       <c r="C158" s="82" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D158" s="84">
         <f t="shared" si="8"/>
@@ -60201,7 +60200,7 @@
       </c>
       <c r="B159" s="47"/>
       <c r="C159" s="82" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D159" s="84">
         <f t="shared" si="8"/>
@@ -60240,7 +60239,7 @@
       </c>
       <c r="B160" s="47"/>
       <c r="C160" s="82" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D160" s="84">
         <f t="shared" si="8"/>
@@ -60277,7 +60276,7 @@
       </c>
       <c r="B161" s="47"/>
       <c r="C161" s="82" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D161" s="84">
         <f t="shared" si="8"/>
@@ -60314,7 +60313,7 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D162" s="84">
         <f t="shared" si="8"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B38D91A-ED96-B744-851E-8765BC922127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BC475-4D79-CC46-832E-AF9977FF3971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="500" windowWidth="19740" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -7889,8 +7889,8 @@
   <dimension ref="A1:R1237"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q65" sqref="Q65"/>
+      <pane ySplit="5" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12129,7 +12129,7 @@
       </c>
       <c r="E111" s="44">
         <f t="shared" si="9"/>
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F111" s="47"/>
       <c r="G111" s="47">
@@ -12137,7 +12137,9 @@
       </c>
       <c r="H111" s="14"/>
       <c r="I111" s="112"/>
-      <c r="J111" s="112"/>
+      <c r="J111" s="112">
+        <v>-5</v>
+      </c>
       <c r="K111" s="96"/>
       <c r="L111" s="96"/>
       <c r="M111" s="76"/>
@@ -39990,7 +39992,7 @@
       </c>
       <c r="E855" s="44">
         <f t="shared" si="47"/>
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F855" s="47" t="s">
         <v>1407</v>
@@ -40000,7 +40002,9 @@
       </c>
       <c r="H855" s="14"/>
       <c r="I855" s="112"/>
-      <c r="J855" s="112"/>
+      <c r="J855" s="112">
+        <v>-10</v>
+      </c>
       <c r="K855" s="96"/>
       <c r="L855" s="96"/>
       <c r="M855" s="76"/>
@@ -49156,19 +49160,23 @@
       </c>
       <c r="D1102" s="44">
         <f t="shared" si="54"/>
-        <v>665</v>
+        <v>620</v>
       </c>
       <c r="E1102" s="44">
         <f t="shared" si="55"/>
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="F1102" s="34"/>
       <c r="G1102" s="47">
         <v>1</v>
       </c>
       <c r="H1102" s="17"/>
-      <c r="I1102" s="119"/>
-      <c r="J1102" s="119"/>
+      <c r="I1102" s="119">
+        <v>-45</v>
+      </c>
+      <c r="J1102" s="119">
+        <v>-15</v>
+      </c>
       <c r="K1102" s="96">
         <v>-5</v>
       </c>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BC475-4D79-CC46-832E-AF9977FF3971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86572C12-9471-2E4C-B0A9-82317D6BC69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27700" yWindow="2660" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -7890,7 +7890,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J112" sqref="J112"/>
+      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="D102" s="44">
         <f t="shared" si="8"/>
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E102" s="44">
         <f t="shared" si="9"/>
@@ -11786,7 +11786,9 @@
         <v>1</v>
       </c>
       <c r="H102" s="14"/>
-      <c r="I102" s="112"/>
+      <c r="I102" s="112">
+        <v>-10</v>
+      </c>
       <c r="J102" s="112"/>
       <c r="K102" s="96"/>
       <c r="L102" s="96"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86572C12-9471-2E4C-B0A9-82317D6BC69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E8AD74-6595-D746-AD16-3618406293BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27700" yWindow="2660" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1896">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5336,9 +5336,6 @@
   </si>
   <si>
     <t>Duy Em</t>
-  </si>
-  <si>
-    <t>Dương - Hoàng Nhật</t>
   </si>
   <si>
     <t>Trường An Nhơn</t>
@@ -7889,8 +7886,8 @@
   <dimension ref="A1:R1237"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
+      <pane ySplit="5" topLeftCell="A850" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I861" sqref="I861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7979,27 +7976,27 @@
         <v>6</v>
       </c>
       <c r="G4" s="105" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H4" s="106" t="s">
         <v>1412</v>
       </c>
       <c r="I4" s="120" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="J4" s="106"/>
       <c r="K4" s="106" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="L4" s="106"/>
       <c r="M4" s="110" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="O4" s="110" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="Q4" s="141" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="R4" s="142"/>
     </row>
@@ -11219,7 +11216,7 @@
       </c>
       <c r="H87" s="15"/>
       <c r="I87" s="114" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="J87" s="114"/>
       <c r="K87" s="96"/>
@@ -12364,7 +12361,7 @@
         <v>580</v>
       </c>
       <c r="F117" s="49" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="G117" s="47">
         <v>1</v>
@@ -13350,7 +13347,7 @@
       </c>
       <c r="B143" s="27"/>
       <c r="C143" s="28" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D143" s="44">
         <f t="shared" si="8"/>
@@ -19268,7 +19265,7 @@
       </c>
       <c r="B300" s="27"/>
       <c r="C300" s="28" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D300" s="44">
         <f t="shared" si="22"/>
@@ -39502,7 +39499,7 @@
       </c>
       <c r="B842" s="29"/>
       <c r="C842" s="37" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D842" s="44">
         <f t="shared" si="46"/>
@@ -40212,21 +40209,19 @@
       </c>
       <c r="B861" s="29"/>
       <c r="C861" s="71" t="s">
-        <v>1755</v>
+        <v>1162</v>
       </c>
       <c r="D861" s="44">
-        <f t="shared" si="46"/>
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="E861" s="44">
-        <f t="shared" si="47"/>
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="F861" s="47" t="s">
         <v>1410</v>
       </c>
       <c r="G861" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H861" s="14"/>
       <c r="I861" s="112"/>
@@ -49640,7 +49635,7 @@
       </c>
       <c r="B1115" s="34"/>
       <c r="C1115" s="43" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D1115" s="44">
         <f t="shared" si="54"/>
@@ -49792,7 +49787,7 @@
       </c>
       <c r="B1119" s="34"/>
       <c r="C1119" s="43" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D1119" s="44">
         <f t="shared" si="54"/>
@@ -50190,7 +50185,7 @@
       </c>
       <c r="B1130" s="66"/>
       <c r="C1130" s="67" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D1130" s="44">
         <f t="shared" si="56"/>
@@ -50230,7 +50225,7 @@
       </c>
       <c r="B1131" s="66"/>
       <c r="C1131" s="67" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D1131" s="44">
         <f t="shared" si="56"/>
@@ -50266,7 +50261,7 @@
       </c>
       <c r="B1132" s="66"/>
       <c r="C1132" s="67" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D1132" s="44">
         <f t="shared" si="56"/>
@@ -50302,7 +50297,7 @@
       </c>
       <c r="B1133" s="66"/>
       <c r="C1133" s="67" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D1133" s="44">
         <f t="shared" si="56"/>
@@ -50344,7 +50339,7 @@
       </c>
       <c r="B1134" s="66"/>
       <c r="C1134" s="67" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D1134" s="44">
         <f t="shared" si="56"/>
@@ -50380,7 +50375,7 @@
       </c>
       <c r="B1135" s="66"/>
       <c r="C1135" s="67" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D1135" s="44">
         <f t="shared" si="56"/>
@@ -50420,7 +50415,7 @@
       </c>
       <c r="B1136" s="66"/>
       <c r="C1136" s="67" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D1136" s="44">
         <f t="shared" si="56"/>
@@ -50456,7 +50451,7 @@
       </c>
       <c r="B1137" s="66"/>
       <c r="C1137" s="67" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D1137" s="44">
         <f t="shared" si="56"/>
@@ -50492,7 +50487,7 @@
       </c>
       <c r="B1138" s="66"/>
       <c r="C1138" s="67" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D1138" s="44">
         <f t="shared" si="56"/>
@@ -50537,7 +50532,7 @@
       </c>
       <c r="B1139" s="66"/>
       <c r="C1139" s="67" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D1139" s="44">
         <f t="shared" si="56"/>
@@ -50579,7 +50574,7 @@
       </c>
       <c r="B1140" s="66"/>
       <c r="C1140" s="67" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D1140" s="44">
         <f t="shared" si="56"/>
@@ -50615,7 +50610,7 @@
       </c>
       <c r="B1141" s="66"/>
       <c r="C1141" s="67" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D1141" s="44">
         <f t="shared" si="56"/>
@@ -50651,7 +50646,7 @@
       </c>
       <c r="B1142" s="66"/>
       <c r="C1142" s="67" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D1142" s="44">
         <f t="shared" si="56"/>
@@ -50689,7 +50684,7 @@
       </c>
       <c r="B1143" s="66"/>
       <c r="C1143" s="67" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D1143" s="44">
         <f t="shared" si="56"/>
@@ -50725,7 +50720,7 @@
       </c>
       <c r="B1144" s="66"/>
       <c r="C1144" s="67" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D1144" s="44">
         <f t="shared" si="56"/>
@@ -50761,7 +50756,7 @@
       </c>
       <c r="B1145" s="66"/>
       <c r="C1145" s="67" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D1145" s="44">
         <f t="shared" si="56"/>
@@ -50797,7 +50792,7 @@
       </c>
       <c r="B1146" s="66"/>
       <c r="C1146" s="67" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D1146" s="44">
         <f t="shared" si="56"/>
@@ -50833,7 +50828,7 @@
       </c>
       <c r="B1147" s="66"/>
       <c r="C1147" s="67" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D1147" s="44">
         <f t="shared" si="56"/>
@@ -50869,7 +50864,7 @@
       </c>
       <c r="B1148" s="66"/>
       <c r="C1148" s="67" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D1148" s="44">
         <f t="shared" si="56"/>
@@ -50905,7 +50900,7 @@
       </c>
       <c r="B1149" s="66"/>
       <c r="C1149" s="67" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D1149" s="44">
         <f t="shared" si="56"/>
@@ -50977,7 +50972,7 @@
       </c>
       <c r="B1151" s="66"/>
       <c r="C1151" s="67" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D1151" s="44">
         <f t="shared" ref="D1151:D1164" si="60">Q1151+O1151+M1151+K1151+I1151</f>
@@ -51013,7 +51008,7 @@
       </c>
       <c r="B1152" s="66"/>
       <c r="C1152" s="67" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D1152" s="44">
         <f t="shared" si="60"/>
@@ -51049,7 +51044,7 @@
       </c>
       <c r="B1153" s="66"/>
       <c r="C1153" s="67" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D1153" s="44">
         <f t="shared" si="60"/>
@@ -51085,7 +51080,7 @@
       </c>
       <c r="B1154" s="66"/>
       <c r="C1154" s="67" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D1154" s="44">
         <f t="shared" si="60"/>
@@ -51121,7 +51116,7 @@
       </c>
       <c r="B1155" s="66"/>
       <c r="C1155" s="67" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D1155" s="44">
         <f t="shared" si="60"/>
@@ -51157,7 +51152,7 @@
       </c>
       <c r="B1156" s="66"/>
       <c r="C1156" s="67" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D1156" s="44">
         <f t="shared" si="60"/>
@@ -51193,7 +51188,7 @@
       </c>
       <c r="B1157" s="66"/>
       <c r="C1157" s="67" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D1157" s="44">
         <f t="shared" si="60"/>
@@ -51229,7 +51224,7 @@
       </c>
       <c r="B1158" s="66"/>
       <c r="C1158" s="67" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D1158" s="44">
         <f t="shared" si="60"/>
@@ -51265,7 +51260,7 @@
       </c>
       <c r="B1159" s="66"/>
       <c r="C1159" s="67" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D1159" s="44">
         <f t="shared" si="60"/>
@@ -51301,7 +51296,7 @@
       </c>
       <c r="B1160" s="66"/>
       <c r="C1160" s="67" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D1160" s="44">
         <f t="shared" si="60"/>
@@ -51337,7 +51332,7 @@
       </c>
       <c r="B1161" s="66"/>
       <c r="C1161" s="67" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D1161" s="44">
         <f t="shared" si="60"/>
@@ -51407,7 +51402,7 @@
       </c>
       <c r="B1163" s="66"/>
       <c r="C1163" s="67" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D1163" s="44">
         <f t="shared" si="60"/>
@@ -51443,7 +51438,7 @@
       </c>
       <c r="B1164" s="66"/>
       <c r="C1164" s="67" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D1164" s="44">
         <f t="shared" si="60"/>
@@ -51517,7 +51512,7 @@
       </c>
       <c r="B1166" s="66"/>
       <c r="C1166" s="67" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D1166" s="44">
         <f t="shared" ref="D1166:D1190" si="62">Q1166+O1166+M1166+K1166+I1166</f>
@@ -51553,7 +51548,7 @@
       </c>
       <c r="B1167" s="66"/>
       <c r="C1167" s="67" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D1167" s="44">
         <f t="shared" si="62"/>
@@ -51593,7 +51588,7 @@
       </c>
       <c r="B1168" s="66"/>
       <c r="C1168" s="67" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D1168" s="44">
         <f t="shared" si="62"/>
@@ -51629,7 +51624,7 @@
       </c>
       <c r="B1169" s="66"/>
       <c r="C1169" s="67" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D1169" s="44">
         <f t="shared" si="62"/>
@@ -51663,7 +51658,7 @@
       </c>
       <c r="B1170" s="66"/>
       <c r="C1170" s="67" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D1170" s="44">
         <f t="shared" si="62"/>
@@ -51703,7 +51698,7 @@
       </c>
       <c r="B1171" s="66"/>
       <c r="C1171" s="67" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D1171" s="44">
         <f t="shared" si="62"/>
@@ -51743,7 +51738,7 @@
       </c>
       <c r="B1172" s="66"/>
       <c r="C1172" s="67" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D1172" s="44">
         <f t="shared" si="62"/>
@@ -51779,7 +51774,7 @@
       </c>
       <c r="B1173" s="66"/>
       <c r="C1173" s="67" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D1173" s="44">
         <f t="shared" si="62"/>
@@ -51815,7 +51810,7 @@
       </c>
       <c r="B1174" s="66"/>
       <c r="C1174" s="67" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D1174" s="44">
         <f t="shared" si="62"/>
@@ -51851,7 +51846,7 @@
       </c>
       <c r="B1175" s="66"/>
       <c r="C1175" s="67" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D1175" s="44">
         <f t="shared" si="62"/>
@@ -51923,7 +51918,7 @@
       </c>
       <c r="B1177" s="66"/>
       <c r="C1177" s="67" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D1177" s="44">
         <f t="shared" si="62"/>
@@ -51961,7 +51956,7 @@
       </c>
       <c r="B1178" s="66"/>
       <c r="C1178" s="67" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D1178" s="44">
         <f t="shared" si="62"/>
@@ -51997,7 +51992,7 @@
       </c>
       <c r="B1179" s="66"/>
       <c r="C1179" s="67" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D1179" s="44">
         <f t="shared" si="62"/>
@@ -52033,7 +52028,7 @@
       </c>
       <c r="B1180" s="66"/>
       <c r="C1180" s="67" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D1180" s="44">
         <f t="shared" si="62"/>
@@ -52069,7 +52064,7 @@
       </c>
       <c r="B1181" s="66"/>
       <c r="C1181" s="67" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D1181" s="44">
         <f t="shared" si="62"/>
@@ -52109,7 +52104,7 @@
       </c>
       <c r="B1182" s="66"/>
       <c r="C1182" s="67" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D1182" s="44">
         <f t="shared" si="62"/>
@@ -52149,7 +52144,7 @@
       </c>
       <c r="B1183" s="66"/>
       <c r="C1183" s="67" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D1183" s="44">
         <f t="shared" si="62"/>
@@ -52189,7 +52184,7 @@
       </c>
       <c r="B1184" s="66"/>
       <c r="C1184" s="67" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D1184" s="44">
         <f t="shared" si="62"/>
@@ -52225,7 +52220,7 @@
       </c>
       <c r="B1185" s="66"/>
       <c r="C1185" s="67" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D1185" s="44">
         <f t="shared" si="62"/>
@@ -52261,7 +52256,7 @@
       </c>
       <c r="B1186" s="66"/>
       <c r="C1186" s="67" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D1186" s="44">
         <f t="shared" si="62"/>
@@ -52299,7 +52294,7 @@
       </c>
       <c r="B1187" s="66"/>
       <c r="C1187" s="67" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D1187" s="44">
         <f t="shared" si="62"/>
@@ -52335,7 +52330,7 @@
       </c>
       <c r="B1188" s="66"/>
       <c r="C1188" s="67" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D1188" s="44">
         <f t="shared" si="62"/>
@@ -52375,7 +52370,7 @@
       </c>
       <c r="B1189" s="66"/>
       <c r="C1189" s="67" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D1189" s="44">
         <f t="shared" si="62"/>
@@ -52415,7 +52410,7 @@
       </c>
       <c r="B1190" s="66"/>
       <c r="C1190" s="67" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D1190" s="44">
         <f t="shared" si="62"/>
@@ -52451,7 +52446,7 @@
       </c>
       <c r="B1191" s="66"/>
       <c r="C1191" s="67" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D1191" s="44">
         <f>Q1191+O1191+M1191+K1191</f>
@@ -52521,7 +52516,7 @@
       </c>
       <c r="B1193" s="66"/>
       <c r="C1193" s="67" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D1193" s="44">
         <f t="shared" ref="D1193:D1208" si="64">Q1193+O1193+M1193+K1193+I1193</f>
@@ -52557,7 +52552,7 @@
       </c>
       <c r="B1194" s="66"/>
       <c r="C1194" s="67" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D1194" s="44">
         <f t="shared" si="64"/>
@@ -52593,7 +52588,7 @@
       </c>
       <c r="B1195" s="66"/>
       <c r="C1195" s="67" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D1195" s="44">
         <f t="shared" si="64"/>
@@ -52633,7 +52628,7 @@
       </c>
       <c r="B1196" s="66"/>
       <c r="C1196" s="67" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D1196" s="44">
         <f t="shared" si="64"/>
@@ -52673,7 +52668,7 @@
       </c>
       <c r="B1197" s="66"/>
       <c r="C1197" s="67" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D1197" s="44">
         <f t="shared" si="64"/>
@@ -52709,7 +52704,7 @@
       </c>
       <c r="B1198" s="66"/>
       <c r="C1198" s="67" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D1198" s="44">
         <f t="shared" si="64"/>
@@ -52745,7 +52740,7 @@
       </c>
       <c r="B1199" s="66"/>
       <c r="C1199" s="67" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D1199" s="44">
         <f t="shared" si="64"/>
@@ -52781,7 +52776,7 @@
       </c>
       <c r="B1200" s="66"/>
       <c r="C1200" s="67" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D1200" s="44">
         <f t="shared" si="64"/>
@@ -52819,7 +52814,7 @@
       </c>
       <c r="B1201" s="66"/>
       <c r="C1201" s="67" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D1201" s="44">
         <f t="shared" si="64"/>
@@ -52855,7 +52850,7 @@
       </c>
       <c r="B1202" s="66"/>
       <c r="C1202" s="67" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D1202" s="44">
         <f t="shared" si="64"/>
@@ -52891,7 +52886,7 @@
       </c>
       <c r="B1203" s="66"/>
       <c r="C1203" s="67" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D1203" s="44">
         <f t="shared" si="64"/>
@@ -52931,7 +52926,7 @@
       </c>
       <c r="B1204" s="66"/>
       <c r="C1204" s="67" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D1204" s="44">
         <f t="shared" si="64"/>
@@ -53001,7 +52996,7 @@
       </c>
       <c r="B1206" s="66"/>
       <c r="C1206" s="67" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D1206" s="44">
         <f t="shared" si="64"/>
@@ -53037,7 +53032,7 @@
       </c>
       <c r="B1207" s="66"/>
       <c r="C1207" s="67" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D1207" s="44">
         <f t="shared" si="64"/>
@@ -53073,7 +53068,7 @@
       </c>
       <c r="B1208" s="66"/>
       <c r="C1208" s="67" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D1208" s="44">
         <f t="shared" si="64"/>
@@ -53109,7 +53104,7 @@
       </c>
       <c r="B1209" s="66"/>
       <c r="C1209" s="67" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D1209" s="44">
         <f t="shared" ref="D1209:D1221" si="66">Q1209+O1209+M1209+K1209+I1209</f>
@@ -53145,7 +53140,7 @@
       </c>
       <c r="B1210" s="66"/>
       <c r="C1210" s="67" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D1210" s="44">
         <f t="shared" si="66"/>
@@ -53181,7 +53176,7 @@
       </c>
       <c r="B1211" s="66"/>
       <c r="C1211" s="67" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D1211" s="44">
         <f t="shared" si="66"/>
@@ -53219,7 +53214,7 @@
       </c>
       <c r="B1212" s="66"/>
       <c r="C1212" s="67" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D1212" s="44">
         <f t="shared" si="66"/>
@@ -53255,7 +53250,7 @@
       </c>
       <c r="B1213" s="66"/>
       <c r="C1213" s="67" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D1213" s="44">
         <f t="shared" si="66"/>
@@ -53291,7 +53286,7 @@
       </c>
       <c r="B1214" s="66"/>
       <c r="C1214" s="67" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D1214" s="44">
         <f t="shared" si="66"/>
@@ -53327,7 +53322,7 @@
       </c>
       <c r="B1215" s="66"/>
       <c r="C1215" s="67" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D1215" s="44">
         <f t="shared" si="66"/>
@@ -53363,7 +53358,7 @@
       </c>
       <c r="B1216" s="66"/>
       <c r="C1216" s="67" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D1216" s="44">
         <f t="shared" si="66"/>
@@ -53401,7 +53396,7 @@
       </c>
       <c r="B1217" s="66"/>
       <c r="C1217" s="67" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D1217" s="44">
         <f t="shared" si="66"/>
@@ -53439,7 +53434,7 @@
       </c>
       <c r="B1218" s="66"/>
       <c r="C1218" s="67" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D1218" s="44">
         <f t="shared" si="66"/>
@@ -53475,7 +53470,7 @@
       </c>
       <c r="B1219" s="66"/>
       <c r="C1219" s="67" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D1219" s="44">
         <f t="shared" si="66"/>
@@ -53511,7 +53506,7 @@
       </c>
       <c r="B1220" s="66"/>
       <c r="C1220" s="67" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D1220" s="44">
         <f t="shared" si="66"/>
@@ -53547,7 +53542,7 @@
       </c>
       <c r="B1221" s="66"/>
       <c r="C1221" s="67" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D1221" s="44">
         <f t="shared" si="66"/>
@@ -53583,7 +53578,7 @@
       </c>
       <c r="B1222" s="66"/>
       <c r="C1222" s="67" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D1222" s="44">
         <f t="shared" ref="D1222:D1229" si="68">Q1222+O1222+M1222+K1222+I1222</f>
@@ -53621,7 +53616,7 @@
       </c>
       <c r="B1223" s="66"/>
       <c r="C1223" s="67" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D1223" s="44">
         <f t="shared" si="68"/>
@@ -53659,7 +53654,7 @@
       </c>
       <c r="B1224" s="66"/>
       <c r="C1224" s="67" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D1224" s="44">
         <f t="shared" si="68"/>
@@ -53695,7 +53690,7 @@
       </c>
       <c r="B1225" s="66"/>
       <c r="C1225" s="67" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D1225" s="44">
         <f t="shared" si="68"/>
@@ -53731,7 +53726,7 @@
       </c>
       <c r="B1226" s="66"/>
       <c r="C1226" s="67" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D1226" s="44">
         <f t="shared" si="68"/>
@@ -53767,7 +53762,7 @@
       </c>
       <c r="B1227" s="66"/>
       <c r="C1227" s="67" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D1227" s="44">
         <f t="shared" si="68"/>
@@ -53805,7 +53800,7 @@
       </c>
       <c r="B1228" s="66"/>
       <c r="C1228" s="67" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D1228" s="44">
         <f t="shared" si="68"/>
@@ -53841,7 +53836,7 @@
       </c>
       <c r="B1229" s="66"/>
       <c r="C1229" s="67" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D1229" s="44">
         <f t="shared" si="68"/>
@@ -53877,7 +53872,7 @@
       </c>
       <c r="B1230" s="66"/>
       <c r="C1230" s="67" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D1230" s="44">
         <f t="shared" ref="D1230:D1237" si="70">Q1230+O1230+M1230+K1230+I1230</f>
@@ -53915,7 +53910,7 @@
       </c>
       <c r="B1231" s="66"/>
       <c r="C1231" s="67" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D1231" s="44">
         <f t="shared" si="70"/>
@@ -53951,7 +53946,7 @@
       </c>
       <c r="B1232" s="66"/>
       <c r="C1232" s="67" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D1232" s="44">
         <f t="shared" si="70"/>
@@ -53987,7 +53982,7 @@
       </c>
       <c r="B1233" s="66"/>
       <c r="C1233" s="67" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D1233" s="44">
         <f t="shared" si="70"/>
@@ -54023,7 +54018,7 @@
       </c>
       <c r="B1234" s="66"/>
       <c r="C1234" s="67" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D1234" s="44">
         <f t="shared" si="70"/>
@@ -54059,7 +54054,7 @@
       </c>
       <c r="B1235" s="66"/>
       <c r="C1235" s="67" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D1235" s="44">
         <f t="shared" si="70"/>
@@ -54095,7 +54090,7 @@
       </c>
       <c r="B1236" s="66"/>
       <c r="C1236" s="67" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D1236" s="44">
         <f t="shared" si="70"/>
@@ -54131,7 +54126,7 @@
       </c>
       <c r="B1237" s="66"/>
       <c r="C1237" s="67" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D1237" s="44">
         <f t="shared" si="70"/>
@@ -54208,7 +54203,7 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="D6:E743 D1208:E1221 D1222:E1229 D1230:E1230 D745:E1161 D1166:E1191 E1165 D1193:E1204 D1163:E1164 D1206:E1207" unlockedFormula="1"/>
+    <ignoredError sqref="D6:E743 D1208:E1221 D1222:E1229 D1230:E1230 D745:E860 D1166:E1191 E1165 D1193:E1204 D1163:E1164 D1206:E1207 D862:E1161" unlockedFormula="1"/>
     <ignoredError sqref="F6:F1208 F1210:F1229 F1231:F1304" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
@@ -54325,10 +54320,10 @@
         <v>6</v>
       </c>
       <c r="G4" s="73" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H4" s="127" t="s">
         <v>1829</v>
-      </c>
-      <c r="H4" s="127" t="s">
-        <v>1830</v>
       </c>
       <c r="I4" s="74"/>
       <c r="J4" s="11" t="s">
@@ -59458,7 +59453,7 @@
       </c>
       <c r="B139" s="47"/>
       <c r="C139" s="82" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D139" s="84">
         <f t="shared" si="8"/>
@@ -59497,7 +59492,7 @@
         <v>135</v>
       </c>
       <c r="C140" s="82" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D140" s="84">
         <f t="shared" si="8"/>
@@ -59536,7 +59531,7 @@
         <v>136</v>
       </c>
       <c r="C141" s="82" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D141" s="84">
         <f t="shared" si="8"/>
@@ -59573,7 +59568,7 @@
       </c>
       <c r="B142" s="47"/>
       <c r="C142" s="82" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D142" s="84">
         <f t="shared" si="8"/>
@@ -59610,7 +59605,7 @@
       </c>
       <c r="B143" s="47"/>
       <c r="C143" s="82" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D143" s="84">
         <f t="shared" si="8"/>
@@ -59647,7 +59642,7 @@
       </c>
       <c r="B144" s="47"/>
       <c r="C144" s="82" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D144" s="84">
         <f t="shared" si="8"/>
@@ -59684,7 +59679,7 @@
       </c>
       <c r="B145" s="47"/>
       <c r="C145" s="82" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D145" s="84">
         <f t="shared" si="8"/>
@@ -59723,7 +59718,7 @@
       </c>
       <c r="B146" s="47"/>
       <c r="C146" s="82" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D146" s="84">
         <f t="shared" si="8"/>
@@ -59760,7 +59755,7 @@
       </c>
       <c r="B147" s="47"/>
       <c r="C147" s="82" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D147" s="84">
         <f t="shared" si="8"/>
@@ -59797,7 +59792,7 @@
       </c>
       <c r="B148" s="47"/>
       <c r="C148" s="82" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D148" s="84">
         <f t="shared" si="8"/>
@@ -59836,7 +59831,7 @@
       </c>
       <c r="B149" s="47"/>
       <c r="C149" s="82" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D149" s="84">
         <f t="shared" si="8"/>
@@ -59873,7 +59868,7 @@
       </c>
       <c r="B150" s="47"/>
       <c r="C150" s="82" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D150" s="84">
         <f t="shared" si="8"/>
@@ -59910,7 +59905,7 @@
       </c>
       <c r="B151" s="47"/>
       <c r="C151" s="82" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D151" s="84">
         <f t="shared" si="8"/>
@@ -59951,7 +59946,7 @@
       </c>
       <c r="B152" s="47"/>
       <c r="C152" s="82" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D152" s="84">
         <f t="shared" si="8"/>
@@ -59988,7 +59983,7 @@
       </c>
       <c r="B153" s="47"/>
       <c r="C153" s="82" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D153" s="84">
         <f t="shared" si="8"/>
@@ -60025,7 +60020,7 @@
       </c>
       <c r="B154" s="47"/>
       <c r="C154" s="82" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D154" s="84">
         <f t="shared" si="8"/>
@@ -60062,7 +60057,7 @@
       </c>
       <c r="B155" s="47"/>
       <c r="C155" s="82" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D155" s="84">
         <f t="shared" si="8"/>
@@ -60099,7 +60094,7 @@
       </c>
       <c r="B156" s="47"/>
       <c r="C156" s="82" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D156" s="84">
         <f t="shared" si="8"/>
@@ -60136,7 +60131,7 @@
       </c>
       <c r="B157" s="47"/>
       <c r="C157" s="82" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D157" s="84">
         <f t="shared" si="8"/>
@@ -60173,7 +60168,7 @@
       </c>
       <c r="B158" s="47"/>
       <c r="C158" s="82" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D158" s="84">
         <f t="shared" si="8"/>
@@ -60210,7 +60205,7 @@
       </c>
       <c r="B159" s="47"/>
       <c r="C159" s="82" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D159" s="84">
         <f t="shared" si="8"/>
@@ -60249,7 +60244,7 @@
       </c>
       <c r="B160" s="47"/>
       <c r="C160" s="82" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D160" s="84">
         <f t="shared" si="8"/>
@@ -60286,7 +60281,7 @@
       </c>
       <c r="B161" s="47"/>
       <c r="C161" s="82" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D161" s="84">
         <f t="shared" si="8"/>
@@ -60323,7 +60318,7 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D162" s="84">
         <f t="shared" si="8"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E8AD74-6595-D746-AD16-3618406293BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A652F60E-8EDC-8843-AB33-B44F89C6B35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27700" yWindow="2660" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="1916">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5759,6 +5759,66 @@
   </si>
   <si>
     <t xml:space="preserve">Rin Hoàng Long </t>
+  </si>
+  <si>
+    <t>phú bánh mì</t>
+  </si>
+  <si>
+    <t>hào em</t>
+  </si>
+  <si>
+    <t>tony minh</t>
+  </si>
+  <si>
+    <t>tùng lương y</t>
+  </si>
+  <si>
+    <t>Long Tống</t>
+  </si>
+  <si>
+    <t>Khánh BK</t>
+  </si>
+  <si>
+    <t>Thành Thanh Đa</t>
+  </si>
+  <si>
+    <t>Tùng Sport</t>
+  </si>
+  <si>
+    <t>Cường Trà Vinh</t>
+  </si>
+  <si>
+    <t>Nu Trung Thiện</t>
+  </si>
+  <si>
+    <t>Hà Khanh BDS</t>
+  </si>
+  <si>
+    <t>Phước SPVB</t>
+  </si>
+  <si>
+    <t>Cường Riverside</t>
+  </si>
+  <si>
+    <t>Đông Nguyễn</t>
+  </si>
+  <si>
+    <t>Đình Điểm</t>
+  </si>
+  <si>
+    <t>Lâm Võ Sư</t>
+  </si>
+  <si>
+    <t>Hưng Cầu Dừa</t>
+  </si>
+  <si>
+    <t>Tùng Bình Dương</t>
+  </si>
+  <si>
+    <t>Xuân PVOIL</t>
+  </si>
+  <si>
+    <t>Khôi Q2</t>
   </si>
 </sst>
 </file>
@@ -7883,11 +7943,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R1237"/>
+  <dimension ref="A1:U1253"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A850" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I861" sqref="I861"/>
+      <pane ySplit="5" topLeftCell="A1229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R1237" sqref="R1237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7910,7 +7970,7 @@
     <col min="19" max="16384" width="11.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
@@ -7925,8 +7985,14 @@
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
       <c r="L1" s="29"/>
-    </row>
-    <row r="2" spans="1:18" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S1" s="32" t="s">
+        <v>1896</v>
+      </c>
+      <c r="U1" s="32" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
@@ -7941,8 +8007,11 @@
       <c r="J2" s="29"/>
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
-    </row>
-    <row r="3" spans="1:18" s="109" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="33" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="109" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="107"/>
       <c r="B3" s="107"/>
       <c r="C3" s="107"/>
@@ -7957,8 +8026,11 @@
       <c r="L3" s="107"/>
       <c r="Q3" s="108"/>
       <c r="R3" s="108"/>
-    </row>
-    <row r="4" spans="1:18" s="110" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S3" s="109" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="110" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="105" t="s">
         <v>2</v>
       </c>
@@ -8000,7 +8072,7 @@
       </c>
       <c r="R4" s="142"/>
     </row>
-    <row r="5" spans="1:18" s="104" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="104" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="98"/>
       <c r="B5" s="98"/>
       <c r="C5" s="98"/>
@@ -8044,7 +8116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
         <v>1</v>
       </c>
@@ -8056,7 +8128,7 @@
       </c>
       <c r="D6" s="44">
         <f>Q6+O6+M6+K6+I6</f>
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E6" s="44">
         <f>P6+R6+N6+L6+J6</f>
@@ -8070,7 +8142,7 @@
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="112">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="J6" s="112"/>
       <c r="K6" s="96">
@@ -8092,7 +8164,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>2</v>
       </c>
@@ -8132,7 +8204,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>3</v>
       </c>
@@ -8182,7 +8254,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26">
         <v>4</v>
       </c>
@@ -8194,7 +8266,7 @@
       </c>
       <c r="D9" s="44">
         <f t="shared" si="0"/>
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E9" s="44">
         <f t="shared" si="1"/>
@@ -8207,7 +8279,9 @@
         <v>1</v>
       </c>
       <c r="H9" s="14"/>
-      <c r="I9" s="112"/>
+      <c r="I9" s="112">
+        <v>-5</v>
+      </c>
       <c r="J9" s="112"/>
       <c r="K9" s="96"/>
       <c r="L9" s="96"/>
@@ -8224,7 +8298,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26">
         <v>5</v>
       </c>
@@ -8264,7 +8338,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26">
         <v>6</v>
       </c>
@@ -8300,7 +8374,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>7</v>
       </c>
@@ -8336,7 +8410,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26">
         <v>8</v>
       </c>
@@ -8374,7 +8448,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26">
         <v>9</v>
       </c>
@@ -8412,7 +8486,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
         <v>10</v>
       </c>
@@ -8456,7 +8530,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <v>11</v>
       </c>
@@ -8732,7 +8806,7 @@
       </c>
       <c r="D23" s="44">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E23" s="44">
         <f t="shared" si="1"/>
@@ -8745,7 +8819,9 @@
         <v>1</v>
       </c>
       <c r="H23" s="14"/>
-      <c r="I23" s="112"/>
+      <c r="I23" s="112">
+        <v>-5</v>
+      </c>
       <c r="J23" s="112"/>
       <c r="K23" s="96"/>
       <c r="L23" s="96"/>
@@ -8856,7 +8932,7 @@
       </c>
       <c r="D26" s="44">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E26" s="44">
         <f t="shared" si="1"/>
@@ -8867,7 +8943,9 @@
         <v>1</v>
       </c>
       <c r="H26" s="14"/>
-      <c r="I26" s="112"/>
+      <c r="I26" s="112">
+        <v>-5</v>
+      </c>
       <c r="J26" s="112"/>
       <c r="K26" s="96"/>
       <c r="L26" s="96"/>
@@ -9046,7 +9124,7 @@
       </c>
       <c r="D31" s="44">
         <f t="shared" si="0"/>
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="E31" s="44">
         <f t="shared" si="1"/>
@@ -9059,7 +9137,9 @@
         <v>1</v>
       </c>
       <c r="H31" s="14"/>
-      <c r="I31" s="112"/>
+      <c r="I31" s="112">
+        <v>5</v>
+      </c>
       <c r="J31" s="112"/>
       <c r="K31" s="96"/>
       <c r="L31" s="96"/>
@@ -9708,7 +9788,7 @@
       </c>
       <c r="D48" s="44">
         <f t="shared" si="0"/>
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="E48" s="44">
         <f t="shared" si="1"/>
@@ -9722,7 +9802,7 @@
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="112">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J48" s="112"/>
       <c r="K48" s="96">
@@ -10010,7 +10090,7 @@
       </c>
       <c r="D56" s="44">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E56" s="44">
         <f t="shared" si="1"/>
@@ -10022,7 +10102,7 @@
       </c>
       <c r="H56" s="24"/>
       <c r="I56" s="113">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="J56" s="113"/>
       <c r="K56" s="96"/>
@@ -10090,19 +10170,23 @@
       </c>
       <c r="D58" s="44">
         <f t="shared" si="0"/>
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="E58" s="44">
         <f t="shared" si="1"/>
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="F58" s="47"/>
       <c r="G58" s="47">
         <v>1</v>
       </c>
       <c r="H58" s="14"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
+      <c r="I58" s="112">
+        <v>15</v>
+      </c>
+      <c r="J58" s="112">
+        <v>5</v>
+      </c>
       <c r="K58" s="96">
         <v>-5</v>
       </c>
@@ -10448,7 +10532,7 @@
       </c>
       <c r="D67" s="44">
         <f t="shared" si="0"/>
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E67" s="44">
         <f t="shared" si="1"/>
@@ -10459,7 +10543,9 @@
         <v>1</v>
       </c>
       <c r="H67" s="14"/>
-      <c r="I67" s="112"/>
+      <c r="I67" s="112">
+        <v>-5</v>
+      </c>
       <c r="J67" s="112"/>
       <c r="K67" s="96"/>
       <c r="L67" s="96"/>
@@ -11436,7 +11522,7 @@
       </c>
       <c r="D93" s="44">
         <f t="shared" si="6"/>
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E93" s="44">
         <f t="shared" si="7"/>
@@ -11449,7 +11535,9 @@
         <v>1</v>
       </c>
       <c r="H93" s="14"/>
-      <c r="I93" s="112"/>
+      <c r="I93" s="112">
+        <v>-5</v>
+      </c>
       <c r="J93" s="112"/>
       <c r="K93" s="96"/>
       <c r="L93" s="96"/>
@@ -12124,7 +12212,7 @@
       </c>
       <c r="D111" s="44">
         <f t="shared" si="8"/>
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E111" s="44">
         <f t="shared" si="9"/>
@@ -12135,7 +12223,9 @@
         <v>1</v>
       </c>
       <c r="H111" s="14"/>
-      <c r="I111" s="112"/>
+      <c r="I111" s="112">
+        <v>-5</v>
+      </c>
       <c r="J111" s="112">
         <v>-5</v>
       </c>
@@ -12166,7 +12256,7 @@
       </c>
       <c r="E112" s="44">
         <f t="shared" si="9"/>
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="F112" s="47"/>
       <c r="G112" s="47">
@@ -12174,7 +12264,9 @@
       </c>
       <c r="H112" s="14"/>
       <c r="I112" s="112"/>
-      <c r="J112" s="112"/>
+      <c r="J112" s="112">
+        <v>-15</v>
+      </c>
       <c r="K112" s="96"/>
       <c r="L112" s="96"/>
       <c r="M112" s="76"/>
@@ -12198,11 +12290,11 @@
       </c>
       <c r="D113" s="44">
         <f t="shared" si="8"/>
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="E113" s="44">
         <f t="shared" si="9"/>
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="F113" s="47"/>
       <c r="G113" s="47">
@@ -12210,10 +12302,10 @@
       </c>
       <c r="H113" s="14"/>
       <c r="I113" s="112">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="J113" s="112">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="K113" s="96"/>
       <c r="L113" s="96"/>
@@ -12274,7 +12366,7 @@
       </c>
       <c r="D115" s="44">
         <f t="shared" si="8"/>
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E115" s="44">
         <f t="shared" si="9"/>
@@ -12285,7 +12377,9 @@
         <v>1</v>
       </c>
       <c r="H115" s="48"/>
-      <c r="I115" s="112"/>
+      <c r="I115" s="112">
+        <v>-5</v>
+      </c>
       <c r="J115" s="112"/>
       <c r="K115" s="96"/>
       <c r="L115" s="96"/>
@@ -12737,7 +12831,7 @@
       </c>
       <c r="D127" s="44">
         <f t="shared" si="8"/>
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E127" s="44">
         <f t="shared" si="9"/>
@@ -12748,7 +12842,9 @@
         <v>1</v>
       </c>
       <c r="H127" s="24"/>
-      <c r="I127" s="113"/>
+      <c r="I127" s="113">
+        <v>-5</v>
+      </c>
       <c r="J127" s="113"/>
       <c r="K127" s="96">
         <v>-5</v>
@@ -12777,7 +12873,7 @@
       </c>
       <c r="D128" s="44">
         <f t="shared" si="8"/>
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E128" s="44">
         <f t="shared" si="9"/>
@@ -12790,7 +12886,9 @@
         <v>1</v>
       </c>
       <c r="H128" s="14"/>
-      <c r="I128" s="112"/>
+      <c r="I128" s="112">
+        <v>-5</v>
+      </c>
       <c r="J128" s="112"/>
       <c r="K128" s="96">
         <v>15</v>
@@ -16321,11 +16419,11 @@
       </c>
       <c r="D222" s="44">
         <f t="shared" si="16"/>
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E222" s="44">
         <f t="shared" si="17"/>
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F222" s="50" t="s">
         <v>1552</v>
@@ -16334,8 +16432,12 @@
         <v>1</v>
       </c>
       <c r="H222" s="14"/>
-      <c r="I222" s="112"/>
-      <c r="J222" s="112"/>
+      <c r="I222" s="112">
+        <v>-5</v>
+      </c>
+      <c r="J222" s="112">
+        <v>-5</v>
+      </c>
       <c r="K222" s="96"/>
       <c r="L222" s="96"/>
       <c r="M222" s="76"/>
@@ -17607,7 +17709,7 @@
       </c>
       <c r="D256" s="44">
         <f t="shared" si="18"/>
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E256" s="44">
         <f t="shared" si="19"/>
@@ -17620,7 +17722,9 @@
         <v>1</v>
       </c>
       <c r="H256" s="14"/>
-      <c r="I256" s="112"/>
+      <c r="I256" s="112">
+        <v>-5</v>
+      </c>
       <c r="J256" s="112"/>
       <c r="K256" s="96"/>
       <c r="L256" s="96"/>
@@ -18393,7 +18497,7 @@
       </c>
       <c r="D277" s="44">
         <f t="shared" si="18"/>
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E277" s="44">
         <f t="shared" si="19"/>
@@ -18406,7 +18510,9 @@
         <v>1</v>
       </c>
       <c r="H277" s="14"/>
-      <c r="I277" s="112"/>
+      <c r="I277" s="112">
+        <v>-5</v>
+      </c>
       <c r="J277" s="112"/>
       <c r="K277" s="96"/>
       <c r="L277" s="96"/>
@@ -18431,7 +18537,7 @@
       </c>
       <c r="D278" s="44">
         <f t="shared" si="18"/>
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E278" s="44">
         <f t="shared" si="19"/>
@@ -18444,7 +18550,9 @@
         <v>1</v>
       </c>
       <c r="H278" s="14"/>
-      <c r="I278" s="112"/>
+      <c r="I278" s="112">
+        <v>-5</v>
+      </c>
       <c r="J278" s="112"/>
       <c r="K278" s="96"/>
       <c r="L278" s="96"/>
@@ -22467,7 +22575,7 @@
       </c>
       <c r="D385" s="44">
         <f t="shared" si="24"/>
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E385" s="44">
         <f t="shared" si="25"/>
@@ -22478,7 +22586,9 @@
         <v>1</v>
       </c>
       <c r="H385" s="48"/>
-      <c r="I385" s="115"/>
+      <c r="I385" s="115">
+        <v>-5</v>
+      </c>
       <c r="J385" s="115"/>
       <c r="K385" s="96"/>
       <c r="L385" s="96"/>
@@ -24255,19 +24365,23 @@
       </c>
       <c r="D433" s="44">
         <f t="shared" si="28"/>
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E433" s="44">
         <f t="shared" si="29"/>
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="F433" s="47"/>
       <c r="G433" s="47">
         <v>1</v>
       </c>
       <c r="H433" s="14"/>
-      <c r="I433" s="112"/>
-      <c r="J433" s="112"/>
+      <c r="I433" s="112">
+        <v>-5</v>
+      </c>
+      <c r="J433" s="112">
+        <v>-20</v>
+      </c>
       <c r="K433" s="96"/>
       <c r="L433" s="96"/>
       <c r="M433" s="76">
@@ -24333,7 +24447,7 @@
       </c>
       <c r="E435" s="44">
         <f t="shared" si="29"/>
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F435" s="45" t="s">
         <v>552</v>
@@ -24343,7 +24457,9 @@
       </c>
       <c r="H435" s="14"/>
       <c r="I435" s="112"/>
-      <c r="J435" s="112"/>
+      <c r="J435" s="112">
+        <v>-5</v>
+      </c>
       <c r="K435" s="96"/>
       <c r="L435" s="96"/>
       <c r="M435" s="76"/>
@@ -25921,7 +26037,7 @@
       </c>
       <c r="D478" s="44">
         <f t="shared" si="30"/>
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E478" s="44">
         <f t="shared" si="31"/>
@@ -25934,7 +26050,9 @@
         <v>1</v>
       </c>
       <c r="H478" s="52"/>
-      <c r="I478" s="116"/>
+      <c r="I478" s="116">
+        <v>-5</v>
+      </c>
       <c r="J478" s="116"/>
       <c r="K478" s="96">
         <v>-5</v>
@@ -26387,11 +26505,11 @@
       </c>
       <c r="D490" s="44">
         <f t="shared" si="30"/>
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E490" s="44">
         <f t="shared" si="31"/>
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F490" s="47"/>
       <c r="G490" s="47">
@@ -26399,10 +26517,10 @@
       </c>
       <c r="H490" s="14"/>
       <c r="I490" s="129">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="J490" s="129">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="K490" s="96"/>
       <c r="L490" s="96"/>
@@ -27847,7 +27965,7 @@
       </c>
       <c r="D529" s="44">
         <f t="shared" si="36"/>
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E529" s="44">
         <f t="shared" si="37"/>
@@ -27861,7 +27979,7 @@
       </c>
       <c r="H529" s="14"/>
       <c r="I529" s="112">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J529" s="112"/>
       <c r="K529" s="96"/>
@@ -28105,19 +28223,23 @@
       </c>
       <c r="D536" s="44">
         <f t="shared" si="36"/>
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="E536" s="44">
         <f t="shared" si="37"/>
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="F536" s="47"/>
       <c r="G536" s="47">
         <v>1</v>
       </c>
       <c r="H536" s="14"/>
-      <c r="I536" s="112"/>
-      <c r="J536" s="112"/>
+      <c r="I536" s="112">
+        <v>-10</v>
+      </c>
+      <c r="J536" s="112">
+        <v>-10</v>
+      </c>
       <c r="K536" s="96">
         <v>-5</v>
       </c>
@@ -30919,11 +31041,11 @@
       </c>
       <c r="D611" s="44">
         <f t="shared" si="38"/>
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="E611" s="44">
         <f t="shared" si="39"/>
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="F611" s="45" t="s">
         <v>803</v>
@@ -30932,8 +31054,12 @@
         <v>1</v>
       </c>
       <c r="H611" s="48"/>
-      <c r="I611" s="115"/>
-      <c r="J611" s="115"/>
+      <c r="I611" s="115">
+        <v>10</v>
+      </c>
+      <c r="J611" s="115">
+        <v>5</v>
+      </c>
       <c r="K611" s="96"/>
       <c r="L611" s="96"/>
       <c r="M611" s="77"/>
@@ -34315,11 +34441,11 @@
       </c>
       <c r="D702" s="44">
         <f t="shared" ref="D702:D743" si="42">Q702+O702+M702+K702+I702</f>
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E702" s="44">
         <f t="shared" ref="E702:E743" si="43">P702+R702+N702+L702+J702</f>
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F702" s="47"/>
       <c r="G702" s="47">
@@ -34327,9 +34453,11 @@
       </c>
       <c r="H702" s="14"/>
       <c r="I702" s="129">
+        <v>-10</v>
+      </c>
+      <c r="J702" s="112">
         <v>-5</v>
       </c>
-      <c r="J702" s="112"/>
       <c r="K702" s="96"/>
       <c r="L702" s="96"/>
       <c r="M702" s="76"/>
@@ -35119,20 +35247,22 @@
       </c>
       <c r="D724" s="44">
         <f t="shared" si="42"/>
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="E724" s="44">
         <f t="shared" si="43"/>
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F724" s="47"/>
       <c r="G724" s="47">
         <v>1</v>
       </c>
       <c r="H724" s="14"/>
-      <c r="I724" s="112"/>
+      <c r="I724" s="112">
+        <v>15</v>
+      </c>
       <c r="J724" s="112">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K724" s="96">
         <v>-5</v>
@@ -35813,19 +35943,23 @@
       </c>
       <c r="D743" s="44">
         <f t="shared" si="42"/>
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="E743" s="44">
         <f t="shared" si="43"/>
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="F743" s="47"/>
       <c r="G743" s="47">
         <v>1</v>
       </c>
       <c r="H743" s="14"/>
-      <c r="I743" s="112"/>
-      <c r="J743" s="112"/>
+      <c r="I743" s="112">
+        <v>15</v>
+      </c>
+      <c r="J743" s="112">
+        <v>5</v>
+      </c>
       <c r="K743" s="96"/>
       <c r="L743" s="96"/>
       <c r="M743" s="76"/>
@@ -36241,7 +36375,7 @@
       </c>
       <c r="D755" s="44">
         <f t="shared" si="44"/>
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E755" s="44">
         <f t="shared" si="45"/>
@@ -36252,7 +36386,9 @@
         <v>1</v>
       </c>
       <c r="H755" s="14"/>
-      <c r="I755" s="112"/>
+      <c r="I755" s="112">
+        <v>-5</v>
+      </c>
       <c r="J755" s="112"/>
       <c r="K755" s="96"/>
       <c r="L755" s="96"/>
@@ -36423,19 +36559,23 @@
       </c>
       <c r="D760" s="44">
         <f t="shared" si="44"/>
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E760" s="44">
         <f t="shared" si="45"/>
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F760" s="47"/>
       <c r="G760" s="47">
         <v>1</v>
       </c>
       <c r="H760" s="14"/>
-      <c r="I760" s="112"/>
-      <c r="J760" s="112"/>
+      <c r="I760" s="112">
+        <v>-5</v>
+      </c>
+      <c r="J760" s="112">
+        <v>-5</v>
+      </c>
       <c r="K760" s="96"/>
       <c r="L760" s="96"/>
       <c r="M760" s="76">
@@ -37067,11 +37207,11 @@
       </c>
       <c r="D777" s="44">
         <f t="shared" si="44"/>
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="E777" s="44">
         <f t="shared" si="45"/>
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="F777" s="47" t="s">
         <v>1260</v>
@@ -37080,8 +37220,12 @@
         <v>1</v>
       </c>
       <c r="H777" s="14"/>
-      <c r="I777" s="112"/>
-      <c r="J777" s="112"/>
+      <c r="I777" s="112">
+        <v>5</v>
+      </c>
+      <c r="J777" s="112">
+        <v>10</v>
+      </c>
       <c r="K777" s="96"/>
       <c r="L777" s="96"/>
       <c r="M777" s="76"/>
@@ -37861,7 +38005,7 @@
       </c>
       <c r="E798" s="44">
         <f t="shared" si="45"/>
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F798" s="47"/>
       <c r="G798" s="47">
@@ -37869,7 +38013,9 @@
       </c>
       <c r="H798" s="14"/>
       <c r="I798" s="112"/>
-      <c r="J798" s="112"/>
+      <c r="J798" s="112">
+        <v>-10</v>
+      </c>
       <c r="K798" s="96"/>
       <c r="L798" s="96"/>
       <c r="M798" s="76"/>
@@ -38079,7 +38225,7 @@
       </c>
       <c r="D804" s="44">
         <f t="shared" si="44"/>
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E804" s="44">
         <f t="shared" si="45"/>
@@ -38090,7 +38236,9 @@
         <v>1</v>
       </c>
       <c r="H804" s="14"/>
-      <c r="I804" s="112"/>
+      <c r="I804" s="112">
+        <v>-5</v>
+      </c>
       <c r="J804" s="112"/>
       <c r="K804" s="96"/>
       <c r="L804" s="96"/>
@@ -38489,7 +38637,7 @@
       </c>
       <c r="D815" s="44">
         <f t="shared" si="46"/>
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="E815" s="44">
         <f t="shared" si="47"/>
@@ -38500,7 +38648,9 @@
         <v>1</v>
       </c>
       <c r="H815" s="14"/>
-      <c r="I815" s="112"/>
+      <c r="I815" s="112">
+        <v>10</v>
+      </c>
       <c r="J815" s="112"/>
       <c r="K815" s="96"/>
       <c r="L815" s="96"/>
@@ -39051,7 +39201,7 @@
       </c>
       <c r="D830" s="44">
         <f t="shared" si="46"/>
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E830" s="44">
         <f t="shared" si="47"/>
@@ -39062,7 +39212,9 @@
         <v>1</v>
       </c>
       <c r="H830" s="14"/>
-      <c r="I830" s="112"/>
+      <c r="I830" s="112">
+        <v>-5</v>
+      </c>
       <c r="J830" s="112"/>
       <c r="K830" s="96"/>
       <c r="L830" s="96"/>
@@ -39987,7 +40139,7 @@
       </c>
       <c r="D855" s="44">
         <f t="shared" si="46"/>
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E855" s="44">
         <f t="shared" si="47"/>
@@ -40000,7 +40152,9 @@
         <v>1</v>
       </c>
       <c r="H855" s="14"/>
-      <c r="I855" s="112"/>
+      <c r="I855" s="112">
+        <v>-5</v>
+      </c>
       <c r="J855" s="112">
         <v>-10</v>
       </c>
@@ -41829,7 +41983,7 @@
       </c>
       <c r="D905" s="44">
         <f t="shared" si="48"/>
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E905" s="44">
         <f t="shared" si="49"/>
@@ -41841,7 +41995,7 @@
       </c>
       <c r="H905" s="13"/>
       <c r="I905" s="117">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J905" s="117"/>
       <c r="K905" s="96"/>
@@ -41871,7 +42025,7 @@
       </c>
       <c r="D906" s="44">
         <f t="shared" si="48"/>
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E906" s="44">
         <f t="shared" si="49"/>
@@ -41882,7 +42036,9 @@
         <v>1</v>
       </c>
       <c r="H906" s="13"/>
-      <c r="I906" s="117"/>
+      <c r="I906" s="117">
+        <v>-5</v>
+      </c>
       <c r="J906" s="117"/>
       <c r="K906" s="96"/>
       <c r="L906" s="96"/>
@@ -41907,7 +42063,7 @@
       </c>
       <c r="D907" s="44">
         <f t="shared" si="48"/>
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E907" s="44">
         <f t="shared" si="49"/>
@@ -41919,7 +42075,7 @@
       </c>
       <c r="H907" s="13"/>
       <c r="I907" s="117">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J907" s="117"/>
       <c r="K907" s="96">
@@ -41987,19 +42143,23 @@
       </c>
       <c r="D909" s="44">
         <f t="shared" si="48"/>
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="E909" s="44">
         <f t="shared" si="49"/>
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="F909" s="47"/>
       <c r="G909" s="47">
         <v>1</v>
       </c>
       <c r="H909" s="13"/>
-      <c r="I909" s="117"/>
-      <c r="J909" s="117"/>
+      <c r="I909" s="117">
+        <v>10</v>
+      </c>
+      <c r="J909" s="117">
+        <v>20</v>
+      </c>
       <c r="K909" s="96"/>
       <c r="L909" s="96"/>
       <c r="M909" s="76">
@@ -42025,7 +42185,7 @@
       </c>
       <c r="D910" s="44">
         <f t="shared" si="48"/>
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E910" s="44">
         <f t="shared" si="49"/>
@@ -42036,7 +42196,9 @@
         <v>1</v>
       </c>
       <c r="H910" s="13"/>
-      <c r="I910" s="117"/>
+      <c r="I910" s="117">
+        <v>-5</v>
+      </c>
       <c r="J910" s="117"/>
       <c r="K910" s="96"/>
       <c r="L910" s="96"/>
@@ -42133,19 +42295,23 @@
       </c>
       <c r="D913" s="44">
         <f t="shared" si="48"/>
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="E913" s="44">
         <f t="shared" si="49"/>
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="F913" s="47"/>
       <c r="G913" s="47">
         <v>1</v>
       </c>
       <c r="H913" s="13"/>
-      <c r="I913" s="117"/>
-      <c r="J913" s="117"/>
+      <c r="I913" s="117">
+        <v>15</v>
+      </c>
+      <c r="J913" s="117">
+        <v>10</v>
+      </c>
       <c r="K913" s="96"/>
       <c r="L913" s="96"/>
       <c r="M913" s="76"/>
@@ -42595,7 +42761,7 @@
       </c>
       <c r="E925" s="44">
         <f t="shared" si="49"/>
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F925" s="54" t="s">
         <v>1477</v>
@@ -42605,7 +42771,9 @@
       </c>
       <c r="H925" s="55"/>
       <c r="I925" s="118"/>
-      <c r="J925" s="118"/>
+      <c r="J925" s="118">
+        <v>-5</v>
+      </c>
       <c r="K925" s="96"/>
       <c r="L925" s="96"/>
       <c r="M925" s="79">
@@ -43053,7 +43221,7 @@
       </c>
       <c r="D937" s="44">
         <f t="shared" ref="D937:D1000" si="50">Q937+O937+M937+K937+I937</f>
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E937" s="44">
         <f t="shared" ref="E937:E1000" si="51">P937+R937+N937+L937+J937</f>
@@ -43064,7 +43232,9 @@
         <v>1</v>
       </c>
       <c r="H937" s="13"/>
-      <c r="I937" s="117"/>
+      <c r="I937" s="117">
+        <v>5</v>
+      </c>
       <c r="J937" s="117"/>
       <c r="K937" s="96"/>
       <c r="L937" s="96"/>
@@ -43461,7 +43631,7 @@
       </c>
       <c r="E947" s="44">
         <f t="shared" si="51"/>
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F947" s="47"/>
       <c r="G947" s="47">
@@ -43469,7 +43639,9 @@
       </c>
       <c r="H947" s="13"/>
       <c r="I947" s="117"/>
-      <c r="J947" s="117"/>
+      <c r="J947" s="117">
+        <v>-5</v>
+      </c>
       <c r="K947" s="96"/>
       <c r="L947" s="96"/>
       <c r="M947" s="76"/>
@@ -44189,7 +44361,7 @@
       </c>
       <c r="D967" s="44">
         <f t="shared" si="50"/>
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E967" s="44">
         <f t="shared" si="51"/>
@@ -44200,7 +44372,9 @@
         <v>1</v>
       </c>
       <c r="H967" s="13"/>
-      <c r="I967" s="117"/>
+      <c r="I967" s="117">
+        <v>-5</v>
+      </c>
       <c r="J967" s="117"/>
       <c r="K967" s="96"/>
       <c r="L967" s="96"/>
@@ -45153,19 +45327,23 @@
       </c>
       <c r="D993" s="44">
         <f t="shared" si="50"/>
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E993" s="44">
         <f t="shared" si="51"/>
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="F993" s="47"/>
       <c r="G993" s="47">
         <v>1</v>
       </c>
       <c r="H993" s="13"/>
-      <c r="I993" s="117"/>
-      <c r="J993" s="117"/>
+      <c r="I993" s="117">
+        <v>5</v>
+      </c>
+      <c r="J993" s="117">
+        <v>10</v>
+      </c>
       <c r="K993" s="96"/>
       <c r="L993" s="96"/>
       <c r="M993" s="76"/>
@@ -45189,7 +45367,7 @@
       </c>
       <c r="D994" s="44">
         <f t="shared" si="50"/>
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E994" s="44">
         <f t="shared" si="51"/>
@@ -45201,7 +45379,7 @@
       </c>
       <c r="H994" s="13"/>
       <c r="I994" s="117">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J994" s="117">
         <v>10</v>
@@ -46145,11 +46323,11 @@
       </c>
       <c r="D1020" s="44">
         <f t="shared" si="52"/>
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E1020" s="44">
         <f t="shared" si="53"/>
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="F1020" s="47"/>
       <c r="G1020" s="47">
@@ -46157,9 +46335,11 @@
       </c>
       <c r="H1020" s="24"/>
       <c r="I1020" s="113">
+        <v>10</v>
+      </c>
+      <c r="J1020" s="113">
         <v>5</v>
       </c>
-      <c r="J1020" s="113"/>
       <c r="K1020" s="96">
         <v>10</v>
       </c>
@@ -48343,19 +48523,23 @@
       </c>
       <c r="D1080" s="44">
         <f t="shared" si="54"/>
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E1080" s="44">
         <f t="shared" si="55"/>
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F1080" s="34"/>
       <c r="G1080" s="47">
         <v>1</v>
       </c>
       <c r="H1080" s="17"/>
-      <c r="I1080" s="119"/>
-      <c r="J1080" s="119"/>
+      <c r="I1080" s="119">
+        <v>-5</v>
+      </c>
+      <c r="J1080" s="119">
+        <v>-5</v>
+      </c>
       <c r="K1080" s="96">
         <v>-5</v>
       </c>
@@ -50379,7 +50563,7 @@
       </c>
       <c r="D1135" s="44">
         <f t="shared" si="56"/>
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E1135" s="44">
         <f t="shared" si="57"/>
@@ -50390,7 +50574,9 @@
         <v>1</v>
       </c>
       <c r="H1135" s="68"/>
-      <c r="I1135" s="119"/>
+      <c r="I1135" s="119">
+        <v>-5</v>
+      </c>
       <c r="J1135" s="119"/>
       <c r="K1135" s="96">
         <v>-5</v>
@@ -50688,19 +50874,23 @@
       </c>
       <c r="D1143" s="44">
         <f t="shared" si="56"/>
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E1143" s="44">
         <f t="shared" si="57"/>
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F1143" s="66"/>
       <c r="G1143" s="47">
         <v>1</v>
       </c>
       <c r="H1143" s="68"/>
-      <c r="I1143" s="119"/>
-      <c r="J1143" s="119"/>
+      <c r="I1143" s="119">
+        <v>-5</v>
+      </c>
+      <c r="J1143" s="119">
+        <v>-10</v>
+      </c>
       <c r="K1143" s="96"/>
       <c r="L1143" s="96"/>
       <c r="M1143" s="80"/>
@@ -51742,19 +51932,23 @@
       </c>
       <c r="D1172" s="44">
         <f t="shared" si="62"/>
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="E1172" s="44">
         <f t="shared" si="63"/>
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="F1172" s="66"/>
       <c r="G1172" s="47">
         <v>1</v>
       </c>
       <c r="H1172" s="68"/>
-      <c r="I1172" s="119"/>
-      <c r="J1172" s="119"/>
+      <c r="I1172" s="119">
+        <v>15</v>
+      </c>
+      <c r="J1172" s="119">
+        <v>10</v>
+      </c>
       <c r="K1172" s="96"/>
       <c r="L1172" s="96"/>
       <c r="M1172" s="80"/>
@@ -51922,11 +52116,11 @@
       </c>
       <c r="D1177" s="44">
         <f t="shared" si="62"/>
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="E1177" s="44">
         <f t="shared" si="63"/>
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="F1177" s="66"/>
       <c r="G1177" s="47">
@@ -51934,9 +52128,11 @@
       </c>
       <c r="H1177" s="68"/>
       <c r="I1177" s="119">
-        <v>-5</v>
-      </c>
-      <c r="J1177" s="119"/>
+        <v>10</v>
+      </c>
+      <c r="J1177" s="119">
+        <v>5</v>
+      </c>
       <c r="K1177" s="96"/>
       <c r="L1177" s="96"/>
       <c r="M1177" s="80"/>
@@ -53879,7 +54075,7 @@
         <v>615</v>
       </c>
       <c r="E1230" s="44">
-        <f t="shared" ref="E1230:E1237" si="71">P1230+R1230+N1230+L1230+J1230</f>
+        <f t="shared" ref="E1230:E1251" si="71">P1230+R1230+N1230+L1230+J1230</f>
         <v>610</v>
       </c>
       <c r="F1230" s="66"/>
@@ -54130,7 +54326,7 @@
       </c>
       <c r="D1237" s="44">
         <f t="shared" si="70"/>
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E1237" s="44">
         <f t="shared" si="71"/>
@@ -54141,7 +54337,9 @@
         <v>1</v>
       </c>
       <c r="H1237" s="68"/>
-      <c r="I1237" s="119"/>
+      <c r="I1237" s="119">
+        <v>-5</v>
+      </c>
       <c r="J1237" s="119"/>
       <c r="K1237" s="96"/>
       <c r="L1237" s="96"/>
@@ -54154,6 +54352,582 @@
       </c>
       <c r="R1237" s="70">
         <v>700</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1238" s="1">
+        <v>1233</v>
+      </c>
+      <c r="B1238" s="66"/>
+      <c r="C1238" s="67" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D1238" s="44">
+        <f t="shared" ref="D1238:D1253" si="72">Q1238+O1238+M1238+K1238+I1238</f>
+        <v>650</v>
+      </c>
+      <c r="E1238" s="44">
+        <f t="shared" ref="E1238:E1253" si="73">P1238+R1238+N1238+L1238+J1238</f>
+        <v>640</v>
+      </c>
+      <c r="F1238" s="66"/>
+      <c r="G1238" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1238" s="68"/>
+      <c r="I1238" s="119"/>
+      <c r="J1238" s="119"/>
+      <c r="K1238" s="96"/>
+      <c r="L1238" s="96"/>
+      <c r="M1238" s="80"/>
+      <c r="N1238" s="80"/>
+      <c r="O1238" s="69"/>
+      <c r="P1238" s="69"/>
+      <c r="Q1238" s="70">
+        <v>650</v>
+      </c>
+      <c r="R1238" s="70">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1239" s="1">
+        <v>1234</v>
+      </c>
+      <c r="B1239" s="66"/>
+      <c r="C1239" s="67" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D1239" s="44">
+        <f t="shared" si="72"/>
+        <v>590</v>
+      </c>
+      <c r="E1239" s="44">
+        <f t="shared" si="73"/>
+        <v>585</v>
+      </c>
+      <c r="F1239" s="66"/>
+      <c r="G1239" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1239" s="68"/>
+      <c r="I1239" s="119"/>
+      <c r="J1239" s="119"/>
+      <c r="K1239" s="96"/>
+      <c r="L1239" s="96"/>
+      <c r="M1239" s="80"/>
+      <c r="N1239" s="80"/>
+      <c r="O1239" s="69"/>
+      <c r="P1239" s="69"/>
+      <c r="Q1239" s="70">
+        <v>590</v>
+      </c>
+      <c r="R1239" s="70">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1240" s="1">
+        <v>1235</v>
+      </c>
+      <c r="B1240" s="66"/>
+      <c r="C1240" s="67" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D1240" s="44">
+        <f t="shared" si="72"/>
+        <v>670</v>
+      </c>
+      <c r="E1240" s="44">
+        <f t="shared" si="73"/>
+        <v>660</v>
+      </c>
+      <c r="F1240" s="66"/>
+      <c r="G1240" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1240" s="68"/>
+      <c r="I1240" s="119"/>
+      <c r="J1240" s="119"/>
+      <c r="K1240" s="96"/>
+      <c r="L1240" s="96"/>
+      <c r="M1240" s="80"/>
+      <c r="N1240" s="80"/>
+      <c r="O1240" s="69"/>
+      <c r="P1240" s="69"/>
+      <c r="Q1240" s="70">
+        <v>670</v>
+      </c>
+      <c r="R1240" s="70">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1241" s="1">
+        <v>1236</v>
+      </c>
+      <c r="B1241" s="66"/>
+      <c r="C1241" s="67" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D1241" s="44">
+        <f t="shared" si="72"/>
+        <v>660</v>
+      </c>
+      <c r="E1241" s="44">
+        <f t="shared" si="73"/>
+        <v>650</v>
+      </c>
+      <c r="F1241" s="66"/>
+      <c r="G1241" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1241" s="68"/>
+      <c r="I1241" s="119"/>
+      <c r="J1241" s="119"/>
+      <c r="K1241" s="96"/>
+      <c r="L1241" s="96"/>
+      <c r="M1241" s="80"/>
+      <c r="N1241" s="80"/>
+      <c r="O1241" s="69"/>
+      <c r="P1241" s="69"/>
+      <c r="Q1241" s="70">
+        <v>660</v>
+      </c>
+      <c r="R1241" s="70">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1242" s="1">
+        <v>1237</v>
+      </c>
+      <c r="B1242" s="66"/>
+      <c r="C1242" s="67" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D1242" s="44">
+        <f t="shared" si="72"/>
+        <v>635</v>
+      </c>
+      <c r="E1242" s="44">
+        <f t="shared" si="73"/>
+        <v>620</v>
+      </c>
+      <c r="F1242" s="66"/>
+      <c r="G1242" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1242" s="68"/>
+      <c r="I1242" s="119"/>
+      <c r="J1242" s="119"/>
+      <c r="K1242" s="96"/>
+      <c r="L1242" s="96"/>
+      <c r="M1242" s="80"/>
+      <c r="N1242" s="80"/>
+      <c r="O1242" s="69"/>
+      <c r="P1242" s="69"/>
+      <c r="Q1242" s="70">
+        <v>635</v>
+      </c>
+      <c r="R1242" s="70">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1243" s="1">
+        <v>1238</v>
+      </c>
+      <c r="B1243" s="66"/>
+      <c r="C1243" s="67" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D1243" s="44">
+        <f t="shared" si="72"/>
+        <v>595</v>
+      </c>
+      <c r="E1243" s="44">
+        <f t="shared" si="73"/>
+        <v>590</v>
+      </c>
+      <c r="F1243" s="66"/>
+      <c r="G1243" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1243" s="68"/>
+      <c r="I1243" s="119"/>
+      <c r="J1243" s="119"/>
+      <c r="K1243" s="96"/>
+      <c r="L1243" s="96"/>
+      <c r="M1243" s="80"/>
+      <c r="N1243" s="80"/>
+      <c r="O1243" s="69"/>
+      <c r="P1243" s="69"/>
+      <c r="Q1243" s="70">
+        <v>595</v>
+      </c>
+      <c r="R1243" s="70">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1244" s="1">
+        <v>1239</v>
+      </c>
+      <c r="B1244" s="66"/>
+      <c r="C1244" s="67" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D1244" s="44">
+        <f t="shared" si="72"/>
+        <v>590</v>
+      </c>
+      <c r="E1244" s="44">
+        <f t="shared" si="73"/>
+        <v>585</v>
+      </c>
+      <c r="F1244" s="66"/>
+      <c r="G1244" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1244" s="68"/>
+      <c r="I1244" s="119"/>
+      <c r="J1244" s="119"/>
+      <c r="K1244" s="96"/>
+      <c r="L1244" s="96"/>
+      <c r="M1244" s="80"/>
+      <c r="N1244" s="80"/>
+      <c r="O1244" s="69"/>
+      <c r="P1244" s="69"/>
+      <c r="Q1244" s="70">
+        <v>590</v>
+      </c>
+      <c r="R1244" s="70">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1245" s="1">
+        <v>1240</v>
+      </c>
+      <c r="B1245" s="66"/>
+      <c r="C1245" s="67" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D1245" s="44">
+        <f t="shared" si="72"/>
+        <v>610</v>
+      </c>
+      <c r="E1245" s="44">
+        <f t="shared" si="73"/>
+        <v>600</v>
+      </c>
+      <c r="F1245" s="66"/>
+      <c r="G1245" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1245" s="68"/>
+      <c r="I1245" s="119"/>
+      <c r="J1245" s="119"/>
+      <c r="K1245" s="96"/>
+      <c r="L1245" s="96"/>
+      <c r="M1245" s="80"/>
+      <c r="N1245" s="80"/>
+      <c r="O1245" s="69"/>
+      <c r="P1245" s="69"/>
+      <c r="Q1245" s="70">
+        <v>610</v>
+      </c>
+      <c r="R1245" s="70">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1246" s="1">
+        <v>1241</v>
+      </c>
+      <c r="B1246" s="66"/>
+      <c r="C1246" s="67" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D1246" s="44">
+        <f t="shared" si="72"/>
+        <v>605</v>
+      </c>
+      <c r="E1246" s="44">
+        <f t="shared" si="73"/>
+        <v>600</v>
+      </c>
+      <c r="F1246" s="66"/>
+      <c r="G1246" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1246" s="68"/>
+      <c r="I1246" s="119"/>
+      <c r="J1246" s="119"/>
+      <c r="K1246" s="96"/>
+      <c r="L1246" s="96"/>
+      <c r="M1246" s="80"/>
+      <c r="N1246" s="80"/>
+      <c r="O1246" s="69"/>
+      <c r="P1246" s="69"/>
+      <c r="Q1246" s="70">
+        <v>605</v>
+      </c>
+      <c r="R1246" s="70">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1247" s="1">
+        <v>1242</v>
+      </c>
+      <c r="B1247" s="66"/>
+      <c r="C1247" s="67" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D1247" s="44">
+        <f t="shared" si="72"/>
+        <v>605</v>
+      </c>
+      <c r="E1247" s="44">
+        <f t="shared" si="73"/>
+        <v>600</v>
+      </c>
+      <c r="F1247" s="66"/>
+      <c r="G1247" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1247" s="68"/>
+      <c r="I1247" s="119"/>
+      <c r="J1247" s="119"/>
+      <c r="K1247" s="96"/>
+      <c r="L1247" s="96"/>
+      <c r="M1247" s="80"/>
+      <c r="N1247" s="80"/>
+      <c r="O1247" s="69"/>
+      <c r="P1247" s="69"/>
+      <c r="Q1247" s="70">
+        <v>605</v>
+      </c>
+      <c r="R1247" s="70">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1248" s="1">
+        <v>1243</v>
+      </c>
+      <c r="B1248" s="66"/>
+      <c r="C1248" s="67" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D1248" s="44">
+        <f t="shared" si="72"/>
+        <v>600</v>
+      </c>
+      <c r="E1248" s="44">
+        <f t="shared" si="73"/>
+        <v>595</v>
+      </c>
+      <c r="F1248" s="66"/>
+      <c r="G1248" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1248" s="68"/>
+      <c r="I1248" s="119"/>
+      <c r="J1248" s="119"/>
+      <c r="K1248" s="96"/>
+      <c r="L1248" s="96"/>
+      <c r="M1248" s="80"/>
+      <c r="N1248" s="80"/>
+      <c r="O1248" s="69"/>
+      <c r="P1248" s="69"/>
+      <c r="Q1248" s="70">
+        <v>600</v>
+      </c>
+      <c r="R1248" s="70">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1249" s="1">
+        <v>1244</v>
+      </c>
+      <c r="B1249" s="66"/>
+      <c r="C1249" s="67" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D1249" s="44">
+        <f t="shared" si="72"/>
+        <v>595</v>
+      </c>
+      <c r="E1249" s="44">
+        <f t="shared" si="73"/>
+        <v>590</v>
+      </c>
+      <c r="F1249" s="66"/>
+      <c r="G1249" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1249" s="68"/>
+      <c r="I1249" s="119"/>
+      <c r="J1249" s="119"/>
+      <c r="K1249" s="96"/>
+      <c r="L1249" s="96"/>
+      <c r="M1249" s="80"/>
+      <c r="N1249" s="80"/>
+      <c r="O1249" s="69"/>
+      <c r="P1249" s="69"/>
+      <c r="Q1249" s="70">
+        <v>595</v>
+      </c>
+      <c r="R1249" s="70">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1250" s="1">
+        <v>1245</v>
+      </c>
+      <c r="B1250" s="66"/>
+      <c r="C1250" s="67" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D1250" s="44">
+        <f t="shared" si="72"/>
+        <v>590</v>
+      </c>
+      <c r="E1250" s="44">
+        <f t="shared" si="73"/>
+        <v>585</v>
+      </c>
+      <c r="F1250" s="66"/>
+      <c r="G1250" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1250" s="68"/>
+      <c r="I1250" s="119"/>
+      <c r="J1250" s="119"/>
+      <c r="K1250" s="96"/>
+      <c r="L1250" s="96"/>
+      <c r="M1250" s="80"/>
+      <c r="N1250" s="80"/>
+      <c r="O1250" s="69"/>
+      <c r="P1250" s="69"/>
+      <c r="Q1250" s="70">
+        <v>590</v>
+      </c>
+      <c r="R1250" s="70">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1251" s="1">
+        <v>1246</v>
+      </c>
+      <c r="B1251" s="66"/>
+      <c r="C1251" s="67" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D1251" s="44">
+        <f t="shared" si="72"/>
+        <v>685</v>
+      </c>
+      <c r="E1251" s="44">
+        <f t="shared" si="73"/>
+        <v>670</v>
+      </c>
+      <c r="F1251" s="66"/>
+      <c r="G1251" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1251" s="68"/>
+      <c r="I1251" s="119"/>
+      <c r="J1251" s="119"/>
+      <c r="K1251" s="96"/>
+      <c r="L1251" s="96"/>
+      <c r="M1251" s="80"/>
+      <c r="N1251" s="80"/>
+      <c r="O1251" s="69"/>
+      <c r="P1251" s="69"/>
+      <c r="Q1251" s="70">
+        <v>685</v>
+      </c>
+      <c r="R1251" s="70">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1252" s="1">
+        <v>1247</v>
+      </c>
+      <c r="B1252" s="66"/>
+      <c r="C1252" s="67" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D1252" s="44">
+        <f t="shared" si="72"/>
+        <v>640</v>
+      </c>
+      <c r="E1252" s="44">
+        <f t="shared" si="73"/>
+        <v>630</v>
+      </c>
+      <c r="F1252" s="66"/>
+      <c r="G1252" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1252" s="68"/>
+      <c r="I1252" s="119"/>
+      <c r="J1252" s="119"/>
+      <c r="K1252" s="96"/>
+      <c r="L1252" s="96"/>
+      <c r="M1252" s="80"/>
+      <c r="N1252" s="80"/>
+      <c r="O1252" s="69"/>
+      <c r="P1252" s="69"/>
+      <c r="Q1252" s="70">
+        <v>640</v>
+      </c>
+      <c r="R1252" s="70">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1253" s="1">
+        <v>1248</v>
+      </c>
+      <c r="B1253" s="66"/>
+      <c r="C1253" s="67" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D1253" s="44">
+        <f t="shared" si="72"/>
+        <v>640</v>
+      </c>
+      <c r="E1253" s="44">
+        <f t="shared" si="73"/>
+        <v>630</v>
+      </c>
+      <c r="F1253" s="66"/>
+      <c r="G1253" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1253" s="68"/>
+      <c r="I1253" s="119"/>
+      <c r="J1253" s="119"/>
+      <c r="K1253" s="96"/>
+      <c r="L1253" s="96"/>
+      <c r="M1253" s="80"/>
+      <c r="N1253" s="80"/>
+      <c r="O1253" s="69"/>
+      <c r="P1253" s="69"/>
+      <c r="Q1253" s="70">
+        <v>640</v>
+      </c>
+      <c r="R1253" s="70">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -54167,7 +54941,7 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="Q4:R4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1238:C1048576 C1:C3">
+  <conditionalFormatting sqref="C1254:C1048576 C1:C3">
     <cfRule type="duplicateValues" dxfId="10" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
@@ -54191,7 +54965,7 @@
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1059:C1149 C1151:C1237">
+  <conditionalFormatting sqref="C1059:C1149 C1151:C1253">
     <cfRule type="duplicateValues" dxfId="2" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C160 C987:C1149 C965:C985 C888:C963 C792:C886 C775:C790 C745:C773 C741:C743 C707:C739 C497:C705 C474:C495 C444:C472 C388:C442 C359:C386 C324:C357 C312:C322 C296:C310 C288:C294 C282:C286 C276:C280 C252:C274 C247:C250 C224:C245 C197:C222 C162:C195 C1151:C1048576">

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A652F60E-8EDC-8843-AB33-B44F89C6B35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEAC20E-1370-B94B-8841-313E414810F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1917">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5819,6 +5819,9 @@
   </si>
   <si>
     <t>Khôi Q2</t>
+  </si>
+  <si>
+    <t>Nghị Nho CT</t>
   </si>
 </sst>
 </file>
@@ -7943,11 +7946,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U1253"/>
+  <dimension ref="A1:U1254"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A1229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1237" sqref="R1237"/>
+      <pane ySplit="5" topLeftCell="A1232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1254" sqref="S1254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30505,11 +30508,11 @@
       </c>
       <c r="D597" s="44">
         <f t="shared" si="38"/>
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E597" s="44">
         <f t="shared" si="39"/>
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F597" s="45" t="s">
         <v>781</v>
@@ -30518,8 +30521,12 @@
         <v>1</v>
       </c>
       <c r="H597" s="14"/>
-      <c r="I597" s="112"/>
-      <c r="J597" s="112"/>
+      <c r="I597" s="112">
+        <v>-5</v>
+      </c>
+      <c r="J597" s="112">
+        <v>-5</v>
+      </c>
       <c r="K597" s="96">
         <v>-5</v>
       </c>
@@ -32685,7 +32692,7 @@
       </c>
       <c r="D655" s="44">
         <f t="shared" si="40"/>
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E655" s="44">
         <f t="shared" si="41"/>
@@ -32698,7 +32705,9 @@
         <v>1</v>
       </c>
       <c r="H655" s="14"/>
-      <c r="I655" s="112"/>
+      <c r="I655" s="112">
+        <v>-5</v>
+      </c>
       <c r="J655" s="112"/>
       <c r="K655" s="96"/>
       <c r="L655" s="96"/>
@@ -54075,7 +54084,7 @@
         <v>615</v>
       </c>
       <c r="E1230" s="44">
-        <f t="shared" ref="E1230:E1251" si="71">P1230+R1230+N1230+L1230+J1230</f>
+        <f t="shared" ref="E1230:E1237" si="71">P1230+R1230+N1230+L1230+J1230</f>
         <v>610</v>
       </c>
       <c r="F1230" s="66"/>
@@ -54930,6 +54939,42 @@
         <v>630</v>
       </c>
     </row>
+    <row r="1254" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1254" s="1">
+        <v>1249</v>
+      </c>
+      <c r="B1254" s="66"/>
+      <c r="C1254" s="67" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D1254" s="44">
+        <f t="shared" ref="D1254" si="74">Q1254+O1254+M1254+K1254+I1254</f>
+        <v>620</v>
+      </c>
+      <c r="E1254" s="44">
+        <f t="shared" ref="E1254" si="75">P1254+R1254+N1254+L1254+J1254</f>
+        <v>610</v>
+      </c>
+      <c r="F1254" s="66"/>
+      <c r="G1254" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1254" s="68"/>
+      <c r="I1254" s="119"/>
+      <c r="J1254" s="119"/>
+      <c r="K1254" s="96"/>
+      <c r="L1254" s="96"/>
+      <c r="M1254" s="80"/>
+      <c r="N1254" s="80"/>
+      <c r="O1254" s="69"/>
+      <c r="P1254" s="69"/>
+      <c r="Q1254" s="70">
+        <v>620</v>
+      </c>
+      <c r="R1254" s="70">
+        <v>610</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
   <autoFilter ref="A4:J1230" xr:uid="{00000000-0001-0000-0100-000000000000}">
@@ -54941,7 +54986,7 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="Q4:R4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1254:C1048576 C1:C3">
+  <conditionalFormatting sqref="C1255:C1048576 C1:C3">
     <cfRule type="duplicateValues" dxfId="10" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
@@ -54965,7 +55010,7 @@
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1059:C1149 C1151:C1253">
+  <conditionalFormatting sqref="C1059:C1149 C1151:C1254">
     <cfRule type="duplicateValues" dxfId="2" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C160 C987:C1149 C965:C985 C888:C963 C792:C886 C775:C790 C745:C773 C741:C743 C707:C739 C497:C705 C474:C495 C444:C472 C388:C442 C359:C386 C324:C357 C312:C322 C296:C310 C288:C294 C282:C286 C276:C280 C252:C274 C247:C250 C224:C245 C197:C222 C162:C195 C1151:C1048576">
@@ -54978,7 +55023,7 @@
   </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="D6:E743 D1208:E1221 D1222:E1229 D1230:E1230 D745:E860 D1166:E1191 E1165 D1193:E1204 D1163:E1164 D1206:E1207 D862:E1161" unlockedFormula="1"/>
-    <ignoredError sqref="F6:F1208 F1210:F1229 F1231:F1304" numberStoredAsText="1"/>
+    <ignoredError sqref="F6:F1208 F1210:F1229 F1231:F1253 F1255:F1304" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEAC20E-1370-B94B-8841-313E414810F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A761DCC-B647-B048-B214-0F212B02CFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7949,8 +7949,8 @@
   <dimension ref="A1:U1254"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A1232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1254" sqref="S1254"/>
+      <pane ySplit="5" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I166" sqref="I166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14264,7 +14264,7 @@
       </c>
       <c r="D165" s="44">
         <f t="shared" si="14"/>
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E165" s="44">
         <f t="shared" si="15"/>
@@ -14275,7 +14275,9 @@
         <v>1</v>
       </c>
       <c r="H165" s="14"/>
-      <c r="I165" s="112"/>
+      <c r="I165" s="112">
+        <v>-5</v>
+      </c>
       <c r="J165" s="112"/>
       <c r="K165" s="96">
         <v>-5</v>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A761DCC-B647-B048-B214-0F212B02CFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3156FC-9EAE-EC4E-9FF5-051AE5D53897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1918">
   <si>
     <t>BẢNG ĐIỂM DIỄN ĐÀN TENNIS BẮC TRUNG NAM</t>
   </si>
@@ -5822,6 +5822,9 @@
   </si>
   <si>
     <t>Nghị Nho CT</t>
+  </si>
+  <si>
+    <t>Tý sản</t>
   </si>
 </sst>
 </file>
@@ -7946,11 +7949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U1254"/>
+  <dimension ref="A1:U1255"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I166" sqref="I166"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A1237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1254" sqref="G1254:G1255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -54950,11 +54953,11 @@
         <v>1916</v>
       </c>
       <c r="D1254" s="44">
-        <f t="shared" ref="D1254" si="74">Q1254+O1254+M1254+K1254+I1254</f>
+        <f t="shared" ref="D1254:D1255" si="74">Q1254+O1254+M1254+K1254+I1254</f>
         <v>620</v>
       </c>
       <c r="E1254" s="44">
-        <f t="shared" ref="E1254" si="75">P1254+R1254+N1254+L1254+J1254</f>
+        <f t="shared" ref="E1254:E1255" si="75">P1254+R1254+N1254+L1254+J1254</f>
         <v>610</v>
       </c>
       <c r="F1254" s="66"/>
@@ -54977,6 +54980,42 @@
         <v>610</v>
       </c>
     </row>
+    <row r="1255" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1255" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B1255" s="66"/>
+      <c r="C1255" s="67" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D1255" s="44">
+        <f t="shared" si="74"/>
+        <v>675</v>
+      </c>
+      <c r="E1255" s="44">
+        <f t="shared" si="75"/>
+        <v>670</v>
+      </c>
+      <c r="F1255" s="66"/>
+      <c r="G1255" s="47">
+        <v>1</v>
+      </c>
+      <c r="H1255" s="68"/>
+      <c r="I1255" s="119"/>
+      <c r="J1255" s="119"/>
+      <c r="K1255" s="96"/>
+      <c r="L1255" s="96"/>
+      <c r="M1255" s="80"/>
+      <c r="N1255" s="80"/>
+      <c r="O1255" s="69"/>
+      <c r="P1255" s="69"/>
+      <c r="Q1255" s="70">
+        <v>675</v>
+      </c>
+      <c r="R1255" s="70">
+        <v>670</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
   <autoFilter ref="A4:J1230" xr:uid="{00000000-0001-0000-0100-000000000000}">
@@ -54988,7 +55027,7 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="Q4:R4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1255:C1048576 C1:C3">
+  <conditionalFormatting sqref="C1256:C1048576 C1:C3">
     <cfRule type="duplicateValues" dxfId="10" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
@@ -55012,7 +55051,7 @@
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1059:C1149 C1151:C1254">
+  <conditionalFormatting sqref="C1059:C1149 C1151:C1255">
     <cfRule type="duplicateValues" dxfId="2" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C160 C987:C1149 C965:C985 C888:C963 C792:C886 C775:C790 C745:C773 C741:C743 C707:C739 C497:C705 C474:C495 C444:C472 C388:C442 C359:C386 C324:C357 C312:C322 C296:C310 C288:C294 C282:C286 C276:C280 C252:C274 C247:C250 C224:C245 C197:C222 C162:C195 C1151:C1048576">
@@ -55035,9 +55074,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J1:J1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -58507,7 +58546,7 @@
       </c>
       <c r="D92" s="84">
         <f t="shared" si="4"/>
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E92" s="84">
         <f t="shared" si="5"/>
@@ -58519,7 +58558,9 @@
       <c r="G92" s="85">
         <v>1</v>
       </c>
-      <c r="H92" s="123"/>
+      <c r="H92" s="123">
+        <v>-5</v>
+      </c>
       <c r="I92" s="123"/>
       <c r="J92" s="47"/>
       <c r="K92" s="86"/>

--- a/scripts/data.xlsx
+++ b/scripts/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duongital/Programming/node/dflyapp/tennis-btn/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3156FC-9EAE-EC4E-9FF5-051AE5D53897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9CC1E5-39FC-3B4B-9357-52411A855031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="760" windowWidth="29080" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nam" sheetId="1" r:id="rId1"/>
@@ -7951,9 +7951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U1255"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A1237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1254" sqref="G1254:G1255"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A896" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J908" sqref="J908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -42081,7 +42081,7 @@
       </c>
       <c r="E907" s="44">
         <f t="shared" si="49"/>
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F907" s="47"/>
       <c r="G907" s="47">
@@ -42091,7 +42091,9 @@
       <c r="I907" s="117">
         <v>0</v>
       </c>
-      <c r="J907" s="117"/>
+      <c r="J907" s="117">
+        <v>-5</v>
+      </c>
       <c r="K907" s="96">
         <v>5</v>
       </c>
@@ -55074,7 +55076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
